--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>歌名</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>BV1em4y1q77P&amp;p=11</t>
+  </si>
+  <si>
+    <t>心愿便利贴</t>
+  </si>
+  <si>
+    <t>元若蓝/吴忠明</t>
+  </si>
+  <si>
+    <t>BV16e411k7ei</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1335,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8018018018018" defaultRowHeight="14.1" outlineLevelCol="4"/>
@@ -1537,11 +1546,19 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5"/>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>歌名</t>
   </si>
@@ -173,6 +173,39 @@
   </si>
   <si>
     <t>BV16e411k7ei</t>
+  </si>
+  <si>
+    <t>活动小丑/からくりピエロ</t>
+  </si>
+  <si>
+    <t>初音ミク</t>
+  </si>
+  <si>
+    <t>术力口</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=1</t>
+  </si>
+  <si>
+    <t>孑然妒火/独りんぼエンヴィー</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=4</t>
+  </si>
+  <si>
+    <t>蜜月·Un·Deux·Trois</t>
+  </si>
+  <si>
+    <t>鏡音リン</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=5</t>
+  </si>
+  <si>
+    <t>恋爱裁判</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=6</t>
   </si>
 </sst>
 </file>
@@ -1333,9 +1366,9 @@
   <dimension ref="A1:E1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8018018018018" defaultRowHeight="14.1" outlineLevelCol="4"/>
@@ -1561,32 +1594,72 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5"/>
@@ -1612,8 +1685,7 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5"/>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28165" windowHeight="14725"/>
+    <workbookView windowWidth="13545" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>歌名</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>BV1ec411g7Yn&amp;p=6</t>
+  </si>
+  <si>
+    <t>还是会寂寞</t>
+  </si>
+  <si>
+    <t>陈绮贞</t>
   </si>
 </sst>
 </file>
@@ -1368,15 +1374,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8018018018018" defaultRowHeight="14.1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.6756756756757" customWidth="1"/>
-    <col min="2" max="2" width="22.9459459459459" customWidth="1"/>
-    <col min="4" max="4" width="45.9459459459459" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.4954954954955" customWidth="1"/>
+    <col min="1" max="1" width="30.675" customWidth="1"/>
+    <col min="2" max="2" width="22.95" customWidth="1"/>
+    <col min="4" max="4" width="45.95" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.4916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1501,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="14.15" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1662,9 +1668,15 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
@@ -7793,7 +7805,7 @@
       <c r="D895" s="10"/>
       <c r="E895" s="7"/>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" ht="14.25" spans="1:5">
       <c r="A896" s="22"/>
       <c r="B896" s="22"/>
       <c r="C896" s="9"/>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="13665"/>
+    <workbookView windowWidth="18555" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>歌名</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>陈绮贞</t>
+  </si>
+  <si>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>BV1764y157Ek&amp;p=1</t>
   </si>
 </sst>
 </file>
@@ -1372,9 +1378,9 @@
   <dimension ref="A1:E1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1681,11 +1687,21 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5"/>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>歌名</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>BV1764y157Ek&amp;p=1</t>
+  </si>
+  <si>
+    <t>悬铃木</t>
+  </si>
+  <si>
+    <t>BV1764y157Ek&amp;p=2</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1386,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1703,17 +1709,28 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:5">
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5"/>
@@ -8992,7 +9009,7 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C20 C21:C22 C23:C1048576">
       <formula1>"国语,日语,英语"</formula1>
     </dataValidation>
   </dataValidations>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18555" windowHeight="10035"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1062</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1061</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="196">
   <si>
     <t>歌名</t>
   </si>
@@ -47,34 +47,253 @@
     <t>投稿歌切BV号</t>
   </si>
   <si>
+    <t>And I'm home</t>
+  </si>
+  <si>
+    <t>喜多村英梨/野中蓝</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>Beautiful World</t>
+  </si>
+  <si>
+    <t>宇多田光</t>
+  </si>
+  <si>
+    <t>From Y to Y</t>
+  </si>
+  <si>
+    <t>初音ミク</t>
+  </si>
+  <si>
+    <t>术力口</t>
+  </si>
+  <si>
+    <t>Glow</t>
+  </si>
+  <si>
+    <t>Letting go</t>
+  </si>
+  <si>
+    <t>蔡健雅</t>
+  </si>
+  <si>
+    <t>国语</t>
+  </si>
+  <si>
+    <t>BV1em4y1q77P&amp;p=14</t>
+  </si>
+  <si>
+    <t>The Show</t>
+  </si>
+  <si>
+    <t>Lenka</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>BV1bV4y1h7vJ</t>
+  </si>
+  <si>
+    <t>Who Is Your Girl</t>
+  </si>
+  <si>
+    <t>SNH48</t>
+  </si>
+  <si>
     <t>阿拉斯加海湾</t>
   </si>
   <si>
     <t>蓝心羽</t>
   </si>
   <si>
-    <t>国语</t>
-  </si>
-  <si>
     <t>BV1au4y127Vn</t>
   </si>
   <si>
+    <t>熬夜上瘾</t>
+  </si>
+  <si>
+    <t>刘亦心</t>
+  </si>
+  <si>
+    <t>白鸽</t>
+  </si>
+  <si>
+    <t>你的上好佳</t>
+  </si>
+  <si>
+    <t>宝贝</t>
+  </si>
+  <si>
+    <t>张悬</t>
+  </si>
+  <si>
+    <t>背对背拥抱</t>
+  </si>
+  <si>
+    <t>林俊杰</t>
+  </si>
+  <si>
+    <t>别再问我什么是迪斯科</t>
+  </si>
+  <si>
+    <t>张蔷</t>
+  </si>
+  <si>
+    <t>别找我麻烦</t>
+  </si>
+  <si>
+    <t>不怕</t>
+  </si>
+  <si>
+    <t>赵蓓/赵蕾</t>
+  </si>
+  <si>
+    <t>不再联系</t>
+  </si>
+  <si>
+    <t>夏天Alex</t>
+  </si>
+  <si>
+    <t>不醉不会</t>
+  </si>
+  <si>
+    <t>田馥甄</t>
+  </si>
+  <si>
+    <t>彩虹的微笑</t>
+  </si>
+  <si>
+    <t>王心凌</t>
+  </si>
+  <si>
+    <t>撑腰</t>
+  </si>
+  <si>
+    <t>罗志祥</t>
+  </si>
+  <si>
+    <t>触电</t>
+  </si>
+  <si>
+    <t>S.H.E</t>
+  </si>
+  <si>
+    <t>达尔文</t>
+  </si>
+  <si>
+    <t>大眠</t>
+  </si>
+  <si>
+    <t>单相思／カタオモイ</t>
+  </si>
+  <si>
+    <t>Aimer</t>
+  </si>
+  <si>
+    <t>BV1em4y1q77P&amp;p=8</t>
+  </si>
+  <si>
+    <t>第二杯半价</t>
+  </si>
+  <si>
+    <t>纳豆nado</t>
+  </si>
+  <si>
+    <t>电台情歌</t>
+  </si>
+  <si>
+    <t>莫文蔚</t>
+  </si>
+  <si>
+    <t>飞鸟和蝉</t>
+  </si>
+  <si>
+    <t>任然</t>
+  </si>
+  <si>
+    <t>够爱</t>
+  </si>
+  <si>
+    <t>东城卫</t>
+  </si>
+  <si>
+    <t>孤单心事</t>
+  </si>
+  <si>
+    <t>蓝又时</t>
+  </si>
+  <si>
+    <t>还是会寂寞</t>
+  </si>
+  <si>
+    <t>陈绮贞</t>
+  </si>
+  <si>
+    <t>海底</t>
+  </si>
+  <si>
+    <t>凤凰传奇</t>
+  </si>
+  <si>
+    <t>黑夜问白天</t>
+  </si>
+  <si>
+    <t>红日</t>
+  </si>
+  <si>
+    <t>李克勤</t>
+  </si>
+  <si>
+    <t>红色高跟鞋</t>
+  </si>
+  <si>
     <t>化作樱花树</t>
   </si>
   <si>
-    <t>SNH48</t>
-  </si>
-  <si>
     <t>河曲</t>
   </si>
   <si>
     <t>BV15g4y1N7Mw</t>
   </si>
   <si>
-    <t>红色高跟鞋</t>
-  </si>
-  <si>
-    <t>蔡健雅</t>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>BV1764y157Ek&amp;p=1</t>
+  </si>
+  <si>
+    <t>活动小丑/からくりピエロ</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=1</t>
+  </si>
+  <si>
+    <t>火红的萨日朗</t>
+  </si>
+  <si>
+    <t>乌兰托娅</t>
+  </si>
+  <si>
+    <t>嘉宾</t>
+  </si>
+  <si>
+    <t>张远</t>
+  </si>
+  <si>
+    <t>简单爱</t>
+  </si>
+  <si>
+    <t>周杰伦</t>
+  </si>
+  <si>
+    <t>孑然妒火/独りんぼエンヴィー</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=4</t>
   </si>
   <si>
     <t>就让这大雨全都落下</t>
@@ -86,10 +305,121 @@
     <t>BV1E8411Z76N</t>
   </si>
   <si>
-    <t>Letting go</t>
-  </si>
-  <si>
-    <t>BV1em4y1q77P&amp;p=14</t>
+    <t>可惜没如果</t>
+  </si>
+  <si>
+    <t>刻在我心底的名字</t>
+  </si>
+  <si>
+    <t>卢广仲</t>
+  </si>
+  <si>
+    <t>快点告诉你</t>
+  </si>
+  <si>
+    <t>苑冉</t>
+  </si>
+  <si>
+    <t>快乐的扑满</t>
+  </si>
+  <si>
+    <t>邵丽棠</t>
+  </si>
+  <si>
+    <t>恋爱裁判</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=6</t>
+  </si>
+  <si>
+    <t>梁山伯与茱丽叶</t>
+  </si>
+  <si>
+    <t>卓文萱/曹格</t>
+  </si>
+  <si>
+    <t>猎梦</t>
+  </si>
+  <si>
+    <t>流年</t>
+  </si>
+  <si>
+    <t>王菲</t>
+  </si>
+  <si>
+    <t>旅行的意义</t>
+  </si>
+  <si>
+    <t>麦乐鸡</t>
+  </si>
+  <si>
+    <t>桐夜toya</t>
+  </si>
+  <si>
+    <t>眉飞色舞</t>
+  </si>
+  <si>
+    <t>郑秀文</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+  </si>
+  <si>
+    <t>BV1em4y1q77P&amp;p=11</t>
+  </si>
+  <si>
+    <t>梦的光点</t>
+  </si>
+  <si>
+    <t>秘密</t>
+  </si>
+  <si>
+    <t>蜜月·Un·Deux·Trois</t>
+  </si>
+  <si>
+    <t>鏡音リン</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=5</t>
+  </si>
+  <si>
+    <t>漠河舞厅</t>
+  </si>
+  <si>
+    <t>柳爽</t>
+  </si>
+  <si>
+    <t>那女孩对我说</t>
+  </si>
+  <si>
+    <t>黄义达</t>
+  </si>
+  <si>
+    <t>男孩别哭</t>
+  </si>
+  <si>
+    <t>海龟先生</t>
+  </si>
+  <si>
+    <t>霓虹甜心</t>
+  </si>
+  <si>
+    <t>马赛克乐队</t>
+  </si>
+  <si>
+    <t>你的微笑</t>
+  </si>
+  <si>
+    <t>F.I.R</t>
+  </si>
+  <si>
+    <t>逆光</t>
+  </si>
+  <si>
+    <t>孙燕姿</t>
+  </si>
+  <si>
+    <t>千本樱</t>
   </si>
   <si>
     <t>群青</t>
@@ -98,22 +428,105 @@
     <t>YOASOBI</t>
   </si>
   <si>
-    <t>日语</t>
-  </si>
-  <si>
     <t>BV1bX4y187jf</t>
   </si>
   <si>
-    <t>The Show</t>
-  </si>
-  <si>
-    <t>Lenka</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>BV1bV4y1h7vJ</t>
+    <t>染上你的颜色/君色に染まる</t>
+  </si>
+  <si>
+    <t>GUMI</t>
+  </si>
+  <si>
+    <t>如愿</t>
+  </si>
+  <si>
+    <t>杀破狼</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>奢香夫人</t>
+  </si>
+  <si>
+    <t>深海之声</t>
+  </si>
+  <si>
+    <t>圣诞颂歌/クリスマスソング</t>
+  </si>
+  <si>
+    <t>back number</t>
+  </si>
+  <si>
+    <t>视力检查/シリョクケンサ</t>
+  </si>
+  <si>
+    <t>逝去的歌</t>
+  </si>
+  <si>
+    <t>旅行团乐队</t>
+  </si>
+  <si>
+    <t>虽然歌声无形/歌に形はないけれど</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邱振哲</t>
+    </r>
+  </si>
+  <si>
+    <t>天ノ弱</t>
+  </si>
+  <si>
+    <t>妥协</t>
+  </si>
+  <si>
+    <t>蔡依林</t>
+  </si>
+  <si>
+    <t>丸内虐待狂/丸ノ内サディスティック</t>
+  </si>
+  <si>
+    <t>椎名林檎</t>
+  </si>
+  <si>
+    <t>未接来电</t>
+  </si>
+  <si>
+    <t>温柔</t>
+  </si>
+  <si>
+    <t>五月天</t>
+  </si>
+  <si>
+    <t>我爱你/アイラブユー</t>
+  </si>
+  <si>
+    <t>我希望在你的爱情里</t>
+  </si>
+  <si>
+    <t>我只在乎你</t>
+  </si>
+  <si>
+    <t>邓丽君</t>
+  </si>
+  <si>
+    <t>无法原谅</t>
+  </si>
+  <si>
+    <t>李佳璐</t>
+  </si>
+  <si>
+    <t>下个星期去英国</t>
   </si>
   <si>
     <r>
@@ -133,6 +546,69 @@
     <t>BV1em4y1q77P&amp;p=1</t>
   </si>
   <si>
+    <t>心愿便利贴</t>
+  </si>
+  <si>
+    <t>元若蓝/吴忠明</t>
+  </si>
+  <si>
+    <t>BV16e411k7ei</t>
+  </si>
+  <si>
+    <t>星象仪/プラネタリウム</t>
+  </si>
+  <si>
+    <t>大塚愛</t>
+  </si>
+  <si>
+    <t>悬铃木</t>
+  </si>
+  <si>
+    <t>BV1764y157Ek&amp;p=2</t>
+  </si>
+  <si>
+    <t>旋木</t>
+  </si>
+  <si>
+    <t>阳光宅男</t>
+  </si>
+  <si>
+    <t>夜蝶</t>
+  </si>
+  <si>
+    <t>BV1ga4y1R7ZZ</t>
+  </si>
+  <si>
+    <t>夜猫</t>
+  </si>
+  <si>
+    <t>夜行的黑猫</t>
+  </si>
+  <si>
+    <t>一笑倾城</t>
+  </si>
+  <si>
+    <t>汪苏泷</t>
+  </si>
+  <si>
+    <t>遗失的美好</t>
+  </si>
+  <si>
+    <t>张韶涵</t>
+  </si>
+  <si>
+    <t>姻缘签</t>
+  </si>
+  <si>
+    <t>音阙诗听</t>
+  </si>
+  <si>
+    <t>樱之雨/桜ノ雨</t>
+  </si>
+  <si>
+    <t>永远都会在</t>
+  </si>
+  <si>
     <t>雨爱</t>
   </si>
   <si>
@@ -142,88 +618,22 @@
     <t>BV1nV4y1U7qQ</t>
   </si>
   <si>
-    <t>夜蝶</t>
-  </si>
-  <si>
-    <t>BV1ga4y1R7ZZ</t>
-  </si>
-  <si>
-    <t>单相思／カタオモイ</t>
-  </si>
-  <si>
-    <t>Aimer</t>
-  </si>
-  <si>
-    <t>BV1em4y1q77P&amp;p=8</t>
-  </si>
-  <si>
-    <t>美人鱼</t>
-  </si>
-  <si>
-    <t>林俊杰</t>
-  </si>
-  <si>
-    <t>BV1em4y1q77P&amp;p=11</t>
-  </si>
-  <si>
-    <t>心愿便利贴</t>
-  </si>
-  <si>
-    <t>元若蓝/吴忠明</t>
-  </si>
-  <si>
-    <t>BV16e411k7ei</t>
-  </si>
-  <si>
-    <t>活动小丑/からくりピエロ</t>
-  </si>
-  <si>
-    <t>初音ミク</t>
-  </si>
-  <si>
-    <t>术力口</t>
-  </si>
-  <si>
-    <t>BV1ec411g7Yn&amp;p=1</t>
-  </si>
-  <si>
-    <t>孑然妒火/独りんぼエンヴィー</t>
-  </si>
-  <si>
-    <t>BV1ec411g7Yn&amp;p=4</t>
-  </si>
-  <si>
-    <t>蜜月·Un·Deux·Trois</t>
-  </si>
-  <si>
-    <t>鏡音リン</t>
-  </si>
-  <si>
-    <t>BV1ec411g7Yn&amp;p=5</t>
-  </si>
-  <si>
-    <t>恋爱裁判</t>
-  </si>
-  <si>
-    <t>BV1ec411g7Yn&amp;p=6</t>
-  </si>
-  <si>
-    <t>还是会寂寞</t>
-  </si>
-  <si>
-    <t>陈绮贞</t>
-  </si>
-  <si>
-    <t>幻</t>
-  </si>
-  <si>
-    <t>BV1764y157Ek&amp;p=1</t>
-  </si>
-  <si>
-    <t>悬铃木</t>
-  </si>
-  <si>
-    <t>BV1764y157Ek&amp;p=2</t>
+    <t>云雨成烟</t>
+  </si>
+  <si>
+    <t>房东的猫</t>
+  </si>
+  <si>
+    <t>只对你有感觉</t>
+  </si>
+  <si>
+    <t>飞轮海/田馥甄</t>
+  </si>
+  <si>
+    <t>猪猪侠</t>
+  </si>
+  <si>
+    <t>陈洁丽</t>
   </si>
 </sst>
 </file>
@@ -236,7 +646,7 @@
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +658,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF18191C"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -832,16 +1248,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,119 +1263,122 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,7 +1403,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -999,13 +1421,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1017,26 +1436,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1044,22 +1463,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,12 +1803,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1062"/>
+  <dimension ref="A1:E1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1425,873 +1847,1379 @@
         <v>7</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
+      <c r="A57" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
+      <c r="A72" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
+      <c r="A74" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+    <row r="75" ht="14.25" spans="1:5">
+      <c r="A75" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
+      <c r="A76" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="A82" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="A83" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="A86" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D86" s="6"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D87" s="6"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="E87" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7"/>
+      <c r="A89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="A90" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D90" s="6"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="A91" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
+      <c r="A92" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
+      <c r="A98" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="A100" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="7"/>
+      <c r="E100" s="7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
@@ -5739,18 +6667,18 @@
       <c r="D595" s="6"/>
       <c r="E595" s="7"/>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:4">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
       <c r="D596" s="6"/>
-      <c r="E596" s="7"/>
-    </row>
-    <row r="597" spans="1:4">
+    </row>
+    <row r="597" spans="1:5">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
       <c r="D597" s="6"/>
+      <c r="E597" s="7"/>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="5"/>
@@ -5816,3200 +6744,3196 @@
       <c r="E606" s="7"/>
     </row>
     <row r="607" spans="1:5">
-      <c r="A607" s="5"/>
-      <c r="B607" s="5"/>
-      <c r="C607" s="5"/>
-      <c r="D607" s="6"/>
+      <c r="A607" s="11"/>
+      <c r="B607" s="11"/>
+      <c r="C607" s="11"/>
+      <c r="D607" s="12"/>
       <c r="E607" s="7"/>
     </row>
     <row r="608" spans="1:5">
-      <c r="A608" s="9"/>
-      <c r="B608" s="9"/>
-      <c r="C608" s="9"/>
-      <c r="D608" s="10"/>
+      <c r="A608" s="11"/>
+      <c r="B608" s="7"/>
+      <c r="C608" s="11"/>
+      <c r="D608" s="13"/>
       <c r="E608" s="7"/>
     </row>
     <row r="609" spans="1:5">
-      <c r="A609" s="9"/>
-      <c r="B609" s="7"/>
-      <c r="C609" s="9"/>
-      <c r="D609" s="11"/>
+      <c r="A609" s="11"/>
+      <c r="B609" s="11"/>
+      <c r="C609" s="11"/>
+      <c r="D609" s="13"/>
       <c r="E609" s="7"/>
     </row>
     <row r="610" spans="1:5">
-      <c r="A610" s="9"/>
-      <c r="B610" s="9"/>
-      <c r="C610" s="9"/>
-      <c r="D610" s="11"/>
+      <c r="A610" s="7"/>
+      <c r="B610" s="7"/>
+      <c r="C610" s="11"/>
+      <c r="D610" s="13"/>
       <c r="E610" s="7"/>
     </row>
     <row r="611" spans="1:5">
-      <c r="A611" s="7"/>
-      <c r="B611" s="7"/>
-      <c r="C611" s="9"/>
-      <c r="D611" s="11"/>
+      <c r="A611" s="11"/>
+      <c r="B611" s="11"/>
+      <c r="C611" s="11"/>
+      <c r="D611" s="13"/>
       <c r="E611" s="7"/>
     </row>
     <row r="612" spans="1:5">
-      <c r="A612" s="9"/>
-      <c r="B612" s="9"/>
-      <c r="C612" s="9"/>
-      <c r="D612" s="11"/>
+      <c r="A612" s="11"/>
+      <c r="B612" s="11"/>
+      <c r="C612" s="11"/>
+      <c r="D612" s="13"/>
       <c r="E612" s="7"/>
     </row>
     <row r="613" spans="1:5">
-      <c r="A613" s="9"/>
-      <c r="B613" s="9"/>
-      <c r="C613" s="9"/>
-      <c r="D613" s="11"/>
+      <c r="A613" s="11"/>
+      <c r="B613" s="11"/>
+      <c r="C613" s="11"/>
+      <c r="D613" s="12"/>
       <c r="E613" s="7"/>
     </row>
     <row r="614" spans="1:5">
-      <c r="A614" s="9"/>
-      <c r="B614" s="9"/>
-      <c r="C614" s="9"/>
-      <c r="D614" s="10"/>
+      <c r="A614" s="11"/>
+      <c r="B614" s="7"/>
+      <c r="C614" s="11"/>
+      <c r="D614" s="13"/>
       <c r="E614" s="7"/>
     </row>
     <row r="615" spans="1:5">
-      <c r="A615" s="9"/>
-      <c r="B615" s="7"/>
-      <c r="C615" s="9"/>
-      <c r="D615" s="11"/>
+      <c r="A615" s="11"/>
+      <c r="B615" s="11"/>
+      <c r="C615" s="11"/>
+      <c r="D615" s="13"/>
       <c r="E615" s="7"/>
     </row>
     <row r="616" spans="1:5">
-      <c r="A616" s="9"/>
-      <c r="B616" s="9"/>
-      <c r="C616" s="9"/>
-      <c r="D616" s="11"/>
+      <c r="A616" s="11"/>
+      <c r="B616" s="14"/>
+      <c r="C616" s="11"/>
+      <c r="D616" s="13"/>
       <c r="E616" s="7"/>
     </row>
     <row r="617" spans="1:5">
-      <c r="A617" s="9"/>
-      <c r="B617" s="12"/>
-      <c r="C617" s="9"/>
-      <c r="D617" s="11"/>
+      <c r="A617" s="11"/>
+      <c r="B617" s="11"/>
+      <c r="C617" s="11"/>
+      <c r="D617" s="12"/>
       <c r="E617" s="7"/>
     </row>
     <row r="618" spans="1:5">
-      <c r="A618" s="9"/>
-      <c r="B618" s="9"/>
-      <c r="C618" s="9"/>
-      <c r="D618" s="10"/>
+      <c r="A618" s="15"/>
+      <c r="B618" s="11"/>
+      <c r="C618" s="11"/>
+      <c r="D618" s="13"/>
       <c r="E618" s="7"/>
     </row>
     <row r="619" spans="1:5">
-      <c r="A619" s="13"/>
-      <c r="B619" s="9"/>
-      <c r="C619" s="9"/>
-      <c r="D619" s="11"/>
+      <c r="A619" s="11"/>
+      <c r="B619" s="11"/>
+      <c r="C619" s="11"/>
+      <c r="D619" s="13"/>
       <c r="E619" s="7"/>
     </row>
     <row r="620" spans="1:5">
-      <c r="A620" s="9"/>
-      <c r="B620" s="9"/>
-      <c r="C620" s="9"/>
-      <c r="D620" s="11"/>
+      <c r="A620" s="11"/>
+      <c r="B620" s="11"/>
+      <c r="C620" s="11"/>
+      <c r="D620" s="12"/>
       <c r="E620" s="7"/>
     </row>
     <row r="621" spans="1:5">
-      <c r="A621" s="9"/>
-      <c r="B621" s="9"/>
-      <c r="C621" s="9"/>
-      <c r="D621" s="10"/>
+      <c r="A621" s="11"/>
+      <c r="B621" s="7"/>
+      <c r="C621" s="11"/>
+      <c r="D621" s="12"/>
       <c r="E621" s="7"/>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="9"/>
-      <c r="B622" s="7"/>
-      <c r="C622" s="9"/>
-      <c r="D622" s="10"/>
+      <c r="A622" s="11"/>
+      <c r="B622" s="11"/>
+      <c r="C622" s="11"/>
+      <c r="D622" s="12"/>
       <c r="E622" s="7"/>
     </row>
     <row r="623" spans="1:5">
-      <c r="A623" s="9"/>
-      <c r="B623" s="9"/>
-      <c r="C623" s="9"/>
-      <c r="D623" s="10"/>
+      <c r="A623" s="11"/>
+      <c r="B623" s="11"/>
+      <c r="C623" s="11"/>
+      <c r="D623" s="13"/>
       <c r="E623" s="7"/>
     </row>
     <row r="624" spans="1:5">
-      <c r="A624" s="9"/>
-      <c r="B624" s="9"/>
-      <c r="C624" s="9"/>
-      <c r="D624" s="11"/>
+      <c r="A624" s="11"/>
+      <c r="B624" s="11"/>
+      <c r="C624" s="11"/>
+      <c r="D624" s="13"/>
       <c r="E624" s="7"/>
     </row>
     <row r="625" spans="1:5">
-      <c r="A625" s="9"/>
-      <c r="B625" s="9"/>
-      <c r="C625" s="9"/>
-      <c r="D625" s="11"/>
+      <c r="A625" s="11"/>
+      <c r="B625" s="7"/>
+      <c r="C625" s="11"/>
+      <c r="D625" s="12"/>
       <c r="E625" s="7"/>
     </row>
     <row r="626" spans="1:5">
-      <c r="A626" s="9"/>
-      <c r="B626" s="7"/>
-      <c r="C626" s="9"/>
-      <c r="D626" s="10"/>
+      <c r="A626" s="11"/>
+      <c r="B626" s="11"/>
+      <c r="C626" s="11"/>
+      <c r="D626" s="13"/>
       <c r="E626" s="7"/>
     </row>
     <row r="627" spans="1:5">
-      <c r="A627" s="9"/>
-      <c r="B627" s="9"/>
-      <c r="C627" s="9"/>
-      <c r="D627" s="11"/>
+      <c r="A627" s="11"/>
+      <c r="B627" s="11"/>
+      <c r="C627" s="11"/>
+      <c r="D627" s="12"/>
       <c r="E627" s="7"/>
     </row>
     <row r="628" spans="1:5">
-      <c r="A628" s="9"/>
-      <c r="B628" s="9"/>
-      <c r="C628" s="9"/>
-      <c r="D628" s="10"/>
+      <c r="A628" s="11"/>
+      <c r="B628" s="7"/>
+      <c r="C628" s="11"/>
+      <c r="D628" s="13"/>
       <c r="E628" s="7"/>
     </row>
     <row r="629" spans="1:5">
-      <c r="A629" s="9"/>
+      <c r="A629" s="11"/>
       <c r="B629" s="7"/>
-      <c r="C629" s="9"/>
-      <c r="D629" s="11"/>
+      <c r="C629" s="11"/>
+      <c r="D629" s="12"/>
       <c r="E629" s="7"/>
     </row>
     <row r="630" spans="1:5">
-      <c r="A630" s="9"/>
-      <c r="B630" s="7"/>
-      <c r="C630" s="9"/>
-      <c r="D630" s="10"/>
+      <c r="A630" s="11"/>
+      <c r="B630" s="11"/>
+      <c r="C630" s="11"/>
+      <c r="D630" s="12"/>
       <c r="E630" s="7"/>
     </row>
     <row r="631" spans="1:5">
-      <c r="A631" s="9"/>
-      <c r="B631" s="9"/>
-      <c r="C631" s="9"/>
-      <c r="D631" s="10"/>
+      <c r="A631" s="11"/>
+      <c r="B631" s="11"/>
+      <c r="C631" s="11"/>
+      <c r="D631" s="12"/>
       <c r="E631" s="7"/>
     </row>
     <row r="632" spans="1:5">
-      <c r="A632" s="9"/>
-      <c r="B632" s="9"/>
-      <c r="C632" s="9"/>
-      <c r="D632" s="10"/>
+      <c r="A632" s="11"/>
+      <c r="B632" s="7"/>
+      <c r="C632" s="11"/>
+      <c r="D632" s="13"/>
       <c r="E632" s="7"/>
     </row>
     <row r="633" spans="1:5">
-      <c r="A633" s="9"/>
-      <c r="B633" s="7"/>
-      <c r="C633" s="9"/>
-      <c r="D633" s="11"/>
+      <c r="A633" s="11"/>
+      <c r="B633" s="16"/>
+      <c r="C633" s="11"/>
+      <c r="D633" s="13"/>
       <c r="E633" s="7"/>
     </row>
     <row r="634" spans="1:5">
-      <c r="A634" s="9"/>
-      <c r="B634" s="14"/>
-      <c r="C634" s="9"/>
-      <c r="D634" s="11"/>
+      <c r="A634" s="11"/>
+      <c r="B634" s="11"/>
+      <c r="C634" s="11"/>
+      <c r="D634" s="13"/>
       <c r="E634" s="7"/>
     </row>
     <row r="635" spans="1:5">
-      <c r="A635" s="9"/>
-      <c r="B635" s="9"/>
-      <c r="C635" s="9"/>
-      <c r="D635" s="11"/>
+      <c r="A635" s="11"/>
+      <c r="B635" s="7"/>
+      <c r="C635" s="11"/>
+      <c r="D635" s="12"/>
       <c r="E635" s="7"/>
     </row>
     <row r="636" spans="1:5">
-      <c r="A636" s="9"/>
-      <c r="B636" s="7"/>
-      <c r="C636" s="9"/>
-      <c r="D636" s="10"/>
+      <c r="A636" s="11"/>
+      <c r="B636" s="11"/>
+      <c r="C636" s="11"/>
+      <c r="D636" s="13"/>
       <c r="E636" s="7"/>
     </row>
     <row r="637" spans="1:5">
-      <c r="A637" s="9"/>
-      <c r="B637" s="9"/>
-      <c r="C637" s="9"/>
-      <c r="D637" s="11"/>
+      <c r="A637" s="11"/>
+      <c r="B637" s="11"/>
+      <c r="C637" s="11"/>
+      <c r="D637" s="12"/>
       <c r="E637" s="7"/>
     </row>
     <row r="638" spans="1:5">
-      <c r="A638" s="9"/>
-      <c r="B638" s="9"/>
-      <c r="C638" s="9"/>
-      <c r="D638" s="10"/>
+      <c r="A638" s="11"/>
+      <c r="B638" s="7"/>
+      <c r="C638" s="11"/>
+      <c r="D638" s="12"/>
       <c r="E638" s="7"/>
     </row>
     <row r="639" spans="1:5">
-      <c r="A639" s="9"/>
-      <c r="B639" s="7"/>
-      <c r="C639" s="9"/>
-      <c r="D639" s="10"/>
+      <c r="A639" s="11"/>
+      <c r="B639" s="11"/>
+      <c r="C639" s="11"/>
+      <c r="D639" s="13"/>
       <c r="E639" s="7"/>
     </row>
     <row r="640" spans="1:5">
-      <c r="A640" s="9"/>
-      <c r="B640" s="9"/>
-      <c r="C640" s="9"/>
-      <c r="D640" s="11"/>
+      <c r="A640" s="11"/>
+      <c r="B640" s="11"/>
+      <c r="C640" s="11"/>
+      <c r="D640" s="13"/>
       <c r="E640" s="7"/>
     </row>
     <row r="641" spans="1:5">
-      <c r="A641" s="9"/>
-      <c r="B641" s="9"/>
-      <c r="C641" s="9"/>
-      <c r="D641" s="11"/>
+      <c r="A641" s="11"/>
+      <c r="B641" s="11"/>
+      <c r="C641" s="11"/>
+      <c r="D641" s="12"/>
       <c r="E641" s="7"/>
     </row>
     <row r="642" spans="1:5">
-      <c r="A642" s="9"/>
-      <c r="B642" s="9"/>
-      <c r="C642" s="9"/>
-      <c r="D642" s="10"/>
+      <c r="A642" s="11"/>
+      <c r="B642" s="7"/>
+      <c r="C642" s="11"/>
+      <c r="D642" s="13"/>
       <c r="E642" s="7"/>
     </row>
     <row r="643" spans="1:5">
-      <c r="A643" s="9"/>
+      <c r="A643" s="11"/>
       <c r="B643" s="7"/>
-      <c r="C643" s="9"/>
-      <c r="D643" s="11"/>
+      <c r="C643" s="11"/>
+      <c r="D643" s="12"/>
       <c r="E643" s="7"/>
     </row>
     <row r="644" spans="1:5">
-      <c r="A644" s="9"/>
-      <c r="B644" s="7"/>
-      <c r="C644" s="9"/>
-      <c r="D644" s="10"/>
+      <c r="A644" s="11"/>
+      <c r="B644" s="11"/>
+      <c r="C644" s="11"/>
+      <c r="D644" s="13"/>
       <c r="E644" s="7"/>
     </row>
     <row r="645" spans="1:5">
-      <c r="A645" s="9"/>
-      <c r="B645" s="9"/>
-      <c r="C645" s="9"/>
-      <c r="D645" s="11"/>
+      <c r="A645" s="7"/>
+      <c r="B645" s="11"/>
+      <c r="C645" s="11"/>
+      <c r="D645" s="13"/>
       <c r="E645" s="7"/>
     </row>
     <row r="646" spans="1:5">
       <c r="A646" s="7"/>
-      <c r="B646" s="9"/>
-      <c r="C646" s="9"/>
-      <c r="D646" s="11"/>
+      <c r="B646" s="7"/>
+      <c r="C646" s="11"/>
+      <c r="D646" s="13"/>
       <c r="E646" s="7"/>
     </row>
     <row r="647" spans="1:5">
-      <c r="A647" s="7"/>
+      <c r="A647" s="11"/>
       <c r="B647" s="7"/>
-      <c r="C647" s="9"/>
-      <c r="D647" s="11"/>
+      <c r="C647" s="11"/>
+      <c r="D647" s="13"/>
       <c r="E647" s="7"/>
     </row>
     <row r="648" spans="1:5">
-      <c r="A648" s="9"/>
+      <c r="A648" s="11"/>
       <c r="B648" s="7"/>
-      <c r="C648" s="9"/>
-      <c r="D648" s="11"/>
+      <c r="C648" s="11"/>
+      <c r="D648" s="13"/>
       <c r="E648" s="7"/>
     </row>
     <row r="649" spans="1:5">
-      <c r="A649" s="9"/>
-      <c r="B649" s="7"/>
-      <c r="C649" s="9"/>
-      <c r="D649" s="11"/>
+      <c r="A649" s="11"/>
+      <c r="B649" s="11"/>
+      <c r="C649" s="11"/>
+      <c r="D649" s="13"/>
       <c r="E649" s="7"/>
     </row>
     <row r="650" spans="1:5">
-      <c r="A650" s="9"/>
-      <c r="B650" s="9"/>
-      <c r="C650" s="9"/>
-      <c r="D650" s="11"/>
+      <c r="A650" s="11"/>
+      <c r="B650" s="7"/>
+      <c r="C650" s="11"/>
+      <c r="D650" s="12"/>
       <c r="E650" s="7"/>
     </row>
     <row r="651" spans="1:5">
-      <c r="A651" s="9"/>
+      <c r="A651" s="11"/>
       <c r="B651" s="7"/>
-      <c r="C651" s="9"/>
-      <c r="D651" s="10"/>
+      <c r="C651" s="11"/>
+      <c r="D651" s="13"/>
       <c r="E651" s="7"/>
     </row>
     <row r="652" spans="1:5">
-      <c r="A652" s="9"/>
+      <c r="A652" s="11"/>
       <c r="B652" s="7"/>
-      <c r="C652" s="9"/>
-      <c r="D652" s="11"/>
+      <c r="C652" s="11"/>
+      <c r="D652" s="13"/>
       <c r="E652" s="7"/>
     </row>
     <row r="653" spans="1:5">
-      <c r="A653" s="9"/>
-      <c r="B653" s="7"/>
-      <c r="C653" s="9"/>
-      <c r="D653" s="11"/>
+      <c r="A653" s="11"/>
+      <c r="B653" s="11"/>
+      <c r="C653" s="11"/>
+      <c r="D653" s="13"/>
       <c r="E653" s="7"/>
     </row>
     <row r="654" spans="1:5">
-      <c r="A654" s="9"/>
-      <c r="B654" s="9"/>
-      <c r="C654" s="9"/>
-      <c r="D654" s="11"/>
+      <c r="A654" s="7"/>
+      <c r="B654" s="7"/>
+      <c r="C654" s="11"/>
+      <c r="D654" s="13"/>
       <c r="E654" s="7"/>
     </row>
     <row r="655" spans="1:5">
-      <c r="A655" s="7"/>
-      <c r="B655" s="7"/>
-      <c r="C655" s="9"/>
-      <c r="D655" s="11"/>
+      <c r="A655" s="11"/>
+      <c r="B655" s="11"/>
+      <c r="C655" s="11"/>
+      <c r="D655" s="13"/>
       <c r="E655" s="7"/>
     </row>
     <row r="656" spans="1:5">
-      <c r="A656" s="9"/>
-      <c r="B656" s="9"/>
-      <c r="C656" s="9"/>
-      <c r="D656" s="11"/>
+      <c r="A656" s="11"/>
+      <c r="B656" s="11"/>
+      <c r="C656" s="11"/>
+      <c r="D656" s="12"/>
       <c r="E656" s="7"/>
     </row>
     <row r="657" spans="1:5">
-      <c r="A657" s="9"/>
-      <c r="B657" s="9"/>
-      <c r="C657" s="9"/>
-      <c r="D657" s="10"/>
+      <c r="A657" s="11"/>
+      <c r="B657" s="11"/>
+      <c r="C657" s="11"/>
+      <c r="D657" s="12"/>
       <c r="E657" s="7"/>
     </row>
     <row r="658" spans="1:5">
-      <c r="A658" s="9"/>
-      <c r="B658" s="9"/>
-      <c r="C658" s="9"/>
-      <c r="D658" s="10"/>
+      <c r="A658" s="11"/>
+      <c r="B658" s="7"/>
+      <c r="C658" s="11"/>
+      <c r="D658" s="13"/>
       <c r="E658" s="7"/>
     </row>
     <row r="659" spans="1:5">
-      <c r="A659" s="9"/>
-      <c r="B659" s="7"/>
-      <c r="C659" s="9"/>
-      <c r="D659" s="11"/>
+      <c r="A659" s="11"/>
+      <c r="B659" s="11"/>
+      <c r="C659" s="11"/>
+      <c r="D659" s="13"/>
       <c r="E659" s="7"/>
     </row>
     <row r="660" spans="1:5">
-      <c r="A660" s="9"/>
-      <c r="B660" s="9"/>
-      <c r="C660" s="9"/>
-      <c r="D660" s="11"/>
+      <c r="A660" s="11"/>
+      <c r="B660" s="11"/>
+      <c r="C660" s="11"/>
+      <c r="D660" s="12"/>
       <c r="E660" s="7"/>
     </row>
     <row r="661" spans="1:5">
-      <c r="A661" s="9"/>
-      <c r="B661" s="9"/>
-      <c r="C661" s="9"/>
-      <c r="D661" s="10"/>
+      <c r="A661" s="11"/>
+      <c r="B661" s="11"/>
+      <c r="C661" s="11"/>
+      <c r="D661" s="12"/>
       <c r="E661" s="7"/>
     </row>
     <row r="662" spans="1:5">
-      <c r="A662" s="9"/>
-      <c r="B662" s="9"/>
-      <c r="C662" s="9"/>
-      <c r="D662" s="10"/>
+      <c r="A662" s="11"/>
+      <c r="B662" s="7"/>
+      <c r="C662" s="11"/>
+      <c r="D662" s="13"/>
       <c r="E662" s="7"/>
     </row>
     <row r="663" spans="1:5">
-      <c r="A663" s="9"/>
-      <c r="B663" s="7"/>
-      <c r="C663" s="9"/>
-      <c r="D663" s="11"/>
+      <c r="A663" s="11"/>
+      <c r="B663" s="11"/>
+      <c r="C663" s="11"/>
+      <c r="D663" s="12"/>
       <c r="E663" s="7"/>
     </row>
     <row r="664" spans="1:5">
-      <c r="A664" s="9"/>
-      <c r="B664" s="9"/>
-      <c r="C664" s="9"/>
-      <c r="D664" s="10"/>
+      <c r="A664" s="11"/>
+      <c r="B664" s="11"/>
+      <c r="C664" s="11"/>
+      <c r="D664" s="12"/>
       <c r="E664" s="7"/>
     </row>
     <row r="665" spans="1:5">
-      <c r="A665" s="9"/>
-      <c r="B665" s="9"/>
-      <c r="C665" s="9"/>
-      <c r="D665" s="10"/>
+      <c r="A665" s="11"/>
+      <c r="B665" s="7"/>
+      <c r="C665" s="11"/>
+      <c r="D665" s="13"/>
       <c r="E665" s="7"/>
     </row>
     <row r="666" spans="1:5">
-      <c r="A666" s="9"/>
+      <c r="A666" s="11"/>
       <c r="B666" s="7"/>
-      <c r="C666" s="9"/>
-      <c r="D666" s="11"/>
+      <c r="C666" s="11"/>
+      <c r="D666" s="12"/>
       <c r="E666" s="7"/>
     </row>
     <row r="667" spans="1:5">
-      <c r="A667" s="9"/>
+      <c r="A667" s="11"/>
       <c r="B667" s="7"/>
-      <c r="C667" s="9"/>
-      <c r="D667" s="10"/>
+      <c r="C667" s="11"/>
+      <c r="D667" s="12"/>
       <c r="E667" s="7"/>
     </row>
     <row r="668" spans="1:5">
-      <c r="A668" s="9"/>
+      <c r="A668" s="11"/>
       <c r="B668" s="7"/>
-      <c r="C668" s="9"/>
-      <c r="D668" s="10"/>
+      <c r="C668" s="11"/>
+      <c r="D668" s="13"/>
       <c r="E668" s="7"/>
     </row>
     <row r="669" spans="1:5">
-      <c r="A669" s="9"/>
+      <c r="A669" s="7"/>
       <c r="B669" s="7"/>
-      <c r="C669" s="9"/>
-      <c r="D669" s="11"/>
+      <c r="C669" s="11"/>
+      <c r="D669" s="12"/>
       <c r="E669" s="7"/>
     </row>
     <row r="670" spans="1:5">
-      <c r="A670" s="7"/>
-      <c r="B670" s="7"/>
-      <c r="C670" s="9"/>
-      <c r="D670" s="10"/>
+      <c r="A670" s="11"/>
+      <c r="B670" s="11"/>
+      <c r="C670" s="11"/>
+      <c r="D670" s="13"/>
       <c r="E670" s="7"/>
     </row>
     <row r="671" spans="1:5">
-      <c r="A671" s="9"/>
-      <c r="B671" s="9"/>
-      <c r="C671" s="9"/>
-      <c r="D671" s="11"/>
+      <c r="A671" s="11"/>
+      <c r="B671" s="11"/>
+      <c r="C671" s="11"/>
+      <c r="D671" s="13"/>
       <c r="E671" s="7"/>
     </row>
     <row r="672" spans="1:5">
-      <c r="A672" s="9"/>
-      <c r="B672" s="9"/>
-      <c r="C672" s="9"/>
-      <c r="D672" s="11"/>
+      <c r="A672" s="11"/>
+      <c r="B672" s="11"/>
+      <c r="C672" s="11"/>
+      <c r="D672" s="13"/>
       <c r="E672" s="7"/>
     </row>
     <row r="673" spans="1:5">
-      <c r="A673" s="9"/>
-      <c r="B673" s="9"/>
-      <c r="C673" s="9"/>
-      <c r="D673" s="11"/>
+      <c r="A673" s="11"/>
+      <c r="B673" s="7"/>
+      <c r="C673" s="11"/>
+      <c r="D673" s="12"/>
       <c r="E673" s="7"/>
     </row>
     <row r="674" spans="1:5">
-      <c r="A674" s="9"/>
-      <c r="B674" s="7"/>
-      <c r="C674" s="9"/>
-      <c r="D674" s="10"/>
+      <c r="A674" s="11"/>
+      <c r="B674" s="11"/>
+      <c r="C674" s="11"/>
+      <c r="D674" s="13"/>
       <c r="E674" s="7"/>
     </row>
     <row r="675" spans="1:5">
-      <c r="A675" s="9"/>
-      <c r="B675" s="9"/>
-      <c r="C675" s="9"/>
-      <c r="D675" s="11"/>
+      <c r="A675" s="11"/>
+      <c r="B675" s="7"/>
+      <c r="C675" s="11"/>
+      <c r="D675" s="13"/>
       <c r="E675" s="7"/>
     </row>
     <row r="676" spans="1:5">
-      <c r="A676" s="9"/>
+      <c r="A676" s="11"/>
       <c r="B676" s="7"/>
-      <c r="C676" s="9"/>
-      <c r="D676" s="11"/>
+      <c r="C676" s="11"/>
+      <c r="D676" s="13"/>
       <c r="E676" s="7"/>
     </row>
     <row r="677" spans="1:5">
-      <c r="A677" s="9"/>
+      <c r="A677" s="11"/>
       <c r="B677" s="7"/>
-      <c r="C677" s="9"/>
-      <c r="D677" s="11"/>
+      <c r="C677" s="11"/>
+      <c r="D677" s="13"/>
       <c r="E677" s="7"/>
     </row>
     <row r="678" spans="1:5">
-      <c r="A678" s="9"/>
-      <c r="B678" s="7"/>
-      <c r="C678" s="9"/>
-      <c r="D678" s="11"/>
+      <c r="A678" s="11"/>
+      <c r="B678" s="11"/>
+      <c r="C678" s="11"/>
+      <c r="D678" s="13"/>
       <c r="E678" s="7"/>
     </row>
     <row r="679" spans="1:5">
-      <c r="A679" s="9"/>
-      <c r="B679" s="9"/>
-      <c r="C679" s="9"/>
-      <c r="D679" s="11"/>
+      <c r="A679" s="11"/>
+      <c r="B679" s="7"/>
+      <c r="C679" s="11"/>
+      <c r="D679" s="13"/>
       <c r="E679" s="7"/>
     </row>
     <row r="680" spans="1:5">
-      <c r="A680" s="9"/>
-      <c r="B680" s="7"/>
-      <c r="C680" s="9"/>
-      <c r="D680" s="11"/>
+      <c r="A680" s="11"/>
+      <c r="B680" s="11"/>
+      <c r="C680" s="11"/>
+      <c r="D680" s="12"/>
       <c r="E680" s="7"/>
     </row>
     <row r="681" spans="1:5">
-      <c r="A681" s="9"/>
-      <c r="B681" s="9"/>
-      <c r="C681" s="9"/>
-      <c r="D681" s="10"/>
+      <c r="A681" s="11"/>
+      <c r="B681" s="11"/>
+      <c r="C681" s="11"/>
+      <c r="D681" s="12"/>
       <c r="E681" s="7"/>
     </row>
     <row r="682" spans="1:5">
-      <c r="A682" s="9"/>
-      <c r="B682" s="9"/>
-      <c r="C682" s="9"/>
-      <c r="D682" s="10"/>
+      <c r="A682" s="11"/>
+      <c r="B682" s="7"/>
+      <c r="C682" s="11"/>
+      <c r="D682" s="13"/>
       <c r="E682" s="7"/>
     </row>
     <row r="683" spans="1:5">
-      <c r="A683" s="9"/>
-      <c r="B683" s="7"/>
-      <c r="C683" s="9"/>
-      <c r="D683" s="11"/>
+      <c r="A683" s="11"/>
+      <c r="B683" s="11"/>
+      <c r="C683" s="11"/>
+      <c r="D683" s="12"/>
       <c r="E683" s="7"/>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="9"/>
-      <c r="B684" s="9"/>
-      <c r="C684" s="9"/>
-      <c r="D684" s="10"/>
+      <c r="A684" s="11"/>
+      <c r="B684" s="7"/>
+      <c r="C684" s="11"/>
+      <c r="D684" s="13"/>
       <c r="E684" s="7"/>
     </row>
     <row r="685" spans="1:5">
-      <c r="A685" s="9"/>
-      <c r="B685" s="7"/>
-      <c r="C685" s="9"/>
-      <c r="D685" s="11"/>
+      <c r="A685" s="11"/>
+      <c r="B685" s="11"/>
+      <c r="C685" s="11"/>
+      <c r="D685" s="13"/>
       <c r="E685" s="7"/>
     </row>
     <row r="686" spans="1:5">
-      <c r="A686" s="9"/>
-      <c r="B686" s="9"/>
-      <c r="C686" s="9"/>
-      <c r="D686" s="11"/>
+      <c r="A686" s="11"/>
+      <c r="B686" s="11"/>
+      <c r="C686" s="11"/>
+      <c r="D686" s="12"/>
       <c r="E686" s="7"/>
     </row>
     <row r="687" spans="1:5">
-      <c r="A687" s="9"/>
-      <c r="B687" s="9"/>
-      <c r="C687" s="9"/>
-      <c r="D687" s="10"/>
+      <c r="A687" s="7"/>
+      <c r="B687" s="11"/>
+      <c r="C687" s="11"/>
+      <c r="D687" s="12"/>
       <c r="E687" s="7"/>
     </row>
     <row r="688" spans="1:5">
-      <c r="A688" s="7"/>
-      <c r="B688" s="9"/>
-      <c r="C688" s="9"/>
-      <c r="D688" s="10"/>
+      <c r="A688" s="11"/>
+      <c r="B688" s="11"/>
+      <c r="C688" s="11"/>
+      <c r="D688" s="13"/>
       <c r="E688" s="7"/>
     </row>
     <row r="689" spans="1:5">
-      <c r="A689" s="9"/>
-      <c r="B689" s="9"/>
-      <c r="C689" s="9"/>
-      <c r="D689" s="11"/>
+      <c r="A689" s="11"/>
+      <c r="B689" s="11"/>
+      <c r="C689" s="11"/>
+      <c r="D689" s="13"/>
       <c r="E689" s="7"/>
     </row>
     <row r="690" spans="1:5">
-      <c r="A690" s="9"/>
-      <c r="B690" s="9"/>
-      <c r="C690" s="9"/>
-      <c r="D690" s="11"/>
+      <c r="A690" s="11"/>
+      <c r="B690" s="7"/>
+      <c r="C690" s="11"/>
+      <c r="D690" s="13"/>
       <c r="E690" s="7"/>
     </row>
     <row r="691" spans="1:5">
-      <c r="A691" s="9"/>
+      <c r="A691" s="11"/>
       <c r="B691" s="7"/>
-      <c r="C691" s="9"/>
-      <c r="D691" s="11"/>
+      <c r="C691" s="11"/>
+      <c r="D691" s="13"/>
       <c r="E691" s="7"/>
     </row>
     <row r="692" spans="1:5">
-      <c r="A692" s="9"/>
+      <c r="A692" s="11"/>
       <c r="B692" s="7"/>
-      <c r="C692" s="9"/>
-      <c r="D692" s="11"/>
+      <c r="C692" s="11"/>
+      <c r="D692" s="13"/>
       <c r="E692" s="7"/>
     </row>
     <row r="693" spans="1:5">
-      <c r="A693" s="9"/>
+      <c r="A693" s="11"/>
       <c r="B693" s="7"/>
-      <c r="C693" s="9"/>
-      <c r="D693" s="11"/>
+      <c r="C693" s="11"/>
+      <c r="D693" s="12"/>
       <c r="E693" s="7"/>
     </row>
     <row r="694" spans="1:5">
-      <c r="A694" s="9"/>
+      <c r="A694" s="11"/>
       <c r="B694" s="7"/>
-      <c r="C694" s="9"/>
-      <c r="D694" s="10"/>
+      <c r="C694" s="11"/>
+      <c r="D694" s="12"/>
       <c r="E694" s="7"/>
     </row>
     <row r="695" spans="1:5">
-      <c r="A695" s="9"/>
-      <c r="B695" s="7"/>
-      <c r="C695" s="9"/>
-      <c r="D695" s="10"/>
+      <c r="A695" s="11"/>
+      <c r="B695" s="11"/>
+      <c r="C695" s="11"/>
+      <c r="D695" s="12"/>
       <c r="E695" s="7"/>
     </row>
     <row r="696" spans="1:5">
-      <c r="A696" s="9"/>
-      <c r="B696" s="9"/>
-      <c r="C696" s="9"/>
-      <c r="D696" s="10"/>
+      <c r="A696" s="11"/>
+      <c r="B696" s="11"/>
+      <c r="C696" s="11"/>
+      <c r="D696" s="12"/>
       <c r="E696" s="7"/>
     </row>
     <row r="697" spans="1:5">
-      <c r="A697" s="9"/>
-      <c r="B697" s="9"/>
-      <c r="C697" s="9"/>
-      <c r="D697" s="10"/>
+      <c r="A697" s="11"/>
+      <c r="B697" s="7"/>
+      <c r="C697" s="11"/>
+      <c r="D697" s="12"/>
       <c r="E697" s="7"/>
     </row>
     <row r="698" spans="1:5">
-      <c r="A698" s="9"/>
-      <c r="B698" s="7"/>
-      <c r="C698" s="9"/>
-      <c r="D698" s="10"/>
+      <c r="A698" s="7"/>
+      <c r="B698" s="17"/>
+      <c r="C698" s="11"/>
+      <c r="D698" s="12"/>
       <c r="E698" s="7"/>
     </row>
     <row r="699" spans="1:5">
-      <c r="A699" s="7"/>
-      <c r="B699" s="15"/>
-      <c r="C699" s="9"/>
-      <c r="D699" s="10"/>
+      <c r="A699" s="11"/>
+      <c r="B699" s="11"/>
+      <c r="C699" s="11"/>
+      <c r="D699" s="13"/>
       <c r="E699" s="7"/>
     </row>
     <row r="700" spans="1:5">
-      <c r="A700" s="9"/>
-      <c r="B700" s="9"/>
-      <c r="C700" s="9"/>
-      <c r="D700" s="11"/>
+      <c r="A700" s="11"/>
+      <c r="B700" s="7"/>
+      <c r="C700" s="11"/>
+      <c r="D700" s="13"/>
       <c r="E700" s="7"/>
     </row>
     <row r="701" spans="1:5">
-      <c r="A701" s="9"/>
+      <c r="A701" s="7"/>
       <c r="B701" s="7"/>
-      <c r="C701" s="9"/>
-      <c r="D701" s="11"/>
+      <c r="C701" s="11"/>
+      <c r="D701" s="13"/>
       <c r="E701" s="7"/>
     </row>
     <row r="702" spans="1:5">
-      <c r="A702" s="7"/>
-      <c r="B702" s="7"/>
-      <c r="C702" s="9"/>
-      <c r="D702" s="11"/>
+      <c r="A702" s="11"/>
+      <c r="B702" s="11"/>
+      <c r="C702" s="11"/>
+      <c r="D702" s="12"/>
       <c r="E702" s="7"/>
     </row>
     <row r="703" spans="1:5">
-      <c r="A703" s="9"/>
-      <c r="B703" s="9"/>
-      <c r="C703" s="9"/>
-      <c r="D703" s="10"/>
+      <c r="A703" s="11"/>
+      <c r="B703" s="7"/>
+      <c r="C703" s="11"/>
+      <c r="D703" s="13"/>
       <c r="E703" s="7"/>
     </row>
     <row r="704" spans="1:5">
-      <c r="A704" s="9"/>
+      <c r="A704" s="11"/>
       <c r="B704" s="7"/>
-      <c r="C704" s="9"/>
-      <c r="D704" s="11"/>
+      <c r="C704" s="11"/>
+      <c r="D704" s="13"/>
       <c r="E704" s="7"/>
     </row>
     <row r="705" spans="1:5">
-      <c r="A705" s="9"/>
+      <c r="A705" s="11"/>
       <c r="B705" s="7"/>
-      <c r="C705" s="9"/>
-      <c r="D705" s="11"/>
+      <c r="C705" s="11"/>
+      <c r="D705" s="13"/>
       <c r="E705" s="7"/>
     </row>
     <row r="706" spans="1:5">
-      <c r="A706" s="9"/>
-      <c r="B706" s="7"/>
-      <c r="C706" s="9"/>
-      <c r="D706" s="11"/>
+      <c r="A706" s="11"/>
+      <c r="B706" s="11"/>
+      <c r="C706" s="11"/>
+      <c r="D706" s="13"/>
       <c r="E706" s="7"/>
     </row>
     <row r="707" spans="1:5">
-      <c r="A707" s="9"/>
-      <c r="B707" s="9"/>
-      <c r="C707" s="9"/>
-      <c r="D707" s="11"/>
+      <c r="A707" s="11"/>
+      <c r="B707" s="16"/>
+      <c r="C707" s="11"/>
+      <c r="D707" s="13"/>
       <c r="E707" s="7"/>
     </row>
     <row r="708" spans="1:5">
-      <c r="A708" s="9"/>
-      <c r="B708" s="14"/>
-      <c r="C708" s="9"/>
-      <c r="D708" s="11"/>
+      <c r="A708" s="11"/>
+      <c r="B708" s="7"/>
+      <c r="C708" s="11"/>
+      <c r="D708" s="13"/>
       <c r="E708" s="7"/>
     </row>
     <row r="709" spans="1:5">
-      <c r="A709" s="9"/>
+      <c r="A709" s="11"/>
       <c r="B709" s="7"/>
-      <c r="C709" s="9"/>
-      <c r="D709" s="11"/>
+      <c r="C709" s="11"/>
+      <c r="D709" s="13"/>
       <c r="E709" s="7"/>
     </row>
     <row r="710" spans="1:5">
-      <c r="A710" s="9"/>
+      <c r="A710" s="11"/>
       <c r="B710" s="7"/>
-      <c r="C710" s="9"/>
-      <c r="D710" s="11"/>
+      <c r="C710" s="11"/>
+      <c r="D710" s="13"/>
       <c r="E710" s="7"/>
     </row>
     <row r="711" spans="1:5">
-      <c r="A711" s="9"/>
-      <c r="B711" s="7"/>
-      <c r="C711" s="9"/>
-      <c r="D711" s="11"/>
+      <c r="A711" s="11"/>
+      <c r="B711" s="11"/>
+      <c r="C711" s="11"/>
+      <c r="D711" s="12"/>
       <c r="E711" s="7"/>
     </row>
     <row r="712" spans="1:5">
-      <c r="A712" s="9"/>
-      <c r="B712" s="9"/>
-      <c r="C712" s="9"/>
-      <c r="D712" s="10"/>
+      <c r="A712" s="11"/>
+      <c r="B712" s="11"/>
+      <c r="C712" s="11"/>
+      <c r="D712" s="13"/>
       <c r="E712" s="7"/>
     </row>
     <row r="713" spans="1:5">
-      <c r="A713" s="9"/>
-      <c r="B713" s="9"/>
-      <c r="C713" s="9"/>
-      <c r="D713" s="11"/>
+      <c r="A713" s="11"/>
+      <c r="B713" s="7"/>
+      <c r="C713" s="11"/>
+      <c r="D713" s="13"/>
       <c r="E713" s="7"/>
     </row>
     <row r="714" spans="1:5">
-      <c r="A714" s="9"/>
+      <c r="A714" s="11"/>
       <c r="B714" s="7"/>
-      <c r="C714" s="9"/>
-      <c r="D714" s="11"/>
+      <c r="C714" s="11"/>
+      <c r="D714" s="13"/>
       <c r="E714" s="7"/>
     </row>
     <row r="715" spans="1:5">
-      <c r="A715" s="9"/>
-      <c r="B715" s="7"/>
-      <c r="C715" s="9"/>
-      <c r="D715" s="11"/>
+      <c r="A715" s="11"/>
+      <c r="B715" s="11"/>
+      <c r="C715" s="11"/>
+      <c r="D715" s="13"/>
       <c r="E715" s="7"/>
     </row>
     <row r="716" spans="1:5">
-      <c r="A716" s="9"/>
-      <c r="B716" s="9"/>
-      <c r="C716" s="9"/>
-      <c r="D716" s="11"/>
+      <c r="A716" s="7"/>
+      <c r="B716" s="7"/>
+      <c r="C716" s="11"/>
+      <c r="D716" s="13"/>
       <c r="E716" s="7"/>
     </row>
     <row r="717" spans="1:5">
-      <c r="A717" s="7"/>
-      <c r="B717" s="7"/>
-      <c r="C717" s="9"/>
-      <c r="D717" s="11"/>
+      <c r="A717" s="11"/>
+      <c r="B717" s="11"/>
+      <c r="C717" s="11"/>
+      <c r="D717" s="12"/>
       <c r="E717" s="7"/>
     </row>
     <row r="718" spans="1:5">
-      <c r="A718" s="9"/>
-      <c r="B718" s="9"/>
-      <c r="C718" s="9"/>
-      <c r="D718" s="10"/>
+      <c r="A718" s="11"/>
+      <c r="B718" s="11"/>
+      <c r="C718" s="11"/>
+      <c r="D718" s="12"/>
       <c r="E718" s="7"/>
     </row>
     <row r="719" spans="1:5">
-      <c r="A719" s="9"/>
-      <c r="B719" s="9"/>
-      <c r="C719" s="9"/>
-      <c r="D719" s="10"/>
+      <c r="A719" s="11"/>
+      <c r="B719" s="11"/>
+      <c r="C719" s="11"/>
+      <c r="D719" s="13"/>
       <c r="E719" s="7"/>
     </row>
     <row r="720" spans="1:5">
-      <c r="A720" s="9"/>
-      <c r="B720" s="9"/>
-      <c r="C720" s="9"/>
-      <c r="D720" s="11"/>
+      <c r="A720" s="11"/>
+      <c r="B720" s="11"/>
+      <c r="C720" s="11"/>
+      <c r="D720" s="13"/>
       <c r="E720" s="7"/>
     </row>
     <row r="721" spans="1:5">
-      <c r="A721" s="9"/>
-      <c r="B721" s="9"/>
-      <c r="C721" s="9"/>
-      <c r="D721" s="11"/>
+      <c r="A721" s="11"/>
+      <c r="B721" s="11"/>
+      <c r="C721" s="11"/>
+      <c r="D721" s="13"/>
       <c r="E721" s="7"/>
     </row>
     <row r="722" spans="1:5">
-      <c r="A722" s="9"/>
-      <c r="B722" s="9"/>
-      <c r="C722" s="9"/>
-      <c r="D722" s="11"/>
+      <c r="A722" s="11"/>
+      <c r="B722" s="11"/>
+      <c r="C722" s="11"/>
+      <c r="D722" s="12"/>
       <c r="E722" s="7"/>
     </row>
     <row r="723" spans="1:5">
-      <c r="A723" s="9"/>
-      <c r="B723" s="9"/>
-      <c r="C723" s="9"/>
-      <c r="D723" s="10"/>
+      <c r="A723" s="11"/>
+      <c r="B723" s="7"/>
+      <c r="C723" s="11"/>
+      <c r="D723" s="13"/>
       <c r="E723" s="7"/>
     </row>
     <row r="724" spans="1:5">
-      <c r="A724" s="9"/>
-      <c r="B724" s="7"/>
-      <c r="C724" s="9"/>
-      <c r="D724" s="11"/>
+      <c r="A724" s="11"/>
+      <c r="B724" s="11"/>
+      <c r="C724" s="11"/>
+      <c r="D724" s="12"/>
       <c r="E724" s="7"/>
     </row>
     <row r="725" spans="1:5">
-      <c r="A725" s="9"/>
-      <c r="B725" s="9"/>
-      <c r="C725" s="9"/>
-      <c r="D725" s="10"/>
+      <c r="A725" s="11"/>
+      <c r="B725" s="11"/>
+      <c r="C725" s="11"/>
+      <c r="D725" s="12"/>
       <c r="E725" s="7"/>
     </row>
     <row r="726" spans="1:5">
-      <c r="A726" s="9"/>
-      <c r="B726" s="9"/>
-      <c r="C726" s="9"/>
-      <c r="D726" s="10"/>
+      <c r="A726" s="11"/>
+      <c r="B726" s="11"/>
+      <c r="C726" s="11"/>
+      <c r="D726" s="13"/>
       <c r="E726" s="7"/>
     </row>
     <row r="727" spans="1:5">
-      <c r="A727" s="9"/>
-      <c r="B727" s="9"/>
-      <c r="C727" s="9"/>
-      <c r="D727" s="11"/>
+      <c r="A727" s="11"/>
+      <c r="B727" s="11"/>
+      <c r="C727" s="11"/>
+      <c r="D727" s="12"/>
       <c r="E727" s="7"/>
     </row>
     <row r="728" spans="1:5">
-      <c r="A728" s="9"/>
-      <c r="B728" s="9"/>
-      <c r="C728" s="9"/>
-      <c r="D728" s="10"/>
+      <c r="A728" s="11"/>
+      <c r="B728" s="11"/>
+      <c r="C728" s="11"/>
+      <c r="D728" s="13"/>
       <c r="E728" s="7"/>
     </row>
     <row r="729" spans="1:5">
-      <c r="A729" s="9"/>
-      <c r="B729" s="9"/>
-      <c r="C729" s="9"/>
-      <c r="D729" s="11"/>
+      <c r="A729" s="11"/>
+      <c r="B729" s="11"/>
+      <c r="C729" s="11"/>
+      <c r="D729" s="13"/>
       <c r="E729" s="7"/>
     </row>
     <row r="730" spans="1:5">
-      <c r="A730" s="9"/>
-      <c r="B730" s="9"/>
-      <c r="C730" s="9"/>
-      <c r="D730" s="11"/>
+      <c r="A730" s="11"/>
+      <c r="B730" s="7"/>
+      <c r="C730" s="11"/>
+      <c r="D730" s="13"/>
       <c r="E730" s="7"/>
     </row>
     <row r="731" spans="1:5">
-      <c r="A731" s="9"/>
+      <c r="A731" s="11"/>
       <c r="B731" s="7"/>
-      <c r="C731" s="9"/>
-      <c r="D731" s="11"/>
+      <c r="C731" s="11"/>
+      <c r="D731" s="13"/>
       <c r="E731" s="7"/>
     </row>
     <row r="732" spans="1:5">
-      <c r="A732" s="9"/>
+      <c r="A732" s="11"/>
       <c r="B732" s="7"/>
-      <c r="C732" s="9"/>
-      <c r="D732" s="11"/>
+      <c r="C732" s="11"/>
+      <c r="D732" s="13"/>
       <c r="E732" s="7"/>
     </row>
     <row r="733" spans="1:5">
-      <c r="A733" s="9"/>
+      <c r="A733" s="11"/>
       <c r="B733" s="7"/>
-      <c r="C733" s="9"/>
-      <c r="D733" s="11"/>
+      <c r="C733" s="11"/>
+      <c r="D733" s="13"/>
       <c r="E733" s="7"/>
     </row>
     <row r="734" spans="1:5">
-      <c r="A734" s="9"/>
-      <c r="B734" s="7"/>
-      <c r="C734" s="9"/>
-      <c r="D734" s="11"/>
+      <c r="A734" s="11"/>
+      <c r="B734" s="11"/>
+      <c r="C734" s="11"/>
+      <c r="D734" s="13"/>
       <c r="E734" s="7"/>
     </row>
     <row r="735" spans="1:5">
-      <c r="A735" s="9"/>
-      <c r="B735" s="9"/>
-      <c r="C735" s="9"/>
-      <c r="D735" s="11"/>
+      <c r="A735" s="11"/>
+      <c r="B735" s="11"/>
+      <c r="C735" s="11"/>
+      <c r="D735" s="13"/>
       <c r="E735" s="7"/>
     </row>
     <row r="736" spans="1:5">
-      <c r="A736" s="9"/>
-      <c r="B736" s="9"/>
-      <c r="C736" s="9"/>
-      <c r="D736" s="11"/>
+      <c r="A736" s="11"/>
+      <c r="B736" s="11"/>
+      <c r="C736" s="11"/>
+      <c r="D736" s="13"/>
       <c r="E736" s="7"/>
     </row>
     <row r="737" spans="1:5">
-      <c r="A737" s="9"/>
-      <c r="B737" s="9"/>
-      <c r="C737" s="9"/>
-      <c r="D737" s="11"/>
+      <c r="A737" s="11"/>
+      <c r="B737" s="11"/>
+      <c r="C737" s="11"/>
+      <c r="D737" s="13"/>
       <c r="E737" s="7"/>
     </row>
     <row r="738" spans="1:5">
-      <c r="A738" s="9"/>
-      <c r="B738" s="9"/>
-      <c r="C738" s="9"/>
-      <c r="D738" s="11"/>
+      <c r="A738" s="11"/>
+      <c r="B738" s="11"/>
+      <c r="C738" s="11"/>
+      <c r="D738" s="12"/>
       <c r="E738" s="7"/>
     </row>
     <row r="739" spans="1:5">
-      <c r="A739" s="9"/>
-      <c r="B739" s="9"/>
-      <c r="C739" s="9"/>
-      <c r="D739" s="10"/>
+      <c r="A739" s="7"/>
+      <c r="B739" s="7"/>
+      <c r="C739" s="7"/>
+      <c r="D739" s="13"/>
       <c r="E739" s="7"/>
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="7"/>
       <c r="B740" s="7"/>
-      <c r="C740" s="7"/>
-      <c r="D740" s="11"/>
+      <c r="C740" s="11"/>
+      <c r="D740" s="13"/>
       <c r="E740" s="7"/>
     </row>
     <row r="741" spans="1:5">
-      <c r="A741" s="7"/>
-      <c r="B741" s="7"/>
-      <c r="C741" s="9"/>
-      <c r="D741" s="11"/>
+      <c r="A741" s="11"/>
+      <c r="B741" s="11"/>
+      <c r="C741" s="11"/>
+      <c r="D741" s="13"/>
       <c r="E741" s="7"/>
     </row>
     <row r="742" spans="1:5">
-      <c r="A742" s="9"/>
-      <c r="B742" s="9"/>
-      <c r="C742" s="9"/>
-      <c r="D742" s="11"/>
+      <c r="A742" s="11"/>
+      <c r="B742" s="11"/>
+      <c r="C742" s="11"/>
+      <c r="D742" s="12"/>
       <c r="E742" s="7"/>
     </row>
     <row r="743" spans="1:5">
-      <c r="A743" s="9"/>
-      <c r="B743" s="9"/>
-      <c r="C743" s="9"/>
-      <c r="D743" s="10"/>
+      <c r="A743" s="11"/>
+      <c r="B743" s="11"/>
+      <c r="C743" s="11"/>
+      <c r="D743" s="13"/>
       <c r="E743" s="7"/>
     </row>
     <row r="744" spans="1:5">
-      <c r="A744" s="9"/>
-      <c r="B744" s="9"/>
-      <c r="C744" s="9"/>
-      <c r="D744" s="11"/>
+      <c r="A744" s="11"/>
+      <c r="B744" s="11"/>
+      <c r="C744" s="11"/>
+      <c r="D744" s="13"/>
       <c r="E744" s="7"/>
     </row>
     <row r="745" spans="1:5">
-      <c r="A745" s="9"/>
-      <c r="B745" s="9"/>
-      <c r="C745" s="9"/>
-      <c r="D745" s="11"/>
+      <c r="A745" s="11"/>
+      <c r="B745" s="7"/>
+      <c r="C745" s="11"/>
+      <c r="D745" s="12"/>
       <c r="E745" s="7"/>
     </row>
     <row r="746" spans="1:5">
-      <c r="A746" s="9"/>
-      <c r="B746" s="7"/>
-      <c r="C746" s="9"/>
-      <c r="D746" s="10"/>
+      <c r="A746" s="11"/>
+      <c r="B746" s="11"/>
+      <c r="C746" s="11"/>
+      <c r="D746" s="12"/>
       <c r="E746" s="7"/>
     </row>
     <row r="747" spans="1:5">
-      <c r="A747" s="9"/>
-      <c r="B747" s="9"/>
-      <c r="C747" s="9"/>
-      <c r="D747" s="10"/>
+      <c r="A747" s="11"/>
+      <c r="B747" s="11"/>
+      <c r="C747" s="11"/>
+      <c r="D747" s="12"/>
       <c r="E747" s="7"/>
     </row>
     <row r="748" spans="1:5">
-      <c r="A748" s="9"/>
-      <c r="B748" s="9"/>
-      <c r="C748" s="9"/>
-      <c r="D748" s="10"/>
+      <c r="A748" s="11"/>
+      <c r="B748" s="7"/>
+      <c r="C748" s="11"/>
+      <c r="D748" s="13"/>
       <c r="E748" s="7"/>
     </row>
     <row r="749" spans="1:5">
-      <c r="A749" s="9"/>
-      <c r="B749" s="7"/>
-      <c r="C749" s="9"/>
-      <c r="D749" s="11"/>
+      <c r="A749" s="11"/>
+      <c r="B749" s="11"/>
+      <c r="C749" s="11"/>
+      <c r="D749" s="12"/>
       <c r="E749" s="7"/>
     </row>
     <row r="750" spans="1:5">
-      <c r="A750" s="9"/>
-      <c r="B750" s="9"/>
-      <c r="C750" s="9"/>
-      <c r="D750" s="10"/>
+      <c r="A750" s="11"/>
+      <c r="B750" s="7"/>
+      <c r="C750" s="11"/>
+      <c r="D750" s="13"/>
       <c r="E750" s="7"/>
     </row>
     <row r="751" spans="1:5">
-      <c r="A751" s="9"/>
+      <c r="A751" s="11"/>
       <c r="B751" s="7"/>
-      <c r="C751" s="9"/>
-      <c r="D751" s="11"/>
+      <c r="C751" s="11"/>
+      <c r="D751" s="13"/>
       <c r="E751" s="7"/>
     </row>
     <row r="752" spans="1:5">
-      <c r="A752" s="9"/>
+      <c r="A752" s="11"/>
       <c r="B752" s="7"/>
-      <c r="C752" s="9"/>
-      <c r="D752" s="11"/>
+      <c r="C752" s="11"/>
+      <c r="D752" s="12"/>
       <c r="E752" s="7"/>
     </row>
     <row r="753" spans="1:5">
-      <c r="A753" s="9"/>
-      <c r="B753" s="7"/>
-      <c r="C753" s="9"/>
-      <c r="D753" s="10"/>
+      <c r="A753" s="11"/>
+      <c r="B753" s="11"/>
+      <c r="C753" s="11"/>
+      <c r="D753" s="12"/>
       <c r="E753" s="7"/>
     </row>
     <row r="754" spans="1:5">
-      <c r="A754" s="9"/>
-      <c r="B754" s="9"/>
-      <c r="C754" s="9"/>
-      <c r="D754" s="10"/>
+      <c r="A754" s="11"/>
+      <c r="B754" s="7"/>
+      <c r="C754" s="11"/>
+      <c r="D754" s="12"/>
       <c r="E754" s="7"/>
     </row>
     <row r="755" spans="1:5">
-      <c r="A755" s="9"/>
-      <c r="B755" s="7"/>
-      <c r="C755" s="9"/>
-      <c r="D755" s="10"/>
+      <c r="A755" s="11"/>
+      <c r="B755" s="11"/>
+      <c r="C755" s="11"/>
+      <c r="D755" s="12"/>
       <c r="E755" s="7"/>
     </row>
     <row r="756" spans="1:5">
-      <c r="A756" s="9"/>
-      <c r="B756" s="9"/>
-      <c r="C756" s="9"/>
-      <c r="D756" s="10"/>
+      <c r="A756" s="11"/>
+      <c r="B756" s="11"/>
+      <c r="C756" s="11"/>
+      <c r="D756" s="12"/>
       <c r="E756" s="7"/>
     </row>
     <row r="757" spans="1:5">
-      <c r="A757" s="9"/>
-      <c r="B757" s="9"/>
-      <c r="C757" s="9"/>
-      <c r="D757" s="10"/>
+      <c r="A757" s="11"/>
+      <c r="B757" s="11"/>
+      <c r="C757" s="11"/>
+      <c r="D757" s="12"/>
       <c r="E757" s="7"/>
     </row>
     <row r="758" spans="1:5">
-      <c r="A758" s="9"/>
-      <c r="B758" s="9"/>
-      <c r="C758" s="9"/>
-      <c r="D758" s="10"/>
+      <c r="A758" s="11"/>
+      <c r="B758" s="11"/>
+      <c r="C758" s="11"/>
+      <c r="D758" s="12"/>
       <c r="E758" s="7"/>
     </row>
     <row r="759" spans="1:5">
-      <c r="A759" s="9"/>
-      <c r="B759" s="9"/>
-      <c r="C759" s="9"/>
-      <c r="D759" s="10"/>
+      <c r="A759" s="11"/>
+      <c r="B759" s="11"/>
+      <c r="C759" s="11"/>
+      <c r="D759" s="13"/>
       <c r="E759" s="7"/>
     </row>
     <row r="760" spans="1:5">
-      <c r="A760" s="9"/>
-      <c r="B760" s="9"/>
-      <c r="C760" s="9"/>
-      <c r="D760" s="11"/>
+      <c r="A760" s="11"/>
+      <c r="B760" s="11"/>
+      <c r="C760" s="11"/>
+      <c r="D760" s="13"/>
       <c r="E760" s="7"/>
     </row>
     <row r="761" spans="1:5">
-      <c r="A761" s="9"/>
-      <c r="B761" s="9"/>
-      <c r="C761" s="9"/>
-      <c r="D761" s="11"/>
+      <c r="A761" s="11"/>
+      <c r="B761" s="11"/>
+      <c r="C761" s="11"/>
+      <c r="D761" s="12"/>
       <c r="E761" s="7"/>
     </row>
     <row r="762" spans="1:5">
-      <c r="A762" s="9"/>
-      <c r="B762" s="9"/>
-      <c r="C762" s="9"/>
-      <c r="D762" s="10"/>
+      <c r="A762" s="11"/>
+      <c r="B762" s="7"/>
+      <c r="C762" s="11"/>
+      <c r="D762" s="12"/>
       <c r="E762" s="7"/>
     </row>
     <row r="763" spans="1:5">
-      <c r="A763" s="9"/>
+      <c r="A763" s="11"/>
       <c r="B763" s="7"/>
-      <c r="C763" s="9"/>
-      <c r="D763" s="10"/>
+      <c r="C763" s="11"/>
+      <c r="D763" s="12"/>
       <c r="E763" s="7"/>
     </row>
     <row r="764" spans="1:5">
-      <c r="A764" s="9"/>
-      <c r="B764" s="7"/>
-      <c r="C764" s="9"/>
-      <c r="D764" s="10"/>
+      <c r="A764" s="11"/>
+      <c r="B764" s="18"/>
+      <c r="C764" s="11"/>
+      <c r="D764" s="13"/>
       <c r="E764" s="7"/>
     </row>
     <row r="765" spans="1:5">
-      <c r="A765" s="9"/>
-      <c r="B765" s="16"/>
-      <c r="C765" s="9"/>
-      <c r="D765" s="11"/>
+      <c r="A765" s="11"/>
+      <c r="B765" s="7"/>
+      <c r="C765" s="11"/>
+      <c r="D765" s="13"/>
       <c r="E765" s="7"/>
     </row>
     <row r="766" spans="1:5">
-      <c r="A766" s="9"/>
+      <c r="A766" s="7"/>
       <c r="B766" s="7"/>
-      <c r="C766" s="9"/>
-      <c r="D766" s="11"/>
+      <c r="C766" s="11"/>
+      <c r="D766" s="13"/>
       <c r="E766" s="7"/>
     </row>
     <row r="767" spans="1:5">
-      <c r="A767" s="7"/>
+      <c r="A767" s="11"/>
       <c r="B767" s="7"/>
-      <c r="C767" s="9"/>
-      <c r="D767" s="11"/>
+      <c r="C767" s="11"/>
+      <c r="D767" s="12"/>
       <c r="E767" s="7"/>
     </row>
     <row r="768" spans="1:5">
-      <c r="A768" s="9"/>
-      <c r="B768" s="7"/>
-      <c r="C768" s="9"/>
-      <c r="D768" s="10"/>
+      <c r="A768" s="11"/>
+      <c r="B768" s="11"/>
+      <c r="C768" s="11"/>
+      <c r="D768" s="13"/>
       <c r="E768" s="7"/>
     </row>
     <row r="769" spans="1:5">
-      <c r="A769" s="9"/>
-      <c r="B769" s="9"/>
-      <c r="C769" s="9"/>
-      <c r="D769" s="11"/>
+      <c r="A769" s="7"/>
+      <c r="B769" s="11"/>
+      <c r="C769" s="11"/>
+      <c r="D769" s="13"/>
       <c r="E769" s="7"/>
     </row>
     <row r="770" spans="1:5">
-      <c r="A770" s="7"/>
-      <c r="B770" s="9"/>
-      <c r="C770" s="9"/>
-      <c r="D770" s="11"/>
+      <c r="A770" s="11"/>
+      <c r="B770" s="7"/>
+      <c r="C770" s="11"/>
+      <c r="D770" s="12"/>
       <c r="E770" s="7"/>
     </row>
     <row r="771" spans="1:5">
-      <c r="A771" s="9"/>
-      <c r="B771" s="7"/>
-      <c r="C771" s="9"/>
-      <c r="D771" s="10"/>
+      <c r="A771" s="11"/>
+      <c r="B771" s="11"/>
+      <c r="C771" s="11"/>
+      <c r="D771" s="13"/>
       <c r="E771" s="7"/>
     </row>
     <row r="772" spans="1:5">
-      <c r="A772" s="9"/>
-      <c r="B772" s="9"/>
-      <c r="C772" s="9"/>
-      <c r="D772" s="11"/>
+      <c r="A772" s="7"/>
+      <c r="B772" s="11"/>
+      <c r="C772" s="11"/>
+      <c r="D772" s="13"/>
       <c r="E772" s="7"/>
     </row>
     <row r="773" spans="1:5">
-      <c r="A773" s="7"/>
-      <c r="B773" s="9"/>
-      <c r="C773" s="9"/>
-      <c r="D773" s="11"/>
+      <c r="A773" s="11"/>
+      <c r="B773" s="7"/>
+      <c r="C773" s="11"/>
+      <c r="D773" s="13"/>
       <c r="E773" s="7"/>
     </row>
     <row r="774" spans="1:5">
-      <c r="A774" s="9"/>
-      <c r="B774" s="7"/>
-      <c r="C774" s="9"/>
-      <c r="D774" s="11"/>
+      <c r="A774" s="11"/>
+      <c r="B774" s="11"/>
+      <c r="C774" s="11"/>
+      <c r="D774" s="12"/>
       <c r="E774" s="7"/>
     </row>
     <row r="775" spans="1:5">
-      <c r="A775" s="9"/>
-      <c r="B775" s="9"/>
-      <c r="C775" s="9"/>
-      <c r="D775" s="10"/>
+      <c r="A775" s="11"/>
+      <c r="B775" s="11"/>
+      <c r="C775" s="11"/>
+      <c r="D775" s="12"/>
       <c r="E775" s="7"/>
     </row>
     <row r="776" spans="1:5">
-      <c r="A776" s="9"/>
-      <c r="B776" s="9"/>
-      <c r="C776" s="9"/>
-      <c r="D776" s="10"/>
+      <c r="A776" s="11"/>
+      <c r="B776" s="7"/>
+      <c r="C776" s="11"/>
+      <c r="D776" s="13"/>
       <c r="E776" s="7"/>
     </row>
     <row r="777" spans="1:5">
-      <c r="A777" s="9"/>
-      <c r="B777" s="7"/>
-      <c r="C777" s="9"/>
-      <c r="D777" s="11"/>
+      <c r="A777" s="11"/>
+      <c r="B777" s="11"/>
+      <c r="C777" s="11"/>
+      <c r="D777" s="12"/>
       <c r="E777" s="7"/>
     </row>
     <row r="778" spans="1:5">
-      <c r="A778" s="9"/>
-      <c r="B778" s="9"/>
-      <c r="C778" s="9"/>
-      <c r="D778" s="10"/>
+      <c r="A778" s="11"/>
+      <c r="B778" s="14"/>
+      <c r="C778" s="11"/>
+      <c r="D778" s="13"/>
       <c r="E778" s="7"/>
     </row>
     <row r="779" spans="1:5">
-      <c r="A779" s="9"/>
-      <c r="B779" s="12"/>
-      <c r="C779" s="9"/>
-      <c r="D779" s="11"/>
+      <c r="A779" s="11"/>
+      <c r="B779" s="7"/>
+      <c r="C779" s="11"/>
+      <c r="D779" s="13"/>
       <c r="E779" s="7"/>
     </row>
     <row r="780" spans="1:5">
-      <c r="A780" s="9"/>
+      <c r="A780" s="11"/>
       <c r="B780" s="7"/>
-      <c r="C780" s="9"/>
-      <c r="D780" s="11"/>
+      <c r="C780" s="11"/>
+      <c r="D780" s="13"/>
       <c r="E780" s="7"/>
     </row>
     <row r="781" spans="1:5">
-      <c r="A781" s="9"/>
+      <c r="A781" s="11"/>
       <c r="B781" s="7"/>
-      <c r="C781" s="9"/>
-      <c r="D781" s="11"/>
+      <c r="C781" s="11"/>
+      <c r="D781" s="13"/>
       <c r="E781" s="7"/>
     </row>
     <row r="782" spans="1:5">
-      <c r="A782" s="9"/>
-      <c r="B782" s="7"/>
-      <c r="C782" s="9"/>
-      <c r="D782" s="11"/>
+      <c r="A782" s="11"/>
+      <c r="B782" s="11"/>
+      <c r="C782" s="11"/>
+      <c r="D782" s="13"/>
       <c r="E782" s="7"/>
     </row>
     <row r="783" spans="1:5">
-      <c r="A783" s="9"/>
-      <c r="B783" s="9"/>
-      <c r="C783" s="9"/>
-      <c r="D783" s="11"/>
+      <c r="A783" s="11"/>
+      <c r="B783" s="7"/>
+      <c r="C783" s="11"/>
+      <c r="D783" s="13"/>
       <c r="E783" s="7"/>
     </row>
     <row r="784" spans="1:5">
-      <c r="A784" s="9"/>
-      <c r="B784" s="7"/>
-      <c r="C784" s="9"/>
-      <c r="D784" s="11"/>
+      <c r="A784" s="11"/>
+      <c r="B784" s="11"/>
+      <c r="C784" s="11"/>
+      <c r="D784" s="13"/>
       <c r="E784" s="7"/>
     </row>
     <row r="785" spans="1:5">
-      <c r="A785" s="9"/>
-      <c r="B785" s="9"/>
-      <c r="C785" s="9"/>
-      <c r="D785" s="11"/>
+      <c r="A785" s="11"/>
+      <c r="B785" s="11"/>
+      <c r="C785" s="11"/>
+      <c r="D785" s="13"/>
       <c r="E785" s="7"/>
     </row>
     <row r="786" spans="1:5">
-      <c r="A786" s="9"/>
-      <c r="B786" s="9"/>
-      <c r="C786" s="9"/>
-      <c r="D786" s="11"/>
+      <c r="A786" s="11"/>
+      <c r="B786" s="11"/>
+      <c r="C786" s="11"/>
+      <c r="D786" s="13"/>
       <c r="E786" s="7"/>
     </row>
     <row r="787" spans="1:5">
-      <c r="A787" s="9"/>
-      <c r="B787" s="9"/>
-      <c r="C787" s="9"/>
-      <c r="D787" s="11"/>
+      <c r="A787" s="11"/>
+      <c r="B787" s="11"/>
+      <c r="C787" s="11"/>
+      <c r="D787" s="12"/>
       <c r="E787" s="7"/>
     </row>
     <row r="788" spans="1:5">
-      <c r="A788" s="9"/>
-      <c r="B788" s="9"/>
-      <c r="C788" s="9"/>
-      <c r="D788" s="10"/>
+      <c r="A788" s="11"/>
+      <c r="B788" s="7"/>
+      <c r="C788" s="11"/>
+      <c r="D788" s="13"/>
       <c r="E788" s="7"/>
     </row>
     <row r="789" spans="1:5">
-      <c r="A789" s="9"/>
-      <c r="B789" s="7"/>
-      <c r="C789" s="9"/>
-      <c r="D789" s="11"/>
+      <c r="A789" s="11"/>
+      <c r="B789" s="11"/>
+      <c r="C789" s="11"/>
+      <c r="D789" s="12"/>
       <c r="E789" s="7"/>
     </row>
     <row r="790" spans="1:5">
-      <c r="A790" s="9"/>
-      <c r="B790" s="9"/>
-      <c r="C790" s="9"/>
-      <c r="D790" s="10"/>
+      <c r="A790" s="11"/>
+      <c r="B790" s="11"/>
+      <c r="C790" s="11"/>
+      <c r="D790" s="13"/>
       <c r="E790" s="7"/>
     </row>
     <row r="791" spans="1:5">
-      <c r="A791" s="9"/>
-      <c r="B791" s="9"/>
-      <c r="C791" s="9"/>
-      <c r="D791" s="11"/>
+      <c r="A791" s="11"/>
+      <c r="B791" s="11"/>
+      <c r="C791" s="11"/>
+      <c r="D791" s="12"/>
       <c r="E791" s="7"/>
     </row>
     <row r="792" spans="1:5">
-      <c r="A792" s="9"/>
-      <c r="B792" s="9"/>
-      <c r="C792" s="9"/>
-      <c r="D792" s="10"/>
+      <c r="A792" s="11"/>
+      <c r="B792" s="11"/>
+      <c r="C792" s="11"/>
+      <c r="D792" s="13"/>
       <c r="E792" s="7"/>
     </row>
     <row r="793" spans="1:5">
-      <c r="A793" s="9"/>
-      <c r="B793" s="9"/>
-      <c r="C793" s="9"/>
-      <c r="D793" s="11"/>
+      <c r="A793" s="11"/>
+      <c r="B793" s="7"/>
+      <c r="C793" s="11"/>
+      <c r="D793" s="13"/>
       <c r="E793" s="7"/>
     </row>
     <row r="794" spans="1:5">
-      <c r="A794" s="9"/>
-      <c r="B794" s="7"/>
-      <c r="C794" s="9"/>
-      <c r="D794" s="11"/>
+      <c r="A794" s="11"/>
+      <c r="B794" s="11"/>
+      <c r="C794" s="11"/>
+      <c r="D794" s="13"/>
       <c r="E794" s="7"/>
     </row>
     <row r="795" spans="1:5">
-      <c r="A795" s="9"/>
-      <c r="B795" s="9"/>
-      <c r="C795" s="9"/>
-      <c r="D795" s="11"/>
+      <c r="A795" s="11"/>
+      <c r="B795" s="7"/>
+      <c r="C795" s="11"/>
+      <c r="D795" s="13"/>
       <c r="E795" s="7"/>
     </row>
     <row r="796" spans="1:5">
-      <c r="A796" s="9"/>
+      <c r="A796" s="11"/>
       <c r="B796" s="7"/>
-      <c r="C796" s="9"/>
-      <c r="D796" s="11"/>
+      <c r="C796" s="11"/>
+      <c r="D796" s="13"/>
       <c r="E796" s="7"/>
     </row>
     <row r="797" spans="1:5">
-      <c r="A797" s="9"/>
-      <c r="B797" s="7"/>
-      <c r="C797" s="9"/>
-      <c r="D797" s="11"/>
+      <c r="A797" s="11"/>
+      <c r="B797" s="11"/>
+      <c r="C797" s="11"/>
+      <c r="D797" s="12"/>
       <c r="E797" s="7"/>
     </row>
     <row r="798" spans="1:5">
-      <c r="A798" s="9"/>
-      <c r="B798" s="9"/>
-      <c r="C798" s="9"/>
-      <c r="D798" s="10"/>
+      <c r="A798" s="11"/>
+      <c r="B798" s="11"/>
+      <c r="C798" s="11"/>
+      <c r="D798" s="13"/>
       <c r="E798" s="7"/>
     </row>
     <row r="799" spans="1:5">
-      <c r="A799" s="9"/>
-      <c r="B799" s="9"/>
-      <c r="C799" s="9"/>
-      <c r="D799" s="11"/>
+      <c r="A799" s="11"/>
+      <c r="B799" s="7"/>
+      <c r="C799" s="11"/>
+      <c r="D799" s="13"/>
       <c r="E799" s="7"/>
     </row>
     <row r="800" spans="1:5">
-      <c r="A800" s="9"/>
-      <c r="B800" s="7"/>
-      <c r="C800" s="9"/>
-      <c r="D800" s="11"/>
+      <c r="A800" s="11"/>
+      <c r="B800" s="11"/>
+      <c r="C800" s="11"/>
+      <c r="D800" s="12"/>
       <c r="E800" s="7"/>
     </row>
     <row r="801" spans="1:5">
-      <c r="A801" s="9"/>
-      <c r="B801" s="9"/>
-      <c r="C801" s="9"/>
-      <c r="D801" s="10"/>
+      <c r="A801" s="11"/>
+      <c r="B801" s="11"/>
+      <c r="C801" s="11"/>
+      <c r="D801" s="13"/>
       <c r="E801" s="7"/>
     </row>
     <row r="802" spans="1:5">
-      <c r="A802" s="9"/>
-      <c r="B802" s="9"/>
-      <c r="C802" s="9"/>
-      <c r="D802" s="11"/>
+      <c r="A802" s="11"/>
+      <c r="B802" s="11"/>
+      <c r="C802" s="11"/>
+      <c r="D802" s="13"/>
       <c r="E802" s="7"/>
     </row>
     <row r="803" spans="1:5">
-      <c r="A803" s="9"/>
-      <c r="B803" s="9"/>
-      <c r="C803" s="9"/>
-      <c r="D803" s="11"/>
+      <c r="A803" s="11"/>
+      <c r="B803" s="7"/>
+      <c r="C803" s="11"/>
+      <c r="D803" s="13"/>
       <c r="E803" s="7"/>
     </row>
     <row r="804" spans="1:5">
-      <c r="A804" s="9"/>
-      <c r="B804" s="7"/>
-      <c r="C804" s="9"/>
-      <c r="D804" s="11"/>
+      <c r="A804" s="11"/>
+      <c r="B804" s="11"/>
+      <c r="C804" s="11"/>
+      <c r="D804" s="13"/>
       <c r="E804" s="7"/>
     </row>
     <row r="805" spans="1:5">
-      <c r="A805" s="9"/>
-      <c r="B805" s="9"/>
-      <c r="C805" s="9"/>
-      <c r="D805" s="11"/>
+      <c r="A805" s="11"/>
+      <c r="B805" s="11"/>
+      <c r="C805" s="11"/>
+      <c r="D805" s="13"/>
       <c r="E805" s="7"/>
     </row>
     <row r="806" spans="1:5">
-      <c r="A806" s="9"/>
-      <c r="B806" s="9"/>
-      <c r="C806" s="9"/>
-      <c r="D806" s="11"/>
+      <c r="A806" s="11"/>
+      <c r="B806" s="11"/>
+      <c r="C806" s="11"/>
+      <c r="D806" s="12"/>
       <c r="E806" s="7"/>
     </row>
     <row r="807" spans="1:5">
-      <c r="A807" s="9"/>
-      <c r="B807" s="9"/>
-      <c r="C807" s="9"/>
-      <c r="D807" s="10"/>
+      <c r="A807" s="11"/>
+      <c r="B807" s="7"/>
+      <c r="C807" s="11"/>
+      <c r="D807" s="12"/>
       <c r="E807" s="7"/>
     </row>
     <row r="808" spans="1:5">
-      <c r="A808" s="9"/>
-      <c r="B808" s="7"/>
-      <c r="C808" s="9"/>
-      <c r="D808" s="10"/>
+      <c r="A808" s="11"/>
+      <c r="B808" s="11"/>
+      <c r="C808" s="11"/>
+      <c r="D808" s="12"/>
       <c r="E808" s="7"/>
     </row>
     <row r="809" spans="1:5">
-      <c r="A809" s="9"/>
-      <c r="B809" s="9"/>
-      <c r="C809" s="9"/>
-      <c r="D809" s="10"/>
+      <c r="A809" s="11"/>
+      <c r="B809" s="11"/>
+      <c r="C809" s="11"/>
+      <c r="D809" s="12"/>
       <c r="E809" s="7"/>
     </row>
     <row r="810" spans="1:5">
-      <c r="A810" s="9"/>
-      <c r="B810" s="9"/>
-      <c r="C810" s="9"/>
-      <c r="D810" s="10"/>
+      <c r="A810" s="11"/>
+      <c r="B810" s="11"/>
+      <c r="C810" s="11"/>
+      <c r="D810" s="12"/>
       <c r="E810" s="7"/>
     </row>
     <row r="811" spans="1:5">
-      <c r="A811" s="9"/>
-      <c r="B811" s="9"/>
-      <c r="C811" s="9"/>
-      <c r="D811" s="10"/>
+      <c r="A811" s="11"/>
+      <c r="B811" s="11"/>
+      <c r="C811" s="11"/>
+      <c r="D811" s="12"/>
       <c r="E811" s="7"/>
     </row>
     <row r="812" spans="1:5">
-      <c r="A812" s="9"/>
-      <c r="B812" s="9"/>
-      <c r="C812" s="9"/>
-      <c r="D812" s="10"/>
+      <c r="A812" s="11"/>
+      <c r="B812" s="11"/>
+      <c r="C812" s="11"/>
+      <c r="D812" s="12"/>
       <c r="E812" s="7"/>
     </row>
     <row r="813" spans="1:5">
-      <c r="A813" s="9"/>
-      <c r="B813" s="9"/>
-      <c r="C813" s="9"/>
-      <c r="D813" s="10"/>
+      <c r="A813" s="11"/>
+      <c r="B813" s="11"/>
+      <c r="C813" s="11"/>
+      <c r="D813" s="12"/>
       <c r="E813" s="7"/>
     </row>
     <row r="814" spans="1:5">
-      <c r="A814" s="9"/>
-      <c r="B814" s="9"/>
-      <c r="C814" s="9"/>
-      <c r="D814" s="10"/>
+      <c r="A814" s="11"/>
+      <c r="B814" s="11"/>
+      <c r="C814" s="11"/>
+      <c r="D814" s="12"/>
       <c r="E814" s="7"/>
     </row>
     <row r="815" spans="1:5">
-      <c r="A815" s="9"/>
-      <c r="B815" s="9"/>
-      <c r="C815" s="9"/>
-      <c r="D815" s="10"/>
+      <c r="A815" s="11"/>
+      <c r="B815" s="11"/>
+      <c r="C815" s="11"/>
+      <c r="D815" s="13"/>
       <c r="E815" s="7"/>
     </row>
     <row r="816" spans="1:5">
-      <c r="A816" s="9"/>
-      <c r="B816" s="9"/>
-      <c r="C816" s="9"/>
-      <c r="D816" s="11"/>
+      <c r="A816" s="11"/>
+      <c r="B816" s="7"/>
+      <c r="C816" s="11"/>
+      <c r="D816" s="13"/>
       <c r="E816" s="7"/>
     </row>
     <row r="817" spans="1:5">
-      <c r="A817" s="9"/>
+      <c r="A817" s="11"/>
       <c r="B817" s="7"/>
-      <c r="C817" s="9"/>
-      <c r="D817" s="11"/>
+      <c r="C817" s="11"/>
+      <c r="D817" s="13"/>
       <c r="E817" s="7"/>
     </row>
     <row r="818" spans="1:5">
-      <c r="A818" s="9"/>
+      <c r="A818" s="11"/>
       <c r="B818" s="7"/>
-      <c r="C818" s="9"/>
-      <c r="D818" s="11"/>
+      <c r="C818" s="11"/>
+      <c r="D818" s="12"/>
       <c r="E818" s="7"/>
     </row>
     <row r="819" spans="1:5">
-      <c r="A819" s="9"/>
+      <c r="A819" s="11"/>
       <c r="B819" s="7"/>
-      <c r="C819" s="9"/>
-      <c r="D819" s="10"/>
+      <c r="C819" s="11"/>
+      <c r="D819" s="13"/>
       <c r="E819" s="7"/>
     </row>
     <row r="820" spans="1:5">
-      <c r="A820" s="9"/>
-      <c r="B820" s="7"/>
-      <c r="C820" s="9"/>
-      <c r="D820" s="11"/>
+      <c r="A820" s="11"/>
+      <c r="B820" s="11"/>
+      <c r="C820" s="11"/>
+      <c r="D820" s="13"/>
       <c r="E820" s="7"/>
     </row>
     <row r="821" spans="1:5">
-      <c r="A821" s="9"/>
-      <c r="B821" s="9"/>
-      <c r="C821" s="9"/>
-      <c r="D821" s="11"/>
+      <c r="A821" s="11"/>
+      <c r="B821" s="7"/>
+      <c r="C821" s="11"/>
+      <c r="D821" s="13"/>
       <c r="E821" s="7"/>
     </row>
     <row r="822" spans="1:5">
-      <c r="A822" s="9"/>
-      <c r="B822" s="7"/>
-      <c r="C822" s="9"/>
-      <c r="D822" s="11"/>
+      <c r="A822" s="11"/>
+      <c r="B822" s="11"/>
+      <c r="C822" s="11"/>
+      <c r="D822" s="12"/>
       <c r="E822" s="7"/>
     </row>
     <row r="823" spans="1:5">
-      <c r="A823" s="9"/>
-      <c r="B823" s="9"/>
-      <c r="C823" s="9"/>
-      <c r="D823" s="10"/>
+      <c r="A823" s="11"/>
+      <c r="B823" s="11"/>
+      <c r="C823" s="11"/>
+      <c r="D823" s="13"/>
       <c r="E823" s="7"/>
     </row>
     <row r="824" spans="1:5">
-      <c r="A824" s="9"/>
-      <c r="B824" s="9"/>
-      <c r="C824" s="9"/>
-      <c r="D824" s="11"/>
+      <c r="A824" s="7"/>
+      <c r="B824" s="11"/>
+      <c r="C824" s="11"/>
+      <c r="D824" s="13"/>
       <c r="E824" s="7"/>
     </row>
     <row r="825" spans="1:5">
-      <c r="A825" s="7"/>
-      <c r="B825" s="9"/>
-      <c r="C825" s="9"/>
-      <c r="D825" s="11"/>
+      <c r="A825" s="11"/>
+      <c r="B825" s="11"/>
+      <c r="C825" s="11"/>
+      <c r="D825" s="13"/>
       <c r="E825" s="7"/>
     </row>
     <row r="826" spans="1:5">
-      <c r="A826" s="9"/>
-      <c r="B826" s="9"/>
-      <c r="C826" s="9"/>
-      <c r="D826" s="11"/>
+      <c r="A826" s="11"/>
+      <c r="B826" s="7"/>
+      <c r="C826" s="11"/>
+      <c r="D826" s="12"/>
       <c r="E826" s="7"/>
     </row>
     <row r="827" spans="1:5">
-      <c r="A827" s="9"/>
+      <c r="A827" s="11"/>
       <c r="B827" s="7"/>
-      <c r="C827" s="9"/>
-      <c r="D827" s="10"/>
+      <c r="C827" s="11"/>
+      <c r="D827" s="12"/>
       <c r="E827" s="7"/>
     </row>
     <row r="828" spans="1:5">
-      <c r="A828" s="9"/>
-      <c r="B828" s="7"/>
-      <c r="C828" s="9"/>
-      <c r="D828" s="10"/>
+      <c r="A828" s="11"/>
+      <c r="B828" s="11"/>
+      <c r="C828" s="11"/>
+      <c r="D828" s="13"/>
       <c r="E828" s="7"/>
     </row>
     <row r="829" spans="1:5">
-      <c r="A829" s="9"/>
-      <c r="B829" s="9"/>
-      <c r="C829" s="9"/>
-      <c r="D829" s="11"/>
+      <c r="A829" s="11"/>
+      <c r="B829" s="7"/>
+      <c r="C829" s="11"/>
+      <c r="D829" s="12"/>
       <c r="E829" s="7"/>
     </row>
     <row r="830" spans="1:5">
-      <c r="A830" s="9"/>
-      <c r="B830" s="7"/>
-      <c r="C830" s="9"/>
-      <c r="D830" s="10"/>
+      <c r="A830" s="11"/>
+      <c r="B830" s="11"/>
+      <c r="C830" s="11"/>
+      <c r="D830" s="13"/>
       <c r="E830" s="7"/>
     </row>
     <row r="831" spans="1:5">
-      <c r="A831" s="9"/>
-      <c r="B831" s="9"/>
-      <c r="C831" s="9"/>
-      <c r="D831" s="11"/>
+      <c r="A831" s="11"/>
+      <c r="B831" s="7"/>
+      <c r="C831" s="11"/>
+      <c r="D831" s="13"/>
       <c r="E831" s="7"/>
     </row>
     <row r="832" spans="1:5">
-      <c r="A832" s="9"/>
+      <c r="A832" s="11"/>
       <c r="B832" s="7"/>
-      <c r="C832" s="9"/>
-      <c r="D832" s="11"/>
+      <c r="C832" s="11"/>
+      <c r="D832" s="13"/>
       <c r="E832" s="7"/>
     </row>
     <row r="833" spans="1:5">
-      <c r="A833" s="9"/>
+      <c r="A833" s="11"/>
       <c r="B833" s="7"/>
-      <c r="C833" s="9"/>
-      <c r="D833" s="11"/>
+      <c r="C833" s="11"/>
+      <c r="D833" s="12"/>
       <c r="E833" s="7"/>
     </row>
     <row r="834" spans="1:5">
-      <c r="A834" s="9"/>
+      <c r="A834" s="11"/>
       <c r="B834" s="7"/>
-      <c r="C834" s="9"/>
-      <c r="D834" s="10"/>
+      <c r="C834" s="11"/>
+      <c r="D834" s="12"/>
       <c r="E834" s="7"/>
     </row>
     <row r="835" spans="1:5">
-      <c r="A835" s="9"/>
+      <c r="A835" s="11"/>
       <c r="B835" s="7"/>
-      <c r="C835" s="9"/>
-      <c r="D835" s="10"/>
+      <c r="C835" s="11"/>
+      <c r="D835" s="13"/>
       <c r="E835" s="7"/>
     </row>
     <row r="836" spans="1:5">
-      <c r="A836" s="9"/>
+      <c r="A836" s="11"/>
       <c r="B836" s="7"/>
-      <c r="C836" s="9"/>
-      <c r="D836" s="11"/>
+      <c r="C836" s="11"/>
+      <c r="D836" s="13"/>
       <c r="E836" s="7"/>
     </row>
     <row r="837" spans="1:5">
-      <c r="A837" s="9"/>
-      <c r="B837" s="7"/>
-      <c r="C837" s="9"/>
-      <c r="D837" s="11"/>
+      <c r="A837" s="11"/>
+      <c r="B837" s="11"/>
+      <c r="C837" s="11"/>
+      <c r="D837" s="12"/>
       <c r="E837" s="7"/>
     </row>
     <row r="838" spans="1:5">
-      <c r="A838" s="9"/>
-      <c r="B838" s="9"/>
-      <c r="C838" s="9"/>
-      <c r="D838" s="10"/>
+      <c r="A838" s="11"/>
+      <c r="B838" s="11"/>
+      <c r="C838" s="11"/>
+      <c r="D838" s="13"/>
       <c r="E838" s="7"/>
     </row>
     <row r="839" spans="1:5">
-      <c r="A839" s="9"/>
-      <c r="B839" s="9"/>
-      <c r="C839" s="9"/>
-      <c r="D839" s="11"/>
+      <c r="A839" s="11"/>
+      <c r="B839" s="7"/>
+      <c r="C839" s="11"/>
+      <c r="D839" s="13"/>
       <c r="E839" s="7"/>
     </row>
     <row r="840" spans="1:5">
-      <c r="A840" s="9"/>
-      <c r="B840" s="7"/>
-      <c r="C840" s="9"/>
-      <c r="D840" s="11"/>
+      <c r="A840" s="11"/>
+      <c r="B840" s="11"/>
+      <c r="C840" s="11"/>
+      <c r="D840" s="12"/>
       <c r="E840" s="7"/>
     </row>
     <row r="841" spans="1:5">
-      <c r="A841" s="9"/>
-      <c r="B841" s="9"/>
-      <c r="C841" s="9"/>
-      <c r="D841" s="10"/>
+      <c r="A841" s="11"/>
+      <c r="B841" s="11"/>
+      <c r="C841" s="11"/>
+      <c r="D841" s="12"/>
       <c r="E841" s="7"/>
     </row>
     <row r="842" spans="1:5">
-      <c r="A842" s="9"/>
-      <c r="B842" s="9"/>
-      <c r="C842" s="9"/>
-      <c r="D842" s="10"/>
+      <c r="A842" s="11"/>
+      <c r="B842" s="11"/>
+      <c r="C842" s="11"/>
+      <c r="D842" s="12"/>
       <c r="E842" s="7"/>
     </row>
     <row r="843" spans="1:5">
-      <c r="A843" s="9"/>
-      <c r="B843" s="9"/>
-      <c r="C843" s="9"/>
-      <c r="D843" s="10"/>
+      <c r="A843" s="11"/>
+      <c r="B843" s="7"/>
+      <c r="C843" s="11"/>
+      <c r="D843" s="13"/>
       <c r="E843" s="7"/>
     </row>
     <row r="844" spans="1:5">
-      <c r="A844" s="9"/>
+      <c r="A844" s="11"/>
       <c r="B844" s="7"/>
-      <c r="C844" s="9"/>
-      <c r="D844" s="11"/>
+      <c r="C844" s="11"/>
+      <c r="D844" s="13"/>
       <c r="E844" s="7"/>
     </row>
     <row r="845" spans="1:5">
-      <c r="A845" s="9"/>
+      <c r="A845" s="11"/>
       <c r="B845" s="7"/>
-      <c r="C845" s="9"/>
-      <c r="D845" s="11"/>
+      <c r="C845" s="11"/>
+      <c r="D845" s="13"/>
       <c r="E845" s="7"/>
     </row>
     <row r="846" spans="1:5">
-      <c r="A846" s="9"/>
+      <c r="A846" s="11"/>
       <c r="B846" s="7"/>
-      <c r="C846" s="9"/>
-      <c r="D846" s="11"/>
+      <c r="C846" s="11"/>
+      <c r="D846" s="13"/>
       <c r="E846" s="7"/>
     </row>
     <row r="847" spans="1:5">
-      <c r="A847" s="9"/>
-      <c r="B847" s="7"/>
-      <c r="C847" s="9"/>
-      <c r="D847" s="11"/>
+      <c r="A847" s="11"/>
+      <c r="B847" s="11"/>
+      <c r="C847" s="11"/>
+      <c r="D847" s="13"/>
       <c r="E847" s="7"/>
     </row>
     <row r="848" spans="1:5">
-      <c r="A848" s="9"/>
-      <c r="B848" s="9"/>
-      <c r="C848" s="9"/>
-      <c r="D848" s="11"/>
+      <c r="A848" s="11"/>
+      <c r="B848" s="7"/>
+      <c r="C848" s="11"/>
+      <c r="D848" s="12"/>
       <c r="E848" s="7"/>
     </row>
     <row r="849" spans="1:5">
-      <c r="A849" s="9"/>
+      <c r="A849" s="11"/>
       <c r="B849" s="7"/>
-      <c r="C849" s="9"/>
-      <c r="D849" s="10"/>
+      <c r="C849" s="11"/>
+      <c r="D849" s="13"/>
       <c r="E849" s="7"/>
     </row>
     <row r="850" spans="1:5">
-      <c r="A850" s="9"/>
-      <c r="B850" s="7"/>
-      <c r="C850" s="9"/>
-      <c r="D850" s="11"/>
+      <c r="A850" s="11"/>
+      <c r="B850" s="19"/>
+      <c r="C850" s="11"/>
+      <c r="D850" s="13"/>
       <c r="E850" s="7"/>
     </row>
     <row r="851" spans="1:5">
-      <c r="A851" s="9"/>
-      <c r="B851" s="17"/>
-      <c r="C851" s="9"/>
-      <c r="D851" s="11"/>
+      <c r="A851" s="11"/>
+      <c r="B851" s="7"/>
+      <c r="C851" s="11"/>
+      <c r="D851" s="13"/>
       <c r="E851" s="7"/>
     </row>
     <row r="852" spans="1:5">
-      <c r="A852" s="9"/>
+      <c r="A852" s="11"/>
       <c r="B852" s="7"/>
-      <c r="C852" s="9"/>
-      <c r="D852" s="11"/>
+      <c r="C852" s="11"/>
+      <c r="D852" s="13"/>
       <c r="E852" s="7"/>
     </row>
     <row r="853" spans="1:5">
-      <c r="A853" s="9"/>
-      <c r="B853" s="7"/>
-      <c r="C853" s="9"/>
-      <c r="D853" s="11"/>
+      <c r="A853" s="11"/>
+      <c r="B853" s="11"/>
+      <c r="C853" s="11"/>
+      <c r="D853" s="13"/>
       <c r="E853" s="7"/>
     </row>
     <row r="854" spans="1:5">
-      <c r="A854" s="9"/>
-      <c r="B854" s="9"/>
-      <c r="C854" s="9"/>
-      <c r="D854" s="11"/>
+      <c r="A854" s="11"/>
+      <c r="B854" s="11"/>
+      <c r="C854" s="11"/>
+      <c r="D854" s="12"/>
       <c r="E854" s="7"/>
     </row>
     <row r="855" spans="1:5">
-      <c r="A855" s="9"/>
-      <c r="B855" s="9"/>
-      <c r="C855" s="9"/>
-      <c r="D855" s="10"/>
+      <c r="A855" s="11"/>
+      <c r="B855" s="11"/>
+      <c r="C855" s="11"/>
+      <c r="D855" s="12"/>
       <c r="E855" s="7"/>
     </row>
     <row r="856" spans="1:5">
-      <c r="A856" s="9"/>
-      <c r="B856" s="9"/>
-      <c r="C856" s="9"/>
-      <c r="D856" s="10"/>
+      <c r="A856" s="11"/>
+      <c r="B856" s="7"/>
+      <c r="C856" s="11"/>
+      <c r="D856" s="13"/>
       <c r="E856" s="7"/>
     </row>
     <row r="857" spans="1:5">
-      <c r="A857" s="9"/>
-      <c r="B857" s="7"/>
-      <c r="C857" s="9"/>
-      <c r="D857" s="11"/>
+      <c r="A857" s="11"/>
+      <c r="B857" s="11"/>
+      <c r="C857" s="11"/>
+      <c r="D857" s="12"/>
       <c r="E857" s="7"/>
     </row>
     <row r="858" spans="1:5">
-      <c r="A858" s="9"/>
-      <c r="B858" s="9"/>
-      <c r="C858" s="9"/>
-      <c r="D858" s="10"/>
+      <c r="A858" s="11"/>
+      <c r="B858" s="7"/>
+      <c r="C858" s="11"/>
+      <c r="D858" s="13"/>
       <c r="E858" s="7"/>
     </row>
     <row r="859" spans="1:5">
-      <c r="A859" s="9"/>
+      <c r="A859" s="11"/>
       <c r="B859" s="7"/>
-      <c r="C859" s="9"/>
-      <c r="D859" s="11"/>
+      <c r="C859" s="11"/>
+      <c r="D859" s="13"/>
       <c r="E859" s="7"/>
     </row>
     <row r="860" spans="1:5">
-      <c r="A860" s="9"/>
+      <c r="A860" s="11"/>
       <c r="B860" s="7"/>
-      <c r="C860" s="9"/>
-      <c r="D860" s="11"/>
+      <c r="C860" s="11"/>
+      <c r="D860" s="13"/>
       <c r="E860" s="7"/>
     </row>
     <row r="861" spans="1:5">
-      <c r="A861" s="9"/>
+      <c r="A861" s="11"/>
       <c r="B861" s="7"/>
-      <c r="C861" s="9"/>
-      <c r="D861" s="11"/>
+      <c r="C861" s="11"/>
+      <c r="D861" s="12"/>
       <c r="E861" s="7"/>
     </row>
     <row r="862" spans="1:5">
-      <c r="A862" s="9"/>
-      <c r="B862" s="7"/>
-      <c r="C862" s="9"/>
-      <c r="D862" s="10"/>
+      <c r="A862" s="11"/>
+      <c r="B862" s="11"/>
+      <c r="C862" s="11"/>
+      <c r="D862" s="13"/>
       <c r="E862" s="7"/>
     </row>
     <row r="863" spans="1:5">
-      <c r="A863" s="9"/>
-      <c r="B863" s="9"/>
-      <c r="C863" s="9"/>
-      <c r="D863" s="11"/>
+      <c r="A863" s="11"/>
+      <c r="B863" s="11"/>
+      <c r="C863" s="11"/>
+      <c r="D863" s="13"/>
       <c r="E863" s="7"/>
     </row>
     <row r="864" spans="1:5">
-      <c r="A864" s="9"/>
-      <c r="B864" s="9"/>
-      <c r="C864" s="9"/>
-      <c r="D864" s="11"/>
+      <c r="A864" s="11"/>
+      <c r="B864" s="11"/>
+      <c r="C864" s="11"/>
+      <c r="D864" s="13"/>
       <c r="E864" s="7"/>
     </row>
     <row r="865" spans="1:5">
-      <c r="A865" s="9"/>
-      <c r="B865" s="9"/>
-      <c r="C865" s="9"/>
-      <c r="D865" s="11"/>
+      <c r="A865" s="11"/>
+      <c r="B865" s="11"/>
+      <c r="C865" s="11"/>
+      <c r="D865" s="13"/>
       <c r="E865" s="7"/>
     </row>
     <row r="866" spans="1:5">
-      <c r="A866" s="9"/>
-      <c r="B866" s="9"/>
-      <c r="C866" s="9"/>
-      <c r="D866" s="11"/>
+      <c r="A866" s="11"/>
+      <c r="B866" s="11"/>
+      <c r="C866" s="11"/>
+      <c r="D866" s="13"/>
       <c r="E866" s="7"/>
     </row>
     <row r="867" spans="1:5">
-      <c r="A867" s="9"/>
-      <c r="B867" s="9"/>
-      <c r="C867" s="9"/>
-      <c r="D867" s="11"/>
+      <c r="A867" s="11"/>
+      <c r="B867" s="7"/>
+      <c r="C867" s="11"/>
+      <c r="D867" s="13"/>
       <c r="E867" s="7"/>
     </row>
     <row r="868" spans="1:5">
-      <c r="A868" s="9"/>
+      <c r="A868" s="11"/>
       <c r="B868" s="7"/>
-      <c r="C868" s="9"/>
-      <c r="D868" s="11"/>
+      <c r="C868" s="11"/>
+      <c r="D868" s="13"/>
       <c r="E868" s="7"/>
     </row>
     <row r="869" spans="1:5">
-      <c r="A869" s="9"/>
-      <c r="B869" s="7"/>
-      <c r="C869" s="9"/>
-      <c r="D869" s="11"/>
+      <c r="A869" s="11"/>
+      <c r="B869" s="18"/>
+      <c r="C869" s="11"/>
+      <c r="D869" s="13"/>
       <c r="E869" s="7"/>
     </row>
     <row r="870" spans="1:5">
-      <c r="A870" s="9"/>
-      <c r="B870" s="16"/>
-      <c r="C870" s="9"/>
-      <c r="D870" s="11"/>
+      <c r="A870" s="11"/>
+      <c r="B870" s="7"/>
+      <c r="C870" s="11"/>
+      <c r="D870" s="12"/>
       <c r="E870" s="7"/>
     </row>
     <row r="871" spans="1:5">
-      <c r="A871" s="9"/>
-      <c r="B871" s="7"/>
-      <c r="C871" s="9"/>
-      <c r="D871" s="10"/>
+      <c r="A871" s="11"/>
+      <c r="B871" s="11"/>
+      <c r="C871" s="11"/>
+      <c r="D871" s="13"/>
       <c r="E871" s="7"/>
     </row>
     <row r="872" spans="1:5">
-      <c r="A872" s="9"/>
-      <c r="B872" s="9"/>
-      <c r="C872" s="9"/>
-      <c r="D872" s="11"/>
+      <c r="A872" s="11"/>
+      <c r="B872" s="11"/>
+      <c r="C872" s="11"/>
+      <c r="D872" s="13"/>
       <c r="E872" s="7"/>
     </row>
     <row r="873" spans="1:5">
-      <c r="A873" s="9"/>
-      <c r="B873" s="9"/>
-      <c r="C873" s="9"/>
-      <c r="D873" s="11"/>
+      <c r="A873" s="11"/>
+      <c r="B873" s="11"/>
+      <c r="C873" s="11"/>
+      <c r="D873" s="13"/>
       <c r="E873" s="7"/>
     </row>
     <row r="874" spans="1:5">
-      <c r="A874" s="9"/>
-      <c r="B874" s="9"/>
-      <c r="C874" s="9"/>
-      <c r="D874" s="11"/>
+      <c r="A874" s="11"/>
+      <c r="B874" s="7"/>
+      <c r="C874" s="11"/>
+      <c r="D874" s="12"/>
       <c r="E874" s="7"/>
     </row>
     <row r="875" spans="1:5">
-      <c r="A875" s="9"/>
-      <c r="B875" s="7"/>
-      <c r="C875" s="9"/>
-      <c r="D875" s="10"/>
+      <c r="A875" s="11"/>
+      <c r="B875" s="11"/>
+      <c r="C875" s="11"/>
+      <c r="D875" s="12"/>
       <c r="E875" s="7"/>
     </row>
     <row r="876" spans="1:5">
-      <c r="A876" s="9"/>
-      <c r="B876" s="9"/>
-      <c r="C876" s="9"/>
-      <c r="D876" s="10"/>
+      <c r="A876" s="11"/>
+      <c r="B876" s="11"/>
+      <c r="C876" s="11"/>
+      <c r="D876" s="20"/>
       <c r="E876" s="7"/>
     </row>
     <row r="877" spans="1:5">
-      <c r="A877" s="9"/>
-      <c r="B877" s="9"/>
-      <c r="C877" s="9"/>
-      <c r="D877" s="18"/>
+      <c r="A877" s="11"/>
+      <c r="B877" s="11"/>
+      <c r="C877" s="11"/>
+      <c r="D877" s="12"/>
       <c r="E877" s="7"/>
     </row>
     <row r="878" spans="1:5">
-      <c r="A878" s="9"/>
-      <c r="B878" s="9"/>
-      <c r="C878" s="9"/>
-      <c r="D878" s="10"/>
+      <c r="A878" s="11"/>
+      <c r="B878" s="11"/>
+      <c r="C878" s="11"/>
+      <c r="D878" s="13"/>
       <c r="E878" s="7"/>
     </row>
     <row r="879" spans="1:5">
-      <c r="A879" s="9"/>
-      <c r="B879" s="9"/>
-      <c r="C879" s="9"/>
-      <c r="D879" s="11"/>
+      <c r="A879" s="11"/>
+      <c r="B879" s="11"/>
+      <c r="C879" s="11"/>
+      <c r="D879" s="13"/>
       <c r="E879" s="7"/>
     </row>
     <row r="880" spans="1:5">
-      <c r="A880" s="9"/>
-      <c r="B880" s="9"/>
-      <c r="C880" s="9"/>
-      <c r="D880" s="11"/>
+      <c r="A880" s="11"/>
+      <c r="B880" s="11"/>
+      <c r="C880" s="11"/>
+      <c r="D880" s="13"/>
       <c r="E880" s="7"/>
     </row>
     <row r="881" spans="1:5">
-      <c r="A881" s="9"/>
-      <c r="B881" s="9"/>
-      <c r="C881" s="9"/>
-      <c r="D881" s="11"/>
+      <c r="A881" s="11"/>
+      <c r="B881" s="11"/>
+      <c r="C881" s="11"/>
+      <c r="D881" s="12"/>
       <c r="E881" s="7"/>
     </row>
     <row r="882" spans="1:5">
-      <c r="A882" s="9"/>
-      <c r="B882" s="9"/>
-      <c r="C882" s="9"/>
-      <c r="D882" s="10"/>
+      <c r="A882" s="11"/>
+      <c r="B882" s="11"/>
+      <c r="C882" s="11"/>
+      <c r="D882" s="13"/>
       <c r="E882" s="7"/>
     </row>
     <row r="883" spans="1:5">
-      <c r="A883" s="9"/>
-      <c r="B883" s="9"/>
-      <c r="C883" s="9"/>
-      <c r="D883" s="11"/>
+      <c r="A883" s="7"/>
+      <c r="B883" s="11"/>
+      <c r="C883" s="11"/>
+      <c r="D883" s="12"/>
       <c r="E883" s="7"/>
     </row>
     <row r="884" spans="1:5">
-      <c r="A884" s="7"/>
-      <c r="B884" s="9"/>
-      <c r="C884" s="9"/>
-      <c r="D884" s="10"/>
+      <c r="A884" s="11"/>
+      <c r="B884" s="11"/>
+      <c r="C884" s="11"/>
+      <c r="D884" s="12"/>
       <c r="E884" s="7"/>
     </row>
     <row r="885" spans="1:5">
-      <c r="A885" s="9"/>
-      <c r="B885" s="9"/>
-      <c r="C885" s="9"/>
-      <c r="D885" s="10"/>
+      <c r="A885" s="7"/>
+      <c r="B885" s="11"/>
+      <c r="C885" s="11"/>
+      <c r="D885" s="12"/>
       <c r="E885" s="7"/>
     </row>
     <row r="886" spans="1:5">
-      <c r="A886" s="7"/>
-      <c r="B886" s="9"/>
-      <c r="C886" s="9"/>
-      <c r="D886" s="10"/>
+      <c r="A886" s="11"/>
+      <c r="B886" s="7"/>
+      <c r="C886" s="11"/>
+      <c r="D886" s="13"/>
       <c r="E886" s="7"/>
     </row>
     <row r="887" spans="1:5">
-      <c r="A887" s="9"/>
-      <c r="B887" s="7"/>
-      <c r="C887" s="9"/>
-      <c r="D887" s="11"/>
+      <c r="A887" s="11"/>
+      <c r="B887" s="21"/>
+      <c r="C887" s="11"/>
+      <c r="D887" s="22"/>
       <c r="E887" s="7"/>
     </row>
     <row r="888" spans="1:5">
-      <c r="A888" s="9"/>
-      <c r="B888" s="19"/>
-      <c r="C888" s="9"/>
-      <c r="D888" s="20"/>
+      <c r="A888" s="11"/>
+      <c r="B888" s="11"/>
+      <c r="C888" s="11"/>
+      <c r="D888" s="13"/>
       <c r="E888" s="7"/>
     </row>
     <row r="889" spans="1:5">
-      <c r="A889" s="9"/>
-      <c r="B889" s="9"/>
-      <c r="C889" s="9"/>
-      <c r="D889" s="11"/>
+      <c r="A889" s="11"/>
+      <c r="B889" s="11"/>
+      <c r="C889" s="11"/>
+      <c r="D889" s="12"/>
       <c r="E889" s="7"/>
     </row>
     <row r="890" spans="1:5">
-      <c r="A890" s="9"/>
-      <c r="B890" s="9"/>
-      <c r="C890" s="9"/>
-      <c r="D890" s="10"/>
+      <c r="A890" s="11"/>
+      <c r="B890" s="11"/>
+      <c r="C890" s="11"/>
+      <c r="D890" s="12"/>
       <c r="E890" s="7"/>
     </row>
     <row r="891" spans="1:5">
-      <c r="A891" s="9"/>
-      <c r="B891" s="9"/>
-      <c r="C891" s="9"/>
-      <c r="D891" s="10"/>
+      <c r="A891" s="7"/>
+      <c r="B891" s="11"/>
+      <c r="C891" s="11"/>
+      <c r="D891" s="13"/>
       <c r="E891" s="7"/>
     </row>
     <row r="892" spans="1:5">
-      <c r="A892" s="7"/>
-      <c r="B892" s="9"/>
-      <c r="C892" s="9"/>
-      <c r="D892" s="11"/>
+      <c r="A892" s="11"/>
+      <c r="B892" s="23"/>
+      <c r="C892" s="11"/>
+      <c r="D892" s="22"/>
       <c r="E892" s="7"/>
     </row>
     <row r="893" spans="1:5">
-      <c r="A893" s="9"/>
-      <c r="B893" s="21"/>
-      <c r="C893" s="9"/>
-      <c r="D893" s="20"/>
+      <c r="A893" s="11"/>
+      <c r="B893" s="11"/>
+      <c r="C893" s="11"/>
+      <c r="D893" s="12"/>
       <c r="E893" s="7"/>
     </row>
     <row r="894" spans="1:5">
-      <c r="A894" s="9"/>
-      <c r="B894" s="9"/>
-      <c r="C894" s="9"/>
-      <c r="D894" s="10"/>
+      <c r="A894" s="11"/>
+      <c r="B894" s="11"/>
+      <c r="C894" s="11"/>
+      <c r="D894" s="12"/>
       <c r="E894" s="7"/>
     </row>
-    <row r="895" spans="1:5">
-      <c r="A895" s="9"/>
-      <c r="B895" s="9"/>
-      <c r="C895" s="9"/>
-      <c r="D895" s="10"/>
+    <row r="895" ht="14.25" spans="1:5">
+      <c r="A895" s="24"/>
+      <c r="B895" s="24"/>
+      <c r="C895" s="11"/>
+      <c r="D895" s="25"/>
       <c r="E895" s="7"/>
     </row>
-    <row r="896" ht="14.25" spans="1:5">
-      <c r="A896" s="22"/>
-      <c r="B896" s="22"/>
-      <c r="C896" s="9"/>
-      <c r="D896" s="23"/>
+    <row r="896" spans="1:5">
+      <c r="A896" s="11"/>
+      <c r="B896" s="11"/>
+      <c r="C896" s="11"/>
+      <c r="D896" s="13"/>
       <c r="E896" s="7"/>
     </row>
     <row r="897" spans="1:5">
-      <c r="A897" s="9"/>
-      <c r="B897" s="9"/>
-      <c r="C897" s="9"/>
-      <c r="D897" s="11"/>
+      <c r="A897" s="11"/>
+      <c r="B897" s="11"/>
+      <c r="C897" s="11"/>
+      <c r="D897" s="12"/>
       <c r="E897" s="7"/>
     </row>
     <row r="898" spans="1:5">
-      <c r="A898" s="9"/>
-      <c r="B898" s="9"/>
-      <c r="C898" s="9"/>
-      <c r="D898" s="10"/>
+      <c r="A898" s="7"/>
+      <c r="B898" s="7"/>
+      <c r="C898" s="11"/>
+      <c r="D898" s="13"/>
       <c r="E898" s="7"/>
     </row>
     <row r="899" spans="1:5">
       <c r="A899" s="7"/>
-      <c r="B899" s="7"/>
-      <c r="C899" s="9"/>
-      <c r="D899" s="11"/>
+      <c r="B899" s="11"/>
+      <c r="C899" s="11"/>
+      <c r="D899" s="22"/>
       <c r="E899" s="7"/>
     </row>
     <row r="900" spans="1:5">
       <c r="A900" s="7"/>
-      <c r="B900" s="9"/>
-      <c r="C900" s="9"/>
-      <c r="D900" s="20"/>
+      <c r="B900" s="7"/>
+      <c r="C900" s="7"/>
+      <c r="D900" s="13"/>
       <c r="E900" s="7"/>
     </row>
     <row r="901" spans="1:5">
-      <c r="A901" s="7"/>
-      <c r="B901" s="7"/>
-      <c r="C901" s="7"/>
-      <c r="D901" s="11"/>
+      <c r="A901" s="11"/>
+      <c r="B901" s="11"/>
+      <c r="C901" s="11"/>
+      <c r="D901" s="12"/>
       <c r="E901" s="7"/>
     </row>
     <row r="902" spans="1:5">
-      <c r="A902" s="9"/>
-      <c r="B902" s="9"/>
-      <c r="C902" s="9"/>
-      <c r="D902" s="10"/>
+      <c r="A902" s="11"/>
+      <c r="B902" s="11"/>
+      <c r="C902" s="11"/>
+      <c r="D902" s="13"/>
       <c r="E902" s="7"/>
     </row>
     <row r="903" spans="1:5">
-      <c r="A903" s="9"/>
-      <c r="B903" s="9"/>
-      <c r="C903" s="9"/>
-      <c r="D903" s="11"/>
+      <c r="A903" s="11"/>
+      <c r="B903" s="11"/>
+      <c r="C903" s="11"/>
+      <c r="D903" s="13"/>
       <c r="E903" s="7"/>
     </row>
     <row r="904" spans="1:5">
-      <c r="A904" s="9"/>
-      <c r="B904" s="9"/>
-      <c r="C904" s="9"/>
-      <c r="D904" s="11"/>
+      <c r="A904" s="11"/>
+      <c r="B904" s="11"/>
+      <c r="C904" s="11"/>
+      <c r="D904" s="13"/>
       <c r="E904" s="7"/>
     </row>
     <row r="905" spans="1:5">
-      <c r="A905" s="9"/>
-      <c r="B905" s="9"/>
-      <c r="C905" s="9"/>
-      <c r="D905" s="11"/>
+      <c r="A905" s="11"/>
+      <c r="B905" s="11"/>
+      <c r="C905" s="11"/>
+      <c r="D905" s="13"/>
       <c r="E905" s="7"/>
     </row>
     <row r="906" spans="1:5">
-      <c r="A906" s="9"/>
-      <c r="B906" s="9"/>
-      <c r="C906" s="9"/>
-      <c r="D906" s="11"/>
+      <c r="A906" s="7"/>
+      <c r="B906" s="26"/>
+      <c r="C906" s="11"/>
+      <c r="D906" s="13"/>
       <c r="E906" s="7"/>
     </row>
     <row r="907" spans="1:5">
-      <c r="A907" s="7"/>
-      <c r="B907" s="24"/>
-      <c r="C907" s="9"/>
-      <c r="D907" s="11"/>
+      <c r="A907" s="11"/>
+      <c r="B907" s="18"/>
+      <c r="C907" s="11"/>
+      <c r="D907" s="12"/>
       <c r="E907" s="7"/>
     </row>
     <row r="908" spans="1:5">
-      <c r="A908" s="9"/>
-      <c r="B908" s="16"/>
-      <c r="C908" s="9"/>
-      <c r="D908" s="10"/>
+      <c r="A908" s="7"/>
+      <c r="B908" s="7"/>
+      <c r="C908" s="7"/>
+      <c r="D908" s="13"/>
       <c r="E908" s="7"/>
     </row>
     <row r="909" spans="1:5">
-      <c r="A909" s="7"/>
-      <c r="B909" s="7"/>
-      <c r="C909" s="7"/>
-      <c r="D909" s="11"/>
+      <c r="A909" s="11"/>
+      <c r="B909" s="11"/>
+      <c r="C909" s="11"/>
+      <c r="D909" s="13"/>
       <c r="E909" s="7"/>
     </row>
     <row r="910" spans="1:5">
-      <c r="A910" s="9"/>
-      <c r="B910" s="9"/>
-      <c r="C910" s="9"/>
-      <c r="D910" s="11"/>
+      <c r="A910" s="11"/>
+      <c r="B910" s="11"/>
+      <c r="C910" s="11"/>
+      <c r="D910" s="12"/>
       <c r="E910" s="7"/>
     </row>
     <row r="911" spans="1:5">
-      <c r="A911" s="9"/>
-      <c r="B911" s="9"/>
-      <c r="C911" s="9"/>
-      <c r="D911" s="10"/>
+      <c r="A911" s="11"/>
+      <c r="B911" s="18"/>
+      <c r="C911" s="11"/>
+      <c r="D911" s="12"/>
       <c r="E911" s="7"/>
     </row>
     <row r="912" spans="1:5">
-      <c r="A912" s="9"/>
-      <c r="B912" s="16"/>
-      <c r="C912" s="9"/>
-      <c r="D912" s="10"/>
+      <c r="A912" s="11"/>
+      <c r="B912" s="11"/>
+      <c r="C912" s="11"/>
+      <c r="D912" s="13"/>
       <c r="E912" s="7"/>
     </row>
     <row r="913" spans="1:5">
-      <c r="A913" s="9"/>
-      <c r="B913" s="9"/>
-      <c r="C913" s="9"/>
-      <c r="D913" s="11"/>
+      <c r="A913" s="11"/>
+      <c r="B913" s="7"/>
+      <c r="C913" s="11"/>
+      <c r="D913" s="12"/>
       <c r="E913" s="7"/>
     </row>
     <row r="914" spans="1:5">
-      <c r="A914" s="9"/>
+      <c r="A914" s="11"/>
       <c r="B914" s="7"/>
-      <c r="C914" s="9"/>
-      <c r="D914" s="10"/>
+      <c r="C914" s="11"/>
+      <c r="D914" s="12"/>
       <c r="E914" s="7"/>
     </row>
     <row r="915" spans="1:5">
-      <c r="A915" s="9"/>
-      <c r="B915" s="7"/>
-      <c r="C915" s="9"/>
-      <c r="D915" s="10"/>
+      <c r="A915" s="7"/>
+      <c r="B915" s="11"/>
+      <c r="C915" s="11"/>
+      <c r="D915" s="22"/>
       <c r="E915" s="7"/>
     </row>
     <row r="916" spans="1:5">
       <c r="A916" s="7"/>
-      <c r="B916" s="9"/>
-      <c r="C916" s="9"/>
-      <c r="D916" s="20"/>
+      <c r="B916" s="11"/>
+      <c r="C916" s="11"/>
+      <c r="D916" s="13"/>
       <c r="E916" s="7"/>
     </row>
     <row r="917" spans="1:5">
-      <c r="A917" s="7"/>
-      <c r="B917" s="9"/>
-      <c r="C917" s="9"/>
-      <c r="D917" s="11"/>
+      <c r="A917" s="11"/>
+      <c r="B917" s="11"/>
+      <c r="C917" s="11"/>
+      <c r="D917" s="13"/>
       <c r="E917" s="7"/>
     </row>
     <row r="918" spans="1:5">
-      <c r="A918" s="9"/>
-      <c r="B918" s="9"/>
-      <c r="C918" s="9"/>
-      <c r="D918" s="11"/>
+      <c r="A918" s="11"/>
+      <c r="B918" s="11"/>
+      <c r="C918" s="11"/>
+      <c r="D918" s="13"/>
       <c r="E918" s="7"/>
     </row>
     <row r="919" spans="1:5">
-      <c r="A919" s="9"/>
-      <c r="B919" s="9"/>
-      <c r="C919" s="9"/>
-      <c r="D919" s="11"/>
+      <c r="A919" s="11"/>
+      <c r="B919" s="7"/>
+      <c r="C919" s="11"/>
+      <c r="D919" s="13"/>
       <c r="E919" s="7"/>
     </row>
     <row r="920" spans="1:5">
-      <c r="A920" s="9"/>
-      <c r="B920" s="7"/>
-      <c r="C920" s="9"/>
-      <c r="D920" s="11"/>
+      <c r="A920" s="11"/>
+      <c r="B920" s="11"/>
+      <c r="C920" s="11"/>
+      <c r="D920" s="13"/>
       <c r="E920" s="7"/>
     </row>
     <row r="921" spans="1:5">
-      <c r="A921" s="9"/>
-      <c r="B921" s="9"/>
-      <c r="C921" s="9"/>
-      <c r="D921" s="11"/>
+      <c r="A921" s="11"/>
+      <c r="B921" s="11"/>
+      <c r="C921" s="11"/>
+      <c r="D921" s="13"/>
       <c r="E921" s="7"/>
     </row>
     <row r="922" spans="1:5">
-      <c r="A922" s="9"/>
-      <c r="B922" s="9"/>
-      <c r="C922" s="9"/>
-      <c r="D922" s="11"/>
+      <c r="A922" s="11"/>
+      <c r="B922" s="11"/>
+      <c r="C922" s="11"/>
+      <c r="D922" s="12"/>
       <c r="E922" s="7"/>
     </row>
     <row r="923" spans="1:5">
-      <c r="A923" s="9"/>
-      <c r="B923" s="9"/>
-      <c r="C923" s="9"/>
-      <c r="D923" s="10"/>
+      <c r="A923" s="11"/>
+      <c r="B923" s="11"/>
+      <c r="C923" s="11"/>
+      <c r="D923" s="13"/>
       <c r="E923" s="7"/>
     </row>
     <row r="924" spans="1:5">
-      <c r="A924" s="9"/>
-      <c r="B924" s="9"/>
-      <c r="C924" s="9"/>
-      <c r="D924" s="11"/>
+      <c r="A924" s="11"/>
+      <c r="B924" s="7"/>
+      <c r="C924" s="7"/>
+      <c r="D924" s="12"/>
       <c r="E924" s="7"/>
     </row>
     <row r="925" spans="1:5">
-      <c r="A925" s="9"/>
+      <c r="A925" s="11"/>
       <c r="B925" s="7"/>
-      <c r="C925" s="7"/>
-      <c r="D925" s="10"/>
+      <c r="C925" s="11"/>
+      <c r="D925" s="12"/>
       <c r="E925" s="7"/>
     </row>
     <row r="926" spans="1:5">
-      <c r="A926" s="9"/>
+      <c r="A926" s="11"/>
       <c r="B926" s="7"/>
-      <c r="C926" s="9"/>
-      <c r="D926" s="10"/>
+      <c r="C926" s="11"/>
+      <c r="D926" s="12"/>
       <c r="E926" s="7"/>
     </row>
     <row r="927" spans="1:5">
-      <c r="A927" s="9"/>
-      <c r="B927" s="7"/>
-      <c r="C927" s="9"/>
-      <c r="D927" s="10"/>
+      <c r="A927" s="11"/>
+      <c r="B927" s="11"/>
+      <c r="C927" s="11"/>
+      <c r="D927" s="13"/>
       <c r="E927" s="7"/>
     </row>
     <row r="928" spans="1:5">
-      <c r="A928" s="9"/>
-      <c r="B928" s="9"/>
-      <c r="C928" s="9"/>
-      <c r="D928" s="11"/>
+      <c r="A928" s="7"/>
+      <c r="B928" s="27"/>
+      <c r="C928" s="11"/>
+      <c r="D928" s="13"/>
       <c r="E928" s="7"/>
     </row>
     <row r="929" spans="1:5">
-      <c r="A929" s="7"/>
-      <c r="B929" s="25"/>
-      <c r="C929" s="9"/>
-      <c r="D929" s="11"/>
+      <c r="A929" s="11"/>
+      <c r="B929" s="11"/>
+      <c r="C929" s="11"/>
+      <c r="D929" s="12"/>
       <c r="E929" s="7"/>
     </row>
     <row r="930" spans="1:5">
-      <c r="A930" s="9"/>
-      <c r="B930" s="9"/>
-      <c r="C930" s="9"/>
-      <c r="D930" s="10"/>
+      <c r="A930" s="11"/>
+      <c r="B930" s="11"/>
+      <c r="C930" s="11"/>
+      <c r="D930" s="13"/>
       <c r="E930" s="7"/>
     </row>
     <row r="931" spans="1:5">
-      <c r="A931" s="9"/>
-      <c r="B931" s="9"/>
-      <c r="C931" s="9"/>
-      <c r="D931" s="11"/>
+      <c r="A931" s="7"/>
+      <c r="B931" s="11"/>
+      <c r="C931" s="11"/>
+      <c r="D931" s="12"/>
       <c r="E931" s="7"/>
     </row>
     <row r="932" spans="1:5">
       <c r="A932" s="7"/>
-      <c r="B932" s="9"/>
-      <c r="C932" s="9"/>
-      <c r="D932" s="10"/>
+      <c r="B932" s="11"/>
+      <c r="C932" s="11"/>
+      <c r="D932" s="13"/>
       <c r="E932" s="7"/>
     </row>
     <row r="933" spans="1:5">
       <c r="A933" s="7"/>
-      <c r="B933" s="9"/>
-      <c r="C933" s="9"/>
-      <c r="D933" s="11"/>
+      <c r="B933" s="7"/>
+      <c r="C933" s="11"/>
+      <c r="D933" s="12"/>
       <c r="E933" s="7"/>
     </row>
     <row r="934" spans="1:5">
-      <c r="A934" s="7"/>
-      <c r="B934" s="7"/>
-      <c r="C934" s="9"/>
-      <c r="D934" s="10"/>
+      <c r="A934" s="11"/>
+      <c r="B934" s="11"/>
+      <c r="C934" s="11"/>
+      <c r="D934" s="13"/>
       <c r="E934" s="7"/>
     </row>
     <row r="935" spans="1:5">
-      <c r="A935" s="9"/>
-      <c r="B935" s="9"/>
-      <c r="C935" s="9"/>
-      <c r="D935" s="11"/>
+      <c r="A935" s="24"/>
+      <c r="B935" s="11"/>
+      <c r="C935" s="11"/>
+      <c r="D935" s="13"/>
       <c r="E935" s="7"/>
     </row>
     <row r="936" spans="1:5">
-      <c r="A936" s="22"/>
-      <c r="B936" s="9"/>
-      <c r="C936" s="9"/>
-      <c r="D936" s="11"/>
+      <c r="A936" s="7"/>
+      <c r="B936" s="11"/>
+      <c r="C936" s="11"/>
+      <c r="D936" s="13"/>
       <c r="E936" s="7"/>
     </row>
     <row r="937" spans="1:5">
-      <c r="A937" s="7"/>
-      <c r="B937" s="9"/>
-      <c r="C937" s="9"/>
-      <c r="D937" s="11"/>
+      <c r="A937" s="11"/>
+      <c r="B937" s="11"/>
+      <c r="C937" s="11"/>
+      <c r="D937" s="12"/>
       <c r="E937" s="7"/>
     </row>
     <row r="938" spans="1:5">
-      <c r="A938" s="9"/>
-      <c r="B938" s="9"/>
-      <c r="C938" s="9"/>
-      <c r="D938" s="10"/>
+      <c r="A938" s="11"/>
+      <c r="B938" s="11"/>
+      <c r="C938" s="11"/>
+      <c r="D938" s="13"/>
       <c r="E938" s="7"/>
     </row>
     <row r="939" spans="1:5">
-      <c r="A939" s="9"/>
-      <c r="B939" s="9"/>
-      <c r="C939" s="9"/>
-      <c r="D939" s="11"/>
+      <c r="A939" s="11"/>
+      <c r="B939" s="11"/>
+      <c r="C939" s="11"/>
+      <c r="D939" s="12"/>
       <c r="E939" s="7"/>
     </row>
     <row r="940" spans="1:5">
-      <c r="A940" s="9"/>
-      <c r="B940" s="9"/>
-      <c r="C940" s="9"/>
-      <c r="D940" s="10"/>
+      <c r="A940" s="11"/>
+      <c r="B940" s="11"/>
+      <c r="C940" s="11"/>
+      <c r="D940" s="12"/>
       <c r="E940" s="7"/>
     </row>
     <row r="941" spans="1:5">
-      <c r="A941" s="9"/>
-      <c r="B941" s="9"/>
-      <c r="C941" s="9"/>
-      <c r="D941" s="10"/>
+      <c r="A941" s="11"/>
+      <c r="B941" s="11"/>
+      <c r="C941" s="11"/>
+      <c r="D941" s="12"/>
       <c r="E941" s="7"/>
     </row>
     <row r="942" spans="1:5">
-      <c r="A942" s="9"/>
-      <c r="B942" s="9"/>
-      <c r="C942" s="9"/>
-      <c r="D942" s="10"/>
+      <c r="A942" s="11"/>
+      <c r="B942" s="7"/>
+      <c r="C942" s="11"/>
+      <c r="D942" s="13"/>
       <c r="E942" s="7"/>
     </row>
     <row r="943" spans="1:5">
-      <c r="A943" s="9"/>
-      <c r="B943" s="7"/>
-      <c r="C943" s="9"/>
-      <c r="D943" s="11"/>
+      <c r="A943" s="11"/>
+      <c r="B943" s="11"/>
+      <c r="C943" s="11"/>
+      <c r="D943" s="12"/>
       <c r="E943" s="7"/>
     </row>
     <row r="944" spans="1:5">
-      <c r="A944" s="9"/>
-      <c r="B944" s="9"/>
-      <c r="C944" s="9"/>
-      <c r="D944" s="10"/>
+      <c r="A944" s="11"/>
+      <c r="B944" s="11"/>
+      <c r="C944" s="11"/>
+      <c r="D944" s="12"/>
       <c r="E944" s="7"/>
     </row>
     <row r="945" spans="1:5">
-      <c r="A945" s="9"/>
-      <c r="B945" s="9"/>
-      <c r="C945" s="9"/>
-      <c r="D945" s="10"/>
+      <c r="A945" s="11"/>
+      <c r="B945" s="7"/>
+      <c r="C945" s="7"/>
+      <c r="D945" s="13"/>
       <c r="E945" s="7"/>
     </row>
     <row r="946" spans="1:5">
-      <c r="A946" s="9"/>
-      <c r="B946" s="7"/>
-      <c r="C946" s="7"/>
-      <c r="D946" s="11"/>
+      <c r="A946" s="11"/>
+      <c r="B946" s="28"/>
+      <c r="C946" s="11"/>
+      <c r="D946" s="13"/>
       <c r="E946" s="7"/>
     </row>
     <row r="947" spans="1:5">
-      <c r="A947" s="9"/>
-      <c r="B947" s="26"/>
-      <c r="C947" s="9"/>
-      <c r="D947" s="11"/>
+      <c r="A947" s="11"/>
+      <c r="B947" s="11"/>
+      <c r="C947" s="11"/>
+      <c r="D947" s="29"/>
       <c r="E947" s="7"/>
     </row>
     <row r="948" spans="1:5">
-      <c r="A948" s="9"/>
-      <c r="B948" s="9"/>
-      <c r="C948" s="9"/>
-      <c r="D948" s="27"/>
+      <c r="A948" s="11"/>
+      <c r="B948" s="11"/>
+      <c r="C948" s="11"/>
+      <c r="D948" s="12"/>
       <c r="E948" s="7"/>
     </row>
     <row r="949" spans="1:5">
-      <c r="A949" s="9"/>
-      <c r="B949" s="9"/>
-      <c r="C949" s="9"/>
-      <c r="D949" s="10"/>
+      <c r="A949" s="11"/>
+      <c r="B949" s="30"/>
+      <c r="C949" s="11"/>
+      <c r="D949" s="12"/>
       <c r="E949" s="7"/>
     </row>
     <row r="950" spans="1:5">
-      <c r="A950" s="9"/>
-      <c r="B950" s="28"/>
-      <c r="C950" s="9"/>
-      <c r="D950" s="10"/>
+      <c r="A950" s="7"/>
+      <c r="B950" s="7"/>
+      <c r="C950" s="11"/>
+      <c r="D950" s="13"/>
       <c r="E950" s="7"/>
     </row>
     <row r="951" spans="1:5">
       <c r="A951" s="7"/>
-      <c r="B951" s="7"/>
-      <c r="C951" s="9"/>
-      <c r="D951" s="11"/>
+      <c r="B951" s="11"/>
+      <c r="C951" s="11"/>
+      <c r="D951" s="12"/>
       <c r="E951" s="7"/>
     </row>
     <row r="952" spans="1:5">
       <c r="A952" s="7"/>
-      <c r="B952" s="9"/>
-      <c r="C952" s="9"/>
-      <c r="D952" s="10"/>
+      <c r="B952" s="11"/>
+      <c r="C952" s="11"/>
+      <c r="D952" s="13"/>
       <c r="E952" s="7"/>
     </row>
     <row r="953" spans="1:5">
-      <c r="A953" s="7"/>
-      <c r="B953" s="9"/>
-      <c r="C953" s="9"/>
-      <c r="D953" s="11"/>
+      <c r="A953" s="11"/>
+      <c r="B953" s="11"/>
+      <c r="C953" s="11"/>
+      <c r="D953" s="12"/>
       <c r="E953" s="7"/>
     </row>
     <row r="954" spans="1:5">
-      <c r="A954" s="9"/>
-      <c r="B954" s="9"/>
-      <c r="C954" s="9"/>
-      <c r="D954" s="10"/>
+      <c r="A954" s="7"/>
+      <c r="B954" s="7"/>
+      <c r="C954" s="11"/>
+      <c r="D954" s="13"/>
       <c r="E954" s="7"/>
     </row>
     <row r="955" spans="1:5">
-      <c r="A955" s="7"/>
-      <c r="B955" s="7"/>
-      <c r="C955" s="9"/>
-      <c r="D955" s="11"/>
+      <c r="A955" s="11"/>
+      <c r="B955" s="11"/>
+      <c r="C955" s="11"/>
+      <c r="D955" s="13"/>
       <c r="E955" s="7"/>
     </row>
     <row r="956" spans="1:5">
-      <c r="A956" s="9"/>
-      <c r="B956" s="9"/>
-      <c r="C956" s="9"/>
-      <c r="D956" s="11"/>
+      <c r="A956" s="11"/>
+      <c r="B956" s="7"/>
+      <c r="C956" s="11"/>
+      <c r="D956" s="13"/>
       <c r="E956" s="7"/>
     </row>
     <row r="957" spans="1:5">
-      <c r="A957" s="9"/>
-      <c r="B957" s="7"/>
-      <c r="C957" s="9"/>
-      <c r="D957" s="11"/>
+      <c r="A957" s="11"/>
+      <c r="B957" s="11"/>
+      <c r="C957" s="11"/>
+      <c r="D957" s="13"/>
       <c r="E957" s="7"/>
     </row>
     <row r="958" spans="1:5">
-      <c r="A958" s="9"/>
-      <c r="B958" s="9"/>
-      <c r="C958" s="9"/>
-      <c r="D958" s="11"/>
+      <c r="A958" s="11"/>
+      <c r="B958" s="11"/>
+      <c r="C958" s="11"/>
+      <c r="D958" s="13"/>
       <c r="E958" s="7"/>
     </row>
     <row r="959" spans="1:5">
-      <c r="A959" s="9"/>
-      <c r="B959" s="9"/>
-      <c r="C959" s="9"/>
-      <c r="D959" s="11"/>
+      <c r="A959" s="7"/>
+      <c r="B959" s="11"/>
+      <c r="C959" s="11"/>
+      <c r="D959" s="12"/>
       <c r="E959" s="7"/>
     </row>
     <row r="960" spans="1:5">
-      <c r="A960" s="7"/>
-      <c r="B960" s="9"/>
-      <c r="C960" s="9"/>
-      <c r="D960" s="10"/>
+      <c r="A960" s="11"/>
+      <c r="B960" s="7"/>
+      <c r="C960" s="7"/>
+      <c r="D960" s="13"/>
       <c r="E960" s="7"/>
     </row>
     <row r="961" spans="1:5">
-      <c r="A961" s="9"/>
+      <c r="A961" s="11"/>
       <c r="B961" s="7"/>
-      <c r="C961" s="7"/>
-      <c r="D961" s="11"/>
+      <c r="C961" s="11"/>
+      <c r="D961" s="13"/>
       <c r="E961" s="7"/>
     </row>
     <row r="962" spans="1:5">
-      <c r="A962" s="9"/>
-      <c r="B962" s="7"/>
-      <c r="C962" s="9"/>
-      <c r="D962" s="11"/>
+      <c r="A962" s="7"/>
+      <c r="B962" s="11"/>
+      <c r="C962" s="11"/>
+      <c r="D962" s="12"/>
       <c r="E962" s="7"/>
     </row>
     <row r="963" spans="1:5">
-      <c r="A963" s="7"/>
-      <c r="B963" s="9"/>
-      <c r="C963" s="9"/>
-      <c r="D963" s="10"/>
+      <c r="A963" s="11"/>
+      <c r="B963" s="7"/>
+      <c r="C963" s="11"/>
+      <c r="D963" s="12"/>
       <c r="E963" s="7"/>
     </row>
     <row r="964" spans="1:5">
-      <c r="A964" s="9"/>
-      <c r="B964" s="7"/>
-      <c r="C964" s="9"/>
-      <c r="D964" s="10"/>
+      <c r="A964" s="11"/>
+      <c r="B964" s="11"/>
+      <c r="C964" s="11"/>
+      <c r="D964" s="12"/>
       <c r="E964" s="7"/>
     </row>
     <row r="965" spans="1:5">
-      <c r="A965" s="9"/>
-      <c r="B965" s="9"/>
-      <c r="C965" s="9"/>
-      <c r="D965" s="10"/>
+      <c r="A965" s="11"/>
+      <c r="B965" s="7"/>
+      <c r="C965" s="11"/>
+      <c r="D965" s="12"/>
       <c r="E965" s="7"/>
     </row>
     <row r="966" spans="1:5">
-      <c r="A966" s="9"/>
+      <c r="A966" s="11"/>
       <c r="B966" s="7"/>
-      <c r="C966" s="9"/>
-      <c r="D966" s="10"/>
+      <c r="C966" s="11"/>
+      <c r="D966" s="12"/>
       <c r="E966" s="7"/>
     </row>
     <row r="967" spans="1:5">
-      <c r="A967" s="9"/>
+      <c r="A967" s="11"/>
       <c r="B967" s="7"/>
-      <c r="C967" s="9"/>
-      <c r="D967" s="10"/>
+      <c r="C967" s="11"/>
+      <c r="D967" s="13"/>
       <c r="E967" s="7"/>
     </row>
     <row r="968" spans="1:5">
-      <c r="A968" s="9"/>
-      <c r="B968" s="7"/>
-      <c r="C968" s="9"/>
-      <c r="D968" s="11"/>
+      <c r="A968" s="11"/>
+      <c r="B968" s="11"/>
+      <c r="C968" s="11"/>
+      <c r="D968" s="13"/>
       <c r="E968" s="7"/>
     </row>
     <row r="969" spans="1:5">
-      <c r="A969" s="9"/>
-      <c r="B969" s="9"/>
-      <c r="C969" s="9"/>
-      <c r="D969" s="11"/>
+      <c r="A969" s="11"/>
+      <c r="B969" s="11"/>
+      <c r="C969" s="11"/>
+      <c r="D969" s="12"/>
       <c r="E969" s="7"/>
     </row>
-    <row r="970" spans="1:5">
-      <c r="A970" s="9"/>
-      <c r="B970" s="9"/>
-      <c r="C970" s="9"/>
-      <c r="D970" s="10"/>
-      <c r="E970" s="7"/>
-    </row>
-    <row r="971" spans="1:4">
-      <c r="A971" s="7"/>
-      <c r="B971" s="7"/>
-      <c r="C971" s="9"/>
-      <c r="D971" s="11"/>
+    <row r="970" spans="1:4">
+      <c r="A970" s="7"/>
+      <c r="B970" s="7"/>
+      <c r="C970" s="11"/>
+      <c r="D970" s="13"/>
+    </row>
+    <row r="971" spans="1:5">
+      <c r="A971" s="11"/>
+      <c r="B971" s="11"/>
+      <c r="C971" s="11"/>
+      <c r="D971" s="12"/>
+      <c r="E971" s="7"/>
     </row>
     <row r="972" spans="1:5">
-      <c r="A972" s="9"/>
-      <c r="B972" s="9"/>
-      <c r="C972" s="9"/>
-      <c r="D972" s="10"/>
+      <c r="A972" s="7"/>
+      <c r="B972" s="31"/>
+      <c r="C972" s="11"/>
+      <c r="D972" s="22"/>
       <c r="E972" s="7"/>
     </row>
     <row r="973" spans="1:5">
-      <c r="A973" s="7"/>
-      <c r="B973" s="29"/>
-      <c r="C973" s="9"/>
-      <c r="D973" s="20"/>
+      <c r="A973" s="11"/>
+      <c r="B973" s="11"/>
+      <c r="C973" s="11"/>
+      <c r="D973" s="13"/>
       <c r="E973" s="7"/>
     </row>
     <row r="974" spans="1:5">
-      <c r="A974" s="9"/>
-      <c r="B974" s="9"/>
-      <c r="C974" s="9"/>
-      <c r="D974" s="11"/>
+      <c r="A974" s="11"/>
+      <c r="B974" s="11"/>
+      <c r="C974" s="11"/>
+      <c r="D974" s="12"/>
       <c r="E974" s="7"/>
     </row>
     <row r="975" spans="1:5">
-      <c r="A975" s="9"/>
-      <c r="B975" s="9"/>
-      <c r="C975" s="9"/>
-      <c r="D975" s="10"/>
+      <c r="A975" s="11"/>
+      <c r="B975" s="11"/>
+      <c r="C975" s="11"/>
+      <c r="D975" s="12"/>
       <c r="E975" s="7"/>
     </row>
     <row r="976" spans="1:5">
-      <c r="A976" s="9"/>
-      <c r="B976" s="9"/>
-      <c r="C976" s="9"/>
-      <c r="D976" s="10"/>
+      <c r="A976" s="11"/>
+      <c r="B976" s="11"/>
+      <c r="C976" s="11"/>
+      <c r="D976" s="12"/>
       <c r="E976" s="7"/>
     </row>
     <row r="977" spans="1:5">
-      <c r="A977" s="9"/>
-      <c r="B977" s="9"/>
-      <c r="C977" s="9"/>
-      <c r="D977" s="10"/>
+      <c r="A977" s="11"/>
+      <c r="B977" s="7"/>
+      <c r="C977" s="11"/>
+      <c r="D977" s="13"/>
       <c r="E977" s="7"/>
     </row>
     <row r="978" spans="1:5">
-      <c r="A978" s="9"/>
-      <c r="B978" s="7"/>
-      <c r="C978" s="9"/>
-      <c r="D978" s="11"/>
+      <c r="A978" s="11"/>
+      <c r="B978" s="11"/>
+      <c r="C978" s="11"/>
+      <c r="D978" s="12"/>
       <c r="E978" s="7"/>
     </row>
     <row r="979" spans="1:5">
-      <c r="A979" s="9"/>
-      <c r="B979" s="9"/>
-      <c r="C979" s="9"/>
-      <c r="D979" s="10"/>
+      <c r="A979" s="7"/>
+      <c r="B979" s="7"/>
+      <c r="C979" s="7"/>
+      <c r="D979" s="13"/>
       <c r="E979" s="7"/>
     </row>
     <row r="980" spans="1:5">
       <c r="A980" s="7"/>
-      <c r="B980" s="7"/>
-      <c r="C980" s="7"/>
-      <c r="D980" s="11"/>
+      <c r="B980" s="11"/>
+      <c r="C980" s="11"/>
+      <c r="D980" s="13"/>
       <c r="E980" s="7"/>
     </row>
     <row r="981" spans="1:5">
-      <c r="A981" s="7"/>
-      <c r="B981" s="9"/>
-      <c r="C981" s="9"/>
-      <c r="D981" s="11"/>
+      <c r="A981" s="11"/>
+      <c r="B981" s="11"/>
+      <c r="C981" s="11"/>
+      <c r="D981" s="12"/>
       <c r="E981" s="7"/>
     </row>
     <row r="982" spans="1:5">
-      <c r="A982" s="9"/>
-      <c r="B982" s="9"/>
-      <c r="C982" s="9"/>
-      <c r="D982" s="10"/>
+      <c r="A982" s="11"/>
+      <c r="B982" s="7"/>
+      <c r="C982" s="11"/>
+      <c r="D982" s="13"/>
       <c r="E982" s="7"/>
     </row>
     <row r="983" spans="1:5">
-      <c r="A983" s="9"/>
-      <c r="B983" s="7"/>
-      <c r="C983" s="9"/>
-      <c r="D983" s="11"/>
+      <c r="A983" s="11"/>
+      <c r="B983" s="11"/>
+      <c r="C983" s="11"/>
+      <c r="D983" s="22"/>
       <c r="E983" s="7"/>
     </row>
     <row r="984" spans="1:5">
-      <c r="A984" s="9"/>
-      <c r="B984" s="9"/>
-      <c r="C984" s="9"/>
-      <c r="D984" s="20"/>
+      <c r="A984" s="11"/>
+      <c r="B984" s="7"/>
+      <c r="C984" s="7"/>
+      <c r="D984" s="13"/>
       <c r="E984" s="7"/>
     </row>
     <row r="985" spans="1:5">
-      <c r="A985" s="9"/>
+      <c r="A985" s="11"/>
       <c r="B985" s="7"/>
-      <c r="C985" s="7"/>
-      <c r="D985" s="11"/>
+      <c r="C985" s="11"/>
+      <c r="D985" s="13"/>
       <c r="E985" s="7"/>
     </row>
     <row r="986" spans="1:5">
-      <c r="A986" s="9"/>
+      <c r="A986" s="11"/>
       <c r="B986" s="7"/>
-      <c r="C986" s="9"/>
-      <c r="D986" s="11"/>
+      <c r="C986" s="11"/>
+      <c r="D986" s="12"/>
       <c r="E986" s="7"/>
     </row>
     <row r="987" spans="1:5">
-      <c r="A987" s="9"/>
+      <c r="A987" s="11"/>
       <c r="B987" s="7"/>
-      <c r="C987" s="9"/>
-      <c r="D987" s="10"/>
+      <c r="C987" s="11"/>
+      <c r="D987" s="12"/>
       <c r="E987" s="7"/>
     </row>
     <row r="988" spans="1:5">
-      <c r="A988" s="9"/>
-      <c r="B988" s="7"/>
-      <c r="C988" s="9"/>
-      <c r="D988" s="10"/>
+      <c r="A988" s="11"/>
+      <c r="B988" s="11"/>
+      <c r="C988" s="11"/>
+      <c r="D988" s="12"/>
       <c r="E988" s="7"/>
     </row>
     <row r="989" spans="1:5">
-      <c r="A989" s="9"/>
-      <c r="B989" s="9"/>
-      <c r="C989" s="9"/>
-      <c r="D989" s="10"/>
+      <c r="A989" s="11"/>
+      <c r="B989" s="11"/>
+      <c r="C989" s="11"/>
+      <c r="D989" s="13"/>
       <c r="E989" s="7"/>
     </row>
     <row r="990" spans="1:5">
-      <c r="A990" s="9"/>
-      <c r="B990" s="9"/>
-      <c r="C990" s="9"/>
-      <c r="D990" s="11"/>
+      <c r="A990" s="11"/>
+      <c r="B990" s="11"/>
+      <c r="C990" s="11"/>
+      <c r="D990" s="13"/>
       <c r="E990" s="7"/>
     </row>
     <row r="991" spans="1:5">
-      <c r="A991" s="9"/>
-      <c r="B991" s="9"/>
-      <c r="C991" s="9"/>
-      <c r="D991" s="11"/>
+      <c r="A991" s="11"/>
+      <c r="B991" s="11"/>
+      <c r="C991" s="11"/>
+      <c r="D991" s="13"/>
       <c r="E991" s="7"/>
     </row>
     <row r="992" spans="1:5">
-      <c r="A992" s="9"/>
-      <c r="B992" s="9"/>
-      <c r="C992" s="9"/>
-      <c r="D992" s="11"/>
+      <c r="A992" s="11"/>
+      <c r="B992" s="7"/>
+      <c r="C992" s="11"/>
+      <c r="D992" s="13"/>
       <c r="E992" s="7"/>
     </row>
     <row r="993" spans="1:5">
-      <c r="A993" s="9"/>
-      <c r="B993" s="7"/>
-      <c r="C993" s="9"/>
-      <c r="D993" s="11"/>
+      <c r="A993" s="11"/>
+      <c r="B993" s="11"/>
+      <c r="C993" s="11"/>
+      <c r="D993" s="13"/>
       <c r="E993" s="7"/>
     </row>
     <row r="994" spans="1:5">
-      <c r="A994" s="9"/>
-      <c r="B994" s="9"/>
-      <c r="C994" s="9"/>
-      <c r="D994" s="11"/>
+      <c r="A994" s="11"/>
+      <c r="B994" s="7"/>
+      <c r="C994" s="11"/>
+      <c r="D994" s="13"/>
       <c r="E994" s="7"/>
     </row>
     <row r="995" spans="1:5">
-      <c r="A995" s="9"/>
+      <c r="A995" s="11"/>
       <c r="B995" s="7"/>
-      <c r="C995" s="9"/>
-      <c r="D995" s="11"/>
+      <c r="C995" s="11"/>
+      <c r="D995" s="13"/>
       <c r="E995" s="7"/>
     </row>
     <row r="996" spans="1:5">
-      <c r="A996" s="9"/>
+      <c r="A996" s="11"/>
       <c r="B996" s="7"/>
-      <c r="C996" s="9"/>
-      <c r="D996" s="11"/>
+      <c r="C996" s="11"/>
+      <c r="D996" s="12"/>
       <c r="E996" s="7"/>
     </row>
     <row r="997" spans="1:5">
-      <c r="A997" s="9"/>
+      <c r="A997" s="11"/>
       <c r="B997" s="7"/>
-      <c r="C997" s="9"/>
-      <c r="D997" s="10"/>
+      <c r="C997" s="11"/>
+      <c r="D997" s="13"/>
       <c r="E997" s="7"/>
     </row>
     <row r="998" spans="1:5">
-      <c r="A998" s="9"/>
+      <c r="A998" s="11"/>
       <c r="B998" s="7"/>
-      <c r="C998" s="9"/>
-      <c r="D998" s="11"/>
+      <c r="C998" s="11"/>
+      <c r="D998" s="13"/>
       <c r="E998" s="7"/>
     </row>
     <row r="999" spans="1:5">
-      <c r="A999" s="9"/>
-      <c r="B999" s="7"/>
-      <c r="C999" s="9"/>
-      <c r="D999" s="11"/>
+      <c r="A999" s="11"/>
+      <c r="B999" s="11"/>
+      <c r="C999" s="11"/>
+      <c r="D999" s="12"/>
       <c r="E999" s="7"/>
     </row>
     <row r="1000" spans="1:5">
-      <c r="A1000" s="9"/>
-      <c r="B1000" s="9"/>
-      <c r="C1000" s="9"/>
-      <c r="D1000" s="10"/>
+      <c r="A1000" s="7"/>
+      <c r="B1000" s="7"/>
+      <c r="C1000" s="7"/>
+      <c r="D1000" s="13"/>
       <c r="E1000" s="7"/>
     </row>
     <row r="1001" spans="1:5">
-      <c r="A1001" s="7"/>
+      <c r="A1001" s="11"/>
       <c r="B1001" s="7"/>
-      <c r="C1001" s="7"/>
-      <c r="D1001" s="11"/>
+      <c r="C1001" s="11"/>
+      <c r="D1001" s="13"/>
       <c r="E1001" s="7"/>
     </row>
     <row r="1002" spans="1:5">
-      <c r="A1002" s="9"/>
+      <c r="A1002" s="11"/>
       <c r="B1002" s="7"/>
-      <c r="C1002" s="9"/>
-      <c r="D1002" s="11"/>
+      <c r="C1002" s="11"/>
+      <c r="D1002" s="13"/>
       <c r="E1002" s="7"/>
     </row>
     <row r="1003" spans="1:5">
-      <c r="A1003" s="9"/>
-      <c r="B1003" s="7"/>
-      <c r="C1003" s="9"/>
-      <c r="D1003" s="11"/>
+      <c r="A1003" s="11"/>
+      <c r="B1003" s="11"/>
+      <c r="C1003" s="11"/>
+      <c r="D1003" s="13"/>
       <c r="E1003" s="7"/>
     </row>
     <row r="1004" spans="1:5">
-      <c r="A1004" s="9"/>
-      <c r="B1004" s="9"/>
-      <c r="C1004" s="9"/>
-      <c r="D1004" s="11"/>
+      <c r="A1004" s="11"/>
+      <c r="B1004" s="11"/>
+      <c r="C1004" s="11"/>
+      <c r="D1004" s="13"/>
       <c r="E1004" s="7"/>
     </row>
     <row r="1005" spans="1:5">
-      <c r="A1005" s="9"/>
-      <c r="B1005" s="9"/>
-      <c r="C1005" s="9"/>
-      <c r="D1005" s="11"/>
+      <c r="A1005" s="11"/>
+      <c r="B1005" s="11"/>
+      <c r="C1005" s="11"/>
+      <c r="D1005" s="13"/>
       <c r="E1005" s="7"/>
     </row>
     <row r="1006" spans="1:5">
-      <c r="A1006" s="9"/>
-      <c r="B1006" s="9"/>
-      <c r="C1006" s="9"/>
-      <c r="D1006" s="11"/>
+      <c r="A1006" s="11"/>
+      <c r="B1006" s="7"/>
+      <c r="C1006" s="11"/>
+      <c r="D1006" s="12"/>
       <c r="E1006" s="7"/>
     </row>
     <row r="1007" spans="1:5">
-      <c r="A1007" s="9"/>
+      <c r="A1007" s="11"/>
       <c r="B1007" s="7"/>
-      <c r="C1007" s="9"/>
-      <c r="D1007" s="10"/>
+      <c r="C1007" s="11"/>
+      <c r="D1007" s="13"/>
       <c r="E1007" s="7"/>
     </row>
     <row r="1008" spans="1:5">
-      <c r="A1008" s="9"/>
+      <c r="A1008" s="11"/>
       <c r="B1008" s="7"/>
-      <c r="C1008" s="9"/>
-      <c r="D1008" s="11"/>
+      <c r="C1008" s="11"/>
+      <c r="D1008" s="13"/>
       <c r="E1008" s="7"/>
     </row>
     <row r="1009" spans="1:5">
-      <c r="A1009" s="9"/>
+      <c r="A1009" s="11"/>
       <c r="B1009" s="7"/>
-      <c r="C1009" s="9"/>
-      <c r="D1009" s="11"/>
+      <c r="C1009" s="11"/>
+      <c r="D1009" s="13"/>
       <c r="E1009" s="7"/>
     </row>
     <row r="1010" spans="1:5">
-      <c r="A1010" s="9"/>
+      <c r="A1010" s="11"/>
       <c r="B1010" s="7"/>
-      <c r="C1010" s="9"/>
-      <c r="D1010" s="11"/>
+      <c r="C1010" s="11"/>
+      <c r="D1010" s="12"/>
       <c r="E1010" s="7"/>
     </row>
     <row r="1011" spans="1:5">
-      <c r="A1011" s="9"/>
+      <c r="A1011" s="11"/>
       <c r="B1011" s="7"/>
-      <c r="C1011" s="9"/>
-      <c r="D1011" s="10"/>
+      <c r="C1011" s="11"/>
+      <c r="D1011" s="13"/>
       <c r="E1011" s="7"/>
     </row>
     <row r="1012" spans="1:5">
-      <c r="A1012" s="9"/>
+      <c r="A1012" s="11"/>
       <c r="B1012" s="7"/>
-      <c r="C1012" s="9"/>
-      <c r="D1012" s="11"/>
+      <c r="C1012" s="11"/>
+      <c r="D1012" s="13"/>
       <c r="E1012" s="7"/>
     </row>
     <row r="1013" spans="1:5">
-      <c r="A1013" s="9"/>
+      <c r="A1013" s="11"/>
       <c r="B1013" s="7"/>
-      <c r="C1013" s="9"/>
-      <c r="D1013" s="11"/>
+      <c r="C1013" s="11"/>
+      <c r="D1013" s="13"/>
       <c r="E1013" s="7"/>
     </row>
     <row r="1014" spans="1:5">
-      <c r="A1014" s="9"/>
+      <c r="A1014" s="11"/>
       <c r="B1014" s="7"/>
-      <c r="C1014" s="9"/>
-      <c r="D1014" s="11"/>
+      <c r="C1014" s="11"/>
+      <c r="D1014" s="13"/>
       <c r="E1014" s="7"/>
     </row>
     <row r="1015" spans="1:5">
-      <c r="A1015" s="9"/>
+      <c r="A1015" s="11"/>
       <c r="B1015" s="7"/>
-      <c r="C1015" s="9"/>
-      <c r="D1015" s="11"/>
+      <c r="C1015" s="11"/>
+      <c r="D1015" s="13"/>
       <c r="E1015" s="7"/>
     </row>
     <row r="1016" spans="1:5">
-      <c r="A1016" s="9"/>
-      <c r="B1016" s="7"/>
-      <c r="C1016" s="9"/>
-      <c r="D1016" s="11"/>
+      <c r="A1016" s="11"/>
+      <c r="B1016" s="11"/>
+      <c r="C1016" s="11"/>
+      <c r="D1016" s="13"/>
       <c r="E1016" s="7"/>
     </row>
     <row r="1017" spans="1:5">
-      <c r="A1017" s="9"/>
-      <c r="B1017" s="9"/>
-      <c r="C1017" s="9"/>
-      <c r="D1017" s="11"/>
+      <c r="A1017" s="11"/>
+      <c r="B1017" s="7"/>
+      <c r="C1017" s="11"/>
+      <c r="D1017" s="12"/>
       <c r="E1017" s="7"/>
     </row>
     <row r="1018" spans="1:5">
-      <c r="A1018" s="9"/>
-      <c r="B1018" s="7"/>
-      <c r="C1018" s="9"/>
-      <c r="D1018" s="10"/>
+      <c r="A1018" s="7"/>
+      <c r="B1018" s="11"/>
+      <c r="C1018" s="11"/>
+      <c r="D1018" s="13"/>
       <c r="E1018" s="7"/>
     </row>
     <row r="1019" spans="1:5">
-      <c r="A1019" s="7"/>
-      <c r="B1019" s="9"/>
-      <c r="C1019" s="9"/>
-      <c r="D1019" s="11"/>
+      <c r="A1019" s="11"/>
+      <c r="B1019" s="11"/>
+      <c r="C1019" s="11"/>
+      <c r="D1019" s="13"/>
       <c r="E1019" s="7"/>
     </row>
     <row r="1020" spans="1:5">
-      <c r="A1020" s="9"/>
-      <c r="B1020" s="9"/>
-      <c r="C1020" s="9"/>
-      <c r="D1020" s="11"/>
+      <c r="A1020" s="11"/>
+      <c r="B1020" s="7"/>
+      <c r="C1020" s="11"/>
+      <c r="D1020" s="13"/>
       <c r="E1020" s="7"/>
     </row>
     <row r="1021" spans="1:5">
-      <c r="A1021" s="9"/>
+      <c r="A1021" s="11"/>
       <c r="B1021" s="7"/>
-      <c r="C1021" s="9"/>
-      <c r="D1021" s="11"/>
+      <c r="C1021" s="11"/>
+      <c r="D1021" s="13"/>
       <c r="E1021" s="7"/>
     </row>
     <row r="1022" spans="1:5">
-      <c r="A1022" s="9"/>
-      <c r="B1022" s="7"/>
-      <c r="C1022" s="9"/>
-      <c r="D1022" s="11"/>
+      <c r="A1022" s="11"/>
+      <c r="B1022" s="11"/>
+      <c r="C1022" s="11"/>
+      <c r="D1022" s="13"/>
       <c r="E1022" s="7"/>
     </row>
     <row r="1023" spans="1:5">
-      <c r="A1023" s="9"/>
-      <c r="B1023" s="9"/>
-      <c r="C1023" s="9"/>
-      <c r="D1023" s="11"/>
+      <c r="A1023" s="11"/>
+      <c r="B1023" s="7"/>
+      <c r="C1023" s="11"/>
+      <c r="D1023" s="13"/>
       <c r="E1023" s="7"/>
     </row>
     <row r="1024" spans="1:5">
-      <c r="A1024" s="9"/>
+      <c r="A1024" s="11"/>
       <c r="B1024" s="7"/>
-      <c r="C1024" s="9"/>
-      <c r="D1024" s="11"/>
+      <c r="C1024" s="11"/>
+      <c r="D1024" s="13"/>
       <c r="E1024" s="7"/>
     </row>
     <row r="1025" spans="1:5">
-      <c r="A1025" s="9"/>
-      <c r="B1025" s="7"/>
-      <c r="C1025" s="9"/>
-      <c r="D1025" s="11"/>
+      <c r="A1025" s="11"/>
+      <c r="B1025" s="11"/>
+      <c r="C1025" s="11"/>
+      <c r="D1025" s="12"/>
       <c r="E1025" s="7"/>
     </row>
     <row r="1026" spans="1:5">
-      <c r="A1026" s="9"/>
-      <c r="B1026" s="9"/>
-      <c r="C1026" s="9"/>
-      <c r="D1026" s="10"/>
+      <c r="A1026" s="11"/>
+      <c r="B1026" s="11"/>
+      <c r="C1026" s="11"/>
+      <c r="D1026" s="13"/>
       <c r="E1026" s="7"/>
     </row>
     <row r="1027" spans="1:5">
-      <c r="A1027" s="9"/>
-      <c r="B1027" s="9"/>
-      <c r="C1027" s="9"/>
-      <c r="D1027" s="11"/>
+      <c r="A1027" s="11"/>
+      <c r="B1027" s="11"/>
+      <c r="C1027" s="11"/>
+      <c r="D1027" s="13"/>
       <c r="E1027" s="7"/>
     </row>
     <row r="1028" spans="1:5">
-      <c r="A1028" s="9"/>
-      <c r="B1028" s="9"/>
-      <c r="C1028" s="9"/>
-      <c r="D1028" s="11"/>
+      <c r="A1028" s="11"/>
+      <c r="B1028" s="7"/>
+      <c r="C1028" s="11"/>
+      <c r="D1028" s="13"/>
       <c r="E1028" s="7"/>
     </row>
     <row r="1029" spans="1:5">
-      <c r="A1029" s="9"/>
-      <c r="B1029" s="7"/>
-      <c r="C1029" s="9"/>
-      <c r="D1029" s="11"/>
+      <c r="A1029" s="32"/>
+      <c r="B1029" s="33"/>
+      <c r="C1029" s="11"/>
+      <c r="D1029" s="13"/>
       <c r="E1029" s="7"/>
     </row>
     <row r="1030" spans="1:5">
-      <c r="A1030" s="30"/>
-      <c r="B1030" s="31"/>
-      <c r="C1030" s="9"/>
-      <c r="D1030" s="11"/>
+      <c r="A1030" s="34"/>
+      <c r="B1030" s="11"/>
+      <c r="C1030" s="11"/>
+      <c r="D1030" s="12"/>
       <c r="E1030" s="7"/>
     </row>
     <row r="1031" spans="1:5">
-      <c r="A1031" s="32"/>
-      <c r="B1031" s="9"/>
-      <c r="C1031" s="9"/>
-      <c r="D1031" s="10"/>
+      <c r="A1031" s="11"/>
+      <c r="B1031" s="7"/>
+      <c r="C1031" s="11"/>
+      <c r="D1031" s="13"/>
       <c r="E1031" s="7"/>
     </row>
     <row r="1032" spans="1:5">
-      <c r="A1032" s="9"/>
+      <c r="A1032" s="11"/>
       <c r="B1032" s="7"/>
-      <c r="C1032" s="9"/>
-      <c r="D1032" s="11"/>
+      <c r="C1032" s="11"/>
+      <c r="D1032" s="13"/>
       <c r="E1032" s="7"/>
     </row>
     <row r="1033" spans="1:5">
-      <c r="A1033" s="9"/>
+      <c r="A1033" s="11"/>
       <c r="B1033" s="7"/>
-      <c r="C1033" s="9"/>
-      <c r="D1033" s="11"/>
+      <c r="C1033" s="11"/>
+      <c r="D1033" s="13"/>
       <c r="E1033" s="7"/>
     </row>
     <row r="1034" spans="1:5">
-      <c r="A1034" s="9"/>
-      <c r="B1034" s="7"/>
-      <c r="C1034" s="9"/>
-      <c r="D1034" s="11"/>
+      <c r="A1034" s="11"/>
+      <c r="B1034" s="11"/>
+      <c r="C1034" s="11"/>
+      <c r="D1034" s="13"/>
       <c r="E1034" s="7"/>
     </row>
     <row r="1035" spans="1:5">
-      <c r="A1035" s="9"/>
-      <c r="B1035" s="9"/>
-      <c r="C1035" s="9"/>
-      <c r="D1035" s="11"/>
+      <c r="A1035" s="11"/>
+      <c r="B1035" s="7"/>
+      <c r="C1035" s="11"/>
+      <c r="D1035" s="13"/>
       <c r="E1035" s="7"/>
     </row>
     <row r="1036" spans="1:5">
-      <c r="A1036" s="9"/>
-      <c r="B1036" s="7"/>
-      <c r="C1036" s="9"/>
-      <c r="D1036" s="11"/>
+      <c r="A1036" s="11"/>
+      <c r="B1036" s="11"/>
+      <c r="C1036" s="11"/>
+      <c r="D1036" s="12"/>
       <c r="E1036" s="7"/>
     </row>
     <row r="1037" spans="1:5">
-      <c r="A1037" s="9"/>
-      <c r="B1037" s="9"/>
-      <c r="C1037" s="9"/>
-      <c r="D1037" s="10"/>
+      <c r="A1037" s="11"/>
+      <c r="B1037" s="7"/>
+      <c r="C1037" s="11"/>
+      <c r="D1037" s="13"/>
       <c r="E1037" s="7"/>
     </row>
     <row r="1038" spans="1:5">
-      <c r="A1038" s="9"/>
-      <c r="B1038" s="7"/>
-      <c r="C1038" s="9"/>
-      <c r="D1038" s="11"/>
+      <c r="A1038" s="11"/>
+      <c r="B1038" s="11"/>
+      <c r="C1038" s="11"/>
+      <c r="D1038" s="13"/>
       <c r="E1038" s="7"/>
     </row>
     <row r="1039" spans="1:5">
-      <c r="A1039" s="9"/>
-      <c r="B1039" s="9"/>
-      <c r="C1039" s="9"/>
-      <c r="D1039" s="11"/>
+      <c r="A1039" s="11"/>
+      <c r="B1039" s="11"/>
+      <c r="C1039" s="11"/>
+      <c r="D1039" s="12"/>
       <c r="E1039" s="7"/>
     </row>
     <row r="1040" spans="1:5">
-      <c r="A1040" s="9"/>
-      <c r="B1040" s="9"/>
-      <c r="C1040" s="9"/>
-      <c r="D1040" s="10"/>
+      <c r="A1040" s="11"/>
+      <c r="B1040" s="11"/>
+      <c r="C1040" s="11"/>
+      <c r="D1040" s="12"/>
       <c r="E1040" s="7"/>
     </row>
     <row r="1041" spans="1:5">
-      <c r="A1041" s="9"/>
-      <c r="B1041" s="9"/>
-      <c r="C1041" s="9"/>
-      <c r="D1041" s="10"/>
+      <c r="A1041" s="11"/>
+      <c r="B1041" s="11"/>
+      <c r="C1041" s="11"/>
+      <c r="D1041" s="12"/>
       <c r="E1041" s="7"/>
     </row>
     <row r="1042" spans="1:5">
-      <c r="A1042" s="9"/>
-      <c r="B1042" s="9"/>
-      <c r="C1042" s="9"/>
-      <c r="D1042" s="10"/>
+      <c r="A1042" s="11"/>
+      <c r="B1042" s="11"/>
+      <c r="C1042" s="11"/>
+      <c r="D1042" s="12"/>
       <c r="E1042" s="7"/>
     </row>
     <row r="1043" spans="1:5">
-      <c r="A1043" s="9"/>
-      <c r="B1043" s="9"/>
-      <c r="C1043" s="9"/>
-      <c r="D1043" s="10"/>
+      <c r="A1043" s="7"/>
+      <c r="B1043" s="11"/>
+      <c r="C1043" s="11"/>
+      <c r="D1043" s="13"/>
       <c r="E1043" s="7"/>
     </row>
     <row r="1044" spans="1:5">
-      <c r="A1044" s="7"/>
-      <c r="B1044" s="9"/>
-      <c r="C1044" s="9"/>
-      <c r="D1044" s="11"/>
+      <c r="A1044" s="11"/>
+      <c r="B1044" s="11"/>
+      <c r="C1044" s="11"/>
+      <c r="D1044" s="13"/>
       <c r="E1044" s="7"/>
     </row>
     <row r="1045" spans="1:5">
-      <c r="A1045" s="9"/>
-      <c r="B1045" s="9"/>
-      <c r="C1045" s="9"/>
-      <c r="D1045" s="11"/>
+      <c r="A1045" s="11"/>
+      <c r="B1045" s="11"/>
+      <c r="C1045" s="11"/>
+      <c r="D1045" s="13"/>
       <c r="E1045" s="7"/>
     </row>
     <row r="1046" spans="1:5">
-      <c r="A1046" s="9"/>
-      <c r="B1046" s="9"/>
-      <c r="C1046" s="9"/>
-      <c r="D1046" s="11"/>
+      <c r="A1046" s="11"/>
+      <c r="B1046" s="11"/>
+      <c r="C1046" s="11"/>
+      <c r="D1046" s="13"/>
       <c r="E1046" s="7"/>
     </row>
     <row r="1047" spans="1:5">
-      <c r="A1047" s="9"/>
-      <c r="B1047" s="9"/>
-      <c r="C1047" s="9"/>
-      <c r="D1047" s="11"/>
+      <c r="A1047" s="11"/>
+      <c r="B1047" s="11"/>
+      <c r="C1047" s="11"/>
+      <c r="D1047" s="13"/>
       <c r="E1047" s="7"/>
     </row>
     <row r="1048" spans="1:5">
-      <c r="A1048" s="9"/>
-      <c r="B1048" s="9"/>
-      <c r="C1048" s="9"/>
-      <c r="D1048" s="11"/>
+      <c r="A1048" s="11"/>
+      <c r="B1048" s="11"/>
+      <c r="C1048" s="11"/>
+      <c r="D1048" s="13"/>
       <c r="E1048" s="7"/>
     </row>
     <row r="1049" spans="1:5">
-      <c r="A1049" s="9"/>
-      <c r="B1049" s="9"/>
-      <c r="C1049" s="9"/>
-      <c r="D1049" s="11"/>
+      <c r="A1049" s="11"/>
+      <c r="B1049" s="11"/>
+      <c r="C1049" s="11"/>
+      <c r="D1049" s="12"/>
       <c r="E1049" s="7"/>
     </row>
     <row r="1050" spans="1:5">
-      <c r="A1050" s="9"/>
-      <c r="B1050" s="9"/>
-      <c r="C1050" s="9"/>
-      <c r="D1050" s="10"/>
+      <c r="A1050" s="11"/>
+      <c r="B1050" s="11"/>
+      <c r="C1050" s="11"/>
+      <c r="D1050" s="12"/>
       <c r="E1050" s="7"/>
     </row>
     <row r="1051" spans="1:5">
-      <c r="A1051" s="9"/>
-      <c r="B1051" s="9"/>
-      <c r="C1051" s="9"/>
-      <c r="D1051" s="10"/>
+      <c r="A1051" s="11"/>
+      <c r="B1051" s="11"/>
+      <c r="C1051" s="11"/>
+      <c r="D1051" s="13"/>
       <c r="E1051" s="7"/>
     </row>
     <row r="1052" spans="1:5">
-      <c r="A1052" s="9"/>
-      <c r="B1052" s="9"/>
-      <c r="C1052" s="9"/>
-      <c r="D1052" s="11"/>
+      <c r="A1052" s="11"/>
+      <c r="B1052" s="11"/>
+      <c r="C1052" s="11"/>
+      <c r="D1052" s="12"/>
       <c r="E1052" s="7"/>
     </row>
     <row r="1053" spans="1:5">
-      <c r="A1053" s="9"/>
-      <c r="B1053" s="9"/>
-      <c r="C1053" s="9"/>
-      <c r="D1053" s="10"/>
+      <c r="A1053" s="11"/>
+      <c r="B1053" s="11"/>
+      <c r="C1053" s="11"/>
+      <c r="D1053" s="12"/>
       <c r="E1053" s="7"/>
     </row>
     <row r="1054" spans="1:5">
-      <c r="A1054" s="9"/>
-      <c r="B1054" s="9"/>
-      <c r="C1054" s="9"/>
-      <c r="D1054" s="10"/>
+      <c r="A1054" s="11"/>
+      <c r="B1054" s="11"/>
+      <c r="C1054" s="11"/>
+      <c r="D1054" s="12"/>
       <c r="E1054" s="7"/>
     </row>
     <row r="1055" spans="1:5">
-      <c r="A1055" s="9"/>
-      <c r="B1055" s="9"/>
-      <c r="C1055" s="9"/>
-      <c r="D1055" s="10"/>
+      <c r="A1055" s="11"/>
+      <c r="B1055" s="11"/>
+      <c r="C1055" s="11"/>
+      <c r="D1055" s="13"/>
       <c r="E1055" s="7"/>
     </row>
     <row r="1056" spans="1:5">
-      <c r="A1056" s="9"/>
-      <c r="B1056" s="9"/>
-      <c r="C1056" s="9"/>
-      <c r="D1056" s="11"/>
+      <c r="A1056" s="11"/>
+      <c r="B1056" s="7"/>
+      <c r="C1056" s="11"/>
+      <c r="D1056" s="12"/>
       <c r="E1056" s="7"/>
     </row>
     <row r="1057" spans="1:5">
-      <c r="A1057" s="9"/>
-      <c r="B1057" s="7"/>
-      <c r="C1057" s="9"/>
-      <c r="D1057" s="10"/>
+      <c r="A1057" s="11"/>
+      <c r="B1057" s="11"/>
+      <c r="C1057" s="11"/>
+      <c r="D1057" s="13"/>
       <c r="E1057" s="7"/>
     </row>
     <row r="1058" spans="1:5">
-      <c r="A1058" s="9"/>
-      <c r="B1058" s="9"/>
-      <c r="C1058" s="9"/>
-      <c r="D1058" s="11"/>
+      <c r="A1058" s="7"/>
+      <c r="B1058" s="7"/>
+      <c r="C1058" s="7"/>
+      <c r="D1058" s="13"/>
       <c r="E1058" s="7"/>
     </row>
     <row r="1059" spans="1:5">
-      <c r="A1059" s="7"/>
-      <c r="B1059" s="7"/>
-      <c r="C1059" s="7"/>
-      <c r="D1059" s="11"/>
+      <c r="A1059" s="11"/>
+      <c r="B1059" s="11"/>
+      <c r="C1059" s="11"/>
+      <c r="D1059" s="13"/>
       <c r="E1059" s="7"/>
     </row>
     <row r="1060" spans="1:5">
-      <c r="A1060" s="9"/>
-      <c r="B1060" s="9"/>
-      <c r="C1060" s="9"/>
-      <c r="D1060" s="11"/>
+      <c r="A1060" s="11"/>
+      <c r="B1060" s="11"/>
+      <c r="C1060" s="11"/>
+      <c r="D1060" s="13"/>
       <c r="E1060" s="7"/>
     </row>
     <row r="1061" spans="1:5">
-      <c r="A1061" s="9"/>
-      <c r="B1061" s="9"/>
-      <c r="C1061" s="9"/>
-      <c r="D1061" s="11"/>
+      <c r="A1061" s="11"/>
+      <c r="B1061" s="11"/>
+      <c r="C1061" s="11"/>
+      <c r="D1061" s="13"/>
       <c r="E1061" s="7"/>
-    </row>
-    <row r="1062" spans="1:5">
-      <c r="A1062" s="9"/>
-      <c r="B1062" s="9"/>
-      <c r="C1062" s="9"/>
-      <c r="D1062" s="11"/>
-      <c r="E1062" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <sortState ref="A2:E1062">
+    <sortCondition ref="A2"/>
+  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C20 C21:C22 C23:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35 C36 C87 C88 C103 C1:C20 C21:C22 C23:C34 C37:C41 C42:C43 C44:C71 C72:C86 C89:C96 C97:C99 C100:C102 C104:C1048576">
       <formula1>"国语,日语,英语"</formula1>
     </dataValidation>
   </dataValidations>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1061</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$223</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -47,15 +47,979 @@
     <t>投稿歌切BV号</t>
   </si>
   <si>
-    <t>恋歌与雨天/恋音と雨空</t>
-  </si>
-  <si>
-    <t>AAA</t>
+    <t>always online</t>
+  </si>
+  <si>
+    <t>林俊杰</t>
+  </si>
+  <si>
+    <t>国语</t>
+  </si>
+  <si>
+    <t>beautiful love</t>
+  </si>
+  <si>
+    <t>蔡健雅</t>
+  </si>
+  <si>
+    <t>bling bling bling</t>
+  </si>
+  <si>
+    <t>后海大鲨鱼</t>
+  </si>
+  <si>
+    <t>K歌之王</t>
+  </si>
+  <si>
+    <t>陈奕迅</t>
+  </si>
+  <si>
+    <t>Letting go</t>
+  </si>
+  <si>
+    <t>BV1em4y1q77P&amp;p=14</t>
+  </si>
+  <si>
+    <t>Who Is Your Girl</t>
+  </si>
+  <si>
+    <t>SNH48</t>
+  </si>
+  <si>
+    <t>河曲</t>
+  </si>
+  <si>
+    <t>yes！ok！</t>
+  </si>
+  <si>
+    <t>青春有你</t>
+  </si>
+  <si>
+    <t>阿拉斯加海湾</t>
+  </si>
+  <si>
+    <t>蓝心羽</t>
+  </si>
+  <si>
+    <t>BV1au4y127Vn</t>
+  </si>
+  <si>
+    <t>爱的供养</t>
+  </si>
+  <si>
+    <t>杨幂</t>
+  </si>
+  <si>
+    <t>熬夜上瘾</t>
+  </si>
+  <si>
+    <t>刘亦心</t>
+  </si>
+  <si>
+    <t>巴赫旧约</t>
+  </si>
+  <si>
+    <t>汪苏泷</t>
+  </si>
+  <si>
+    <t>白鸽</t>
+  </si>
+  <si>
+    <t>你的上好佳</t>
+  </si>
+  <si>
+    <t>百年孤寂</t>
+  </si>
+  <si>
+    <t>王菲</t>
+  </si>
+  <si>
+    <t>宝贝</t>
+  </si>
+  <si>
+    <t>张悬</t>
+  </si>
+  <si>
+    <t>抱紧处理</t>
+  </si>
+  <si>
+    <t>GNZ48</t>
+  </si>
+  <si>
+    <t>背对背拥抱</t>
+  </si>
+  <si>
+    <t>被驯服的象</t>
+  </si>
+  <si>
+    <t>哔哩吧啦boom</t>
+  </si>
+  <si>
+    <t>瑾宝</t>
+  </si>
+  <si>
+    <t>别再问我什么是迪斯科</t>
+  </si>
+  <si>
+    <t>张蔷</t>
+  </si>
+  <si>
+    <t>别找我麻烦</t>
+  </si>
+  <si>
+    <t>不分手的恋爱</t>
+  </si>
+  <si>
+    <t>不老梦</t>
+  </si>
+  <si>
+    <t>银临</t>
+  </si>
+  <si>
+    <t>不怕</t>
+  </si>
+  <si>
+    <t>赵蓓/赵蕾</t>
+  </si>
+  <si>
+    <t>不再联系</t>
+  </si>
+  <si>
+    <t>夏天Alex</t>
+  </si>
+  <si>
+    <t>不醉不会</t>
+  </si>
+  <si>
+    <t>田馥甄</t>
+  </si>
+  <si>
+    <t>彩虹的微笑</t>
+  </si>
+  <si>
+    <t>王心凌</t>
+  </si>
+  <si>
+    <t>参商</t>
+  </si>
+  <si>
+    <t>不才</t>
+  </si>
+  <si>
+    <t>残缺的彩虹</t>
+  </si>
+  <si>
+    <t>陈绮贞</t>
+  </si>
+  <si>
+    <t>撑腰</t>
+  </si>
+  <si>
+    <t>罗志祥</t>
+  </si>
+  <si>
+    <t>虫儿飞</t>
+  </si>
+  <si>
+    <t>郑伊健</t>
+  </si>
+  <si>
+    <t>初恋小盗</t>
+  </si>
+  <si>
+    <t>触电</t>
+  </si>
+  <si>
+    <t>S.H.E</t>
+  </si>
+  <si>
+    <t>春夏秋冬</t>
+  </si>
+  <si>
+    <t>达尔文</t>
+  </si>
+  <si>
+    <t>大眠</t>
+  </si>
+  <si>
+    <t>大鱼</t>
+  </si>
+  <si>
+    <t>周深</t>
+  </si>
+  <si>
+    <t>得了吧张小姐</t>
+  </si>
+  <si>
+    <t>李想Evelyn</t>
+  </si>
+  <si>
+    <t>等你下课</t>
+  </si>
+  <si>
+    <t>周杰伦</t>
+  </si>
+  <si>
+    <t>第二杯半价</t>
+  </si>
+  <si>
+    <t>纳豆nado</t>
+  </si>
+  <si>
+    <t>电台情歌</t>
+  </si>
+  <si>
+    <t>莫文蔚</t>
+  </si>
+  <si>
+    <t>东风志</t>
+  </si>
+  <si>
+    <t>Aki阿杰</t>
+  </si>
+  <si>
+    <t>房间</t>
+  </si>
+  <si>
+    <t>刘瑞琦</t>
+  </si>
+  <si>
+    <t>飞鸟和蝉</t>
+  </si>
+  <si>
+    <t>任然</t>
+  </si>
+  <si>
+    <t>浮生辞</t>
+  </si>
+  <si>
+    <t>给电影人的情书</t>
+  </si>
+  <si>
+    <t>蔡琴</t>
+  </si>
+  <si>
+    <t>给你一瓶魔法药水</t>
+  </si>
+  <si>
+    <t>告五人</t>
+  </si>
+  <si>
+    <t>够爱</t>
+  </si>
+  <si>
+    <t>东城卫</t>
+  </si>
+  <si>
+    <t>孤单心事</t>
+  </si>
+  <si>
+    <t>蓝又时</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>还是会寂寞</t>
+  </si>
+  <si>
+    <t>海底</t>
+  </si>
+  <si>
+    <t>凤凰传奇</t>
+  </si>
+  <si>
+    <t>海海海</t>
+  </si>
+  <si>
+    <t>阿悄</t>
+  </si>
+  <si>
+    <t>海芋恋</t>
+  </si>
+  <si>
+    <t>萧敬腾</t>
+  </si>
+  <si>
+    <t>合理失控</t>
+  </si>
+  <si>
+    <t>黑暗骑士</t>
+  </si>
+  <si>
+    <t>林俊杰/五月天</t>
+  </si>
+  <si>
+    <t>黑夜问白天</t>
+  </si>
+  <si>
+    <t>红日</t>
+  </si>
+  <si>
+    <t>李克勤</t>
+  </si>
+  <si>
+    <t>红色高跟鞋</t>
+  </si>
+  <si>
+    <t>后来</t>
+  </si>
+  <si>
+    <t>刘若英</t>
+  </si>
+  <si>
+    <t>忽而今夏</t>
+  </si>
+  <si>
+    <t>忽如远行客</t>
+  </si>
+  <si>
+    <t>云の泣</t>
+  </si>
+  <si>
+    <t>胡广生</t>
+  </si>
+  <si>
+    <t>任素汐</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>萧潇</t>
+  </si>
+  <si>
+    <t>化作樱花树</t>
+  </si>
+  <si>
+    <t>BV15g4y1N7Mw</t>
+  </si>
+  <si>
+    <t>画心</t>
+  </si>
+  <si>
+    <t>张靓颖</t>
+  </si>
+  <si>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>BV1764y157Ek&amp;p=1</t>
+  </si>
+  <si>
+    <t>火红的萨日朗</t>
+  </si>
+  <si>
+    <t>乌兰托娅</t>
+  </si>
+  <si>
+    <t>寂寞在唱歌</t>
+  </si>
+  <si>
+    <t>阿桑</t>
+  </si>
+  <si>
+    <t>嘉宾</t>
+  </si>
+  <si>
+    <t>张远</t>
+  </si>
+  <si>
+    <t>简单爱</t>
+  </si>
+  <si>
+    <t>九万字</t>
+  </si>
+  <si>
+    <t>黄诗扶</t>
+  </si>
+  <si>
+    <t>就让这大雨全都落下</t>
+  </si>
+  <si>
+    <t>容祖儿</t>
+  </si>
+  <si>
+    <t>BV1E8411Z76N</t>
+  </si>
+  <si>
+    <t>剧场的女神</t>
+  </si>
+  <si>
+    <t>靠近一点点</t>
+  </si>
+  <si>
+    <t>梁心颐</t>
+  </si>
+  <si>
+    <t>可惜没如果</t>
+  </si>
+  <si>
+    <t>刻在我心底的名字</t>
+  </si>
+  <si>
+    <t>卢广仲</t>
+  </si>
+  <si>
+    <t>快点告诉你</t>
+  </si>
+  <si>
+    <t>苑冉</t>
+  </si>
+  <si>
+    <t>快乐的扑满</t>
+  </si>
+  <si>
+    <t>邵丽棠</t>
+  </si>
+  <si>
+    <t>浪漫火箭</t>
+  </si>
+  <si>
+    <t>梁山伯与茱丽叶</t>
+  </si>
+  <si>
+    <t>卓文萱/曹格</t>
+  </si>
+  <si>
+    <t>两个恰恰好</t>
+  </si>
+  <si>
+    <t>旺福</t>
+  </si>
+  <si>
+    <t>猎梦</t>
+  </si>
+  <si>
+    <t>流年</t>
+  </si>
+  <si>
+    <t>落花成泥</t>
+  </si>
+  <si>
+    <t>鞠婧祎</t>
+  </si>
+  <si>
+    <t>旅行的意义</t>
+  </si>
+  <si>
+    <t>麦乐鸡</t>
+  </si>
+  <si>
+    <t>桐夜toya</t>
+  </si>
+  <si>
+    <t>慢灵魂</t>
+  </si>
+  <si>
+    <t>眉飞色舞</t>
+  </si>
+  <si>
+    <t>郑秀文</t>
+  </si>
+  <si>
+    <t>眉间雪</t>
+  </si>
+  <si>
+    <t>晴愔</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+  </si>
+  <si>
+    <t>BV1em4y1q77P&amp;p=11</t>
+  </si>
+  <si>
+    <t>梦的光点</t>
+  </si>
+  <si>
+    <t>梦想咖啡厅</t>
+  </si>
+  <si>
+    <t>秘密</t>
+  </si>
+  <si>
+    <t>莫斯科没有眼泪</t>
+  </si>
+  <si>
+    <t>Twins</t>
+  </si>
+  <si>
+    <t>漠河舞厅</t>
+  </si>
+  <si>
+    <t>柳爽</t>
+  </si>
+  <si>
+    <t>那女孩对我说</t>
+  </si>
+  <si>
+    <t>黄义达</t>
+  </si>
+  <si>
+    <t>男孩别哭</t>
+  </si>
+  <si>
+    <t>海龟先生</t>
+  </si>
+  <si>
+    <t>霓虹甜心</t>
+  </si>
+  <si>
+    <t>马赛克乐队</t>
+  </si>
+  <si>
+    <t>你的微笑</t>
+  </si>
+  <si>
+    <t>F.I.R</t>
+  </si>
+  <si>
+    <t>你就不要想起我</t>
+  </si>
+  <si>
+    <t>你要跳舞吗</t>
+  </si>
+  <si>
+    <t>新裤子乐队</t>
+  </si>
+  <si>
+    <t>逆光</t>
+  </si>
+  <si>
+    <t>孙燕姿</t>
+  </si>
+  <si>
+    <t>破茧</t>
+  </si>
+  <si>
+    <t>张韶涵</t>
+  </si>
+  <si>
+    <t>七里香</t>
+  </si>
+  <si>
+    <t>亲爱的那不是爱情</t>
+  </si>
+  <si>
+    <t>青柠</t>
+  </si>
+  <si>
+    <t>徐秉龙/桃十五</t>
+  </si>
+  <si>
+    <t>倾尽天下</t>
+  </si>
+  <si>
+    <t>河图</t>
+  </si>
+  <si>
+    <t>情深深雨濛濛</t>
+  </si>
+  <si>
+    <t>赵薇</t>
+  </si>
+  <si>
+    <t>人质</t>
+  </si>
+  <si>
+    <t>张惠妹</t>
+  </si>
+  <si>
+    <t>如果没有你</t>
+  </si>
+  <si>
+    <t>如果你也听说</t>
+  </si>
+  <si>
+    <t>如愿</t>
+  </si>
+  <si>
+    <t>杀破狼</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>奢香夫人</t>
+  </si>
+  <si>
+    <t>深海之声</t>
+  </si>
+  <si>
+    <t>神魂颠倒</t>
+  </si>
+  <si>
+    <t>是风动</t>
+  </si>
+  <si>
+    <t>银临/河图</t>
+  </si>
+  <si>
+    <t>逝去的歌</t>
+  </si>
+  <si>
+    <t>旅行团乐队</t>
+  </si>
+  <si>
+    <t>说爱你</t>
+  </si>
+  <si>
+    <t>蔡依林</t>
+  </si>
+  <si>
+    <t>岁月神偷</t>
+  </si>
+  <si>
+    <t>金玟岐</t>
+  </si>
+  <si>
+    <t>她说</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邱振哲</t>
+    </r>
+  </si>
+  <si>
+    <t>叹云兮</t>
+  </si>
+  <si>
+    <t>棠梨煎雪</t>
+  </si>
+  <si>
+    <t>特务J</t>
+  </si>
+  <si>
+    <t>突然想起你</t>
+  </si>
+  <si>
+    <t>萧亚轩</t>
+  </si>
+  <si>
+    <t>妥协</t>
+  </si>
+  <si>
+    <t>未接来电</t>
+  </si>
+  <si>
+    <t>温柔</t>
+  </si>
+  <si>
+    <t>五月天</t>
+  </si>
+  <si>
+    <t>我爱你</t>
+  </si>
+  <si>
+    <t>我不难过</t>
+  </si>
+  <si>
+    <t>我怀念的</t>
+  </si>
+  <si>
+    <t>我希望在你的爱情里</t>
+  </si>
+  <si>
+    <t>我喜欢上你时的内心活动</t>
+  </si>
+  <si>
+    <t>我只在乎你</t>
+  </si>
+  <si>
+    <t>邓丽君</t>
+  </si>
+  <si>
+    <t>无法原谅</t>
+  </si>
+  <si>
+    <t>李佳璐</t>
+  </si>
+  <si>
+    <t>无尽旋转</t>
+  </si>
+  <si>
+    <t>下辈子如果我还记得你</t>
+  </si>
+  <si>
+    <t>马郁</t>
+  </si>
+  <si>
+    <t>下个星期去英国</t>
+  </si>
+  <si>
+    <t>下课铃声</t>
+  </si>
+  <si>
+    <t>下雨天</t>
+  </si>
+  <si>
+    <t>南拳妈妈</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏天的风</t>
+    </r>
+  </si>
+  <si>
+    <t>温岚</t>
+  </si>
+  <si>
+    <t>BV1em4y1q77P&amp;p=1</t>
+  </si>
+  <si>
+    <t>小半</t>
+  </si>
+  <si>
+    <t>陈粒</t>
+  </si>
+  <si>
+    <t>小尘埃</t>
+  </si>
+  <si>
+    <t>小情歌</t>
+  </si>
+  <si>
+    <t>苏打绿</t>
+  </si>
+  <si>
+    <t>小手拉大手</t>
+  </si>
+  <si>
+    <t>梁静茹</t>
+  </si>
+  <si>
+    <t>心墙</t>
+  </si>
+  <si>
+    <t>郭静</t>
+  </si>
+  <si>
+    <t>心愿便利贴</t>
+  </si>
+  <si>
+    <t>元若蓝/吴忠明</t>
+  </si>
+  <si>
+    <t>BV16e411k7ei</t>
+  </si>
+  <si>
+    <t>星月神话</t>
+  </si>
+  <si>
+    <t>金莎</t>
+  </si>
+  <si>
+    <t>悬铃木</t>
+  </si>
+  <si>
+    <t>BV1764y157Ek&amp;p=2</t>
+  </si>
+  <si>
+    <t>旋木</t>
+  </si>
+  <si>
+    <t>阳光宅男</t>
+  </si>
+  <si>
+    <t>夜蝶</t>
+  </si>
+  <si>
+    <t>BV1ga4y1R7ZZ</t>
+  </si>
+  <si>
+    <t>夜猫</t>
+  </si>
+  <si>
+    <t>夜行的黑猫</t>
+  </si>
+  <si>
+    <t>一个人想着一个人</t>
+  </si>
+  <si>
+    <t>曾沛慈</t>
+  </si>
+  <si>
+    <t>一个像夏天一个像冬天</t>
+  </si>
+  <si>
+    <t>范玮琪</t>
+  </si>
+  <si>
+    <t>一笑倾城</t>
+  </si>
+  <si>
+    <t>遗失的美好</t>
+  </si>
+  <si>
+    <t>易燃易爆炸</t>
+  </si>
+  <si>
+    <t>阴天</t>
+  </si>
+  <si>
+    <t>阴天快乐</t>
+  </si>
+  <si>
+    <t>姻缘签</t>
+  </si>
+  <si>
+    <t>音阙诗听</t>
+  </si>
+  <si>
+    <t>永不失联的爱</t>
+  </si>
+  <si>
+    <t>周兴哲</t>
+  </si>
+  <si>
+    <t>永远都会在</t>
+  </si>
+  <si>
+    <t>有点甜</t>
+  </si>
+  <si>
+    <t>有你的快乐</t>
+  </si>
+  <si>
+    <t>王若琳</t>
+  </si>
+  <si>
+    <t>雨爱</t>
+  </si>
+  <si>
+    <t>杨丞琳</t>
+  </si>
+  <si>
+    <t>BV1nV4y1U7qQ</t>
+  </si>
+  <si>
+    <t>雨天</t>
+  </si>
+  <si>
+    <t>雨樱花</t>
+  </si>
+  <si>
+    <t>遇萤</t>
+  </si>
+  <si>
+    <t>CRITTY</t>
+  </si>
+  <si>
+    <t>云雨成烟</t>
+  </si>
+  <si>
+    <t>房东的猫</t>
+  </si>
+  <si>
+    <t>怎么唱情歌</t>
+  </si>
+  <si>
+    <t>刘惜君</t>
+  </si>
+  <si>
+    <t>只对你有感觉</t>
+  </si>
+  <si>
+    <t>飞轮海/田馥甄</t>
+  </si>
+  <si>
+    <t>猪猪侠</t>
+  </si>
+  <si>
+    <t>陈洁丽</t>
+  </si>
+  <si>
+    <t>追光者</t>
+  </si>
+  <si>
+    <t>岑宁儿</t>
+  </si>
+  <si>
+    <t>The Show</t>
+  </si>
+  <si>
+    <t>Lenka</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>BV1bV4y1h7vJ</t>
+  </si>
+  <si>
+    <t>And I'm home</t>
+  </si>
+  <si>
+    <t>喜多村英梨/野中蓝</t>
   </si>
   <si>
     <t>日语</t>
   </si>
   <si>
+    <t>Beautiful World</t>
+  </si>
+  <si>
+    <t>宇多田光</t>
+  </si>
+  <si>
+    <t>Euterpe</t>
+  </si>
+  <si>
+    <t>EGOIST</t>
+  </si>
+  <si>
+    <t>From Y to Y</t>
+  </si>
+  <si>
+    <t>初音ミク</t>
+  </si>
+  <si>
+    <t>术力口</t>
+  </si>
+  <si>
+    <t>Glow</t>
+  </si>
+  <si>
+    <t>God knows</t>
+  </si>
+  <si>
+    <t>平野绫</t>
+  </si>
+  <si>
+    <t>melancholy/メランコリック</t>
+  </si>
+  <si>
+    <t>鏡音リン</t>
+  </si>
+  <si>
+    <t>PONPONPON</t>
+  </si>
+  <si>
+    <t>竹村桐子</t>
+  </si>
+  <si>
+    <t>secret base</t>
+  </si>
+  <si>
+    <t>茅野爱衣/户松遥/早见沙织</t>
+  </si>
+  <si>
     <t>单相思／カタオモイ</t>
   </si>
   <si>
@@ -65,454 +1029,16 @@
     <t>BV1em4y1q77P&amp;p=8</t>
   </si>
   <si>
-    <t>东风志</t>
-  </si>
-  <si>
-    <t>Aki阿杰</t>
-  </si>
-  <si>
-    <t>国语</t>
-  </si>
-  <si>
-    <t>圣诞颂歌/クリスマスソング</t>
-  </si>
-  <si>
-    <t>back number</t>
-  </si>
-  <si>
-    <t>我爱你/アイラブユー</t>
-  </si>
-  <si>
-    <t>瞬き</t>
-  </si>
-  <si>
-    <t>遇萤</t>
-  </si>
-  <si>
-    <t>CRITTY</t>
-  </si>
-  <si>
-    <t>Euterpe</t>
-  </si>
-  <si>
-    <t>EGOIST</t>
-  </si>
-  <si>
-    <t>你的微笑</t>
-  </si>
-  <si>
-    <t>F.I.R</t>
-  </si>
-  <si>
-    <t>雨樱花</t>
-  </si>
-  <si>
-    <t>梦想咖啡厅</t>
-  </si>
-  <si>
-    <t>GNZ48</t>
-  </si>
-  <si>
-    <t>河曲</t>
-  </si>
-  <si>
-    <t>合理失控</t>
-  </si>
-  <si>
-    <t>抱紧处理</t>
-  </si>
-  <si>
-    <t>染上你的颜色/君色に染まる</t>
-  </si>
-  <si>
-    <t>GUMI</t>
-  </si>
-  <si>
-    <t>术力口</t>
-  </si>
-  <si>
-    <t>视力检查/シリョクケンサ</t>
-  </si>
-  <si>
-    <t>天ノ弱</t>
-  </si>
-  <si>
-    <t>杀破狼</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>The Show</t>
-  </si>
-  <si>
-    <t>Lenka</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>BV1bV4y1h7vJ</t>
-  </si>
-  <si>
-    <t>人生多别离</t>
-  </si>
-  <si>
-    <t>nero</t>
-  </si>
-  <si>
-    <t>伪装者/Pretender</t>
-  </si>
-  <si>
-    <t>Official髭男dism</t>
-  </si>
-  <si>
-    <t>触电</t>
-  </si>
-  <si>
-    <t>S.H.E</t>
-  </si>
-  <si>
-    <t>Who Is Your Girl</t>
-  </si>
-  <si>
-    <t>SNH48</t>
-  </si>
-  <si>
-    <t>化作樱花树</t>
-  </si>
-  <si>
-    <t>BV15g4y1N7Mw</t>
-  </si>
-  <si>
-    <t>幻</t>
-  </si>
-  <si>
-    <t>BV1764y157Ek&amp;p=1</t>
-  </si>
-  <si>
-    <t>猎梦</t>
-  </si>
-  <si>
-    <t>深海之声</t>
-  </si>
-  <si>
-    <t>未接来电</t>
-  </si>
-  <si>
-    <t>悬铃木</t>
-  </si>
-  <si>
-    <t>BV1764y157Ek&amp;p=2</t>
-  </si>
-  <si>
-    <t>夜蝶</t>
-  </si>
-  <si>
-    <t>BV1ga4y1R7ZZ</t>
-  </si>
-  <si>
-    <t>夜行的黑猫</t>
-  </si>
-  <si>
-    <t>剧场的女神</t>
-  </si>
-  <si>
-    <t>初恋小盗</t>
-  </si>
-  <si>
-    <t>春夏秋冬</t>
-  </si>
-  <si>
-    <t>无尽旋转</t>
-  </si>
-  <si>
-    <t>神魂颠倒</t>
-  </si>
-  <si>
-    <t>浪漫火箭</t>
-  </si>
-  <si>
-    <t>下课铃声</t>
-  </si>
-  <si>
-    <t>莫斯科没有眼泪</t>
-  </si>
-  <si>
-    <t>Twins</t>
-  </si>
-  <si>
-    <t>群青</t>
-  </si>
-  <si>
-    <t>YOASOBI</t>
-  </si>
-  <si>
-    <t>BV1bX4y187jf</t>
-  </si>
-  <si>
-    <t>向夜晚奔去/夜に駆ける</t>
-  </si>
-  <si>
-    <t>失恋ソング沢山聴いて 泣いてばかりの私はもう。</t>
-  </si>
-  <si>
-    <t>りりあ</t>
-  </si>
-  <si>
-    <t>海海海</t>
-  </si>
-  <si>
-    <t>阿悄</t>
-  </si>
-  <si>
-    <t>寂寞在唱歌</t>
-  </si>
-  <si>
-    <t>阿桑</t>
-  </si>
-  <si>
-    <t>参商</t>
-  </si>
-  <si>
-    <t>不才</t>
-  </si>
-  <si>
-    <t>Letting go</t>
-  </si>
-  <si>
-    <t>蔡健雅</t>
-  </si>
-  <si>
-    <t>BV1em4y1q77P&amp;p=14</t>
-  </si>
-  <si>
-    <t>别找我麻烦</t>
-  </si>
-  <si>
-    <t>达尔文</t>
-  </si>
-  <si>
-    <t>红色高跟鞋</t>
-  </si>
-  <si>
-    <t>被驯服的象</t>
-  </si>
-  <si>
-    <t>beautiful love</t>
-  </si>
-  <si>
-    <t>给电影人的情书</t>
-  </si>
-  <si>
-    <t>蔡琴</t>
-  </si>
-  <si>
-    <t>妥协</t>
-  </si>
-  <si>
-    <t>蔡依林</t>
-  </si>
-  <si>
-    <t>特务J</t>
-  </si>
-  <si>
-    <t>说爱你</t>
-  </si>
-  <si>
     <t>渡月橋 ~君 想ふ~</t>
   </si>
   <si>
     <t>仓木麻衣</t>
   </si>
   <si>
-    <t>追光者</t>
-  </si>
-  <si>
-    <t>岑宁儿</t>
-  </si>
-  <si>
-    <t>一个人想着一个人</t>
-  </si>
-  <si>
-    <t>曾沛慈</t>
-  </si>
-  <si>
-    <t>猪猪侠</t>
-  </si>
-  <si>
-    <t>陈洁丽</t>
-  </si>
-  <si>
-    <t>易燃易爆炸</t>
-  </si>
-  <si>
-    <t>陈粒</t>
-  </si>
-  <si>
-    <t>小半</t>
-  </si>
-  <si>
-    <t>还是会寂寞</t>
-  </si>
-  <si>
-    <t>陈绮贞</t>
-  </si>
-  <si>
-    <t>旅行的意义</t>
-  </si>
-  <si>
-    <t>下个星期去英国</t>
-  </si>
-  <si>
-    <t>残缺的彩虹</t>
-  </si>
-  <si>
-    <t>太阳</t>
-  </si>
-  <si>
-    <t>小尘埃</t>
-  </si>
-  <si>
-    <t>我喜欢上你时的内心活动</t>
-  </si>
-  <si>
-    <t>阴天快乐</t>
-  </si>
-  <si>
-    <t>陈奕迅</t>
-  </si>
-  <si>
-    <t>K歌之王</t>
-  </si>
-  <si>
-    <t>From Y to Y</t>
-  </si>
-  <si>
-    <t>初音ミク</t>
-  </si>
-  <si>
-    <t>Glow</t>
-  </si>
-  <si>
-    <t>活动小丑/からくりピエロ</t>
-  </si>
-  <si>
-    <t>BV1ec411g7Yn&amp;p=1</t>
-  </si>
-  <si>
-    <t>孑然妒火/独りんぼエンヴィー</t>
-  </si>
-  <si>
-    <t>BV1ec411g7Yn&amp;p=4</t>
-  </si>
-  <si>
-    <t>恋爱裁判</t>
-  </si>
-  <si>
-    <t>BV1ec411g7Yn&amp;p=6</t>
-  </si>
-  <si>
-    <t>千本樱</t>
-  </si>
-  <si>
-    <t>虽然歌声无形/歌に形はないけれど</t>
-  </si>
-  <si>
-    <t>樱之雨/桜ノ雨</t>
-  </si>
-  <si>
-    <t>心拍数#0822</t>
-  </si>
-  <si>
-    <t>罗密欧与辛德瑞拉/ロミオとシンデレラ</t>
-  </si>
-  <si>
-    <t>深海少女</t>
-  </si>
-  <si>
-    <t>星象仪/プラネタリウム</t>
-  </si>
-  <si>
-    <t>大塚愛</t>
-  </si>
-  <si>
-    <t>金鱼花火</t>
-  </si>
-  <si>
-    <t>我只在乎你</t>
-  </si>
-  <si>
-    <t>邓丽君</t>
-  </si>
-  <si>
-    <t>够爱</t>
-  </si>
-  <si>
-    <t>东城卫</t>
-  </si>
-  <si>
-    <t>一个像夏天一个像冬天</t>
-  </si>
-  <si>
-    <t>范玮琪</t>
-  </si>
-  <si>
-    <t>云雨成烟</t>
-  </si>
-  <si>
-    <t>房东的猫</t>
-  </si>
-  <si>
-    <t>只对你有感觉</t>
-  </si>
-  <si>
-    <t>飞轮海/田馥甄</t>
-  </si>
-  <si>
-    <t>海底</t>
-  </si>
-  <si>
-    <t>凤凰传奇</t>
-  </si>
-  <si>
-    <t>奢香夫人</t>
-  </si>
-  <si>
-    <t>给你一瓶魔法药水</t>
-  </si>
-  <si>
-    <t>告五人</t>
-  </si>
-  <si>
-    <t>心墙</t>
-  </si>
-  <si>
-    <t>郭静</t>
-  </si>
-  <si>
-    <t>男孩别哭</t>
-  </si>
-  <si>
-    <t>海龟先生</t>
-  </si>
-  <si>
-    <t>倾尽天下</t>
-  </si>
-  <si>
-    <t>河图</t>
-  </si>
-  <si>
-    <t>檄！帝国華撃团</t>
-  </si>
-  <si>
-    <t>横山智佐</t>
-  </si>
-  <si>
-    <t>bling bling bling</t>
-  </si>
-  <si>
-    <t>后海大鲨鱼</t>
+    <t>干花/ドライフラワー</t>
+  </si>
+  <si>
+    <t>優里</t>
   </si>
   <si>
     <t>花之歌/花のうた</t>
@@ -529,303 +1055,130 @@
     </r>
   </si>
   <si>
-    <t>九万字</t>
-  </si>
-  <si>
-    <t>黄诗扶</t>
-  </si>
-  <si>
-    <t>那女孩对我说</t>
-  </si>
-  <si>
-    <t>黄义达</t>
-  </si>
-  <si>
-    <t>星月神话</t>
-  </si>
-  <si>
-    <t>金莎</t>
-  </si>
-  <si>
-    <t>岁月神偷</t>
-  </si>
-  <si>
-    <t>金玟岐</t>
-  </si>
-  <si>
-    <t>哔哩吧啦boom</t>
-  </si>
-  <si>
-    <t>瑾宝</t>
+    <t>活动小丑/からくりピエロ</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=1</t>
+  </si>
+  <si>
+    <t>孑然妒火/独りんぼエンヴィー</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=4</t>
+  </si>
+  <si>
+    <t>金鱼花火</t>
+  </si>
+  <si>
+    <t>大塚愛</t>
+  </si>
+  <si>
+    <t>恋爱裁判</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=6</t>
+  </si>
+  <si>
+    <t>恋歌与雨天/恋音と雨空</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>罗密欧与辛德瑞拉/ロミオとシンデレラ</t>
   </si>
   <si>
     <t>蜜月·Un·Deux·Trois</t>
   </si>
   <si>
-    <t>鏡音リン</t>
-  </si>
-  <si>
     <t>BV1ec411g7Yn&amp;p=5</t>
   </si>
   <si>
-    <t>melancholy/メランコリック</t>
-  </si>
-  <si>
-    <t>落花成泥</t>
-  </si>
-  <si>
-    <t>鞠婧祎</t>
-  </si>
-  <si>
-    <t>叹云兮</t>
-  </si>
-  <si>
-    <t>阿拉斯加海湾</t>
-  </si>
-  <si>
-    <t>蓝心羽</t>
-  </si>
-  <si>
-    <t>BV1au4y127Vn</t>
-  </si>
-  <si>
-    <t>孤单心事</t>
-  </si>
-  <si>
-    <t>蓝又时</t>
-  </si>
-  <si>
-    <t>秘密</t>
-  </si>
-  <si>
-    <t>无法原谅</t>
-  </si>
-  <si>
-    <t>李佳璐</t>
-  </si>
-  <si>
-    <t>红日</t>
-  </si>
-  <si>
-    <t>李克勤</t>
-  </si>
-  <si>
-    <t>得了吧张小姐</t>
-  </si>
-  <si>
-    <t>李想Evelyn</t>
-  </si>
-  <si>
-    <t>小手拉大手</t>
-  </si>
-  <si>
-    <t>梁静茹</t>
-  </si>
-  <si>
-    <t>靠近一点点</t>
-  </si>
-  <si>
-    <t>梁心颐</t>
-  </si>
-  <si>
-    <t>背对背拥抱</t>
-  </si>
-  <si>
-    <t>林俊杰</t>
-  </si>
-  <si>
-    <t>黑夜问白天</t>
-  </si>
-  <si>
-    <t>可惜没如果</t>
-  </si>
-  <si>
-    <t>美人鱼</t>
-  </si>
-  <si>
-    <t>BV1em4y1q77P&amp;p=11</t>
-  </si>
-  <si>
-    <t>她说</t>
-  </si>
-  <si>
-    <t>always online</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>黑暗骑士</t>
-  </si>
-  <si>
-    <t>林俊杰/五月天</t>
-  </si>
-  <si>
-    <t>房间</t>
-  </si>
-  <si>
-    <t>刘瑞琦</t>
-  </si>
-  <si>
-    <t>后来</t>
-  </si>
-  <si>
-    <t>刘若英</t>
-  </si>
-  <si>
-    <t>怎么唱情歌</t>
-  </si>
-  <si>
-    <t>刘惜君</t>
-  </si>
-  <si>
-    <t>熬夜上瘾</t>
-  </si>
-  <si>
-    <t>刘亦心</t>
-  </si>
-  <si>
-    <t>漠河舞厅</t>
-  </si>
-  <si>
-    <t>柳爽</t>
-  </si>
-  <si>
-    <t>刻在我心底的名字</t>
-  </si>
-  <si>
-    <t>卢广仲</t>
-  </si>
-  <si>
-    <t>我爱你</t>
-  </si>
-  <si>
-    <t>慢灵魂</t>
-  </si>
-  <si>
-    <t>撑腰</t>
-  </si>
-  <si>
-    <t>罗志祥</t>
-  </si>
-  <si>
-    <t>逝去的歌</t>
-  </si>
-  <si>
-    <t>旅行团乐队</t>
-  </si>
-  <si>
-    <t>永远都会在</t>
-  </si>
-  <si>
-    <t>霓虹甜心</t>
-  </si>
-  <si>
-    <t>马赛克乐队</t>
-  </si>
-  <si>
-    <t>下辈子如果我还记得你</t>
-  </si>
-  <si>
-    <t>马郁</t>
-  </si>
-  <si>
-    <t>secret base</t>
-  </si>
-  <si>
-    <t>茅野爱衣/户松遥/早见沙织</t>
-  </si>
-  <si>
-    <t>电台情歌</t>
-  </si>
-  <si>
-    <t>莫文蔚</t>
-  </si>
-  <si>
-    <t>如果没有你</t>
-  </si>
-  <si>
-    <t>阴天</t>
-  </si>
-  <si>
-    <t>第二杯半价</t>
-  </si>
-  <si>
-    <t>纳豆nado</t>
-  </si>
-  <si>
-    <t>下雨天</t>
-  </si>
-  <si>
-    <t>南拳妈妈</t>
-  </si>
-  <si>
-    <t>白鸽</t>
-  </si>
-  <si>
-    <t>你的上好佳</t>
-  </si>
-  <si>
-    <t>God knows</t>
-  </si>
-  <si>
-    <t>平野绫</t>
-  </si>
-  <si>
-    <t>yes！ok！</t>
-  </si>
-  <si>
-    <t>青春有你</t>
-  </si>
-  <si>
-    <t>眉间雪</t>
-  </si>
-  <si>
-    <t>晴愔</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邱振哲</t>
-    </r>
-  </si>
-  <si>
-    <t>飞鸟和蝉</t>
-  </si>
-  <si>
-    <t>任然</t>
-  </si>
-  <si>
-    <t>胡广生</t>
-  </si>
-  <si>
-    <t>任素汐</t>
-  </si>
-  <si>
-    <t>就让这大雨全都落下</t>
-  </si>
-  <si>
-    <t>容祖儿</t>
-  </si>
-  <si>
-    <t>BV1E8411Z76N</t>
-  </si>
-  <si>
-    <t>快乐的扑满</t>
-  </si>
-  <si>
-    <t>邵丽棠</t>
-  </si>
-  <si>
-    <t>小情歌</t>
-  </si>
-  <si>
-    <t>苏打绿</t>
+    <t>千本樱</t>
+  </si>
+  <si>
+    <t>群青</t>
+  </si>
+  <si>
+    <t>YOASOBI</t>
+  </si>
+  <si>
+    <t>BV1bX4y187jf</t>
+  </si>
+  <si>
+    <t>染上你的颜色/君色に染まる</t>
+  </si>
+  <si>
+    <t>GUMI</t>
+  </si>
+  <si>
+    <t>人生多别离</t>
+  </si>
+  <si>
+    <t>nero</t>
+  </si>
+  <si>
+    <t>忍者棒棒/にんじゃりばんばん</t>
+  </si>
+  <si>
+    <t>深海少女</t>
+  </si>
+  <si>
+    <t>圣诞颂歌/クリスマスソング</t>
+  </si>
+  <si>
+    <t>back number</t>
+  </si>
+  <si>
+    <t>失恋ソング沢山聴いて 泣いてばかりの私はもう。</t>
+  </si>
+  <si>
+    <t>りりあ</t>
+  </si>
+  <si>
+    <t>视力检查/シリョクケンサ</t>
+  </si>
+  <si>
+    <t>瞬き</t>
+  </si>
+  <si>
+    <t>虽然歌声无形/歌に形はないけれど</t>
+  </si>
+  <si>
+    <t>天ノ弱</t>
+  </si>
+  <si>
+    <t>丸内虐待狂/丸ノ内サディスティック</t>
+  </si>
+  <si>
+    <t>椎名林檎</t>
+  </si>
+  <si>
+    <t>伪装者/Pretender</t>
+  </si>
+  <si>
+    <t>Official髭男dism</t>
+  </si>
+  <si>
+    <t>我爱你/アイラブユー</t>
+  </si>
+  <si>
+    <t>檄！帝国華撃团</t>
+  </si>
+  <si>
+    <t>横山智佐</t>
+  </si>
+  <si>
+    <t>向夜晚奔去/夜に駆ける</t>
+  </si>
+  <si>
+    <t>小小恋歌/小さな恋のうた</t>
+  </si>
+  <si>
+    <t>新垣结衣</t>
+  </si>
+  <si>
+    <t>心拍数#0822</t>
   </si>
   <si>
     <t>新月/ミカヅキ</t>
@@ -834,375 +1187,22 @@
     <t>酸欠少女さユり</t>
   </si>
   <si>
-    <t>逆光</t>
-  </si>
-  <si>
-    <t>孙燕姿</t>
-  </si>
-  <si>
-    <t>雨天</t>
-  </si>
-  <si>
-    <t>我怀念的</t>
-  </si>
-  <si>
-    <t>我不难过</t>
-  </si>
-  <si>
-    <t>不醉不会</t>
-  </si>
-  <si>
-    <t>田馥甄</t>
-  </si>
-  <si>
-    <t>你就不要想起我</t>
+    <t>星間飛行</t>
+  </si>
+  <si>
+    <t>中島愛</t>
+  </si>
+  <si>
+    <t>星象仪/プラネタリウム</t>
+  </si>
+  <si>
+    <t>樱之雨/桜ノ雨</t>
   </si>
   <si>
     <t>最高の片想い</t>
   </si>
   <si>
     <t>田井中彩智</t>
-  </si>
-  <si>
-    <t>麦乐鸡</t>
-  </si>
-  <si>
-    <t>桐夜toya</t>
-  </si>
-  <si>
-    <t>一笑倾城</t>
-  </si>
-  <si>
-    <t>汪苏泷</t>
-  </si>
-  <si>
-    <t>忽而今夏</t>
-  </si>
-  <si>
-    <t>巴赫旧约</t>
-  </si>
-  <si>
-    <t>不分手的恋爱</t>
-  </si>
-  <si>
-    <t>有点甜</t>
-  </si>
-  <si>
-    <t>流年</t>
-  </si>
-  <si>
-    <t>王菲</t>
-  </si>
-  <si>
-    <t>如愿</t>
-  </si>
-  <si>
-    <t>旋木</t>
-  </si>
-  <si>
-    <t>百年孤寂</t>
-  </si>
-  <si>
-    <t>有你的快乐</t>
-  </si>
-  <si>
-    <t>王若琳</t>
-  </si>
-  <si>
-    <t>彩虹的微笑</t>
-  </si>
-  <si>
-    <t>王心凌</t>
-  </si>
-  <si>
-    <t>大眠</t>
-  </si>
-  <si>
-    <t>梦的光点</t>
-  </si>
-  <si>
-    <t>两个恰恰好</t>
-  </si>
-  <si>
-    <t>旺福</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夏天的风</t>
-    </r>
-  </si>
-  <si>
-    <t>温岚</t>
-  </si>
-  <si>
-    <t>BV1em4y1q77P&amp;p=1</t>
-  </si>
-  <si>
-    <t>火红的萨日朗</t>
-  </si>
-  <si>
-    <t>乌兰托娅</t>
-  </si>
-  <si>
-    <t>温柔</t>
-  </si>
-  <si>
-    <t>五月天</t>
-  </si>
-  <si>
-    <t>And I'm home</t>
-  </si>
-  <si>
-    <t>喜多村英梨/野中蓝</t>
-  </si>
-  <si>
-    <t>不再联系</t>
-  </si>
-  <si>
-    <t>夏天Alex</t>
-  </si>
-  <si>
-    <t>海芋恋</t>
-  </si>
-  <si>
-    <t>萧敬腾</t>
-  </si>
-  <si>
-    <t>花</t>
-  </si>
-  <si>
-    <t>萧潇</t>
-  </si>
-  <si>
-    <t>突然想起你</t>
-  </si>
-  <si>
-    <t>萧亚轩</t>
-  </si>
-  <si>
-    <t>你要跳舞吗</t>
-  </si>
-  <si>
-    <t>新裤子乐队</t>
-  </si>
-  <si>
-    <t>小小恋歌/小さな恋のうた</t>
-  </si>
-  <si>
-    <t>新垣结衣</t>
-  </si>
-  <si>
-    <t>青柠</t>
-  </si>
-  <si>
-    <t>徐秉龙/桃十五</t>
-  </si>
-  <si>
-    <t>雨爱</t>
-  </si>
-  <si>
-    <t>杨丞琳</t>
-  </si>
-  <si>
-    <t>BV1nV4y1U7qQ</t>
-  </si>
-  <si>
-    <t>爱的供养</t>
-  </si>
-  <si>
-    <t>杨幂</t>
-  </si>
-  <si>
-    <t>姻缘签</t>
-  </si>
-  <si>
-    <t>音阙诗听</t>
-  </si>
-  <si>
-    <t>不老梦</t>
-  </si>
-  <si>
-    <t>银临</t>
-  </si>
-  <si>
-    <t>浮生辞</t>
-  </si>
-  <si>
-    <t>棠梨煎雪</t>
-  </si>
-  <si>
-    <t>是风动</t>
-  </si>
-  <si>
-    <t>银临/河图</t>
-  </si>
-  <si>
-    <t>干花/ドライフラワー</t>
-  </si>
-  <si>
-    <t>優里</t>
-  </si>
-  <si>
-    <t>Beautiful World</t>
-  </si>
-  <si>
-    <t>宇多田光</t>
-  </si>
-  <si>
-    <t>心愿便利贴</t>
-  </si>
-  <si>
-    <t>元若蓝/吴忠明</t>
-  </si>
-  <si>
-    <t>BV16e411k7ei</t>
-  </si>
-  <si>
-    <t>快点告诉你</t>
-  </si>
-  <si>
-    <t>苑冉</t>
-  </si>
-  <si>
-    <t>忽如远行客</t>
-  </si>
-  <si>
-    <t>云の泣</t>
-  </si>
-  <si>
-    <t>如果你也听说</t>
-  </si>
-  <si>
-    <t>张惠妹</t>
-  </si>
-  <si>
-    <t>人质</t>
-  </si>
-  <si>
-    <t>画心</t>
-  </si>
-  <si>
-    <t>张靓颖</t>
-  </si>
-  <si>
-    <t>别再问我什么是迪斯科</t>
-  </si>
-  <si>
-    <t>张蔷</t>
-  </si>
-  <si>
-    <t>我希望在你的爱情里</t>
-  </si>
-  <si>
-    <t>夜猫</t>
-  </si>
-  <si>
-    <t>遗失的美好</t>
-  </si>
-  <si>
-    <t>张韶涵</t>
-  </si>
-  <si>
-    <t>破茧</t>
-  </si>
-  <si>
-    <t>亲爱的那不是爱情</t>
-  </si>
-  <si>
-    <t>宝贝</t>
-  </si>
-  <si>
-    <t>张悬</t>
-  </si>
-  <si>
-    <t>嘉宾</t>
-  </si>
-  <si>
-    <t>张远</t>
-  </si>
-  <si>
-    <t>不怕</t>
-  </si>
-  <si>
-    <t>赵蓓/赵蕾</t>
-  </si>
-  <si>
-    <t>情深深雨濛濛</t>
-  </si>
-  <si>
-    <t>赵薇</t>
-  </si>
-  <si>
-    <t>眉飞色舞</t>
-  </si>
-  <si>
-    <t>郑秀文</t>
-  </si>
-  <si>
-    <t>虫儿飞</t>
-  </si>
-  <si>
-    <t>郑伊健</t>
-  </si>
-  <si>
-    <t>星間飛行</t>
-  </si>
-  <si>
-    <t>中島愛</t>
-  </si>
-  <si>
-    <t>简单爱</t>
-  </si>
-  <si>
-    <t>周杰伦</t>
-  </si>
-  <si>
-    <t>阳光宅男</t>
-  </si>
-  <si>
-    <t>七里香</t>
-  </si>
-  <si>
-    <t>等你下课</t>
-  </si>
-  <si>
-    <t>大鱼</t>
-  </si>
-  <si>
-    <t>周深</t>
-  </si>
-  <si>
-    <t>永不失联的爱</t>
-  </si>
-  <si>
-    <t>周兴哲</t>
-  </si>
-  <si>
-    <t>PONPONPON</t>
-  </si>
-  <si>
-    <t>竹村桐子</t>
-  </si>
-  <si>
-    <t>忍者棒棒/にんじゃりばんばん</t>
-  </si>
-  <si>
-    <t>丸内虐待狂/丸ノ内サディスティック</t>
-  </si>
-  <si>
-    <t>椎名林檎</t>
-  </si>
-  <si>
-    <t>梁山伯与茱丽叶</t>
-  </si>
-  <si>
-    <t>卓文萱/曹格</t>
   </si>
 </sst>
 </file>
@@ -1230,12 +1230,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF18191C"/>
       <name val="Helvetica"/>
@@ -1250,6 +1244,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1983,8 +1983,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1992,13 +1992,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -2395,9 +2395,9 @@
   <dimension ref="A1:E1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2449,29 +2449,27 @@
         <v>7</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -2481,206 +2479,200 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>7</v>
@@ -2690,10 +2682,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -2706,76 +2698,63 @@
         <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
@@ -2783,219 +2762,193 @@
         <v>54</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>57</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>7</v>
@@ -3005,10 +2958,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>7</v>
@@ -3018,180 +2971,181 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>7</v>
@@ -3201,363 +3155,347 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D72" s="6"/>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D73" s="6"/>
       <c r="E73" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>124</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="5" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D78" s="6"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="7"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>7</v>
@@ -3567,166 +3505,172 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="5" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="5" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D91" s="6"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="5" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="5" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>7</v>
@@ -3736,23 +3680,23 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="5" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>7</v>
@@ -3762,504 +3706,499 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="5" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="5" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="5" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="5" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D104" s="6"/>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="5" t="s">
-        <v>177</v>
+      <c r="A105" t="s">
+        <v>188</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="5" t="s">
-        <v>179</v>
+      <c r="A106" t="s">
+        <v>189</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D107" s="6"/>
-      <c r="E107" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>197</v>
+        <v>206</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D118" s="6"/>
-      <c r="E118" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" ht="14.25" spans="1:5">
       <c r="A124" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D129" s="6"/>
-      <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="7"/>
@@ -4269,7 +4208,7 @@
         <v>230</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>7</v>
@@ -4279,26 +4218,26 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="C137" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="C138" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
@@ -4308,12 +4247,14 @@
         <v>235</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5">
@@ -4324,7 +4265,7 @@
         <v>237</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="7"/>
@@ -4334,33 +4275,35 @@
         <v>238</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>7</v>
@@ -4369,208 +4312,220 @@
       <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" s="6"/>
-      <c r="E144" s="7"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="C145" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" ht="14.25" spans="1:5">
+    <row r="146" spans="1:5">
       <c r="A146" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="C147" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="C148" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="C149" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D149" s="6"/>
-      <c r="E149" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="6"/>
-      <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="C151" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
         <v>260</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D152" s="6"/>
-      <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>7</v>
@@ -4580,182 +4535,184 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="7"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="C170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="7"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="5" t="s">
         <v>287</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>288</v>
+        <v>185</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="7"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="C173" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
@@ -4768,58 +4725,56 @@
         <v>292</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>294</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D175" s="6"/>
-      <c r="E175" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B176" s="12" t="s">
-        <v>297</v>
-      </c>
       <c r="C176" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="7"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B177" s="5" t="s">
-        <v>299</v>
-      </c>
       <c r="C177" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>7</v>
@@ -4829,469 +4784,509 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D179" s="6"/>
-      <c r="E179" s="7"/>
+      <c r="E179" s="7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:4">
       <c r="A181" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B181" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D181" s="6"/>
-      <c r="E181" s="7"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E183" s="7"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>313</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E184" s="7"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D186" s="6"/>
-      <c r="E186" s="7" t="s">
-        <v>318</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E186" s="7"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="7"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D189" s="6"/>
-      <c r="E189" s="7"/>
+      <c r="E189" s="7" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" s="6"/>
-      <c r="E193" s="7"/>
-    </row>
-    <row r="194" spans="1:4">
+        <v>307</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D195" s="6"/>
-      <c r="E195" s="7" t="s">
-        <v>335</v>
-      </c>
+      <c r="E195" s="7"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D196" s="6"/>
-      <c r="E196" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D198" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E198" s="7"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D199" s="6"/>
-      <c r="E199" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E200" s="7"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D201" s="6"/>
-      <c r="E201" s="7"/>
+      <c r="E201" s="7" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D202" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D203" s="6"/>
       <c r="E203" s="7"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="5" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="7"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D205" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E205" s="7"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>352</v>
+      <c r="A206" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="5" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:5">
       <c r="A208" s="5" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="1:4">
+        <v>307</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E208" s="7"/>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B209" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="C209" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D209" s="6"/>
+      <c r="E209" s="7"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D210" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E210" s="7"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D211" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E211" s="7"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="7"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="7"/>
@@ -5301,106 +5296,110 @@
         <v>369</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="7"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>370</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>368</v>
+      <c r="A216" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>348</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D216" s="6"/>
       <c r="E216" s="7"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D217" s="6"/>
       <c r="E217" s="7"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D218" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E218" s="7"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B219" s="13" t="s">
         <v>375</v>
       </c>
+      <c r="B219" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="C219" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D219" s="6"/>
       <c r="E219" s="7"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="D220" s="6"/>
       <c r="E220" s="7"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="D221" s="6"/>
       <c r="E221" s="7"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:5">
       <c r="A223" s="5" t="s">
         <v>381</v>
       </c>
@@ -5408,9 +5407,10 @@
         <v>382</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D223" s="6"/>
+      <c r="E223" s="7"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="5"/>
@@ -11278,8 +11278,15 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <sortState ref="A2:E1061">
-    <sortCondition ref="B2"/>
+  <autoFilter ref="A1:E223">
+    <sortState ref="A2:E223">
+      <sortCondition ref="C2:C223" customList="国语,英语,日语"/>
+      <sortCondition ref="A2:A223"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:E223">
+    <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7 C8 C9 C10 C11 C12 C13 C14 C20 C21 C22 C56 C57 C58 C59 C60 C61 C71 C84 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C136 C143 C144 C145 C148 C151 C152 C159 C160 C173 C174 C184 C185 C186 C187 C193 C213 C214 C219 C220 C221 C2:C3 C4:C6 C15:C19 C23:C30 C31:C39 C40:C42 C43:C46 C47:C48 C49:C55 C62:C63 C64:C70 C72:C77 C78:C81 C82:C83 C85:C94 C107:C110 C111:C114 C115:C117 C118:C125 C126:C127 C128:C131 C132:C133 C134:C135 C137:C142 C146:C147 C149:C150 C153:C156 C157:C158 C161:C165 C166:C167 C168:C170 C171:C172 C175:C178 C179:C183 C188:C192 C194:C195 C196:C200 C201:C203 C204:C206 C207:C208 C209:C210 C211:C212 C215:C218 C222:C1048576">

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28165" windowHeight="14725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="385">
   <si>
     <t>歌名</t>
   </si>
@@ -47,6 +47,9 @@
     <t>投稿歌切BV号</t>
   </si>
   <si>
+    <t>网易云链接</t>
+  </si>
+  <si>
     <t>always online</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>陈奕迅</t>
+  </si>
+  <si>
+    <t>https://music.163.com/dj?id=2531882234&amp;userid=60433980</t>
   </si>
   <si>
     <t>Letting go</t>
@@ -1228,6 +1234,14 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1355,14 +1369,6 @@
       <color rgb="FF5F6368"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1828,7 +1834,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1958,7 +1964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,19 +1989,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2010,13 +2019,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -2028,26 +2034,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2055,22 +2061,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2392,23 +2401,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1061"/>
+  <dimension ref="A1:F1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8018018018018" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="30.675" customWidth="1"/>
-    <col min="2" max="2" width="22.95" customWidth="1"/>
-    <col min="4" max="4" width="45.95" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.4916666666667" customWidth="1"/>
+    <col min="1" max="1" width="30.6756756756757" customWidth="1"/>
+    <col min="2" max="2" width="22.9459459459459" customWidth="1"/>
+    <col min="4" max="4" width="45.9459459459459" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.4954954954955" customWidth="1"/>
+    <col min="6" max="6" width="56.7477477477477" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2424,2990 +2434,2996 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" ht="14.15" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="C106" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" ht="14.15" spans="1:5">
       <c r="A118" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" ht="14.25" spans="1:5">
+    <row r="124" ht="15" spans="1:5">
       <c r="A124" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129" s="6"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="10" t="s">
-        <v>242</v>
+    <row r="144" ht="14.15" spans="1:5">
+      <c r="A144" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E152" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="7"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="7"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="7"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="7"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D178" s="6"/>
       <c r="E178" s="7"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B181" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="D181" s="6"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E183" s="7"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B184" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="C184" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E184" s="7"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E186" s="7"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="7"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D189" s="6"/>
       <c r="E189" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="7"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E198" s="7"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E200" s="7"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D203" s="6"/>
       <c r="E203" s="7"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="7"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E205" s="7"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E208" s="7"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="7"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E210" s="7"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E211" s="7"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="7"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="7"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B216" s="13" t="s">
-        <v>348</v>
+        <v>373</v>
+      </c>
+      <c r="B216" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D216" s="6"/>
       <c r="E216" s="7"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D217" s="6"/>
       <c r="E217" s="7"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E218" s="7"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D219" s="6"/>
       <c r="E219" s="7"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D220" s="6"/>
       <c r="E220" s="7"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D221" s="6"/>
       <c r="E221" s="7"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E222" s="7"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="7"/>
@@ -8093,3193 +8109,3193 @@
       <c r="E606" s="7"/>
     </row>
     <row r="607" spans="1:5">
-      <c r="A607" s="14"/>
-      <c r="B607" s="14"/>
-      <c r="C607" s="14"/>
-      <c r="D607" s="15"/>
+      <c r="A607" s="15"/>
+      <c r="B607" s="15"/>
+      <c r="C607" s="15"/>
+      <c r="D607" s="16"/>
       <c r="E607" s="7"/>
     </row>
     <row r="608" spans="1:5">
-      <c r="A608" s="14"/>
+      <c r="A608" s="15"/>
       <c r="B608" s="7"/>
-      <c r="C608" s="14"/>
-      <c r="D608" s="16"/>
+      <c r="C608" s="15"/>
+      <c r="D608" s="17"/>
       <c r="E608" s="7"/>
     </row>
     <row r="609" spans="1:5">
-      <c r="A609" s="14"/>
-      <c r="B609" s="14"/>
-      <c r="C609" s="14"/>
-      <c r="D609" s="16"/>
+      <c r="A609" s="15"/>
+      <c r="B609" s="15"/>
+      <c r="C609" s="15"/>
+      <c r="D609" s="17"/>
       <c r="E609" s="7"/>
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="7"/>
       <c r="B610" s="7"/>
-      <c r="C610" s="14"/>
-      <c r="D610" s="16"/>
+      <c r="C610" s="15"/>
+      <c r="D610" s="17"/>
       <c r="E610" s="7"/>
     </row>
     <row r="611" spans="1:5">
-      <c r="A611" s="14"/>
-      <c r="B611" s="14"/>
-      <c r="C611" s="14"/>
-      <c r="D611" s="16"/>
+      <c r="A611" s="15"/>
+      <c r="B611" s="15"/>
+      <c r="C611" s="15"/>
+      <c r="D611" s="17"/>
       <c r="E611" s="7"/>
     </row>
     <row r="612" spans="1:5">
-      <c r="A612" s="14"/>
-      <c r="B612" s="14"/>
-      <c r="C612" s="14"/>
-      <c r="D612" s="16"/>
+      <c r="A612" s="15"/>
+      <c r="B612" s="15"/>
+      <c r="C612" s="15"/>
+      <c r="D612" s="17"/>
       <c r="E612" s="7"/>
     </row>
     <row r="613" spans="1:5">
-      <c r="A613" s="14"/>
-      <c r="B613" s="14"/>
-      <c r="C613" s="14"/>
-      <c r="D613" s="15"/>
+      <c r="A613" s="15"/>
+      <c r="B613" s="15"/>
+      <c r="C613" s="15"/>
+      <c r="D613" s="16"/>
       <c r="E613" s="7"/>
     </row>
     <row r="614" spans="1:5">
-      <c r="A614" s="14"/>
+      <c r="A614" s="15"/>
       <c r="B614" s="7"/>
-      <c r="C614" s="14"/>
-      <c r="D614" s="16"/>
+      <c r="C614" s="15"/>
+      <c r="D614" s="17"/>
       <c r="E614" s="7"/>
     </row>
     <row r="615" spans="1:5">
-      <c r="A615" s="14"/>
-      <c r="B615" s="14"/>
-      <c r="C615" s="14"/>
-      <c r="D615" s="16"/>
+      <c r="A615" s="15"/>
+      <c r="B615" s="15"/>
+      <c r="C615" s="15"/>
+      <c r="D615" s="17"/>
       <c r="E615" s="7"/>
     </row>
     <row r="616" spans="1:5">
-      <c r="A616" s="14"/>
-      <c r="B616" s="17"/>
-      <c r="C616" s="14"/>
-      <c r="D616" s="16"/>
+      <c r="A616" s="15"/>
+      <c r="B616" s="18"/>
+      <c r="C616" s="15"/>
+      <c r="D616" s="17"/>
       <c r="E616" s="7"/>
     </row>
     <row r="617" spans="1:5">
-      <c r="A617" s="14"/>
-      <c r="B617" s="14"/>
-      <c r="C617" s="14"/>
-      <c r="D617" s="15"/>
+      <c r="A617" s="15"/>
+      <c r="B617" s="15"/>
+      <c r="C617" s="15"/>
+      <c r="D617" s="16"/>
       <c r="E617" s="7"/>
     </row>
     <row r="618" spans="1:5">
-      <c r="A618" s="18"/>
-      <c r="B618" s="14"/>
-      <c r="C618" s="14"/>
-      <c r="D618" s="16"/>
+      <c r="A618" s="19"/>
+      <c r="B618" s="15"/>
+      <c r="C618" s="15"/>
+      <c r="D618" s="17"/>
       <c r="E618" s="7"/>
     </row>
     <row r="619" spans="1:5">
-      <c r="A619" s="14"/>
-      <c r="B619" s="14"/>
-      <c r="C619" s="14"/>
-      <c r="D619" s="16"/>
+      <c r="A619" s="15"/>
+      <c r="B619" s="15"/>
+      <c r="C619" s="15"/>
+      <c r="D619" s="17"/>
       <c r="E619" s="7"/>
     </row>
     <row r="620" spans="1:5">
-      <c r="A620" s="14"/>
-      <c r="B620" s="14"/>
-      <c r="C620" s="14"/>
-      <c r="D620" s="15"/>
+      <c r="A620" s="15"/>
+      <c r="B620" s="15"/>
+      <c r="C620" s="15"/>
+      <c r="D620" s="16"/>
       <c r="E620" s="7"/>
     </row>
     <row r="621" spans="1:5">
-      <c r="A621" s="14"/>
+      <c r="A621" s="15"/>
       <c r="B621" s="7"/>
-      <c r="C621" s="14"/>
-      <c r="D621" s="15"/>
+      <c r="C621" s="15"/>
+      <c r="D621" s="16"/>
       <c r="E621" s="7"/>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="14"/>
-      <c r="B622" s="14"/>
-      <c r="C622" s="14"/>
-      <c r="D622" s="15"/>
+      <c r="A622" s="15"/>
+      <c r="B622" s="15"/>
+      <c r="C622" s="15"/>
+      <c r="D622" s="16"/>
       <c r="E622" s="7"/>
     </row>
     <row r="623" spans="1:5">
-      <c r="A623" s="14"/>
-      <c r="B623" s="14"/>
-      <c r="C623" s="14"/>
-      <c r="D623" s="16"/>
+      <c r="A623" s="15"/>
+      <c r="B623" s="15"/>
+      <c r="C623" s="15"/>
+      <c r="D623" s="17"/>
       <c r="E623" s="7"/>
     </row>
     <row r="624" spans="1:5">
-      <c r="A624" s="14"/>
-      <c r="B624" s="14"/>
-      <c r="C624" s="14"/>
-      <c r="D624" s="16"/>
+      <c r="A624" s="15"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="15"/>
+      <c r="D624" s="17"/>
       <c r="E624" s="7"/>
     </row>
     <row r="625" spans="1:5">
-      <c r="A625" s="14"/>
+      <c r="A625" s="15"/>
       <c r="B625" s="7"/>
-      <c r="C625" s="14"/>
-      <c r="D625" s="15"/>
+      <c r="C625" s="15"/>
+      <c r="D625" s="16"/>
       <c r="E625" s="7"/>
     </row>
     <row r="626" spans="1:5">
-      <c r="A626" s="14"/>
-      <c r="B626" s="14"/>
-      <c r="C626" s="14"/>
-      <c r="D626" s="16"/>
+      <c r="A626" s="15"/>
+      <c r="B626" s="15"/>
+      <c r="C626" s="15"/>
+      <c r="D626" s="17"/>
       <c r="E626" s="7"/>
     </row>
     <row r="627" spans="1:5">
-      <c r="A627" s="14"/>
-      <c r="B627" s="14"/>
-      <c r="C627" s="14"/>
-      <c r="D627" s="15"/>
+      <c r="A627" s="15"/>
+      <c r="B627" s="15"/>
+      <c r="C627" s="15"/>
+      <c r="D627" s="16"/>
       <c r="E627" s="7"/>
     </row>
     <row r="628" spans="1:5">
-      <c r="A628" s="14"/>
+      <c r="A628" s="15"/>
       <c r="B628" s="7"/>
-      <c r="C628" s="14"/>
-      <c r="D628" s="16"/>
+      <c r="C628" s="15"/>
+      <c r="D628" s="17"/>
       <c r="E628" s="7"/>
     </row>
     <row r="629" spans="1:5">
-      <c r="A629" s="14"/>
+      <c r="A629" s="15"/>
       <c r="B629" s="7"/>
-      <c r="C629" s="14"/>
-      <c r="D629" s="15"/>
+      <c r="C629" s="15"/>
+      <c r="D629" s="16"/>
       <c r="E629" s="7"/>
     </row>
     <row r="630" spans="1:5">
-      <c r="A630" s="14"/>
-      <c r="B630" s="14"/>
-      <c r="C630" s="14"/>
-      <c r="D630" s="15"/>
+      <c r="A630" s="15"/>
+      <c r="B630" s="15"/>
+      <c r="C630" s="15"/>
+      <c r="D630" s="16"/>
       <c r="E630" s="7"/>
     </row>
     <row r="631" spans="1:5">
-      <c r="A631" s="14"/>
-      <c r="B631" s="14"/>
-      <c r="C631" s="14"/>
-      <c r="D631" s="15"/>
+      <c r="A631" s="15"/>
+      <c r="B631" s="15"/>
+      <c r="C631" s="15"/>
+      <c r="D631" s="16"/>
       <c r="E631" s="7"/>
     </row>
     <row r="632" spans="1:5">
-      <c r="A632" s="14"/>
+      <c r="A632" s="15"/>
       <c r="B632" s="7"/>
-      <c r="C632" s="14"/>
-      <c r="D632" s="16"/>
+      <c r="C632" s="15"/>
+      <c r="D632" s="17"/>
       <c r="E632" s="7"/>
     </row>
     <row r="633" spans="1:5">
-      <c r="A633" s="14"/>
-      <c r="B633" s="19"/>
-      <c r="C633" s="14"/>
-      <c r="D633" s="16"/>
+      <c r="A633" s="15"/>
+      <c r="B633" s="20"/>
+      <c r="C633" s="15"/>
+      <c r="D633" s="17"/>
       <c r="E633" s="7"/>
     </row>
     <row r="634" spans="1:5">
-      <c r="A634" s="14"/>
-      <c r="B634" s="14"/>
-      <c r="C634" s="14"/>
-      <c r="D634" s="16"/>
+      <c r="A634" s="15"/>
+      <c r="B634" s="15"/>
+      <c r="C634" s="15"/>
+      <c r="D634" s="17"/>
       <c r="E634" s="7"/>
     </row>
     <row r="635" spans="1:5">
-      <c r="A635" s="14"/>
+      <c r="A635" s="15"/>
       <c r="B635" s="7"/>
-      <c r="C635" s="14"/>
-      <c r="D635" s="15"/>
+      <c r="C635" s="15"/>
+      <c r="D635" s="16"/>
       <c r="E635" s="7"/>
     </row>
     <row r="636" spans="1:5">
-      <c r="A636" s="14"/>
-      <c r="B636" s="14"/>
-      <c r="C636" s="14"/>
-      <c r="D636" s="16"/>
+      <c r="A636" s="15"/>
+      <c r="B636" s="15"/>
+      <c r="C636" s="15"/>
+      <c r="D636" s="17"/>
       <c r="E636" s="7"/>
     </row>
     <row r="637" spans="1:5">
-      <c r="A637" s="14"/>
-      <c r="B637" s="14"/>
-      <c r="C637" s="14"/>
-      <c r="D637" s="15"/>
+      <c r="A637" s="15"/>
+      <c r="B637" s="15"/>
+      <c r="C637" s="15"/>
+      <c r="D637" s="16"/>
       <c r="E637" s="7"/>
     </row>
     <row r="638" spans="1:5">
-      <c r="A638" s="14"/>
+      <c r="A638" s="15"/>
       <c r="B638" s="7"/>
-      <c r="C638" s="14"/>
-      <c r="D638" s="15"/>
+      <c r="C638" s="15"/>
+      <c r="D638" s="16"/>
       <c r="E638" s="7"/>
     </row>
     <row r="639" spans="1:5">
-      <c r="A639" s="14"/>
-      <c r="B639" s="14"/>
-      <c r="C639" s="14"/>
-      <c r="D639" s="16"/>
+      <c r="A639" s="15"/>
+      <c r="B639" s="15"/>
+      <c r="C639" s="15"/>
+      <c r="D639" s="17"/>
       <c r="E639" s="7"/>
     </row>
     <row r="640" spans="1:5">
-      <c r="A640" s="14"/>
-      <c r="B640" s="14"/>
-      <c r="C640" s="14"/>
-      <c r="D640" s="16"/>
+      <c r="A640" s="15"/>
+      <c r="B640" s="15"/>
+      <c r="C640" s="15"/>
+      <c r="D640" s="17"/>
       <c r="E640" s="7"/>
     </row>
     <row r="641" spans="1:5">
-      <c r="A641" s="14"/>
-      <c r="B641" s="14"/>
-      <c r="C641" s="14"/>
-      <c r="D641" s="15"/>
+      <c r="A641" s="15"/>
+      <c r="B641" s="15"/>
+      <c r="C641" s="15"/>
+      <c r="D641" s="16"/>
       <c r="E641" s="7"/>
     </row>
     <row r="642" spans="1:5">
-      <c r="A642" s="14"/>
+      <c r="A642" s="15"/>
       <c r="B642" s="7"/>
-      <c r="C642" s="14"/>
-      <c r="D642" s="16"/>
+      <c r="C642" s="15"/>
+      <c r="D642" s="17"/>
       <c r="E642" s="7"/>
     </row>
     <row r="643" spans="1:5">
-      <c r="A643" s="14"/>
+      <c r="A643" s="15"/>
       <c r="B643" s="7"/>
-      <c r="C643" s="14"/>
-      <c r="D643" s="15"/>
+      <c r="C643" s="15"/>
+      <c r="D643" s="16"/>
       <c r="E643" s="7"/>
     </row>
     <row r="644" spans="1:5">
-      <c r="A644" s="14"/>
-      <c r="B644" s="14"/>
-      <c r="C644" s="14"/>
-      <c r="D644" s="16"/>
+      <c r="A644" s="15"/>
+      <c r="B644" s="15"/>
+      <c r="C644" s="15"/>
+      <c r="D644" s="17"/>
       <c r="E644" s="7"/>
     </row>
     <row r="645" spans="1:5">
       <c r="A645" s="7"/>
-      <c r="B645" s="14"/>
-      <c r="C645" s="14"/>
-      <c r="D645" s="16"/>
+      <c r="B645" s="15"/>
+      <c r="C645" s="15"/>
+      <c r="D645" s="17"/>
       <c r="E645" s="7"/>
     </row>
     <row r="646" spans="1:5">
       <c r="A646" s="7"/>
       <c r="B646" s="7"/>
-      <c r="C646" s="14"/>
-      <c r="D646" s="16"/>
+      <c r="C646" s="15"/>
+      <c r="D646" s="17"/>
       <c r="E646" s="7"/>
     </row>
     <row r="647" spans="1:5">
-      <c r="A647" s="14"/>
+      <c r="A647" s="15"/>
       <c r="B647" s="7"/>
-      <c r="C647" s="14"/>
-      <c r="D647" s="16"/>
+      <c r="C647" s="15"/>
+      <c r="D647" s="17"/>
       <c r="E647" s="7"/>
     </row>
     <row r="648" spans="1:5">
-      <c r="A648" s="14"/>
+      <c r="A648" s="15"/>
       <c r="B648" s="7"/>
-      <c r="C648" s="14"/>
-      <c r="D648" s="16"/>
+      <c r="C648" s="15"/>
+      <c r="D648" s="17"/>
       <c r="E648" s="7"/>
     </row>
     <row r="649" spans="1:5">
-      <c r="A649" s="14"/>
-      <c r="B649" s="14"/>
-      <c r="C649" s="14"/>
-      <c r="D649" s="16"/>
+      <c r="A649" s="15"/>
+      <c r="B649" s="15"/>
+      <c r="C649" s="15"/>
+      <c r="D649" s="17"/>
       <c r="E649" s="7"/>
     </row>
     <row r="650" spans="1:5">
-      <c r="A650" s="14"/>
+      <c r="A650" s="15"/>
       <c r="B650" s="7"/>
-      <c r="C650" s="14"/>
-      <c r="D650" s="15"/>
+      <c r="C650" s="15"/>
+      <c r="D650" s="16"/>
       <c r="E650" s="7"/>
     </row>
     <row r="651" spans="1:5">
-      <c r="A651" s="14"/>
+      <c r="A651" s="15"/>
       <c r="B651" s="7"/>
-      <c r="C651" s="14"/>
-      <c r="D651" s="16"/>
+      <c r="C651" s="15"/>
+      <c r="D651" s="17"/>
       <c r="E651" s="7"/>
     </row>
     <row r="652" spans="1:5">
-      <c r="A652" s="14"/>
+      <c r="A652" s="15"/>
       <c r="B652" s="7"/>
-      <c r="C652" s="14"/>
-      <c r="D652" s="16"/>
+      <c r="C652" s="15"/>
+      <c r="D652" s="17"/>
       <c r="E652" s="7"/>
     </row>
     <row r="653" spans="1:5">
-      <c r="A653" s="14"/>
-      <c r="B653" s="14"/>
-      <c r="C653" s="14"/>
-      <c r="D653" s="16"/>
+      <c r="A653" s="15"/>
+      <c r="B653" s="15"/>
+      <c r="C653" s="15"/>
+      <c r="D653" s="17"/>
       <c r="E653" s="7"/>
     </row>
     <row r="654" spans="1:5">
       <c r="A654" s="7"/>
       <c r="B654" s="7"/>
-      <c r="C654" s="14"/>
-      <c r="D654" s="16"/>
+      <c r="C654" s="15"/>
+      <c r="D654" s="17"/>
       <c r="E654" s="7"/>
     </row>
     <row r="655" spans="1:5">
-      <c r="A655" s="14"/>
-      <c r="B655" s="14"/>
-      <c r="C655" s="14"/>
-      <c r="D655" s="16"/>
+      <c r="A655" s="15"/>
+      <c r="B655" s="15"/>
+      <c r="C655" s="15"/>
+      <c r="D655" s="17"/>
       <c r="E655" s="7"/>
     </row>
     <row r="656" spans="1:5">
-      <c r="A656" s="14"/>
-      <c r="B656" s="14"/>
-      <c r="C656" s="14"/>
-      <c r="D656" s="15"/>
+      <c r="A656" s="15"/>
+      <c r="B656" s="15"/>
+      <c r="C656" s="15"/>
+      <c r="D656" s="16"/>
       <c r="E656" s="7"/>
     </row>
     <row r="657" spans="1:5">
-      <c r="A657" s="14"/>
-      <c r="B657" s="14"/>
-      <c r="C657" s="14"/>
-      <c r="D657" s="15"/>
+      <c r="A657" s="15"/>
+      <c r="B657" s="15"/>
+      <c r="C657" s="15"/>
+      <c r="D657" s="16"/>
       <c r="E657" s="7"/>
     </row>
     <row r="658" spans="1:5">
-      <c r="A658" s="14"/>
+      <c r="A658" s="15"/>
       <c r="B658" s="7"/>
-      <c r="C658" s="14"/>
-      <c r="D658" s="16"/>
+      <c r="C658" s="15"/>
+      <c r="D658" s="17"/>
       <c r="E658" s="7"/>
     </row>
     <row r="659" spans="1:5">
-      <c r="A659" s="14"/>
-      <c r="B659" s="14"/>
-      <c r="C659" s="14"/>
-      <c r="D659" s="16"/>
+      <c r="A659" s="15"/>
+      <c r="B659" s="15"/>
+      <c r="C659" s="15"/>
+      <c r="D659" s="17"/>
       <c r="E659" s="7"/>
     </row>
     <row r="660" spans="1:5">
-      <c r="A660" s="14"/>
-      <c r="B660" s="14"/>
-      <c r="C660" s="14"/>
-      <c r="D660" s="15"/>
+      <c r="A660" s="15"/>
+      <c r="B660" s="15"/>
+      <c r="C660" s="15"/>
+      <c r="D660" s="16"/>
       <c r="E660" s="7"/>
     </row>
     <row r="661" spans="1:5">
-      <c r="A661" s="14"/>
-      <c r="B661" s="14"/>
-      <c r="C661" s="14"/>
-      <c r="D661" s="15"/>
+      <c r="A661" s="15"/>
+      <c r="B661" s="15"/>
+      <c r="C661" s="15"/>
+      <c r="D661" s="16"/>
       <c r="E661" s="7"/>
     </row>
     <row r="662" spans="1:5">
-      <c r="A662" s="14"/>
+      <c r="A662" s="15"/>
       <c r="B662" s="7"/>
-      <c r="C662" s="14"/>
-      <c r="D662" s="16"/>
+      <c r="C662" s="15"/>
+      <c r="D662" s="17"/>
       <c r="E662" s="7"/>
     </row>
     <row r="663" spans="1:5">
-      <c r="A663" s="14"/>
-      <c r="B663" s="14"/>
-      <c r="C663" s="14"/>
-      <c r="D663" s="15"/>
+      <c r="A663" s="15"/>
+      <c r="B663" s="15"/>
+      <c r="C663" s="15"/>
+      <c r="D663" s="16"/>
       <c r="E663" s="7"/>
     </row>
     <row r="664" spans="1:5">
-      <c r="A664" s="14"/>
-      <c r="B664" s="14"/>
-      <c r="C664" s="14"/>
-      <c r="D664" s="15"/>
+      <c r="A664" s="15"/>
+      <c r="B664" s="15"/>
+      <c r="C664" s="15"/>
+      <c r="D664" s="16"/>
       <c r="E664" s="7"/>
     </row>
     <row r="665" spans="1:5">
-      <c r="A665" s="14"/>
+      <c r="A665" s="15"/>
       <c r="B665" s="7"/>
-      <c r="C665" s="14"/>
-      <c r="D665" s="16"/>
+      <c r="C665" s="15"/>
+      <c r="D665" s="17"/>
       <c r="E665" s="7"/>
     </row>
     <row r="666" spans="1:5">
-      <c r="A666" s="14"/>
+      <c r="A666" s="15"/>
       <c r="B666" s="7"/>
-      <c r="C666" s="14"/>
-      <c r="D666" s="15"/>
+      <c r="C666" s="15"/>
+      <c r="D666" s="16"/>
       <c r="E666" s="7"/>
     </row>
     <row r="667" spans="1:5">
-      <c r="A667" s="14"/>
+      <c r="A667" s="15"/>
       <c r="B667" s="7"/>
-      <c r="C667" s="14"/>
-      <c r="D667" s="15"/>
+      <c r="C667" s="15"/>
+      <c r="D667" s="16"/>
       <c r="E667" s="7"/>
     </row>
     <row r="668" spans="1:5">
-      <c r="A668" s="14"/>
+      <c r="A668" s="15"/>
       <c r="B668" s="7"/>
-      <c r="C668" s="14"/>
-      <c r="D668" s="16"/>
+      <c r="C668" s="15"/>
+      <c r="D668" s="17"/>
       <c r="E668" s="7"/>
     </row>
     <row r="669" spans="1:5">
       <c r="A669" s="7"/>
       <c r="B669" s="7"/>
-      <c r="C669" s="14"/>
-      <c r="D669" s="15"/>
+      <c r="C669" s="15"/>
+      <c r="D669" s="16"/>
       <c r="E669" s="7"/>
     </row>
     <row r="670" spans="1:5">
-      <c r="A670" s="14"/>
-      <c r="B670" s="14"/>
-      <c r="C670" s="14"/>
-      <c r="D670" s="16"/>
+      <c r="A670" s="15"/>
+      <c r="B670" s="15"/>
+      <c r="C670" s="15"/>
+      <c r="D670" s="17"/>
       <c r="E670" s="7"/>
     </row>
     <row r="671" spans="1:5">
-      <c r="A671" s="14"/>
-      <c r="B671" s="14"/>
-      <c r="C671" s="14"/>
-      <c r="D671" s="16"/>
+      <c r="A671" s="15"/>
+      <c r="B671" s="15"/>
+      <c r="C671" s="15"/>
+      <c r="D671" s="17"/>
       <c r="E671" s="7"/>
     </row>
     <row r="672" spans="1:5">
-      <c r="A672" s="14"/>
-      <c r="B672" s="14"/>
-      <c r="C672" s="14"/>
-      <c r="D672" s="16"/>
+      <c r="A672" s="15"/>
+      <c r="B672" s="15"/>
+      <c r="C672" s="15"/>
+      <c r="D672" s="17"/>
       <c r="E672" s="7"/>
     </row>
     <row r="673" spans="1:5">
-      <c r="A673" s="14"/>
+      <c r="A673" s="15"/>
       <c r="B673" s="7"/>
-      <c r="C673" s="14"/>
-      <c r="D673" s="15"/>
+      <c r="C673" s="15"/>
+      <c r="D673" s="16"/>
       <c r="E673" s="7"/>
     </row>
     <row r="674" spans="1:5">
-      <c r="A674" s="14"/>
-      <c r="B674" s="14"/>
-      <c r="C674" s="14"/>
-      <c r="D674" s="16"/>
+      <c r="A674" s="15"/>
+      <c r="B674" s="15"/>
+      <c r="C674" s="15"/>
+      <c r="D674" s="17"/>
       <c r="E674" s="7"/>
     </row>
     <row r="675" spans="1:5">
-      <c r="A675" s="14"/>
+      <c r="A675" s="15"/>
       <c r="B675" s="7"/>
-      <c r="C675" s="14"/>
-      <c r="D675" s="16"/>
+      <c r="C675" s="15"/>
+      <c r="D675" s="17"/>
       <c r="E675" s="7"/>
     </row>
     <row r="676" spans="1:5">
-      <c r="A676" s="14"/>
+      <c r="A676" s="15"/>
       <c r="B676" s="7"/>
-      <c r="C676" s="14"/>
-      <c r="D676" s="16"/>
+      <c r="C676" s="15"/>
+      <c r="D676" s="17"/>
       <c r="E676" s="7"/>
     </row>
     <row r="677" spans="1:5">
-      <c r="A677" s="14"/>
+      <c r="A677" s="15"/>
       <c r="B677" s="7"/>
-      <c r="C677" s="14"/>
-      <c r="D677" s="16"/>
+      <c r="C677" s="15"/>
+      <c r="D677" s="17"/>
       <c r="E677" s="7"/>
     </row>
     <row r="678" spans="1:5">
-      <c r="A678" s="14"/>
-      <c r="B678" s="14"/>
-      <c r="C678" s="14"/>
-      <c r="D678" s="16"/>
+      <c r="A678" s="15"/>
+      <c r="B678" s="15"/>
+      <c r="C678" s="15"/>
+      <c r="D678" s="17"/>
       <c r="E678" s="7"/>
     </row>
     <row r="679" spans="1:5">
-      <c r="A679" s="14"/>
+      <c r="A679" s="15"/>
       <c r="B679" s="7"/>
-      <c r="C679" s="14"/>
-      <c r="D679" s="16"/>
+      <c r="C679" s="15"/>
+      <c r="D679" s="17"/>
       <c r="E679" s="7"/>
     </row>
     <row r="680" spans="1:5">
-      <c r="A680" s="14"/>
-      <c r="B680" s="14"/>
-      <c r="C680" s="14"/>
-      <c r="D680" s="15"/>
+      <c r="A680" s="15"/>
+      <c r="B680" s="15"/>
+      <c r="C680" s="15"/>
+      <c r="D680" s="16"/>
       <c r="E680" s="7"/>
     </row>
     <row r="681" spans="1:5">
-      <c r="A681" s="14"/>
-      <c r="B681" s="14"/>
-      <c r="C681" s="14"/>
-      <c r="D681" s="15"/>
+      <c r="A681" s="15"/>
+      <c r="B681" s="15"/>
+      <c r="C681" s="15"/>
+      <c r="D681" s="16"/>
       <c r="E681" s="7"/>
     </row>
     <row r="682" spans="1:5">
-      <c r="A682" s="14"/>
+      <c r="A682" s="15"/>
       <c r="B682" s="7"/>
-      <c r="C682" s="14"/>
-      <c r="D682" s="16"/>
+      <c r="C682" s="15"/>
+      <c r="D682" s="17"/>
       <c r="E682" s="7"/>
     </row>
     <row r="683" spans="1:5">
-      <c r="A683" s="14"/>
-      <c r="B683" s="14"/>
-      <c r="C683" s="14"/>
-      <c r="D683" s="15"/>
+      <c r="A683" s="15"/>
+      <c r="B683" s="15"/>
+      <c r="C683" s="15"/>
+      <c r="D683" s="16"/>
       <c r="E683" s="7"/>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="14"/>
+      <c r="A684" s="15"/>
       <c r="B684" s="7"/>
-      <c r="C684" s="14"/>
-      <c r="D684" s="16"/>
+      <c r="C684" s="15"/>
+      <c r="D684" s="17"/>
       <c r="E684" s="7"/>
     </row>
     <row r="685" spans="1:5">
-      <c r="A685" s="14"/>
-      <c r="B685" s="14"/>
-      <c r="C685" s="14"/>
-      <c r="D685" s="16"/>
+      <c r="A685" s="15"/>
+      <c r="B685" s="15"/>
+      <c r="C685" s="15"/>
+      <c r="D685" s="17"/>
       <c r="E685" s="7"/>
     </row>
     <row r="686" spans="1:5">
-      <c r="A686" s="14"/>
-      <c r="B686" s="14"/>
-      <c r="C686" s="14"/>
-      <c r="D686" s="15"/>
+      <c r="A686" s="15"/>
+      <c r="B686" s="15"/>
+      <c r="C686" s="15"/>
+      <c r="D686" s="16"/>
       <c r="E686" s="7"/>
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="7"/>
-      <c r="B687" s="14"/>
-      <c r="C687" s="14"/>
-      <c r="D687" s="15"/>
+      <c r="B687" s="15"/>
+      <c r="C687" s="15"/>
+      <c r="D687" s="16"/>
       <c r="E687" s="7"/>
     </row>
     <row r="688" spans="1:5">
-      <c r="A688" s="14"/>
-      <c r="B688" s="14"/>
-      <c r="C688" s="14"/>
-      <c r="D688" s="16"/>
+      <c r="A688" s="15"/>
+      <c r="B688" s="15"/>
+      <c r="C688" s="15"/>
+      <c r="D688" s="17"/>
       <c r="E688" s="7"/>
     </row>
     <row r="689" spans="1:5">
-      <c r="A689" s="14"/>
-      <c r="B689" s="14"/>
-      <c r="C689" s="14"/>
-      <c r="D689" s="16"/>
+      <c r="A689" s="15"/>
+      <c r="B689" s="15"/>
+      <c r="C689" s="15"/>
+      <c r="D689" s="17"/>
       <c r="E689" s="7"/>
     </row>
     <row r="690" spans="1:5">
-      <c r="A690" s="14"/>
+      <c r="A690" s="15"/>
       <c r="B690" s="7"/>
-      <c r="C690" s="14"/>
-      <c r="D690" s="16"/>
+      <c r="C690" s="15"/>
+      <c r="D690" s="17"/>
       <c r="E690" s="7"/>
     </row>
     <row r="691" spans="1:5">
-      <c r="A691" s="14"/>
+      <c r="A691" s="15"/>
       <c r="B691" s="7"/>
-      <c r="C691" s="14"/>
-      <c r="D691" s="16"/>
+      <c r="C691" s="15"/>
+      <c r="D691" s="17"/>
       <c r="E691" s="7"/>
     </row>
     <row r="692" spans="1:5">
-      <c r="A692" s="14"/>
+      <c r="A692" s="15"/>
       <c r="B692" s="7"/>
-      <c r="C692" s="14"/>
-      <c r="D692" s="16"/>
+      <c r="C692" s="15"/>
+      <c r="D692" s="17"/>
       <c r="E692" s="7"/>
     </row>
     <row r="693" spans="1:5">
-      <c r="A693" s="14"/>
+      <c r="A693" s="15"/>
       <c r="B693" s="7"/>
-      <c r="C693" s="14"/>
-      <c r="D693" s="15"/>
+      <c r="C693" s="15"/>
+      <c r="D693" s="16"/>
       <c r="E693" s="7"/>
     </row>
     <row r="694" spans="1:5">
-      <c r="A694" s="14"/>
+      <c r="A694" s="15"/>
       <c r="B694" s="7"/>
-      <c r="C694" s="14"/>
-      <c r="D694" s="15"/>
+      <c r="C694" s="15"/>
+      <c r="D694" s="16"/>
       <c r="E694" s="7"/>
     </row>
     <row r="695" spans="1:5">
-      <c r="A695" s="14"/>
-      <c r="B695" s="14"/>
-      <c r="C695" s="14"/>
-      <c r="D695" s="15"/>
+      <c r="A695" s="15"/>
+      <c r="B695" s="15"/>
+      <c r="C695" s="15"/>
+      <c r="D695" s="16"/>
       <c r="E695" s="7"/>
     </row>
     <row r="696" spans="1:5">
-      <c r="A696" s="14"/>
-      <c r="B696" s="14"/>
-      <c r="C696" s="14"/>
-      <c r="D696" s="15"/>
+      <c r="A696" s="15"/>
+      <c r="B696" s="15"/>
+      <c r="C696" s="15"/>
+      <c r="D696" s="16"/>
       <c r="E696" s="7"/>
     </row>
     <row r="697" spans="1:5">
-      <c r="A697" s="14"/>
+      <c r="A697" s="15"/>
       <c r="B697" s="7"/>
-      <c r="C697" s="14"/>
-      <c r="D697" s="15"/>
+      <c r="C697" s="15"/>
+      <c r="D697" s="16"/>
       <c r="E697" s="7"/>
     </row>
     <row r="698" spans="1:5">
       <c r="A698" s="7"/>
-      <c r="B698" s="20"/>
-      <c r="C698" s="14"/>
-      <c r="D698" s="15"/>
+      <c r="B698" s="21"/>
+      <c r="C698" s="15"/>
+      <c r="D698" s="16"/>
       <c r="E698" s="7"/>
     </row>
     <row r="699" spans="1:5">
-      <c r="A699" s="14"/>
-      <c r="B699" s="14"/>
-      <c r="C699" s="14"/>
-      <c r="D699" s="16"/>
+      <c r="A699" s="15"/>
+      <c r="B699" s="15"/>
+      <c r="C699" s="15"/>
+      <c r="D699" s="17"/>
       <c r="E699" s="7"/>
     </row>
     <row r="700" spans="1:5">
-      <c r="A700" s="14"/>
+      <c r="A700" s="15"/>
       <c r="B700" s="7"/>
-      <c r="C700" s="14"/>
-      <c r="D700" s="16"/>
+      <c r="C700" s="15"/>
+      <c r="D700" s="17"/>
       <c r="E700" s="7"/>
     </row>
     <row r="701" spans="1:5">
       <c r="A701" s="7"/>
       <c r="B701" s="7"/>
-      <c r="C701" s="14"/>
-      <c r="D701" s="16"/>
+      <c r="C701" s="15"/>
+      <c r="D701" s="17"/>
       <c r="E701" s="7"/>
     </row>
     <row r="702" spans="1:5">
-      <c r="A702" s="14"/>
-      <c r="B702" s="14"/>
-      <c r="C702" s="14"/>
-      <c r="D702" s="15"/>
+      <c r="A702" s="15"/>
+      <c r="B702" s="15"/>
+      <c r="C702" s="15"/>
+      <c r="D702" s="16"/>
       <c r="E702" s="7"/>
     </row>
     <row r="703" spans="1:5">
-      <c r="A703" s="14"/>
+      <c r="A703" s="15"/>
       <c r="B703" s="7"/>
-      <c r="C703" s="14"/>
-      <c r="D703" s="16"/>
+      <c r="C703" s="15"/>
+      <c r="D703" s="17"/>
       <c r="E703" s="7"/>
     </row>
     <row r="704" spans="1:5">
-      <c r="A704" s="14"/>
+      <c r="A704" s="15"/>
       <c r="B704" s="7"/>
-      <c r="C704" s="14"/>
-      <c r="D704" s="16"/>
+      <c r="C704" s="15"/>
+      <c r="D704" s="17"/>
       <c r="E704" s="7"/>
     </row>
     <row r="705" spans="1:5">
-      <c r="A705" s="14"/>
+      <c r="A705" s="15"/>
       <c r="B705" s="7"/>
-      <c r="C705" s="14"/>
-      <c r="D705" s="16"/>
+      <c r="C705" s="15"/>
+      <c r="D705" s="17"/>
       <c r="E705" s="7"/>
     </row>
     <row r="706" spans="1:5">
-      <c r="A706" s="14"/>
-      <c r="B706" s="14"/>
-      <c r="C706" s="14"/>
-      <c r="D706" s="16"/>
+      <c r="A706" s="15"/>
+      <c r="B706" s="15"/>
+      <c r="C706" s="15"/>
+      <c r="D706" s="17"/>
       <c r="E706" s="7"/>
     </row>
     <row r="707" spans="1:5">
-      <c r="A707" s="14"/>
-      <c r="B707" s="19"/>
-      <c r="C707" s="14"/>
-      <c r="D707" s="16"/>
+      <c r="A707" s="15"/>
+      <c r="B707" s="20"/>
+      <c r="C707" s="15"/>
+      <c r="D707" s="17"/>
       <c r="E707" s="7"/>
     </row>
     <row r="708" spans="1:5">
-      <c r="A708" s="14"/>
+      <c r="A708" s="15"/>
       <c r="B708" s="7"/>
-      <c r="C708" s="14"/>
-      <c r="D708" s="16"/>
+      <c r="C708" s="15"/>
+      <c r="D708" s="17"/>
       <c r="E708" s="7"/>
     </row>
     <row r="709" spans="1:5">
-      <c r="A709" s="14"/>
+      <c r="A709" s="15"/>
       <c r="B709" s="7"/>
-      <c r="C709" s="14"/>
-      <c r="D709" s="16"/>
+      <c r="C709" s="15"/>
+      <c r="D709" s="17"/>
       <c r="E709" s="7"/>
     </row>
     <row r="710" spans="1:5">
-      <c r="A710" s="14"/>
+      <c r="A710" s="15"/>
       <c r="B710" s="7"/>
-      <c r="C710" s="14"/>
-      <c r="D710" s="16"/>
+      <c r="C710" s="15"/>
+      <c r="D710" s="17"/>
       <c r="E710" s="7"/>
     </row>
     <row r="711" spans="1:5">
-      <c r="A711" s="14"/>
-      <c r="B711" s="14"/>
-      <c r="C711" s="14"/>
-      <c r="D711" s="15"/>
+      <c r="A711" s="15"/>
+      <c r="B711" s="15"/>
+      <c r="C711" s="15"/>
+      <c r="D711" s="16"/>
       <c r="E711" s="7"/>
     </row>
     <row r="712" spans="1:5">
-      <c r="A712" s="14"/>
-      <c r="B712" s="14"/>
-      <c r="C712" s="14"/>
-      <c r="D712" s="16"/>
+      <c r="A712" s="15"/>
+      <c r="B712" s="15"/>
+      <c r="C712" s="15"/>
+      <c r="D712" s="17"/>
       <c r="E712" s="7"/>
     </row>
     <row r="713" spans="1:5">
-      <c r="A713" s="14"/>
+      <c r="A713" s="15"/>
       <c r="B713" s="7"/>
-      <c r="C713" s="14"/>
-      <c r="D713" s="16"/>
+      <c r="C713" s="15"/>
+      <c r="D713" s="17"/>
       <c r="E713" s="7"/>
     </row>
     <row r="714" spans="1:5">
-      <c r="A714" s="14"/>
+      <c r="A714" s="15"/>
       <c r="B714" s="7"/>
-      <c r="C714" s="14"/>
-      <c r="D714" s="16"/>
+      <c r="C714" s="15"/>
+      <c r="D714" s="17"/>
       <c r="E714" s="7"/>
     </row>
     <row r="715" spans="1:5">
-      <c r="A715" s="14"/>
-      <c r="B715" s="14"/>
-      <c r="C715" s="14"/>
-      <c r="D715" s="16"/>
+      <c r="A715" s="15"/>
+      <c r="B715" s="15"/>
+      <c r="C715" s="15"/>
+      <c r="D715" s="17"/>
       <c r="E715" s="7"/>
     </row>
     <row r="716" spans="1:5">
       <c r="A716" s="7"/>
       <c r="B716" s="7"/>
-      <c r="C716" s="14"/>
-      <c r="D716" s="16"/>
+      <c r="C716" s="15"/>
+      <c r="D716" s="17"/>
       <c r="E716" s="7"/>
     </row>
     <row r="717" spans="1:5">
-      <c r="A717" s="14"/>
-      <c r="B717" s="14"/>
-      <c r="C717" s="14"/>
-      <c r="D717" s="15"/>
+      <c r="A717" s="15"/>
+      <c r="B717" s="15"/>
+      <c r="C717" s="15"/>
+      <c r="D717" s="16"/>
       <c r="E717" s="7"/>
     </row>
     <row r="718" spans="1:5">
-      <c r="A718" s="14"/>
-      <c r="B718" s="14"/>
-      <c r="C718" s="14"/>
-      <c r="D718" s="15"/>
+      <c r="A718" s="15"/>
+      <c r="B718" s="15"/>
+      <c r="C718" s="15"/>
+      <c r="D718" s="16"/>
       <c r="E718" s="7"/>
     </row>
     <row r="719" spans="1:5">
-      <c r="A719" s="14"/>
-      <c r="B719" s="14"/>
-      <c r="C719" s="14"/>
-      <c r="D719" s="16"/>
+      <c r="A719" s="15"/>
+      <c r="B719" s="15"/>
+      <c r="C719" s="15"/>
+      <c r="D719" s="17"/>
       <c r="E719" s="7"/>
     </row>
     <row r="720" spans="1:5">
-      <c r="A720" s="14"/>
-      <c r="B720" s="14"/>
-      <c r="C720" s="14"/>
-      <c r="D720" s="16"/>
+      <c r="A720" s="15"/>
+      <c r="B720" s="15"/>
+      <c r="C720" s="15"/>
+      <c r="D720" s="17"/>
       <c r="E720" s="7"/>
     </row>
     <row r="721" spans="1:5">
-      <c r="A721" s="14"/>
-      <c r="B721" s="14"/>
-      <c r="C721" s="14"/>
-      <c r="D721" s="16"/>
+      <c r="A721" s="15"/>
+      <c r="B721" s="15"/>
+      <c r="C721" s="15"/>
+      <c r="D721" s="17"/>
       <c r="E721" s="7"/>
     </row>
     <row r="722" spans="1:5">
-      <c r="A722" s="14"/>
-      <c r="B722" s="14"/>
-      <c r="C722" s="14"/>
-      <c r="D722" s="15"/>
+      <c r="A722" s="15"/>
+      <c r="B722" s="15"/>
+      <c r="C722" s="15"/>
+      <c r="D722" s="16"/>
       <c r="E722" s="7"/>
     </row>
     <row r="723" spans="1:5">
-      <c r="A723" s="14"/>
+      <c r="A723" s="15"/>
       <c r="B723" s="7"/>
-      <c r="C723" s="14"/>
-      <c r="D723" s="16"/>
+      <c r="C723" s="15"/>
+      <c r="D723" s="17"/>
       <c r="E723" s="7"/>
     </row>
     <row r="724" spans="1:5">
-      <c r="A724" s="14"/>
-      <c r="B724" s="14"/>
-      <c r="C724" s="14"/>
-      <c r="D724" s="15"/>
+      <c r="A724" s="15"/>
+      <c r="B724" s="15"/>
+      <c r="C724" s="15"/>
+      <c r="D724" s="16"/>
       <c r="E724" s="7"/>
     </row>
     <row r="725" spans="1:5">
-      <c r="A725" s="14"/>
-      <c r="B725" s="14"/>
-      <c r="C725" s="14"/>
-      <c r="D725" s="15"/>
+      <c r="A725" s="15"/>
+      <c r="B725" s="15"/>
+      <c r="C725" s="15"/>
+      <c r="D725" s="16"/>
       <c r="E725" s="7"/>
     </row>
     <row r="726" spans="1:5">
-      <c r="A726" s="14"/>
-      <c r="B726" s="14"/>
-      <c r="C726" s="14"/>
-      <c r="D726" s="16"/>
+      <c r="A726" s="15"/>
+      <c r="B726" s="15"/>
+      <c r="C726" s="15"/>
+      <c r="D726" s="17"/>
       <c r="E726" s="7"/>
     </row>
     <row r="727" spans="1:5">
-      <c r="A727" s="14"/>
-      <c r="B727" s="14"/>
-      <c r="C727" s="14"/>
-      <c r="D727" s="15"/>
+      <c r="A727" s="15"/>
+      <c r="B727" s="15"/>
+      <c r="C727" s="15"/>
+      <c r="D727" s="16"/>
       <c r="E727" s="7"/>
     </row>
     <row r="728" spans="1:5">
-      <c r="A728" s="14"/>
-      <c r="B728" s="14"/>
-      <c r="C728" s="14"/>
-      <c r="D728" s="16"/>
+      <c r="A728" s="15"/>
+      <c r="B728" s="15"/>
+      <c r="C728" s="15"/>
+      <c r="D728" s="17"/>
       <c r="E728" s="7"/>
     </row>
     <row r="729" spans="1:5">
-      <c r="A729" s="14"/>
-      <c r="B729" s="14"/>
-      <c r="C729" s="14"/>
-      <c r="D729" s="16"/>
+      <c r="A729" s="15"/>
+      <c r="B729" s="15"/>
+      <c r="C729" s="15"/>
+      <c r="D729" s="17"/>
       <c r="E729" s="7"/>
     </row>
     <row r="730" spans="1:5">
-      <c r="A730" s="14"/>
+      <c r="A730" s="15"/>
       <c r="B730" s="7"/>
-      <c r="C730" s="14"/>
-      <c r="D730" s="16"/>
+      <c r="C730" s="15"/>
+      <c r="D730" s="17"/>
       <c r="E730" s="7"/>
     </row>
     <row r="731" spans="1:5">
-      <c r="A731" s="14"/>
+      <c r="A731" s="15"/>
       <c r="B731" s="7"/>
-      <c r="C731" s="14"/>
-      <c r="D731" s="16"/>
+      <c r="C731" s="15"/>
+      <c r="D731" s="17"/>
       <c r="E731" s="7"/>
     </row>
     <row r="732" spans="1:5">
-      <c r="A732" s="14"/>
+      <c r="A732" s="15"/>
       <c r="B732" s="7"/>
-      <c r="C732" s="14"/>
-      <c r="D732" s="16"/>
+      <c r="C732" s="15"/>
+      <c r="D732" s="17"/>
       <c r="E732" s="7"/>
     </row>
     <row r="733" spans="1:5">
-      <c r="A733" s="14"/>
+      <c r="A733" s="15"/>
       <c r="B733" s="7"/>
-      <c r="C733" s="14"/>
-      <c r="D733" s="16"/>
+      <c r="C733" s="15"/>
+      <c r="D733" s="17"/>
       <c r="E733" s="7"/>
     </row>
     <row r="734" spans="1:5">
-      <c r="A734" s="14"/>
-      <c r="B734" s="14"/>
-      <c r="C734" s="14"/>
-      <c r="D734" s="16"/>
+      <c r="A734" s="15"/>
+      <c r="B734" s="15"/>
+      <c r="C734" s="15"/>
+      <c r="D734" s="17"/>
       <c r="E734" s="7"/>
     </row>
     <row r="735" spans="1:5">
-      <c r="A735" s="14"/>
-      <c r="B735" s="14"/>
-      <c r="C735" s="14"/>
-      <c r="D735" s="16"/>
+      <c r="A735" s="15"/>
+      <c r="B735" s="15"/>
+      <c r="C735" s="15"/>
+      <c r="D735" s="17"/>
       <c r="E735" s="7"/>
     </row>
     <row r="736" spans="1:5">
-      <c r="A736" s="14"/>
-      <c r="B736" s="14"/>
-      <c r="C736" s="14"/>
-      <c r="D736" s="16"/>
+      <c r="A736" s="15"/>
+      <c r="B736" s="15"/>
+      <c r="C736" s="15"/>
+      <c r="D736" s="17"/>
       <c r="E736" s="7"/>
     </row>
     <row r="737" spans="1:5">
-      <c r="A737" s="14"/>
-      <c r="B737" s="14"/>
-      <c r="C737" s="14"/>
-      <c r="D737" s="16"/>
+      <c r="A737" s="15"/>
+      <c r="B737" s="15"/>
+      <c r="C737" s="15"/>
+      <c r="D737" s="17"/>
       <c r="E737" s="7"/>
     </row>
     <row r="738" spans="1:5">
-      <c r="A738" s="14"/>
-      <c r="B738" s="14"/>
-      <c r="C738" s="14"/>
-      <c r="D738" s="15"/>
+      <c r="A738" s="15"/>
+      <c r="B738" s="15"/>
+      <c r="C738" s="15"/>
+      <c r="D738" s="16"/>
       <c r="E738" s="7"/>
     </row>
     <row r="739" spans="1:5">
       <c r="A739" s="7"/>
       <c r="B739" s="7"/>
       <c r="C739" s="7"/>
-      <c r="D739" s="16"/>
+      <c r="D739" s="17"/>
       <c r="E739" s="7"/>
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="7"/>
       <c r="B740" s="7"/>
-      <c r="C740" s="14"/>
-      <c r="D740" s="16"/>
+      <c r="C740" s="15"/>
+      <c r="D740" s="17"/>
       <c r="E740" s="7"/>
     </row>
     <row r="741" spans="1:5">
-      <c r="A741" s="14"/>
-      <c r="B741" s="14"/>
-      <c r="C741" s="14"/>
-      <c r="D741" s="16"/>
+      <c r="A741" s="15"/>
+      <c r="B741" s="15"/>
+      <c r="C741" s="15"/>
+      <c r="D741" s="17"/>
       <c r="E741" s="7"/>
     </row>
     <row r="742" spans="1:5">
-      <c r="A742" s="14"/>
-      <c r="B742" s="14"/>
-      <c r="C742" s="14"/>
-      <c r="D742" s="15"/>
+      <c r="A742" s="15"/>
+      <c r="B742" s="15"/>
+      <c r="C742" s="15"/>
+      <c r="D742" s="16"/>
       <c r="E742" s="7"/>
     </row>
     <row r="743" spans="1:5">
-      <c r="A743" s="14"/>
-      <c r="B743" s="14"/>
-      <c r="C743" s="14"/>
-      <c r="D743" s="16"/>
+      <c r="A743" s="15"/>
+      <c r="B743" s="15"/>
+      <c r="C743" s="15"/>
+      <c r="D743" s="17"/>
       <c r="E743" s="7"/>
     </row>
     <row r="744" spans="1:5">
-      <c r="A744" s="14"/>
-      <c r="B744" s="14"/>
-      <c r="C744" s="14"/>
-      <c r="D744" s="16"/>
+      <c r="A744" s="15"/>
+      <c r="B744" s="15"/>
+      <c r="C744" s="15"/>
+      <c r="D744" s="17"/>
       <c r="E744" s="7"/>
     </row>
     <row r="745" spans="1:5">
-      <c r="A745" s="14"/>
+      <c r="A745" s="15"/>
       <c r="B745" s="7"/>
-      <c r="C745" s="14"/>
-      <c r="D745" s="15"/>
+      <c r="C745" s="15"/>
+      <c r="D745" s="16"/>
       <c r="E745" s="7"/>
     </row>
     <row r="746" spans="1:5">
-      <c r="A746" s="14"/>
-      <c r="B746" s="14"/>
-      <c r="C746" s="14"/>
-      <c r="D746" s="15"/>
+      <c r="A746" s="15"/>
+      <c r="B746" s="15"/>
+      <c r="C746" s="15"/>
+      <c r="D746" s="16"/>
       <c r="E746" s="7"/>
     </row>
     <row r="747" spans="1:5">
-      <c r="A747" s="14"/>
-      <c r="B747" s="14"/>
-      <c r="C747" s="14"/>
-      <c r="D747" s="15"/>
+      <c r="A747" s="15"/>
+      <c r="B747" s="15"/>
+      <c r="C747" s="15"/>
+      <c r="D747" s="16"/>
       <c r="E747" s="7"/>
     </row>
     <row r="748" spans="1:5">
-      <c r="A748" s="14"/>
+      <c r="A748" s="15"/>
       <c r="B748" s="7"/>
-      <c r="C748" s="14"/>
-      <c r="D748" s="16"/>
+      <c r="C748" s="15"/>
+      <c r="D748" s="17"/>
       <c r="E748" s="7"/>
     </row>
     <row r="749" spans="1:5">
-      <c r="A749" s="14"/>
-      <c r="B749" s="14"/>
-      <c r="C749" s="14"/>
-      <c r="D749" s="15"/>
+      <c r="A749" s="15"/>
+      <c r="B749" s="15"/>
+      <c r="C749" s="15"/>
+      <c r="D749" s="16"/>
       <c r="E749" s="7"/>
     </row>
     <row r="750" spans="1:5">
-      <c r="A750" s="14"/>
+      <c r="A750" s="15"/>
       <c r="B750" s="7"/>
-      <c r="C750" s="14"/>
-      <c r="D750" s="16"/>
+      <c r="C750" s="15"/>
+      <c r="D750" s="17"/>
       <c r="E750" s="7"/>
     </row>
     <row r="751" spans="1:5">
-      <c r="A751" s="14"/>
+      <c r="A751" s="15"/>
       <c r="B751" s="7"/>
-      <c r="C751" s="14"/>
-      <c r="D751" s="16"/>
+      <c r="C751" s="15"/>
+      <c r="D751" s="17"/>
       <c r="E751" s="7"/>
     </row>
     <row r="752" spans="1:5">
-      <c r="A752" s="14"/>
+      <c r="A752" s="15"/>
       <c r="B752" s="7"/>
-      <c r="C752" s="14"/>
-      <c r="D752" s="15"/>
+      <c r="C752" s="15"/>
+      <c r="D752" s="16"/>
       <c r="E752" s="7"/>
     </row>
     <row r="753" spans="1:5">
-      <c r="A753" s="14"/>
-      <c r="B753" s="14"/>
-      <c r="C753" s="14"/>
-      <c r="D753" s="15"/>
+      <c r="A753" s="15"/>
+      <c r="B753" s="15"/>
+      <c r="C753" s="15"/>
+      <c r="D753" s="16"/>
       <c r="E753" s="7"/>
     </row>
     <row r="754" spans="1:5">
-      <c r="A754" s="14"/>
+      <c r="A754" s="15"/>
       <c r="B754" s="7"/>
-      <c r="C754" s="14"/>
-      <c r="D754" s="15"/>
+      <c r="C754" s="15"/>
+      <c r="D754" s="16"/>
       <c r="E754" s="7"/>
     </row>
     <row r="755" spans="1:5">
-      <c r="A755" s="14"/>
-      <c r="B755" s="14"/>
-      <c r="C755" s="14"/>
-      <c r="D755" s="15"/>
+      <c r="A755" s="15"/>
+      <c r="B755" s="15"/>
+      <c r="C755" s="15"/>
+      <c r="D755" s="16"/>
       <c r="E755" s="7"/>
     </row>
     <row r="756" spans="1:5">
-      <c r="A756" s="14"/>
-      <c r="B756" s="14"/>
-      <c r="C756" s="14"/>
-      <c r="D756" s="15"/>
+      <c r="A756" s="15"/>
+      <c r="B756" s="15"/>
+      <c r="C756" s="15"/>
+      <c r="D756" s="16"/>
       <c r="E756" s="7"/>
     </row>
     <row r="757" spans="1:5">
-      <c r="A757" s="14"/>
-      <c r="B757" s="14"/>
-      <c r="C757" s="14"/>
-      <c r="D757" s="15"/>
+      <c r="A757" s="15"/>
+      <c r="B757" s="15"/>
+      <c r="C757" s="15"/>
+      <c r="D757" s="16"/>
       <c r="E757" s="7"/>
     </row>
     <row r="758" spans="1:5">
-      <c r="A758" s="14"/>
-      <c r="B758" s="14"/>
-      <c r="C758" s="14"/>
-      <c r="D758" s="15"/>
+      <c r="A758" s="15"/>
+      <c r="B758" s="15"/>
+      <c r="C758" s="15"/>
+      <c r="D758" s="16"/>
       <c r="E758" s="7"/>
     </row>
     <row r="759" spans="1:5">
-      <c r="A759" s="14"/>
-      <c r="B759" s="14"/>
-      <c r="C759" s="14"/>
-      <c r="D759" s="16"/>
+      <c r="A759" s="15"/>
+      <c r="B759" s="15"/>
+      <c r="C759" s="15"/>
+      <c r="D759" s="17"/>
       <c r="E759" s="7"/>
     </row>
     <row r="760" spans="1:5">
-      <c r="A760" s="14"/>
-      <c r="B760" s="14"/>
-      <c r="C760" s="14"/>
-      <c r="D760" s="16"/>
+      <c r="A760" s="15"/>
+      <c r="B760" s="15"/>
+      <c r="C760" s="15"/>
+      <c r="D760" s="17"/>
       <c r="E760" s="7"/>
     </row>
     <row r="761" spans="1:5">
-      <c r="A761" s="14"/>
-      <c r="B761" s="14"/>
-      <c r="C761" s="14"/>
-      <c r="D761" s="15"/>
+      <c r="A761" s="15"/>
+      <c r="B761" s="15"/>
+      <c r="C761" s="15"/>
+      <c r="D761" s="16"/>
       <c r="E761" s="7"/>
     </row>
     <row r="762" spans="1:5">
-      <c r="A762" s="14"/>
+      <c r="A762" s="15"/>
       <c r="B762" s="7"/>
-      <c r="C762" s="14"/>
-      <c r="D762" s="15"/>
+      <c r="C762" s="15"/>
+      <c r="D762" s="16"/>
       <c r="E762" s="7"/>
     </row>
     <row r="763" spans="1:5">
-      <c r="A763" s="14"/>
+      <c r="A763" s="15"/>
       <c r="B763" s="7"/>
-      <c r="C763" s="14"/>
-      <c r="D763" s="15"/>
+      <c r="C763" s="15"/>
+      <c r="D763" s="16"/>
       <c r="E763" s="7"/>
     </row>
     <row r="764" spans="1:5">
-      <c r="A764" s="14"/>
-      <c r="B764" s="21"/>
-      <c r="C764" s="14"/>
-      <c r="D764" s="16"/>
+      <c r="A764" s="15"/>
+      <c r="B764" s="22"/>
+      <c r="C764" s="15"/>
+      <c r="D764" s="17"/>
       <c r="E764" s="7"/>
     </row>
     <row r="765" spans="1:5">
-      <c r="A765" s="14"/>
+      <c r="A765" s="15"/>
       <c r="B765" s="7"/>
-      <c r="C765" s="14"/>
-      <c r="D765" s="16"/>
+      <c r="C765" s="15"/>
+      <c r="D765" s="17"/>
       <c r="E765" s="7"/>
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="7"/>
       <c r="B766" s="7"/>
-      <c r="C766" s="14"/>
-      <c r="D766" s="16"/>
+      <c r="C766" s="15"/>
+      <c r="D766" s="17"/>
       <c r="E766" s="7"/>
     </row>
     <row r="767" spans="1:5">
-      <c r="A767" s="14"/>
+      <c r="A767" s="15"/>
       <c r="B767" s="7"/>
-      <c r="C767" s="14"/>
-      <c r="D767" s="15"/>
+      <c r="C767" s="15"/>
+      <c r="D767" s="16"/>
       <c r="E767" s="7"/>
     </row>
     <row r="768" spans="1:5">
-      <c r="A768" s="14"/>
-      <c r="B768" s="14"/>
-      <c r="C768" s="14"/>
-      <c r="D768" s="16"/>
+      <c r="A768" s="15"/>
+      <c r="B768" s="15"/>
+      <c r="C768" s="15"/>
+      <c r="D768" s="17"/>
       <c r="E768" s="7"/>
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="7"/>
-      <c r="B769" s="14"/>
-      <c r="C769" s="14"/>
-      <c r="D769" s="16"/>
+      <c r="B769" s="15"/>
+      <c r="C769" s="15"/>
+      <c r="D769" s="17"/>
       <c r="E769" s="7"/>
     </row>
     <row r="770" spans="1:5">
-      <c r="A770" s="14"/>
+      <c r="A770" s="15"/>
       <c r="B770" s="7"/>
-      <c r="C770" s="14"/>
-      <c r="D770" s="15"/>
+      <c r="C770" s="15"/>
+      <c r="D770" s="16"/>
       <c r="E770" s="7"/>
     </row>
     <row r="771" spans="1:5">
-      <c r="A771" s="14"/>
-      <c r="B771" s="14"/>
-      <c r="C771" s="14"/>
-      <c r="D771" s="16"/>
+      <c r="A771" s="15"/>
+      <c r="B771" s="15"/>
+      <c r="C771" s="15"/>
+      <c r="D771" s="17"/>
       <c r="E771" s="7"/>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="7"/>
-      <c r="B772" s="14"/>
-      <c r="C772" s="14"/>
-      <c r="D772" s="16"/>
+      <c r="B772" s="15"/>
+      <c r="C772" s="15"/>
+      <c r="D772" s="17"/>
       <c r="E772" s="7"/>
     </row>
     <row r="773" spans="1:5">
-      <c r="A773" s="14"/>
+      <c r="A773" s="15"/>
       <c r="B773" s="7"/>
-      <c r="C773" s="14"/>
-      <c r="D773" s="16"/>
+      <c r="C773" s="15"/>
+      <c r="D773" s="17"/>
       <c r="E773" s="7"/>
     </row>
     <row r="774" spans="1:5">
-      <c r="A774" s="14"/>
-      <c r="B774" s="14"/>
-      <c r="C774" s="14"/>
-      <c r="D774" s="15"/>
+      <c r="A774" s="15"/>
+      <c r="B774" s="15"/>
+      <c r="C774" s="15"/>
+      <c r="D774" s="16"/>
       <c r="E774" s="7"/>
     </row>
     <row r="775" spans="1:5">
-      <c r="A775" s="14"/>
-      <c r="B775" s="14"/>
-      <c r="C775" s="14"/>
-      <c r="D775" s="15"/>
+      <c r="A775" s="15"/>
+      <c r="B775" s="15"/>
+      <c r="C775" s="15"/>
+      <c r="D775" s="16"/>
       <c r="E775" s="7"/>
     </row>
     <row r="776" spans="1:5">
-      <c r="A776" s="14"/>
+      <c r="A776" s="15"/>
       <c r="B776" s="7"/>
-      <c r="C776" s="14"/>
-      <c r="D776" s="16"/>
+      <c r="C776" s="15"/>
+      <c r="D776" s="17"/>
       <c r="E776" s="7"/>
     </row>
     <row r="777" spans="1:5">
-      <c r="A777" s="14"/>
-      <c r="B777" s="14"/>
-      <c r="C777" s="14"/>
-      <c r="D777" s="15"/>
+      <c r="A777" s="15"/>
+      <c r="B777" s="15"/>
+      <c r="C777" s="15"/>
+      <c r="D777" s="16"/>
       <c r="E777" s="7"/>
     </row>
     <row r="778" spans="1:5">
-      <c r="A778" s="14"/>
-      <c r="B778" s="17"/>
-      <c r="C778" s="14"/>
-      <c r="D778" s="16"/>
+      <c r="A778" s="15"/>
+      <c r="B778" s="18"/>
+      <c r="C778" s="15"/>
+      <c r="D778" s="17"/>
       <c r="E778" s="7"/>
     </row>
     <row r="779" spans="1:5">
-      <c r="A779" s="14"/>
+      <c r="A779" s="15"/>
       <c r="B779" s="7"/>
-      <c r="C779" s="14"/>
-      <c r="D779" s="16"/>
+      <c r="C779" s="15"/>
+      <c r="D779" s="17"/>
       <c r="E779" s="7"/>
     </row>
     <row r="780" spans="1:5">
-      <c r="A780" s="14"/>
+      <c r="A780" s="15"/>
       <c r="B780" s="7"/>
-      <c r="C780" s="14"/>
-      <c r="D780" s="16"/>
+      <c r="C780" s="15"/>
+      <c r="D780" s="17"/>
       <c r="E780" s="7"/>
     </row>
     <row r="781" spans="1:5">
-      <c r="A781" s="14"/>
+      <c r="A781" s="15"/>
       <c r="B781" s="7"/>
-      <c r="C781" s="14"/>
-      <c r="D781" s="16"/>
+      <c r="C781" s="15"/>
+      <c r="D781" s="17"/>
       <c r="E781" s="7"/>
     </row>
     <row r="782" spans="1:5">
-      <c r="A782" s="14"/>
-      <c r="B782" s="14"/>
-      <c r="C782" s="14"/>
-      <c r="D782" s="16"/>
+      <c r="A782" s="15"/>
+      <c r="B782" s="15"/>
+      <c r="C782" s="15"/>
+      <c r="D782" s="17"/>
       <c r="E782" s="7"/>
     </row>
     <row r="783" spans="1:5">
-      <c r="A783" s="14"/>
+      <c r="A783" s="15"/>
       <c r="B783" s="7"/>
-      <c r="C783" s="14"/>
-      <c r="D783" s="16"/>
+      <c r="C783" s="15"/>
+      <c r="D783" s="17"/>
       <c r="E783" s="7"/>
     </row>
     <row r="784" spans="1:5">
-      <c r="A784" s="14"/>
-      <c r="B784" s="14"/>
-      <c r="C784" s="14"/>
-      <c r="D784" s="16"/>
+      <c r="A784" s="15"/>
+      <c r="B784" s="15"/>
+      <c r="C784" s="15"/>
+      <c r="D784" s="17"/>
       <c r="E784" s="7"/>
     </row>
     <row r="785" spans="1:5">
-      <c r="A785" s="14"/>
-      <c r="B785" s="14"/>
-      <c r="C785" s="14"/>
-      <c r="D785" s="16"/>
+      <c r="A785" s="15"/>
+      <c r="B785" s="15"/>
+      <c r="C785" s="15"/>
+      <c r="D785" s="17"/>
       <c r="E785" s="7"/>
     </row>
     <row r="786" spans="1:5">
-      <c r="A786" s="14"/>
-      <c r="B786" s="14"/>
-      <c r="C786" s="14"/>
-      <c r="D786" s="16"/>
+      <c r="A786" s="15"/>
+      <c r="B786" s="15"/>
+      <c r="C786" s="15"/>
+      <c r="D786" s="17"/>
       <c r="E786" s="7"/>
     </row>
     <row r="787" spans="1:5">
-      <c r="A787" s="14"/>
-      <c r="B787" s="14"/>
-      <c r="C787" s="14"/>
-      <c r="D787" s="15"/>
+      <c r="A787" s="15"/>
+      <c r="B787" s="15"/>
+      <c r="C787" s="15"/>
+      <c r="D787" s="16"/>
       <c r="E787" s="7"/>
     </row>
     <row r="788" spans="1:5">
-      <c r="A788" s="14"/>
+      <c r="A788" s="15"/>
       <c r="B788" s="7"/>
-      <c r="C788" s="14"/>
-      <c r="D788" s="16"/>
+      <c r="C788" s="15"/>
+      <c r="D788" s="17"/>
       <c r="E788" s="7"/>
     </row>
     <row r="789" spans="1:5">
-      <c r="A789" s="14"/>
-      <c r="B789" s="14"/>
-      <c r="C789" s="14"/>
-      <c r="D789" s="15"/>
+      <c r="A789" s="15"/>
+      <c r="B789" s="15"/>
+      <c r="C789" s="15"/>
+      <c r="D789" s="16"/>
       <c r="E789" s="7"/>
     </row>
     <row r="790" spans="1:5">
-      <c r="A790" s="14"/>
-      <c r="B790" s="14"/>
-      <c r="C790" s="14"/>
-      <c r="D790" s="16"/>
+      <c r="A790" s="15"/>
+      <c r="B790" s="15"/>
+      <c r="C790" s="15"/>
+      <c r="D790" s="17"/>
       <c r="E790" s="7"/>
     </row>
     <row r="791" spans="1:5">
-      <c r="A791" s="14"/>
-      <c r="B791" s="14"/>
-      <c r="C791" s="14"/>
-      <c r="D791" s="15"/>
+      <c r="A791" s="15"/>
+      <c r="B791" s="15"/>
+      <c r="C791" s="15"/>
+      <c r="D791" s="16"/>
       <c r="E791" s="7"/>
     </row>
     <row r="792" spans="1:5">
-      <c r="A792" s="14"/>
-      <c r="B792" s="14"/>
-      <c r="C792" s="14"/>
-      <c r="D792" s="16"/>
+      <c r="A792" s="15"/>
+      <c r="B792" s="15"/>
+      <c r="C792" s="15"/>
+      <c r="D792" s="17"/>
       <c r="E792" s="7"/>
     </row>
     <row r="793" spans="1:5">
-      <c r="A793" s="14"/>
+      <c r="A793" s="15"/>
       <c r="B793" s="7"/>
-      <c r="C793" s="14"/>
-      <c r="D793" s="16"/>
+      <c r="C793" s="15"/>
+      <c r="D793" s="17"/>
       <c r="E793" s="7"/>
     </row>
     <row r="794" spans="1:5">
-      <c r="A794" s="14"/>
-      <c r="B794" s="14"/>
-      <c r="C794" s="14"/>
-      <c r="D794" s="16"/>
+      <c r="A794" s="15"/>
+      <c r="B794" s="15"/>
+      <c r="C794" s="15"/>
+      <c r="D794" s="17"/>
       <c r="E794" s="7"/>
     </row>
     <row r="795" spans="1:5">
-      <c r="A795" s="14"/>
+      <c r="A795" s="15"/>
       <c r="B795" s="7"/>
-      <c r="C795" s="14"/>
-      <c r="D795" s="16"/>
+      <c r="C795" s="15"/>
+      <c r="D795" s="17"/>
       <c r="E795" s="7"/>
     </row>
     <row r="796" spans="1:5">
-      <c r="A796" s="14"/>
+      <c r="A796" s="15"/>
       <c r="B796" s="7"/>
-      <c r="C796" s="14"/>
-      <c r="D796" s="16"/>
+      <c r="C796" s="15"/>
+      <c r="D796" s="17"/>
       <c r="E796" s="7"/>
     </row>
     <row r="797" spans="1:5">
-      <c r="A797" s="14"/>
-      <c r="B797" s="14"/>
-      <c r="C797" s="14"/>
-      <c r="D797" s="15"/>
+      <c r="A797" s="15"/>
+      <c r="B797" s="15"/>
+      <c r="C797" s="15"/>
+      <c r="D797" s="16"/>
       <c r="E797" s="7"/>
     </row>
     <row r="798" spans="1:5">
-      <c r="A798" s="14"/>
-      <c r="B798" s="14"/>
-      <c r="C798" s="14"/>
-      <c r="D798" s="16"/>
+      <c r="A798" s="15"/>
+      <c r="B798" s="15"/>
+      <c r="C798" s="15"/>
+      <c r="D798" s="17"/>
       <c r="E798" s="7"/>
     </row>
     <row r="799" spans="1:5">
-      <c r="A799" s="14"/>
+      <c r="A799" s="15"/>
       <c r="B799" s="7"/>
-      <c r="C799" s="14"/>
-      <c r="D799" s="16"/>
+      <c r="C799" s="15"/>
+      <c r="D799" s="17"/>
       <c r="E799" s="7"/>
     </row>
     <row r="800" spans="1:5">
-      <c r="A800" s="14"/>
-      <c r="B800" s="14"/>
-      <c r="C800" s="14"/>
-      <c r="D800" s="15"/>
+      <c r="A800" s="15"/>
+      <c r="B800" s="15"/>
+      <c r="C800" s="15"/>
+      <c r="D800" s="16"/>
       <c r="E800" s="7"/>
     </row>
     <row r="801" spans="1:5">
-      <c r="A801" s="14"/>
-      <c r="B801" s="14"/>
-      <c r="C801" s="14"/>
-      <c r="D801" s="16"/>
+      <c r="A801" s="15"/>
+      <c r="B801" s="15"/>
+      <c r="C801" s="15"/>
+      <c r="D801" s="17"/>
       <c r="E801" s="7"/>
     </row>
     <row r="802" spans="1:5">
-      <c r="A802" s="14"/>
-      <c r="B802" s="14"/>
-      <c r="C802" s="14"/>
-      <c r="D802" s="16"/>
+      <c r="A802" s="15"/>
+      <c r="B802" s="15"/>
+      <c r="C802" s="15"/>
+      <c r="D802" s="17"/>
       <c r="E802" s="7"/>
     </row>
     <row r="803" spans="1:5">
-      <c r="A803" s="14"/>
+      <c r="A803" s="15"/>
       <c r="B803" s="7"/>
-      <c r="C803" s="14"/>
-      <c r="D803" s="16"/>
+      <c r="C803" s="15"/>
+      <c r="D803" s="17"/>
       <c r="E803" s="7"/>
     </row>
     <row r="804" spans="1:5">
-      <c r="A804" s="14"/>
-      <c r="B804" s="14"/>
-      <c r="C804" s="14"/>
-      <c r="D804" s="16"/>
+      <c r="A804" s="15"/>
+      <c r="B804" s="15"/>
+      <c r="C804" s="15"/>
+      <c r="D804" s="17"/>
       <c r="E804" s="7"/>
     </row>
     <row r="805" spans="1:5">
-      <c r="A805" s="14"/>
-      <c r="B805" s="14"/>
-      <c r="C805" s="14"/>
-      <c r="D805" s="16"/>
+      <c r="A805" s="15"/>
+      <c r="B805" s="15"/>
+      <c r="C805" s="15"/>
+      <c r="D805" s="17"/>
       <c r="E805" s="7"/>
     </row>
     <row r="806" spans="1:5">
-      <c r="A806" s="14"/>
-      <c r="B806" s="14"/>
-      <c r="C806" s="14"/>
-      <c r="D806" s="15"/>
+      <c r="A806" s="15"/>
+      <c r="B806" s="15"/>
+      <c r="C806" s="15"/>
+      <c r="D806" s="16"/>
       <c r="E806" s="7"/>
     </row>
     <row r="807" spans="1:5">
-      <c r="A807" s="14"/>
+      <c r="A807" s="15"/>
       <c r="B807" s="7"/>
-      <c r="C807" s="14"/>
-      <c r="D807" s="15"/>
+      <c r="C807" s="15"/>
+      <c r="D807" s="16"/>
       <c r="E807" s="7"/>
     </row>
     <row r="808" spans="1:5">
-      <c r="A808" s="14"/>
-      <c r="B808" s="14"/>
-      <c r="C808" s="14"/>
-      <c r="D808" s="15"/>
+      <c r="A808" s="15"/>
+      <c r="B808" s="15"/>
+      <c r="C808" s="15"/>
+      <c r="D808" s="16"/>
       <c r="E808" s="7"/>
     </row>
     <row r="809" spans="1:5">
-      <c r="A809" s="14"/>
-      <c r="B809" s="14"/>
-      <c r="C809" s="14"/>
-      <c r="D809" s="15"/>
+      <c r="A809" s="15"/>
+      <c r="B809" s="15"/>
+      <c r="C809" s="15"/>
+      <c r="D809" s="16"/>
       <c r="E809" s="7"/>
     </row>
     <row r="810" spans="1:5">
-      <c r="A810" s="14"/>
-      <c r="B810" s="14"/>
-      <c r="C810" s="14"/>
-      <c r="D810" s="15"/>
+      <c r="A810" s="15"/>
+      <c r="B810" s="15"/>
+      <c r="C810" s="15"/>
+      <c r="D810" s="16"/>
       <c r="E810" s="7"/>
     </row>
     <row r="811" spans="1:5">
-      <c r="A811" s="14"/>
-      <c r="B811" s="14"/>
-      <c r="C811" s="14"/>
-      <c r="D811" s="15"/>
+      <c r="A811" s="15"/>
+      <c r="B811" s="15"/>
+      <c r="C811" s="15"/>
+      <c r="D811" s="16"/>
       <c r="E811" s="7"/>
     </row>
     <row r="812" spans="1:5">
-      <c r="A812" s="14"/>
-      <c r="B812" s="14"/>
-      <c r="C812" s="14"/>
-      <c r="D812" s="15"/>
+      <c r="A812" s="15"/>
+      <c r="B812" s="15"/>
+      <c r="C812" s="15"/>
+      <c r="D812" s="16"/>
       <c r="E812" s="7"/>
     </row>
     <row r="813" spans="1:5">
-      <c r="A813" s="14"/>
-      <c r="B813" s="14"/>
-      <c r="C813" s="14"/>
-      <c r="D813" s="15"/>
+      <c r="A813" s="15"/>
+      <c r="B813" s="15"/>
+      <c r="C813" s="15"/>
+      <c r="D813" s="16"/>
       <c r="E813" s="7"/>
     </row>
     <row r="814" spans="1:5">
-      <c r="A814" s="14"/>
-      <c r="B814" s="14"/>
-      <c r="C814" s="14"/>
-      <c r="D814" s="15"/>
+      <c r="A814" s="15"/>
+      <c r="B814" s="15"/>
+      <c r="C814" s="15"/>
+      <c r="D814" s="16"/>
       <c r="E814" s="7"/>
     </row>
     <row r="815" spans="1:5">
-      <c r="A815" s="14"/>
-      <c r="B815" s="14"/>
-      <c r="C815" s="14"/>
-      <c r="D815" s="16"/>
+      <c r="A815" s="15"/>
+      <c r="B815" s="15"/>
+      <c r="C815" s="15"/>
+      <c r="D815" s="17"/>
       <c r="E815" s="7"/>
     </row>
     <row r="816" spans="1:5">
-      <c r="A816" s="14"/>
+      <c r="A816" s="15"/>
       <c r="B816" s="7"/>
-      <c r="C816" s="14"/>
-      <c r="D816" s="16"/>
+      <c r="C816" s="15"/>
+      <c r="D816" s="17"/>
       <c r="E816" s="7"/>
     </row>
     <row r="817" spans="1:5">
-      <c r="A817" s="14"/>
+      <c r="A817" s="15"/>
       <c r="B817" s="7"/>
-      <c r="C817" s="14"/>
-      <c r="D817" s="16"/>
+      <c r="C817" s="15"/>
+      <c r="D817" s="17"/>
       <c r="E817" s="7"/>
     </row>
     <row r="818" spans="1:5">
-      <c r="A818" s="14"/>
+      <c r="A818" s="15"/>
       <c r="B818" s="7"/>
-      <c r="C818" s="14"/>
-      <c r="D818" s="15"/>
+      <c r="C818" s="15"/>
+      <c r="D818" s="16"/>
       <c r="E818" s="7"/>
     </row>
     <row r="819" spans="1:5">
-      <c r="A819" s="14"/>
+      <c r="A819" s="15"/>
       <c r="B819" s="7"/>
-      <c r="C819" s="14"/>
-      <c r="D819" s="16"/>
+      <c r="C819" s="15"/>
+      <c r="D819" s="17"/>
       <c r="E819" s="7"/>
     </row>
     <row r="820" spans="1:5">
-      <c r="A820" s="14"/>
-      <c r="B820" s="14"/>
-      <c r="C820" s="14"/>
-      <c r="D820" s="16"/>
+      <c r="A820" s="15"/>
+      <c r="B820" s="15"/>
+      <c r="C820" s="15"/>
+      <c r="D820" s="17"/>
       <c r="E820" s="7"/>
     </row>
     <row r="821" spans="1:5">
-      <c r="A821" s="14"/>
+      <c r="A821" s="15"/>
       <c r="B821" s="7"/>
-      <c r="C821" s="14"/>
-      <c r="D821" s="16"/>
+      <c r="C821" s="15"/>
+      <c r="D821" s="17"/>
       <c r="E821" s="7"/>
     </row>
     <row r="822" spans="1:5">
-      <c r="A822" s="14"/>
-      <c r="B822" s="14"/>
-      <c r="C822" s="14"/>
-      <c r="D822" s="15"/>
+      <c r="A822" s="15"/>
+      <c r="B822" s="15"/>
+      <c r="C822" s="15"/>
+      <c r="D822" s="16"/>
       <c r="E822" s="7"/>
     </row>
     <row r="823" spans="1:5">
-      <c r="A823" s="14"/>
-      <c r="B823" s="14"/>
-      <c r="C823" s="14"/>
-      <c r="D823" s="16"/>
+      <c r="A823" s="15"/>
+      <c r="B823" s="15"/>
+      <c r="C823" s="15"/>
+      <c r="D823" s="17"/>
       <c r="E823" s="7"/>
     </row>
     <row r="824" spans="1:5">
       <c r="A824" s="7"/>
-      <c r="B824" s="14"/>
-      <c r="C824" s="14"/>
-      <c r="D824" s="16"/>
+      <c r="B824" s="15"/>
+      <c r="C824" s="15"/>
+      <c r="D824" s="17"/>
       <c r="E824" s="7"/>
     </row>
     <row r="825" spans="1:5">
-      <c r="A825" s="14"/>
-      <c r="B825" s="14"/>
-      <c r="C825" s="14"/>
-      <c r="D825" s="16"/>
+      <c r="A825" s="15"/>
+      <c r="B825" s="15"/>
+      <c r="C825" s="15"/>
+      <c r="D825" s="17"/>
       <c r="E825" s="7"/>
     </row>
     <row r="826" spans="1:5">
-      <c r="A826" s="14"/>
+      <c r="A826" s="15"/>
       <c r="B826" s="7"/>
-      <c r="C826" s="14"/>
-      <c r="D826" s="15"/>
+      <c r="C826" s="15"/>
+      <c r="D826" s="16"/>
       <c r="E826" s="7"/>
     </row>
     <row r="827" spans="1:5">
-      <c r="A827" s="14"/>
+      <c r="A827" s="15"/>
       <c r="B827" s="7"/>
-      <c r="C827" s="14"/>
-      <c r="D827" s="15"/>
+      <c r="C827" s="15"/>
+      <c r="D827" s="16"/>
       <c r="E827" s="7"/>
     </row>
     <row r="828" spans="1:5">
-      <c r="A828" s="14"/>
-      <c r="B828" s="14"/>
-      <c r="C828" s="14"/>
-      <c r="D828" s="16"/>
+      <c r="A828" s="15"/>
+      <c r="B828" s="15"/>
+      <c r="C828" s="15"/>
+      <c r="D828" s="17"/>
       <c r="E828" s="7"/>
     </row>
     <row r="829" spans="1:5">
-      <c r="A829" s="14"/>
+      <c r="A829" s="15"/>
       <c r="B829" s="7"/>
-      <c r="C829" s="14"/>
-      <c r="D829" s="15"/>
+      <c r="C829" s="15"/>
+      <c r="D829" s="16"/>
       <c r="E829" s="7"/>
     </row>
     <row r="830" spans="1:5">
-      <c r="A830" s="14"/>
-      <c r="B830" s="14"/>
-      <c r="C830" s="14"/>
-      <c r="D830" s="16"/>
+      <c r="A830" s="15"/>
+      <c r="B830" s="15"/>
+      <c r="C830" s="15"/>
+      <c r="D830" s="17"/>
       <c r="E830" s="7"/>
     </row>
     <row r="831" spans="1:5">
-      <c r="A831" s="14"/>
+      <c r="A831" s="15"/>
       <c r="B831" s="7"/>
-      <c r="C831" s="14"/>
-      <c r="D831" s="16"/>
+      <c r="C831" s="15"/>
+      <c r="D831" s="17"/>
       <c r="E831" s="7"/>
     </row>
     <row r="832" spans="1:5">
-      <c r="A832" s="14"/>
+      <c r="A832" s="15"/>
       <c r="B832" s="7"/>
-      <c r="C832" s="14"/>
-      <c r="D832" s="16"/>
+      <c r="C832" s="15"/>
+      <c r="D832" s="17"/>
       <c r="E832" s="7"/>
     </row>
     <row r="833" spans="1:5">
-      <c r="A833" s="14"/>
+      <c r="A833" s="15"/>
       <c r="B833" s="7"/>
-      <c r="C833" s="14"/>
-      <c r="D833" s="15"/>
+      <c r="C833" s="15"/>
+      <c r="D833" s="16"/>
       <c r="E833" s="7"/>
     </row>
     <row r="834" spans="1:5">
-      <c r="A834" s="14"/>
+      <c r="A834" s="15"/>
       <c r="B834" s="7"/>
-      <c r="C834" s="14"/>
-      <c r="D834" s="15"/>
+      <c r="C834" s="15"/>
+      <c r="D834" s="16"/>
       <c r="E834" s="7"/>
     </row>
     <row r="835" spans="1:5">
-      <c r="A835" s="14"/>
+      <c r="A835" s="15"/>
       <c r="B835" s="7"/>
-      <c r="C835" s="14"/>
-      <c r="D835" s="16"/>
+      <c r="C835" s="15"/>
+      <c r="D835" s="17"/>
       <c r="E835" s="7"/>
     </row>
     <row r="836" spans="1:5">
-      <c r="A836" s="14"/>
+      <c r="A836" s="15"/>
       <c r="B836" s="7"/>
-      <c r="C836" s="14"/>
-      <c r="D836" s="16"/>
+      <c r="C836" s="15"/>
+      <c r="D836" s="17"/>
       <c r="E836" s="7"/>
     </row>
     <row r="837" spans="1:5">
-      <c r="A837" s="14"/>
-      <c r="B837" s="14"/>
-      <c r="C837" s="14"/>
-      <c r="D837" s="15"/>
+      <c r="A837" s="15"/>
+      <c r="B837" s="15"/>
+      <c r="C837" s="15"/>
+      <c r="D837" s="16"/>
       <c r="E837" s="7"/>
     </row>
     <row r="838" spans="1:5">
-      <c r="A838" s="14"/>
-      <c r="B838" s="14"/>
-      <c r="C838" s="14"/>
-      <c r="D838" s="16"/>
+      <c r="A838" s="15"/>
+      <c r="B838" s="15"/>
+      <c r="C838" s="15"/>
+      <c r="D838" s="17"/>
       <c r="E838" s="7"/>
     </row>
     <row r="839" spans="1:5">
-      <c r="A839" s="14"/>
+      <c r="A839" s="15"/>
       <c r="B839" s="7"/>
-      <c r="C839" s="14"/>
-      <c r="D839" s="16"/>
+      <c r="C839" s="15"/>
+      <c r="D839" s="17"/>
       <c r="E839" s="7"/>
     </row>
     <row r="840" spans="1:5">
-      <c r="A840" s="14"/>
-      <c r="B840" s="14"/>
-      <c r="C840" s="14"/>
-      <c r="D840" s="15"/>
+      <c r="A840" s="15"/>
+      <c r="B840" s="15"/>
+      <c r="C840" s="15"/>
+      <c r="D840" s="16"/>
       <c r="E840" s="7"/>
     </row>
     <row r="841" spans="1:5">
-      <c r="A841" s="14"/>
-      <c r="B841" s="14"/>
-      <c r="C841" s="14"/>
-      <c r="D841" s="15"/>
+      <c r="A841" s="15"/>
+      <c r="B841" s="15"/>
+      <c r="C841" s="15"/>
+      <c r="D841" s="16"/>
       <c r="E841" s="7"/>
     </row>
     <row r="842" spans="1:5">
-      <c r="A842" s="14"/>
-      <c r="B842" s="14"/>
-      <c r="C842" s="14"/>
-      <c r="D842" s="15"/>
+      <c r="A842" s="15"/>
+      <c r="B842" s="15"/>
+      <c r="C842" s="15"/>
+      <c r="D842" s="16"/>
       <c r="E842" s="7"/>
     </row>
     <row r="843" spans="1:5">
-      <c r="A843" s="14"/>
+      <c r="A843" s="15"/>
       <c r="B843" s="7"/>
-      <c r="C843" s="14"/>
-      <c r="D843" s="16"/>
+      <c r="C843" s="15"/>
+      <c r="D843" s="17"/>
       <c r="E843" s="7"/>
     </row>
     <row r="844" spans="1:5">
-      <c r="A844" s="14"/>
+      <c r="A844" s="15"/>
       <c r="B844" s="7"/>
-      <c r="C844" s="14"/>
-      <c r="D844" s="16"/>
+      <c r="C844" s="15"/>
+      <c r="D844" s="17"/>
       <c r="E844" s="7"/>
     </row>
     <row r="845" spans="1:5">
-      <c r="A845" s="14"/>
+      <c r="A845" s="15"/>
       <c r="B845" s="7"/>
-      <c r="C845" s="14"/>
-      <c r="D845" s="16"/>
+      <c r="C845" s="15"/>
+      <c r="D845" s="17"/>
       <c r="E845" s="7"/>
     </row>
     <row r="846" spans="1:5">
-      <c r="A846" s="14"/>
+      <c r="A846" s="15"/>
       <c r="B846" s="7"/>
-      <c r="C846" s="14"/>
-      <c r="D846" s="16"/>
+      <c r="C846" s="15"/>
+      <c r="D846" s="17"/>
       <c r="E846" s="7"/>
     </row>
     <row r="847" spans="1:5">
-      <c r="A847" s="14"/>
-      <c r="B847" s="14"/>
-      <c r="C847" s="14"/>
-      <c r="D847" s="16"/>
+      <c r="A847" s="15"/>
+      <c r="B847" s="15"/>
+      <c r="C847" s="15"/>
+      <c r="D847" s="17"/>
       <c r="E847" s="7"/>
     </row>
     <row r="848" spans="1:5">
-      <c r="A848" s="14"/>
+      <c r="A848" s="15"/>
       <c r="B848" s="7"/>
-      <c r="C848" s="14"/>
-      <c r="D848" s="15"/>
+      <c r="C848" s="15"/>
+      <c r="D848" s="16"/>
       <c r="E848" s="7"/>
     </row>
     <row r="849" spans="1:5">
-      <c r="A849" s="14"/>
+      <c r="A849" s="15"/>
       <c r="B849" s="7"/>
-      <c r="C849" s="14"/>
-      <c r="D849" s="16"/>
+      <c r="C849" s="15"/>
+      <c r="D849" s="17"/>
       <c r="E849" s="7"/>
     </row>
     <row r="850" spans="1:5">
-      <c r="A850" s="14"/>
-      <c r="B850" s="22"/>
-      <c r="C850" s="14"/>
-      <c r="D850" s="16"/>
+      <c r="A850" s="15"/>
+      <c r="B850" s="23"/>
+      <c r="C850" s="15"/>
+      <c r="D850" s="17"/>
       <c r="E850" s="7"/>
     </row>
     <row r="851" spans="1:5">
-      <c r="A851" s="14"/>
+      <c r="A851" s="15"/>
       <c r="B851" s="7"/>
-      <c r="C851" s="14"/>
-      <c r="D851" s="16"/>
+      <c r="C851" s="15"/>
+      <c r="D851" s="17"/>
       <c r="E851" s="7"/>
     </row>
     <row r="852" spans="1:5">
-      <c r="A852" s="14"/>
+      <c r="A852" s="15"/>
       <c r="B852" s="7"/>
-      <c r="C852" s="14"/>
-      <c r="D852" s="16"/>
+      <c r="C852" s="15"/>
+      <c r="D852" s="17"/>
       <c r="E852" s="7"/>
     </row>
     <row r="853" spans="1:5">
-      <c r="A853" s="14"/>
-      <c r="B853" s="14"/>
-      <c r="C853" s="14"/>
-      <c r="D853" s="16"/>
+      <c r="A853" s="15"/>
+      <c r="B853" s="15"/>
+      <c r="C853" s="15"/>
+      <c r="D853" s="17"/>
       <c r="E853" s="7"/>
     </row>
     <row r="854" spans="1:5">
-      <c r="A854" s="14"/>
-      <c r="B854" s="14"/>
-      <c r="C854" s="14"/>
-      <c r="D854" s="15"/>
+      <c r="A854" s="15"/>
+      <c r="B854" s="15"/>
+      <c r="C854" s="15"/>
+      <c r="D854" s="16"/>
       <c r="E854" s="7"/>
     </row>
     <row r="855" spans="1:5">
-      <c r="A855" s="14"/>
-      <c r="B855" s="14"/>
-      <c r="C855" s="14"/>
-      <c r="D855" s="15"/>
+      <c r="A855" s="15"/>
+      <c r="B855" s="15"/>
+      <c r="C855" s="15"/>
+      <c r="D855" s="16"/>
       <c r="E855" s="7"/>
     </row>
     <row r="856" spans="1:5">
-      <c r="A856" s="14"/>
+      <c r="A856" s="15"/>
       <c r="B856" s="7"/>
-      <c r="C856" s="14"/>
-      <c r="D856" s="16"/>
+      <c r="C856" s="15"/>
+      <c r="D856" s="17"/>
       <c r="E856" s="7"/>
     </row>
     <row r="857" spans="1:5">
-      <c r="A857" s="14"/>
-      <c r="B857" s="14"/>
-      <c r="C857" s="14"/>
-      <c r="D857" s="15"/>
+      <c r="A857" s="15"/>
+      <c r="B857" s="15"/>
+      <c r="C857" s="15"/>
+      <c r="D857" s="16"/>
       <c r="E857" s="7"/>
     </row>
     <row r="858" spans="1:5">
-      <c r="A858" s="14"/>
+      <c r="A858" s="15"/>
       <c r="B858" s="7"/>
-      <c r="C858" s="14"/>
-      <c r="D858" s="16"/>
+      <c r="C858" s="15"/>
+      <c r="D858" s="17"/>
       <c r="E858" s="7"/>
     </row>
     <row r="859" spans="1:5">
-      <c r="A859" s="14"/>
+      <c r="A859" s="15"/>
       <c r="B859" s="7"/>
-      <c r="C859" s="14"/>
-      <c r="D859" s="16"/>
+      <c r="C859" s="15"/>
+      <c r="D859" s="17"/>
       <c r="E859" s="7"/>
     </row>
     <row r="860" spans="1:5">
-      <c r="A860" s="14"/>
+      <c r="A860" s="15"/>
       <c r="B860" s="7"/>
-      <c r="C860" s="14"/>
-      <c r="D860" s="16"/>
+      <c r="C860" s="15"/>
+      <c r="D860" s="17"/>
       <c r="E860" s="7"/>
     </row>
     <row r="861" spans="1:5">
-      <c r="A861" s="14"/>
+      <c r="A861" s="15"/>
       <c r="B861" s="7"/>
-      <c r="C861" s="14"/>
-      <c r="D861" s="15"/>
+      <c r="C861" s="15"/>
+      <c r="D861" s="16"/>
       <c r="E861" s="7"/>
     </row>
     <row r="862" spans="1:5">
-      <c r="A862" s="14"/>
-      <c r="B862" s="14"/>
-      <c r="C862" s="14"/>
-      <c r="D862" s="16"/>
+      <c r="A862" s="15"/>
+      <c r="B862" s="15"/>
+      <c r="C862" s="15"/>
+      <c r="D862" s="17"/>
       <c r="E862" s="7"/>
     </row>
     <row r="863" spans="1:5">
-      <c r="A863" s="14"/>
-      <c r="B863" s="14"/>
-      <c r="C863" s="14"/>
-      <c r="D863" s="16"/>
+      <c r="A863" s="15"/>
+      <c r="B863" s="15"/>
+      <c r="C863" s="15"/>
+      <c r="D863" s="17"/>
       <c r="E863" s="7"/>
     </row>
     <row r="864" spans="1:5">
-      <c r="A864" s="14"/>
-      <c r="B864" s="14"/>
-      <c r="C864" s="14"/>
-      <c r="D864" s="16"/>
+      <c r="A864" s="15"/>
+      <c r="B864" s="15"/>
+      <c r="C864" s="15"/>
+      <c r="D864" s="17"/>
       <c r="E864" s="7"/>
     </row>
     <row r="865" spans="1:5">
-      <c r="A865" s="14"/>
-      <c r="B865" s="14"/>
-      <c r="C865" s="14"/>
-      <c r="D865" s="16"/>
+      <c r="A865" s="15"/>
+      <c r="B865" s="15"/>
+      <c r="C865" s="15"/>
+      <c r="D865" s="17"/>
       <c r="E865" s="7"/>
     </row>
     <row r="866" spans="1:5">
-      <c r="A866" s="14"/>
-      <c r="B866" s="14"/>
-      <c r="C866" s="14"/>
-      <c r="D866" s="16"/>
+      <c r="A866" s="15"/>
+      <c r="B866" s="15"/>
+      <c r="C866" s="15"/>
+      <c r="D866" s="17"/>
       <c r="E866" s="7"/>
     </row>
     <row r="867" spans="1:5">
-      <c r="A867" s="14"/>
+      <c r="A867" s="15"/>
       <c r="B867" s="7"/>
-      <c r="C867" s="14"/>
-      <c r="D867" s="16"/>
+      <c r="C867" s="15"/>
+      <c r="D867" s="17"/>
       <c r="E867" s="7"/>
     </row>
     <row r="868" spans="1:5">
-      <c r="A868" s="14"/>
+      <c r="A868" s="15"/>
       <c r="B868" s="7"/>
-      <c r="C868" s="14"/>
-      <c r="D868" s="16"/>
+      <c r="C868" s="15"/>
+      <c r="D868" s="17"/>
       <c r="E868" s="7"/>
     </row>
     <row r="869" spans="1:5">
-      <c r="A869" s="14"/>
-      <c r="B869" s="21"/>
-      <c r="C869" s="14"/>
-      <c r="D869" s="16"/>
+      <c r="A869" s="15"/>
+      <c r="B869" s="22"/>
+      <c r="C869" s="15"/>
+      <c r="D869" s="17"/>
       <c r="E869" s="7"/>
     </row>
     <row r="870" spans="1:5">
-      <c r="A870" s="14"/>
+      <c r="A870" s="15"/>
       <c r="B870" s="7"/>
-      <c r="C870" s="14"/>
-      <c r="D870" s="15"/>
+      <c r="C870" s="15"/>
+      <c r="D870" s="16"/>
       <c r="E870" s="7"/>
     </row>
     <row r="871" spans="1:5">
-      <c r="A871" s="14"/>
-      <c r="B871" s="14"/>
-      <c r="C871" s="14"/>
-      <c r="D871" s="16"/>
+      <c r="A871" s="15"/>
+      <c r="B871" s="15"/>
+      <c r="C871" s="15"/>
+      <c r="D871" s="17"/>
       <c r="E871" s="7"/>
     </row>
     <row r="872" spans="1:5">
-      <c r="A872" s="14"/>
-      <c r="B872" s="14"/>
-      <c r="C872" s="14"/>
-      <c r="D872" s="16"/>
+      <c r="A872" s="15"/>
+      <c r="B872" s="15"/>
+      <c r="C872" s="15"/>
+      <c r="D872" s="17"/>
       <c r="E872" s="7"/>
     </row>
     <row r="873" spans="1:5">
-      <c r="A873" s="14"/>
-      <c r="B873" s="14"/>
-      <c r="C873" s="14"/>
-      <c r="D873" s="16"/>
+      <c r="A873" s="15"/>
+      <c r="B873" s="15"/>
+      <c r="C873" s="15"/>
+      <c r="D873" s="17"/>
       <c r="E873" s="7"/>
     </row>
     <row r="874" spans="1:5">
-      <c r="A874" s="14"/>
+      <c r="A874" s="15"/>
       <c r="B874" s="7"/>
-      <c r="C874" s="14"/>
-      <c r="D874" s="15"/>
+      <c r="C874" s="15"/>
+      <c r="D874" s="16"/>
       <c r="E874" s="7"/>
     </row>
     <row r="875" spans="1:5">
-      <c r="A875" s="14"/>
-      <c r="B875" s="14"/>
-      <c r="C875" s="14"/>
-      <c r="D875" s="15"/>
+      <c r="A875" s="15"/>
+      <c r="B875" s="15"/>
+      <c r="C875" s="15"/>
+      <c r="D875" s="16"/>
       <c r="E875" s="7"/>
     </row>
     <row r="876" spans="1:5">
-      <c r="A876" s="14"/>
-      <c r="B876" s="14"/>
-      <c r="C876" s="14"/>
-      <c r="D876" s="23"/>
+      <c r="A876" s="15"/>
+      <c r="B876" s="15"/>
+      <c r="C876" s="15"/>
+      <c r="D876" s="24"/>
       <c r="E876" s="7"/>
     </row>
     <row r="877" spans="1:5">
-      <c r="A877" s="14"/>
-      <c r="B877" s="14"/>
-      <c r="C877" s="14"/>
-      <c r="D877" s="15"/>
+      <c r="A877" s="15"/>
+      <c r="B877" s="15"/>
+      <c r="C877" s="15"/>
+      <c r="D877" s="16"/>
       <c r="E877" s="7"/>
     </row>
     <row r="878" spans="1:5">
-      <c r="A878" s="14"/>
-      <c r="B878" s="14"/>
-      <c r="C878" s="14"/>
-      <c r="D878" s="16"/>
+      <c r="A878" s="15"/>
+      <c r="B878" s="15"/>
+      <c r="C878" s="15"/>
+      <c r="D878" s="17"/>
       <c r="E878" s="7"/>
     </row>
     <row r="879" spans="1:5">
-      <c r="A879" s="14"/>
-      <c r="B879" s="14"/>
-      <c r="C879" s="14"/>
-      <c r="D879" s="16"/>
+      <c r="A879" s="15"/>
+      <c r="B879" s="15"/>
+      <c r="C879" s="15"/>
+      <c r="D879" s="17"/>
       <c r="E879" s="7"/>
     </row>
     <row r="880" spans="1:5">
-      <c r="A880" s="14"/>
-      <c r="B880" s="14"/>
-      <c r="C880" s="14"/>
-      <c r="D880" s="16"/>
+      <c r="A880" s="15"/>
+      <c r="B880" s="15"/>
+      <c r="C880" s="15"/>
+      <c r="D880" s="17"/>
       <c r="E880" s="7"/>
     </row>
     <row r="881" spans="1:5">
-      <c r="A881" s="14"/>
-      <c r="B881" s="14"/>
-      <c r="C881" s="14"/>
-      <c r="D881" s="15"/>
+      <c r="A881" s="15"/>
+      <c r="B881" s="15"/>
+      <c r="C881" s="15"/>
+      <c r="D881" s="16"/>
       <c r="E881" s="7"/>
     </row>
     <row r="882" spans="1:5">
-      <c r="A882" s="14"/>
-      <c r="B882" s="14"/>
-      <c r="C882" s="14"/>
-      <c r="D882" s="16"/>
+      <c r="A882" s="15"/>
+      <c r="B882" s="15"/>
+      <c r="C882" s="15"/>
+      <c r="D882" s="17"/>
       <c r="E882" s="7"/>
     </row>
     <row r="883" spans="1:5">
       <c r="A883" s="7"/>
-      <c r="B883" s="14"/>
-      <c r="C883" s="14"/>
-      <c r="D883" s="15"/>
+      <c r="B883" s="15"/>
+      <c r="C883" s="15"/>
+      <c r="D883" s="16"/>
       <c r="E883" s="7"/>
     </row>
     <row r="884" spans="1:5">
-      <c r="A884" s="14"/>
-      <c r="B884" s="14"/>
-      <c r="C884" s="14"/>
-      <c r="D884" s="15"/>
+      <c r="A884" s="15"/>
+      <c r="B884" s="15"/>
+      <c r="C884" s="15"/>
+      <c r="D884" s="16"/>
       <c r="E884" s="7"/>
     </row>
     <row r="885" spans="1:5">
       <c r="A885" s="7"/>
-      <c r="B885" s="14"/>
-      <c r="C885" s="14"/>
-      <c r="D885" s="15"/>
+      <c r="B885" s="15"/>
+      <c r="C885" s="15"/>
+      <c r="D885" s="16"/>
       <c r="E885" s="7"/>
     </row>
     <row r="886" spans="1:5">
-      <c r="A886" s="14"/>
+      <c r="A886" s="15"/>
       <c r="B886" s="7"/>
-      <c r="C886" s="14"/>
-      <c r="D886" s="16"/>
+      <c r="C886" s="15"/>
+      <c r="D886" s="17"/>
       <c r="E886" s="7"/>
     </row>
     <row r="887" spans="1:5">
-      <c r="A887" s="14"/>
-      <c r="B887" s="24"/>
-      <c r="C887" s="14"/>
-      <c r="D887" s="25"/>
+      <c r="A887" s="15"/>
+      <c r="B887" s="25"/>
+      <c r="C887" s="15"/>
+      <c r="D887" s="26"/>
       <c r="E887" s="7"/>
     </row>
     <row r="888" spans="1:5">
-      <c r="A888" s="14"/>
-      <c r="B888" s="14"/>
-      <c r="C888" s="14"/>
-      <c r="D888" s="16"/>
+      <c r="A888" s="15"/>
+      <c r="B888" s="15"/>
+      <c r="C888" s="15"/>
+      <c r="D888" s="17"/>
       <c r="E888" s="7"/>
     </row>
     <row r="889" spans="1:5">
-      <c r="A889" s="14"/>
-      <c r="B889" s="14"/>
-      <c r="C889" s="14"/>
-      <c r="D889" s="15"/>
+      <c r="A889" s="15"/>
+      <c r="B889" s="15"/>
+      <c r="C889" s="15"/>
+      <c r="D889" s="16"/>
       <c r="E889" s="7"/>
     </row>
     <row r="890" spans="1:5">
-      <c r="A890" s="14"/>
-      <c r="B890" s="14"/>
-      <c r="C890" s="14"/>
-      <c r="D890" s="15"/>
+      <c r="A890" s="15"/>
+      <c r="B890" s="15"/>
+      <c r="C890" s="15"/>
+      <c r="D890" s="16"/>
       <c r="E890" s="7"/>
     </row>
     <row r="891" spans="1:5">
       <c r="A891" s="7"/>
-      <c r="B891" s="14"/>
-      <c r="C891" s="14"/>
-      <c r="D891" s="16"/>
+      <c r="B891" s="15"/>
+      <c r="C891" s="15"/>
+      <c r="D891" s="17"/>
       <c r="E891" s="7"/>
     </row>
     <row r="892" spans="1:5">
-      <c r="A892" s="14"/>
-      <c r="B892" s="26"/>
-      <c r="C892" s="14"/>
-      <c r="D892" s="25"/>
+      <c r="A892" s="15"/>
+      <c r="B892" s="27"/>
+      <c r="C892" s="15"/>
+      <c r="D892" s="26"/>
       <c r="E892" s="7"/>
     </row>
     <row r="893" spans="1:5">
-      <c r="A893" s="14"/>
-      <c r="B893" s="14"/>
-      <c r="C893" s="14"/>
-      <c r="D893" s="15"/>
+      <c r="A893" s="15"/>
+      <c r="B893" s="15"/>
+      <c r="C893" s="15"/>
+      <c r="D893" s="16"/>
       <c r="E893" s="7"/>
     </row>
     <row r="894" spans="1:5">
-      <c r="A894" s="14"/>
-      <c r="B894" s="14"/>
-      <c r="C894" s="14"/>
-      <c r="D894" s="15"/>
+      <c r="A894" s="15"/>
+      <c r="B894" s="15"/>
+      <c r="C894" s="15"/>
+      <c r="D894" s="16"/>
       <c r="E894" s="7"/>
     </row>
-    <row r="895" ht="14.25" spans="1:5">
-      <c r="A895" s="27"/>
-      <c r="B895" s="27"/>
-      <c r="C895" s="14"/>
-      <c r="D895" s="28"/>
+    <row r="895" spans="1:5">
+      <c r="A895" s="28"/>
+      <c r="B895" s="28"/>
+      <c r="C895" s="15"/>
+      <c r="D895" s="29"/>
       <c r="E895" s="7"/>
     </row>
     <row r="896" spans="1:5">
-      <c r="A896" s="14"/>
-      <c r="B896" s="14"/>
-      <c r="C896" s="14"/>
-      <c r="D896" s="16"/>
+      <c r="A896" s="15"/>
+      <c r="B896" s="15"/>
+      <c r="C896" s="15"/>
+      <c r="D896" s="17"/>
       <c r="E896" s="7"/>
     </row>
     <row r="897" spans="1:5">
-      <c r="A897" s="14"/>
-      <c r="B897" s="14"/>
-      <c r="C897" s="14"/>
-      <c r="D897" s="15"/>
+      <c r="A897" s="15"/>
+      <c r="B897" s="15"/>
+      <c r="C897" s="15"/>
+      <c r="D897" s="16"/>
       <c r="E897" s="7"/>
     </row>
     <row r="898" spans="1:5">
       <c r="A898" s="7"/>
       <c r="B898" s="7"/>
-      <c r="C898" s="14"/>
-      <c r="D898" s="16"/>
+      <c r="C898" s="15"/>
+      <c r="D898" s="17"/>
       <c r="E898" s="7"/>
     </row>
     <row r="899" spans="1:5">
       <c r="A899" s="7"/>
-      <c r="B899" s="14"/>
-      <c r="C899" s="14"/>
-      <c r="D899" s="25"/>
+      <c r="B899" s="15"/>
+      <c r="C899" s="15"/>
+      <c r="D899" s="26"/>
       <c r="E899" s="7"/>
     </row>
     <row r="900" spans="1:5">
       <c r="A900" s="7"/>
       <c r="B900" s="7"/>
       <c r="C900" s="7"/>
-      <c r="D900" s="16"/>
+      <c r="D900" s="17"/>
       <c r="E900" s="7"/>
     </row>
     <row r="901" spans="1:5">
-      <c r="A901" s="14"/>
-      <c r="B901" s="14"/>
-      <c r="C901" s="14"/>
-      <c r="D901" s="15"/>
+      <c r="A901" s="15"/>
+      <c r="B901" s="15"/>
+      <c r="C901" s="15"/>
+      <c r="D901" s="16"/>
       <c r="E901" s="7"/>
     </row>
     <row r="902" spans="1:5">
-      <c r="A902" s="14"/>
-      <c r="B902" s="14"/>
-      <c r="C902" s="14"/>
-      <c r="D902" s="16"/>
+      <c r="A902" s="15"/>
+      <c r="B902" s="15"/>
+      <c r="C902" s="15"/>
+      <c r="D902" s="17"/>
       <c r="E902" s="7"/>
     </row>
     <row r="903" spans="1:5">
-      <c r="A903" s="14"/>
-      <c r="B903" s="14"/>
-      <c r="C903" s="14"/>
-      <c r="D903" s="16"/>
+      <c r="A903" s="15"/>
+      <c r="B903" s="15"/>
+      <c r="C903" s="15"/>
+      <c r="D903" s="17"/>
       <c r="E903" s="7"/>
     </row>
     <row r="904" spans="1:5">
-      <c r="A904" s="14"/>
-      <c r="B904" s="14"/>
-      <c r="C904" s="14"/>
-      <c r="D904" s="16"/>
+      <c r="A904" s="15"/>
+      <c r="B904" s="15"/>
+      <c r="C904" s="15"/>
+      <c r="D904" s="17"/>
       <c r="E904" s="7"/>
     </row>
     <row r="905" spans="1:5">
-      <c r="A905" s="14"/>
-      <c r="B905" s="14"/>
-      <c r="C905" s="14"/>
-      <c r="D905" s="16"/>
+      <c r="A905" s="15"/>
+      <c r="B905" s="15"/>
+      <c r="C905" s="15"/>
+      <c r="D905" s="17"/>
       <c r="E905" s="7"/>
     </row>
     <row r="906" spans="1:5">
       <c r="A906" s="7"/>
-      <c r="B906" s="29"/>
-      <c r="C906" s="14"/>
-      <c r="D906" s="16"/>
+      <c r="B906" s="30"/>
+      <c r="C906" s="15"/>
+      <c r="D906" s="17"/>
       <c r="E906" s="7"/>
     </row>
     <row r="907" spans="1:5">
-      <c r="A907" s="14"/>
-      <c r="B907" s="21"/>
-      <c r="C907" s="14"/>
-      <c r="D907" s="15"/>
+      <c r="A907" s="15"/>
+      <c r="B907" s="22"/>
+      <c r="C907" s="15"/>
+      <c r="D907" s="16"/>
       <c r="E907" s="7"/>
     </row>
     <row r="908" spans="1:5">
       <c r="A908" s="7"/>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
-      <c r="D908" s="16"/>
+      <c r="D908" s="17"/>
       <c r="E908" s="7"/>
     </row>
     <row r="909" spans="1:5">
-      <c r="A909" s="14"/>
-      <c r="B909" s="14"/>
-      <c r="C909" s="14"/>
-      <c r="D909" s="16"/>
+      <c r="A909" s="15"/>
+      <c r="B909" s="15"/>
+      <c r="C909" s="15"/>
+      <c r="D909" s="17"/>
       <c r="E909" s="7"/>
     </row>
     <row r="910" spans="1:5">
-      <c r="A910" s="14"/>
-      <c r="B910" s="14"/>
-      <c r="C910" s="14"/>
-      <c r="D910" s="15"/>
+      <c r="A910" s="15"/>
+      <c r="B910" s="15"/>
+      <c r="C910" s="15"/>
+      <c r="D910" s="16"/>
       <c r="E910" s="7"/>
     </row>
     <row r="911" spans="1:5">
-      <c r="A911" s="14"/>
-      <c r="B911" s="21"/>
-      <c r="C911" s="14"/>
-      <c r="D911" s="15"/>
+      <c r="A911" s="15"/>
+      <c r="B911" s="22"/>
+      <c r="C911" s="15"/>
+      <c r="D911" s="16"/>
       <c r="E911" s="7"/>
     </row>
     <row r="912" spans="1:5">
-      <c r="A912" s="14"/>
-      <c r="B912" s="14"/>
-      <c r="C912" s="14"/>
-      <c r="D912" s="16"/>
+      <c r="A912" s="15"/>
+      <c r="B912" s="15"/>
+      <c r="C912" s="15"/>
+      <c r="D912" s="17"/>
       <c r="E912" s="7"/>
     </row>
     <row r="913" spans="1:5">
-      <c r="A913" s="14"/>
+      <c r="A913" s="15"/>
       <c r="B913" s="7"/>
-      <c r="C913" s="14"/>
-      <c r="D913" s="15"/>
+      <c r="C913" s="15"/>
+      <c r="D913" s="16"/>
       <c r="E913" s="7"/>
     </row>
     <row r="914" spans="1:5">
-      <c r="A914" s="14"/>
+      <c r="A914" s="15"/>
       <c r="B914" s="7"/>
-      <c r="C914" s="14"/>
-      <c r="D914" s="15"/>
+      <c r="C914" s="15"/>
+      <c r="D914" s="16"/>
       <c r="E914" s="7"/>
     </row>
     <row r="915" spans="1:5">
       <c r="A915" s="7"/>
-      <c r="B915" s="14"/>
-      <c r="C915" s="14"/>
-      <c r="D915" s="25"/>
+      <c r="B915" s="15"/>
+      <c r="C915" s="15"/>
+      <c r="D915" s="26"/>
       <c r="E915" s="7"/>
     </row>
     <row r="916" spans="1:5">
       <c r="A916" s="7"/>
-      <c r="B916" s="14"/>
-      <c r="C916" s="14"/>
-      <c r="D916" s="16"/>
+      <c r="B916" s="15"/>
+      <c r="C916" s="15"/>
+      <c r="D916" s="17"/>
       <c r="E916" s="7"/>
     </row>
     <row r="917" spans="1:5">
-      <c r="A917" s="14"/>
-      <c r="B917" s="14"/>
-      <c r="C917" s="14"/>
-      <c r="D917" s="16"/>
+      <c r="A917" s="15"/>
+      <c r="B917" s="15"/>
+      <c r="C917" s="15"/>
+      <c r="D917" s="17"/>
       <c r="E917" s="7"/>
     </row>
     <row r="918" spans="1:5">
-      <c r="A918" s="14"/>
-      <c r="B918" s="14"/>
-      <c r="C918" s="14"/>
-      <c r="D918" s="16"/>
+      <c r="A918" s="15"/>
+      <c r="B918" s="15"/>
+      <c r="C918" s="15"/>
+      <c r="D918" s="17"/>
       <c r="E918" s="7"/>
     </row>
     <row r="919" spans="1:5">
-      <c r="A919" s="14"/>
+      <c r="A919" s="15"/>
       <c r="B919" s="7"/>
-      <c r="C919" s="14"/>
-      <c r="D919" s="16"/>
+      <c r="C919" s="15"/>
+      <c r="D919" s="17"/>
       <c r="E919" s="7"/>
     </row>
     <row r="920" spans="1:5">
-      <c r="A920" s="14"/>
-      <c r="B920" s="14"/>
-      <c r="C920" s="14"/>
-      <c r="D920" s="16"/>
+      <c r="A920" s="15"/>
+      <c r="B920" s="15"/>
+      <c r="C920" s="15"/>
+      <c r="D920" s="17"/>
       <c r="E920" s="7"/>
     </row>
     <row r="921" spans="1:5">
-      <c r="A921" s="14"/>
-      <c r="B921" s="14"/>
-      <c r="C921" s="14"/>
-      <c r="D921" s="16"/>
+      <c r="A921" s="15"/>
+      <c r="B921" s="15"/>
+      <c r="C921" s="15"/>
+      <c r="D921" s="17"/>
       <c r="E921" s="7"/>
     </row>
     <row r="922" spans="1:5">
-      <c r="A922" s="14"/>
-      <c r="B922" s="14"/>
-      <c r="C922" s="14"/>
-      <c r="D922" s="15"/>
+      <c r="A922" s="15"/>
+      <c r="B922" s="15"/>
+      <c r="C922" s="15"/>
+      <c r="D922" s="16"/>
       <c r="E922" s="7"/>
     </row>
     <row r="923" spans="1:5">
-      <c r="A923" s="14"/>
-      <c r="B923" s="14"/>
-      <c r="C923" s="14"/>
-      <c r="D923" s="16"/>
+      <c r="A923" s="15"/>
+      <c r="B923" s="15"/>
+      <c r="C923" s="15"/>
+      <c r="D923" s="17"/>
       <c r="E923" s="7"/>
     </row>
     <row r="924" spans="1:5">
-      <c r="A924" s="14"/>
+      <c r="A924" s="15"/>
       <c r="B924" s="7"/>
       <c r="C924" s="7"/>
-      <c r="D924" s="15"/>
+      <c r="D924" s="16"/>
       <c r="E924" s="7"/>
     </row>
     <row r="925" spans="1:5">
-      <c r="A925" s="14"/>
+      <c r="A925" s="15"/>
       <c r="B925" s="7"/>
-      <c r="C925" s="14"/>
-      <c r="D925" s="15"/>
+      <c r="C925" s="15"/>
+      <c r="D925" s="16"/>
       <c r="E925" s="7"/>
     </row>
     <row r="926" spans="1:5">
-      <c r="A926" s="14"/>
+      <c r="A926" s="15"/>
       <c r="B926" s="7"/>
-      <c r="C926" s="14"/>
-      <c r="D926" s="15"/>
+      <c r="C926" s="15"/>
+      <c r="D926" s="16"/>
       <c r="E926" s="7"/>
     </row>
     <row r="927" spans="1:5">
-      <c r="A927" s="14"/>
-      <c r="B927" s="14"/>
-      <c r="C927" s="14"/>
-      <c r="D927" s="16"/>
+      <c r="A927" s="15"/>
+      <c r="B927" s="15"/>
+      <c r="C927" s="15"/>
+      <c r="D927" s="17"/>
       <c r="E927" s="7"/>
     </row>
     <row r="928" spans="1:5">
       <c r="A928" s="7"/>
-      <c r="B928" s="30"/>
-      <c r="C928" s="14"/>
-      <c r="D928" s="16"/>
+      <c r="B928" s="31"/>
+      <c r="C928" s="15"/>
+      <c r="D928" s="17"/>
       <c r="E928" s="7"/>
     </row>
     <row r="929" spans="1:5">
-      <c r="A929" s="14"/>
-      <c r="B929" s="14"/>
-      <c r="C929" s="14"/>
-      <c r="D929" s="15"/>
+      <c r="A929" s="15"/>
+      <c r="B929" s="15"/>
+      <c r="C929" s="15"/>
+      <c r="D929" s="16"/>
       <c r="E929" s="7"/>
     </row>
     <row r="930" spans="1:5">
-      <c r="A930" s="14"/>
-      <c r="B930" s="14"/>
-      <c r="C930" s="14"/>
-      <c r="D930" s="16"/>
+      <c r="A930" s="15"/>
+      <c r="B930" s="15"/>
+      <c r="C930" s="15"/>
+      <c r="D930" s="17"/>
       <c r="E930" s="7"/>
     </row>
     <row r="931" spans="1:5">
       <c r="A931" s="7"/>
-      <c r="B931" s="14"/>
-      <c r="C931" s="14"/>
-      <c r="D931" s="15"/>
+      <c r="B931" s="15"/>
+      <c r="C931" s="15"/>
+      <c r="D931" s="16"/>
       <c r="E931" s="7"/>
     </row>
     <row r="932" spans="1:5">
       <c r="A932" s="7"/>
-      <c r="B932" s="14"/>
-      <c r="C932" s="14"/>
-      <c r="D932" s="16"/>
+      <c r="B932" s="15"/>
+      <c r="C932" s="15"/>
+      <c r="D932" s="17"/>
       <c r="E932" s="7"/>
     </row>
     <row r="933" spans="1:5">
       <c r="A933" s="7"/>
       <c r="B933" s="7"/>
-      <c r="C933" s="14"/>
-      <c r="D933" s="15"/>
+      <c r="C933" s="15"/>
+      <c r="D933" s="16"/>
       <c r="E933" s="7"/>
     </row>
     <row r="934" spans="1:5">
-      <c r="A934" s="14"/>
-      <c r="B934" s="14"/>
-      <c r="C934" s="14"/>
-      <c r="D934" s="16"/>
+      <c r="A934" s="15"/>
+      <c r="B934" s="15"/>
+      <c r="C934" s="15"/>
+      <c r="D934" s="17"/>
       <c r="E934" s="7"/>
     </row>
     <row r="935" spans="1:5">
-      <c r="A935" s="27"/>
-      <c r="B935" s="14"/>
-      <c r="C935" s="14"/>
-      <c r="D935" s="16"/>
+      <c r="A935" s="28"/>
+      <c r="B935" s="15"/>
+      <c r="C935" s="15"/>
+      <c r="D935" s="17"/>
       <c r="E935" s="7"/>
     </row>
     <row r="936" spans="1:5">
       <c r="A936" s="7"/>
-      <c r="B936" s="14"/>
-      <c r="C936" s="14"/>
-      <c r="D936" s="16"/>
+      <c r="B936" s="15"/>
+      <c r="C936" s="15"/>
+      <c r="D936" s="17"/>
       <c r="E936" s="7"/>
     </row>
     <row r="937" spans="1:5">
-      <c r="A937" s="14"/>
-      <c r="B937" s="14"/>
-      <c r="C937" s="14"/>
-      <c r="D937" s="15"/>
+      <c r="A937" s="15"/>
+      <c r="B937" s="15"/>
+      <c r="C937" s="15"/>
+      <c r="D937" s="16"/>
       <c r="E937" s="7"/>
     </row>
     <row r="938" spans="1:5">
-      <c r="A938" s="14"/>
-      <c r="B938" s="14"/>
-      <c r="C938" s="14"/>
-      <c r="D938" s="16"/>
+      <c r="A938" s="15"/>
+      <c r="B938" s="15"/>
+      <c r="C938" s="15"/>
+      <c r="D938" s="17"/>
       <c r="E938" s="7"/>
     </row>
     <row r="939" spans="1:5">
-      <c r="A939" s="14"/>
-      <c r="B939" s="14"/>
-      <c r="C939" s="14"/>
-      <c r="D939" s="15"/>
+      <c r="A939" s="15"/>
+      <c r="B939" s="15"/>
+      <c r="C939" s="15"/>
+      <c r="D939" s="16"/>
       <c r="E939" s="7"/>
     </row>
     <row r="940" spans="1:5">
-      <c r="A940" s="14"/>
-      <c r="B940" s="14"/>
-      <c r="C940" s="14"/>
-      <c r="D940" s="15"/>
+      <c r="A940" s="15"/>
+      <c r="B940" s="15"/>
+      <c r="C940" s="15"/>
+      <c r="D940" s="16"/>
       <c r="E940" s="7"/>
     </row>
     <row r="941" spans="1:5">
-      <c r="A941" s="14"/>
-      <c r="B941" s="14"/>
-      <c r="C941" s="14"/>
-      <c r="D941" s="15"/>
+      <c r="A941" s="15"/>
+      <c r="B941" s="15"/>
+      <c r="C941" s="15"/>
+      <c r="D941" s="16"/>
       <c r="E941" s="7"/>
     </row>
     <row r="942" spans="1:5">
-      <c r="A942" s="14"/>
+      <c r="A942" s="15"/>
       <c r="B942" s="7"/>
-      <c r="C942" s="14"/>
-      <c r="D942" s="16"/>
+      <c r="C942" s="15"/>
+      <c r="D942" s="17"/>
       <c r="E942" s="7"/>
     </row>
     <row r="943" spans="1:5">
-      <c r="A943" s="14"/>
-      <c r="B943" s="14"/>
-      <c r="C943" s="14"/>
-      <c r="D943" s="15"/>
+      <c r="A943" s="15"/>
+      <c r="B943" s="15"/>
+      <c r="C943" s="15"/>
+      <c r="D943" s="16"/>
       <c r="E943" s="7"/>
     </row>
     <row r="944" spans="1:5">
-      <c r="A944" s="14"/>
-      <c r="B944" s="14"/>
-      <c r="C944" s="14"/>
-      <c r="D944" s="15"/>
+      <c r="A944" s="15"/>
+      <c r="B944" s="15"/>
+      <c r="C944" s="15"/>
+      <c r="D944" s="16"/>
       <c r="E944" s="7"/>
     </row>
     <row r="945" spans="1:5">
-      <c r="A945" s="14"/>
+      <c r="A945" s="15"/>
       <c r="B945" s="7"/>
       <c r="C945" s="7"/>
-      <c r="D945" s="16"/>
+      <c r="D945" s="17"/>
       <c r="E945" s="7"/>
     </row>
     <row r="946" spans="1:5">
-      <c r="A946" s="14"/>
-      <c r="B946" s="31"/>
-      <c r="C946" s="14"/>
-      <c r="D946" s="16"/>
+      <c r="A946" s="15"/>
+      <c r="B946" s="32"/>
+      <c r="C946" s="15"/>
+      <c r="D946" s="17"/>
       <c r="E946" s="7"/>
     </row>
     <row r="947" spans="1:5">
-      <c r="A947" s="14"/>
-      <c r="B947" s="14"/>
-      <c r="C947" s="14"/>
-      <c r="D947" s="32"/>
+      <c r="A947" s="15"/>
+      <c r="B947" s="15"/>
+      <c r="C947" s="15"/>
+      <c r="D947" s="33"/>
       <c r="E947" s="7"/>
     </row>
     <row r="948" spans="1:5">
-      <c r="A948" s="14"/>
-      <c r="B948" s="14"/>
-      <c r="C948" s="14"/>
-      <c r="D948" s="15"/>
+      <c r="A948" s="15"/>
+      <c r="B948" s="15"/>
+      <c r="C948" s="15"/>
+      <c r="D948" s="16"/>
       <c r="E948" s="7"/>
     </row>
     <row r="949" spans="1:5">
-      <c r="A949" s="14"/>
-      <c r="B949" s="33"/>
-      <c r="C949" s="14"/>
-      <c r="D949" s="15"/>
+      <c r="A949" s="15"/>
+      <c r="B949" s="34"/>
+      <c r="C949" s="15"/>
+      <c r="D949" s="16"/>
       <c r="E949" s="7"/>
     </row>
     <row r="950" spans="1:5">
       <c r="A950" s="7"/>
       <c r="B950" s="7"/>
-      <c r="C950" s="14"/>
-      <c r="D950" s="16"/>
+      <c r="C950" s="15"/>
+      <c r="D950" s="17"/>
       <c r="E950" s="7"/>
     </row>
     <row r="951" spans="1:5">
       <c r="A951" s="7"/>
-      <c r="B951" s="14"/>
-      <c r="C951" s="14"/>
-      <c r="D951" s="15"/>
+      <c r="B951" s="15"/>
+      <c r="C951" s="15"/>
+      <c r="D951" s="16"/>
       <c r="E951" s="7"/>
     </row>
     <row r="952" spans="1:5">
       <c r="A952" s="7"/>
-      <c r="B952" s="14"/>
-      <c r="C952" s="14"/>
-      <c r="D952" s="16"/>
+      <c r="B952" s="15"/>
+      <c r="C952" s="15"/>
+      <c r="D952" s="17"/>
       <c r="E952" s="7"/>
     </row>
     <row r="953" spans="1:5">
-      <c r="A953" s="14"/>
-      <c r="B953" s="14"/>
-      <c r="C953" s="14"/>
-      <c r="D953" s="15"/>
+      <c r="A953" s="15"/>
+      <c r="B953" s="15"/>
+      <c r="C953" s="15"/>
+      <c r="D953" s="16"/>
       <c r="E953" s="7"/>
     </row>
     <row r="954" spans="1:5">
       <c r="A954" s="7"/>
       <c r="B954" s="7"/>
-      <c r="C954" s="14"/>
-      <c r="D954" s="16"/>
+      <c r="C954" s="15"/>
+      <c r="D954" s="17"/>
       <c r="E954" s="7"/>
     </row>
     <row r="955" spans="1:5">
-      <c r="A955" s="14"/>
-      <c r="B955" s="14"/>
-      <c r="C955" s="14"/>
-      <c r="D955" s="16"/>
+      <c r="A955" s="15"/>
+      <c r="B955" s="15"/>
+      <c r="C955" s="15"/>
+      <c r="D955" s="17"/>
       <c r="E955" s="7"/>
     </row>
     <row r="956" spans="1:5">
-      <c r="A956" s="14"/>
+      <c r="A956" s="15"/>
       <c r="B956" s="7"/>
-      <c r="C956" s="14"/>
-      <c r="D956" s="16"/>
+      <c r="C956" s="15"/>
+      <c r="D956" s="17"/>
       <c r="E956" s="7"/>
     </row>
     <row r="957" spans="1:5">
-      <c r="A957" s="14"/>
-      <c r="B957" s="14"/>
-      <c r="C957" s="14"/>
-      <c r="D957" s="16"/>
+      <c r="A957" s="15"/>
+      <c r="B957" s="15"/>
+      <c r="C957" s="15"/>
+      <c r="D957" s="17"/>
       <c r="E957" s="7"/>
     </row>
     <row r="958" spans="1:5">
-      <c r="A958" s="14"/>
-      <c r="B958" s="14"/>
-      <c r="C958" s="14"/>
-      <c r="D958" s="16"/>
+      <c r="A958" s="15"/>
+      <c r="B958" s="15"/>
+      <c r="C958" s="15"/>
+      <c r="D958" s="17"/>
       <c r="E958" s="7"/>
     </row>
     <row r="959" spans="1:5">
       <c r="A959" s="7"/>
-      <c r="B959" s="14"/>
-      <c r="C959" s="14"/>
-      <c r="D959" s="15"/>
+      <c r="B959" s="15"/>
+      <c r="C959" s="15"/>
+      <c r="D959" s="16"/>
       <c r="E959" s="7"/>
     </row>
     <row r="960" spans="1:5">
-      <c r="A960" s="14"/>
+      <c r="A960" s="15"/>
       <c r="B960" s="7"/>
       <c r="C960" s="7"/>
-      <c r="D960" s="16"/>
+      <c r="D960" s="17"/>
       <c r="E960" s="7"/>
     </row>
     <row r="961" spans="1:5">
-      <c r="A961" s="14"/>
+      <c r="A961" s="15"/>
       <c r="B961" s="7"/>
-      <c r="C961" s="14"/>
-      <c r="D961" s="16"/>
+      <c r="C961" s="15"/>
+      <c r="D961" s="17"/>
       <c r="E961" s="7"/>
     </row>
     <row r="962" spans="1:5">
       <c r="A962" s="7"/>
-      <c r="B962" s="14"/>
-      <c r="C962" s="14"/>
-      <c r="D962" s="15"/>
+      <c r="B962" s="15"/>
+      <c r="C962" s="15"/>
+      <c r="D962" s="16"/>
       <c r="E962" s="7"/>
     </row>
     <row r="963" spans="1:5">
-      <c r="A963" s="14"/>
+      <c r="A963" s="15"/>
       <c r="B963" s="7"/>
-      <c r="C963" s="14"/>
-      <c r="D963" s="15"/>
+      <c r="C963" s="15"/>
+      <c r="D963" s="16"/>
       <c r="E963" s="7"/>
     </row>
     <row r="964" spans="1:5">
-      <c r="A964" s="14"/>
-      <c r="B964" s="14"/>
-      <c r="C964" s="14"/>
-      <c r="D964" s="15"/>
+      <c r="A964" s="15"/>
+      <c r="B964" s="15"/>
+      <c r="C964" s="15"/>
+      <c r="D964" s="16"/>
       <c r="E964" s="7"/>
     </row>
     <row r="965" spans="1:5">
-      <c r="A965" s="14"/>
+      <c r="A965" s="15"/>
       <c r="B965" s="7"/>
-      <c r="C965" s="14"/>
-      <c r="D965" s="15"/>
+      <c r="C965" s="15"/>
+      <c r="D965" s="16"/>
       <c r="E965" s="7"/>
     </row>
     <row r="966" spans="1:5">
-      <c r="A966" s="14"/>
+      <c r="A966" s="15"/>
       <c r="B966" s="7"/>
-      <c r="C966" s="14"/>
-      <c r="D966" s="15"/>
+      <c r="C966" s="15"/>
+      <c r="D966" s="16"/>
       <c r="E966" s="7"/>
     </row>
     <row r="967" spans="1:5">
-      <c r="A967" s="14"/>
+      <c r="A967" s="15"/>
       <c r="B967" s="7"/>
-      <c r="C967" s="14"/>
-      <c r="D967" s="16"/>
+      <c r="C967" s="15"/>
+      <c r="D967" s="17"/>
       <c r="E967" s="7"/>
     </row>
     <row r="968" spans="1:5">
-      <c r="A968" s="14"/>
-      <c r="B968" s="14"/>
-      <c r="C968" s="14"/>
-      <c r="D968" s="16"/>
+      <c r="A968" s="15"/>
+      <c r="B968" s="15"/>
+      <c r="C968" s="15"/>
+      <c r="D968" s="17"/>
       <c r="E968" s="7"/>
     </row>
     <row r="969" spans="1:5">
-      <c r="A969" s="14"/>
-      <c r="B969" s="14"/>
-      <c r="C969" s="14"/>
-      <c r="D969" s="15"/>
+      <c r="A969" s="15"/>
+      <c r="B969" s="15"/>
+      <c r="C969" s="15"/>
+      <c r="D969" s="16"/>
       <c r="E969" s="7"/>
     </row>
     <row r="970" spans="1:4">
       <c r="A970" s="7"/>
       <c r="B970" s="7"/>
-      <c r="C970" s="14"/>
-      <c r="D970" s="16"/>
+      <c r="C970" s="15"/>
+      <c r="D970" s="17"/>
     </row>
     <row r="971" spans="1:5">
-      <c r="A971" s="14"/>
-      <c r="B971" s="14"/>
-      <c r="C971" s="14"/>
-      <c r="D971" s="15"/>
+      <c r="A971" s="15"/>
+      <c r="B971" s="15"/>
+      <c r="C971" s="15"/>
+      <c r="D971" s="16"/>
       <c r="E971" s="7"/>
     </row>
     <row r="972" spans="1:5">
       <c r="A972" s="7"/>
-      <c r="B972" s="34"/>
-      <c r="C972" s="14"/>
-      <c r="D972" s="25"/>
+      <c r="B972" s="35"/>
+      <c r="C972" s="15"/>
+      <c r="D972" s="26"/>
       <c r="E972" s="7"/>
     </row>
     <row r="973" spans="1:5">
-      <c r="A973" s="14"/>
-      <c r="B973" s="14"/>
-      <c r="C973" s="14"/>
-      <c r="D973" s="16"/>
+      <c r="A973" s="15"/>
+      <c r="B973" s="15"/>
+      <c r="C973" s="15"/>
+      <c r="D973" s="17"/>
       <c r="E973" s="7"/>
     </row>
     <row r="974" spans="1:5">
-      <c r="A974" s="14"/>
-      <c r="B974" s="14"/>
-      <c r="C974" s="14"/>
-      <c r="D974" s="15"/>
+      <c r="A974" s="15"/>
+      <c r="B974" s="15"/>
+      <c r="C974" s="15"/>
+      <c r="D974" s="16"/>
       <c r="E974" s="7"/>
     </row>
     <row r="975" spans="1:5">
-      <c r="A975" s="14"/>
-      <c r="B975" s="14"/>
-      <c r="C975" s="14"/>
-      <c r="D975" s="15"/>
+      <c r="A975" s="15"/>
+      <c r="B975" s="15"/>
+      <c r="C975" s="15"/>
+      <c r="D975" s="16"/>
       <c r="E975" s="7"/>
     </row>
     <row r="976" spans="1:5">
-      <c r="A976" s="14"/>
-      <c r="B976" s="14"/>
-      <c r="C976" s="14"/>
-      <c r="D976" s="15"/>
+      <c r="A976" s="15"/>
+      <c r="B976" s="15"/>
+      <c r="C976" s="15"/>
+      <c r="D976" s="16"/>
       <c r="E976" s="7"/>
     </row>
     <row r="977" spans="1:5">
-      <c r="A977" s="14"/>
+      <c r="A977" s="15"/>
       <c r="B977" s="7"/>
-      <c r="C977" s="14"/>
-      <c r="D977" s="16"/>
+      <c r="C977" s="15"/>
+      <c r="D977" s="17"/>
       <c r="E977" s="7"/>
     </row>
     <row r="978" spans="1:5">
-      <c r="A978" s="14"/>
-      <c r="B978" s="14"/>
-      <c r="C978" s="14"/>
-      <c r="D978" s="15"/>
+      <c r="A978" s="15"/>
+      <c r="B978" s="15"/>
+      <c r="C978" s="15"/>
+      <c r="D978" s="16"/>
       <c r="E978" s="7"/>
     </row>
     <row r="979" spans="1:5">
       <c r="A979" s="7"/>
       <c r="B979" s="7"/>
       <c r="C979" s="7"/>
-      <c r="D979" s="16"/>
+      <c r="D979" s="17"/>
       <c r="E979" s="7"/>
     </row>
     <row r="980" spans="1:5">
       <c r="A980" s="7"/>
-      <c r="B980" s="14"/>
-      <c r="C980" s="14"/>
-      <c r="D980" s="16"/>
+      <c r="B980" s="15"/>
+      <c r="C980" s="15"/>
+      <c r="D980" s="17"/>
       <c r="E980" s="7"/>
     </row>
     <row r="981" spans="1:5">
-      <c r="A981" s="14"/>
-      <c r="B981" s="14"/>
-      <c r="C981" s="14"/>
-      <c r="D981" s="15"/>
+      <c r="A981" s="15"/>
+      <c r="B981" s="15"/>
+      <c r="C981" s="15"/>
+      <c r="D981" s="16"/>
       <c r="E981" s="7"/>
     </row>
     <row r="982" spans="1:5">
-      <c r="A982" s="14"/>
+      <c r="A982" s="15"/>
       <c r="B982" s="7"/>
-      <c r="C982" s="14"/>
-      <c r="D982" s="16"/>
+      <c r="C982" s="15"/>
+      <c r="D982" s="17"/>
       <c r="E982" s="7"/>
     </row>
     <row r="983" spans="1:5">
-      <c r="A983" s="14"/>
-      <c r="B983" s="14"/>
-      <c r="C983" s="14"/>
-      <c r="D983" s="25"/>
+      <c r="A983" s="15"/>
+      <c r="B983" s="15"/>
+      <c r="C983" s="15"/>
+      <c r="D983" s="26"/>
       <c r="E983" s="7"/>
     </row>
     <row r="984" spans="1:5">
-      <c r="A984" s="14"/>
+      <c r="A984" s="15"/>
       <c r="B984" s="7"/>
       <c r="C984" s="7"/>
-      <c r="D984" s="16"/>
+      <c r="D984" s="17"/>
       <c r="E984" s="7"/>
     </row>
     <row r="985" spans="1:5">
-      <c r="A985" s="14"/>
+      <c r="A985" s="15"/>
       <c r="B985" s="7"/>
-      <c r="C985" s="14"/>
-      <c r="D985" s="16"/>
+      <c r="C985" s="15"/>
+      <c r="D985" s="17"/>
       <c r="E985" s="7"/>
     </row>
     <row r="986" spans="1:5">
-      <c r="A986" s="14"/>
+      <c r="A986" s="15"/>
       <c r="B986" s="7"/>
-      <c r="C986" s="14"/>
-      <c r="D986" s="15"/>
+      <c r="C986" s="15"/>
+      <c r="D986" s="16"/>
       <c r="E986" s="7"/>
     </row>
     <row r="987" spans="1:5">
-      <c r="A987" s="14"/>
+      <c r="A987" s="15"/>
       <c r="B987" s="7"/>
-      <c r="C987" s="14"/>
-      <c r="D987" s="15"/>
+      <c r="C987" s="15"/>
+      <c r="D987" s="16"/>
       <c r="E987" s="7"/>
     </row>
     <row r="988" spans="1:5">
-      <c r="A988" s="14"/>
-      <c r="B988" s="14"/>
-      <c r="C988" s="14"/>
-      <c r="D988" s="15"/>
+      <c r="A988" s="15"/>
+      <c r="B988" s="15"/>
+      <c r="C988" s="15"/>
+      <c r="D988" s="16"/>
       <c r="E988" s="7"/>
     </row>
     <row r="989" spans="1:5">
-      <c r="A989" s="14"/>
-      <c r="B989" s="14"/>
-      <c r="C989" s="14"/>
-      <c r="D989" s="16"/>
+      <c r="A989" s="15"/>
+      <c r="B989" s="15"/>
+      <c r="C989" s="15"/>
+      <c r="D989" s="17"/>
       <c r="E989" s="7"/>
     </row>
     <row r="990" spans="1:5">
-      <c r="A990" s="14"/>
-      <c r="B990" s="14"/>
-      <c r="C990" s="14"/>
-      <c r="D990" s="16"/>
+      <c r="A990" s="15"/>
+      <c r="B990" s="15"/>
+      <c r="C990" s="15"/>
+      <c r="D990" s="17"/>
       <c r="E990" s="7"/>
     </row>
     <row r="991" spans="1:5">
-      <c r="A991" s="14"/>
-      <c r="B991" s="14"/>
-      <c r="C991" s="14"/>
-      <c r="D991" s="16"/>
+      <c r="A991" s="15"/>
+      <c r="B991" s="15"/>
+      <c r="C991" s="15"/>
+      <c r="D991" s="17"/>
       <c r="E991" s="7"/>
     </row>
     <row r="992" spans="1:5">
-      <c r="A992" s="14"/>
+      <c r="A992" s="15"/>
       <c r="B992" s="7"/>
-      <c r="C992" s="14"/>
-      <c r="D992" s="16"/>
+      <c r="C992" s="15"/>
+      <c r="D992" s="17"/>
       <c r="E992" s="7"/>
     </row>
     <row r="993" spans="1:5">
-      <c r="A993" s="14"/>
-      <c r="B993" s="14"/>
-      <c r="C993" s="14"/>
-      <c r="D993" s="16"/>
+      <c r="A993" s="15"/>
+      <c r="B993" s="15"/>
+      <c r="C993" s="15"/>
+      <c r="D993" s="17"/>
       <c r="E993" s="7"/>
     </row>
     <row r="994" spans="1:5">
-      <c r="A994" s="14"/>
+      <c r="A994" s="15"/>
       <c r="B994" s="7"/>
-      <c r="C994" s="14"/>
-      <c r="D994" s="16"/>
+      <c r="C994" s="15"/>
+      <c r="D994" s="17"/>
       <c r="E994" s="7"/>
     </row>
     <row r="995" spans="1:5">
-      <c r="A995" s="14"/>
+      <c r="A995" s="15"/>
       <c r="B995" s="7"/>
-      <c r="C995" s="14"/>
-      <c r="D995" s="16"/>
+      <c r="C995" s="15"/>
+      <c r="D995" s="17"/>
       <c r="E995" s="7"/>
     </row>
     <row r="996" spans="1:5">
-      <c r="A996" s="14"/>
+      <c r="A996" s="15"/>
       <c r="B996" s="7"/>
-      <c r="C996" s="14"/>
-      <c r="D996" s="15"/>
+      <c r="C996" s="15"/>
+      <c r="D996" s="16"/>
       <c r="E996" s="7"/>
     </row>
     <row r="997" spans="1:5">
-      <c r="A997" s="14"/>
+      <c r="A997" s="15"/>
       <c r="B997" s="7"/>
-      <c r="C997" s="14"/>
-      <c r="D997" s="16"/>
+      <c r="C997" s="15"/>
+      <c r="D997" s="17"/>
       <c r="E997" s="7"/>
     </row>
     <row r="998" spans="1:5">
-      <c r="A998" s="14"/>
+      <c r="A998" s="15"/>
       <c r="B998" s="7"/>
-      <c r="C998" s="14"/>
-      <c r="D998" s="16"/>
+      <c r="C998" s="15"/>
+      <c r="D998" s="17"/>
       <c r="E998" s="7"/>
     </row>
     <row r="999" spans="1:5">
-      <c r="A999" s="14"/>
-      <c r="B999" s="14"/>
-      <c r="C999" s="14"/>
-      <c r="D999" s="15"/>
+      <c r="A999" s="15"/>
+      <c r="B999" s="15"/>
+      <c r="C999" s="15"/>
+      <c r="D999" s="16"/>
       <c r="E999" s="7"/>
     </row>
     <row r="1000" spans="1:5">
       <c r="A1000" s="7"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="7"/>
-      <c r="D1000" s="16"/>
+      <c r="D1000" s="17"/>
       <c r="E1000" s="7"/>
     </row>
     <row r="1001" spans="1:5">
-      <c r="A1001" s="14"/>
+      <c r="A1001" s="15"/>
       <c r="B1001" s="7"/>
-      <c r="C1001" s="14"/>
-      <c r="D1001" s="16"/>
+      <c r="C1001" s="15"/>
+      <c r="D1001" s="17"/>
       <c r="E1001" s="7"/>
     </row>
     <row r="1002" spans="1:5">
-      <c r="A1002" s="14"/>
+      <c r="A1002" s="15"/>
       <c r="B1002" s="7"/>
-      <c r="C1002" s="14"/>
-      <c r="D1002" s="16"/>
+      <c r="C1002" s="15"/>
+      <c r="D1002" s="17"/>
       <c r="E1002" s="7"/>
     </row>
     <row r="1003" spans="1:5">
-      <c r="A1003" s="14"/>
-      <c r="B1003" s="14"/>
-      <c r="C1003" s="14"/>
-      <c r="D1003" s="16"/>
+      <c r="A1003" s="15"/>
+      <c r="B1003" s="15"/>
+      <c r="C1003" s="15"/>
+      <c r="D1003" s="17"/>
       <c r="E1003" s="7"/>
     </row>
     <row r="1004" spans="1:5">
-      <c r="A1004" s="14"/>
-      <c r="B1004" s="14"/>
-      <c r="C1004" s="14"/>
-      <c r="D1004" s="16"/>
+      <c r="A1004" s="15"/>
+      <c r="B1004" s="15"/>
+      <c r="C1004" s="15"/>
+      <c r="D1004" s="17"/>
       <c r="E1004" s="7"/>
     </row>
     <row r="1005" spans="1:5">
-      <c r="A1005" s="14"/>
-      <c r="B1005" s="14"/>
-      <c r="C1005" s="14"/>
-      <c r="D1005" s="16"/>
+      <c r="A1005" s="15"/>
+      <c r="B1005" s="15"/>
+      <c r="C1005" s="15"/>
+      <c r="D1005" s="17"/>
       <c r="E1005" s="7"/>
     </row>
     <row r="1006" spans="1:5">
-      <c r="A1006" s="14"/>
+      <c r="A1006" s="15"/>
       <c r="B1006" s="7"/>
-      <c r="C1006" s="14"/>
-      <c r="D1006" s="15"/>
+      <c r="C1006" s="15"/>
+      <c r="D1006" s="16"/>
       <c r="E1006" s="7"/>
     </row>
     <row r="1007" spans="1:5">
-      <c r="A1007" s="14"/>
+      <c r="A1007" s="15"/>
       <c r="B1007" s="7"/>
-      <c r="C1007" s="14"/>
-      <c r="D1007" s="16"/>
+      <c r="C1007" s="15"/>
+      <c r="D1007" s="17"/>
       <c r="E1007" s="7"/>
     </row>
     <row r="1008" spans="1:5">
-      <c r="A1008" s="14"/>
+      <c r="A1008" s="15"/>
       <c r="B1008" s="7"/>
-      <c r="C1008" s="14"/>
-      <c r="D1008" s="16"/>
+      <c r="C1008" s="15"/>
+      <c r="D1008" s="17"/>
       <c r="E1008" s="7"/>
     </row>
     <row r="1009" spans="1:5">
-      <c r="A1009" s="14"/>
+      <c r="A1009" s="15"/>
       <c r="B1009" s="7"/>
-      <c r="C1009" s="14"/>
-      <c r="D1009" s="16"/>
+      <c r="C1009" s="15"/>
+      <c r="D1009" s="17"/>
       <c r="E1009" s="7"/>
     </row>
     <row r="1010" spans="1:5">
-      <c r="A1010" s="14"/>
+      <c r="A1010" s="15"/>
       <c r="B1010" s="7"/>
-      <c r="C1010" s="14"/>
-      <c r="D1010" s="15"/>
+      <c r="C1010" s="15"/>
+      <c r="D1010" s="16"/>
       <c r="E1010" s="7"/>
     </row>
     <row r="1011" spans="1:5">
-      <c r="A1011" s="14"/>
+      <c r="A1011" s="15"/>
       <c r="B1011" s="7"/>
-      <c r="C1011" s="14"/>
-      <c r="D1011" s="16"/>
+      <c r="C1011" s="15"/>
+      <c r="D1011" s="17"/>
       <c r="E1011" s="7"/>
     </row>
     <row r="1012" spans="1:5">
-      <c r="A1012" s="14"/>
+      <c r="A1012" s="15"/>
       <c r="B1012" s="7"/>
-      <c r="C1012" s="14"/>
-      <c r="D1012" s="16"/>
+      <c r="C1012" s="15"/>
+      <c r="D1012" s="17"/>
       <c r="E1012" s="7"/>
     </row>
     <row r="1013" spans="1:5">
-      <c r="A1013" s="14"/>
+      <c r="A1013" s="15"/>
       <c r="B1013" s="7"/>
-      <c r="C1013" s="14"/>
-      <c r="D1013" s="16"/>
+      <c r="C1013" s="15"/>
+      <c r="D1013" s="17"/>
       <c r="E1013" s="7"/>
     </row>
     <row r="1014" spans="1:5">
-      <c r="A1014" s="14"/>
+      <c r="A1014" s="15"/>
       <c r="B1014" s="7"/>
-      <c r="C1014" s="14"/>
-      <c r="D1014" s="16"/>
+      <c r="C1014" s="15"/>
+      <c r="D1014" s="17"/>
       <c r="E1014" s="7"/>
     </row>
     <row r="1015" spans="1:5">
-      <c r="A1015" s="14"/>
+      <c r="A1015" s="15"/>
       <c r="B1015" s="7"/>
-      <c r="C1015" s="14"/>
-      <c r="D1015" s="16"/>
+      <c r="C1015" s="15"/>
+      <c r="D1015" s="17"/>
       <c r="E1015" s="7"/>
     </row>
     <row r="1016" spans="1:5">
-      <c r="A1016" s="14"/>
-      <c r="B1016" s="14"/>
-      <c r="C1016" s="14"/>
-      <c r="D1016" s="16"/>
+      <c r="A1016" s="15"/>
+      <c r="B1016" s="15"/>
+      <c r="C1016" s="15"/>
+      <c r="D1016" s="17"/>
       <c r="E1016" s="7"/>
     </row>
     <row r="1017" spans="1:5">
-      <c r="A1017" s="14"/>
+      <c r="A1017" s="15"/>
       <c r="B1017" s="7"/>
-      <c r="C1017" s="14"/>
-      <c r="D1017" s="15"/>
+      <c r="C1017" s="15"/>
+      <c r="D1017" s="16"/>
       <c r="E1017" s="7"/>
     </row>
     <row r="1018" spans="1:5">
       <c r="A1018" s="7"/>
-      <c r="B1018" s="14"/>
-      <c r="C1018" s="14"/>
-      <c r="D1018" s="16"/>
+      <c r="B1018" s="15"/>
+      <c r="C1018" s="15"/>
+      <c r="D1018" s="17"/>
       <c r="E1018" s="7"/>
     </row>
     <row r="1019" spans="1:5">
-      <c r="A1019" s="14"/>
-      <c r="B1019" s="14"/>
-      <c r="C1019" s="14"/>
-      <c r="D1019" s="16"/>
+      <c r="A1019" s="15"/>
+      <c r="B1019" s="15"/>
+      <c r="C1019" s="15"/>
+      <c r="D1019" s="17"/>
       <c r="E1019" s="7"/>
     </row>
     <row r="1020" spans="1:5">
-      <c r="A1020" s="14"/>
+      <c r="A1020" s="15"/>
       <c r="B1020" s="7"/>
-      <c r="C1020" s="14"/>
-      <c r="D1020" s="16"/>
+      <c r="C1020" s="15"/>
+      <c r="D1020" s="17"/>
       <c r="E1020" s="7"/>
     </row>
     <row r="1021" spans="1:5">
-      <c r="A1021" s="14"/>
+      <c r="A1021" s="15"/>
       <c r="B1021" s="7"/>
-      <c r="C1021" s="14"/>
-      <c r="D1021" s="16"/>
+      <c r="C1021" s="15"/>
+      <c r="D1021" s="17"/>
       <c r="E1021" s="7"/>
     </row>
     <row r="1022" spans="1:5">
-      <c r="A1022" s="14"/>
-      <c r="B1022" s="14"/>
-      <c r="C1022" s="14"/>
-      <c r="D1022" s="16"/>
+      <c r="A1022" s="15"/>
+      <c r="B1022" s="15"/>
+      <c r="C1022" s="15"/>
+      <c r="D1022" s="17"/>
       <c r="E1022" s="7"/>
     </row>
     <row r="1023" spans="1:5">
-      <c r="A1023" s="14"/>
+      <c r="A1023" s="15"/>
       <c r="B1023" s="7"/>
-      <c r="C1023" s="14"/>
-      <c r="D1023" s="16"/>
+      <c r="C1023" s="15"/>
+      <c r="D1023" s="17"/>
       <c r="E1023" s="7"/>
     </row>
     <row r="1024" spans="1:5">
-      <c r="A1024" s="14"/>
+      <c r="A1024" s="15"/>
       <c r="B1024" s="7"/>
-      <c r="C1024" s="14"/>
-      <c r="D1024" s="16"/>
+      <c r="C1024" s="15"/>
+      <c r="D1024" s="17"/>
       <c r="E1024" s="7"/>
     </row>
     <row r="1025" spans="1:5">
-      <c r="A1025" s="14"/>
-      <c r="B1025" s="14"/>
-      <c r="C1025" s="14"/>
-      <c r="D1025" s="15"/>
+      <c r="A1025" s="15"/>
+      <c r="B1025" s="15"/>
+      <c r="C1025" s="15"/>
+      <c r="D1025" s="16"/>
       <c r="E1025" s="7"/>
     </row>
     <row r="1026" spans="1:5">
-      <c r="A1026" s="14"/>
-      <c r="B1026" s="14"/>
-      <c r="C1026" s="14"/>
-      <c r="D1026" s="16"/>
+      <c r="A1026" s="15"/>
+      <c r="B1026" s="15"/>
+      <c r="C1026" s="15"/>
+      <c r="D1026" s="17"/>
       <c r="E1026" s="7"/>
     </row>
     <row r="1027" spans="1:5">
-      <c r="A1027" s="14"/>
-      <c r="B1027" s="14"/>
-      <c r="C1027" s="14"/>
-      <c r="D1027" s="16"/>
+      <c r="A1027" s="15"/>
+      <c r="B1027" s="15"/>
+      <c r="C1027" s="15"/>
+      <c r="D1027" s="17"/>
       <c r="E1027" s="7"/>
     </row>
     <row r="1028" spans="1:5">
-      <c r="A1028" s="14"/>
+      <c r="A1028" s="15"/>
       <c r="B1028" s="7"/>
-      <c r="C1028" s="14"/>
-      <c r="D1028" s="16"/>
+      <c r="C1028" s="15"/>
+      <c r="D1028" s="17"/>
       <c r="E1028" s="7"/>
     </row>
     <row r="1029" spans="1:5">
-      <c r="A1029" s="35"/>
-      <c r="B1029" s="36"/>
-      <c r="C1029" s="14"/>
-      <c r="D1029" s="16"/>
+      <c r="A1029" s="36"/>
+      <c r="B1029" s="37"/>
+      <c r="C1029" s="15"/>
+      <c r="D1029" s="17"/>
       <c r="E1029" s="7"/>
     </row>
     <row r="1030" spans="1:5">
-      <c r="A1030" s="37"/>
-      <c r="B1030" s="14"/>
-      <c r="C1030" s="14"/>
-      <c r="D1030" s="15"/>
+      <c r="A1030" s="38"/>
+      <c r="B1030" s="15"/>
+      <c r="C1030" s="15"/>
+      <c r="D1030" s="16"/>
       <c r="E1030" s="7"/>
     </row>
     <row r="1031" spans="1:5">
-      <c r="A1031" s="14"/>
+      <c r="A1031" s="15"/>
       <c r="B1031" s="7"/>
-      <c r="C1031" s="14"/>
-      <c r="D1031" s="16"/>
+      <c r="C1031" s="15"/>
+      <c r="D1031" s="17"/>
       <c r="E1031" s="7"/>
     </row>
     <row r="1032" spans="1:5">
-      <c r="A1032" s="14"/>
+      <c r="A1032" s="15"/>
       <c r="B1032" s="7"/>
-      <c r="C1032" s="14"/>
-      <c r="D1032" s="16"/>
+      <c r="C1032" s="15"/>
+      <c r="D1032" s="17"/>
       <c r="E1032" s="7"/>
     </row>
     <row r="1033" spans="1:5">
-      <c r="A1033" s="14"/>
+      <c r="A1033" s="15"/>
       <c r="B1033" s="7"/>
-      <c r="C1033" s="14"/>
-      <c r="D1033" s="16"/>
+      <c r="C1033" s="15"/>
+      <c r="D1033" s="17"/>
       <c r="E1033" s="7"/>
     </row>
     <row r="1034" spans="1:5">
-      <c r="A1034" s="14"/>
-      <c r="B1034" s="14"/>
-      <c r="C1034" s="14"/>
-      <c r="D1034" s="16"/>
+      <c r="A1034" s="15"/>
+      <c r="B1034" s="15"/>
+      <c r="C1034" s="15"/>
+      <c r="D1034" s="17"/>
       <c r="E1034" s="7"/>
     </row>
     <row r="1035" spans="1:5">
-      <c r="A1035" s="14"/>
+      <c r="A1035" s="15"/>
       <c r="B1035" s="7"/>
-      <c r="C1035" s="14"/>
-      <c r="D1035" s="16"/>
+      <c r="C1035" s="15"/>
+      <c r="D1035" s="17"/>
       <c r="E1035" s="7"/>
     </row>
     <row r="1036" spans="1:5">
-      <c r="A1036" s="14"/>
-      <c r="B1036" s="14"/>
-      <c r="C1036" s="14"/>
-      <c r="D1036" s="15"/>
+      <c r="A1036" s="15"/>
+      <c r="B1036" s="15"/>
+      <c r="C1036" s="15"/>
+      <c r="D1036" s="16"/>
       <c r="E1036" s="7"/>
     </row>
     <row r="1037" spans="1:5">
-      <c r="A1037" s="14"/>
+      <c r="A1037" s="15"/>
       <c r="B1037" s="7"/>
-      <c r="C1037" s="14"/>
-      <c r="D1037" s="16"/>
+      <c r="C1037" s="15"/>
+      <c r="D1037" s="17"/>
       <c r="E1037" s="7"/>
     </row>
     <row r="1038" spans="1:5">
-      <c r="A1038" s="14"/>
-      <c r="B1038" s="14"/>
-      <c r="C1038" s="14"/>
-      <c r="D1038" s="16"/>
+      <c r="A1038" s="15"/>
+      <c r="B1038" s="15"/>
+      <c r="C1038" s="15"/>
+      <c r="D1038" s="17"/>
       <c r="E1038" s="7"/>
     </row>
     <row r="1039" spans="1:5">
-      <c r="A1039" s="14"/>
-      <c r="B1039" s="14"/>
-      <c r="C1039" s="14"/>
-      <c r="D1039" s="15"/>
+      <c r="A1039" s="15"/>
+      <c r="B1039" s="15"/>
+      <c r="C1039" s="15"/>
+      <c r="D1039" s="16"/>
       <c r="E1039" s="7"/>
     </row>
     <row r="1040" spans="1:5">
-      <c r="A1040" s="14"/>
-      <c r="B1040" s="14"/>
-      <c r="C1040" s="14"/>
-      <c r="D1040" s="15"/>
+      <c r="A1040" s="15"/>
+      <c r="B1040" s="15"/>
+      <c r="C1040" s="15"/>
+      <c r="D1040" s="16"/>
       <c r="E1040" s="7"/>
     </row>
     <row r="1041" spans="1:5">
-      <c r="A1041" s="14"/>
-      <c r="B1041" s="14"/>
-      <c r="C1041" s="14"/>
-      <c r="D1041" s="15"/>
+      <c r="A1041" s="15"/>
+      <c r="B1041" s="15"/>
+      <c r="C1041" s="15"/>
+      <c r="D1041" s="16"/>
       <c r="E1041" s="7"/>
     </row>
     <row r="1042" spans="1:5">
-      <c r="A1042" s="14"/>
-      <c r="B1042" s="14"/>
-      <c r="C1042" s="14"/>
-      <c r="D1042" s="15"/>
+      <c r="A1042" s="15"/>
+      <c r="B1042" s="15"/>
+      <c r="C1042" s="15"/>
+      <c r="D1042" s="16"/>
       <c r="E1042" s="7"/>
     </row>
     <row r="1043" spans="1:5">
       <c r="A1043" s="7"/>
-      <c r="B1043" s="14"/>
-      <c r="C1043" s="14"/>
-      <c r="D1043" s="16"/>
+      <c r="B1043" s="15"/>
+      <c r="C1043" s="15"/>
+      <c r="D1043" s="17"/>
       <c r="E1043" s="7"/>
     </row>
     <row r="1044" spans="1:5">
-      <c r="A1044" s="14"/>
-      <c r="B1044" s="14"/>
-      <c r="C1044" s="14"/>
-      <c r="D1044" s="16"/>
+      <c r="A1044" s="15"/>
+      <c r="B1044" s="15"/>
+      <c r="C1044" s="15"/>
+      <c r="D1044" s="17"/>
       <c r="E1044" s="7"/>
     </row>
     <row r="1045" spans="1:5">
-      <c r="A1045" s="14"/>
-      <c r="B1045" s="14"/>
-      <c r="C1045" s="14"/>
-      <c r="D1045" s="16"/>
+      <c r="A1045" s="15"/>
+      <c r="B1045" s="15"/>
+      <c r="C1045" s="15"/>
+      <c r="D1045" s="17"/>
       <c r="E1045" s="7"/>
     </row>
     <row r="1046" spans="1:5">
-      <c r="A1046" s="14"/>
-      <c r="B1046" s="14"/>
-      <c r="C1046" s="14"/>
-      <c r="D1046" s="16"/>
+      <c r="A1046" s="15"/>
+      <c r="B1046" s="15"/>
+      <c r="C1046" s="15"/>
+      <c r="D1046" s="17"/>
       <c r="E1046" s="7"/>
     </row>
     <row r="1047" spans="1:5">
-      <c r="A1047" s="14"/>
-      <c r="B1047" s="14"/>
-      <c r="C1047" s="14"/>
-      <c r="D1047" s="16"/>
+      <c r="A1047" s="15"/>
+      <c r="B1047" s="15"/>
+      <c r="C1047" s="15"/>
+      <c r="D1047" s="17"/>
       <c r="E1047" s="7"/>
     </row>
     <row r="1048" spans="1:5">
-      <c r="A1048" s="14"/>
-      <c r="B1048" s="14"/>
-      <c r="C1048" s="14"/>
-      <c r="D1048" s="16"/>
+      <c r="A1048" s="15"/>
+      <c r="B1048" s="15"/>
+      <c r="C1048" s="15"/>
+      <c r="D1048" s="17"/>
       <c r="E1048" s="7"/>
     </row>
     <row r="1049" spans="1:5">
-      <c r="A1049" s="14"/>
-      <c r="B1049" s="14"/>
-      <c r="C1049" s="14"/>
-      <c r="D1049" s="15"/>
+      <c r="A1049" s="15"/>
+      <c r="B1049" s="15"/>
+      <c r="C1049" s="15"/>
+      <c r="D1049" s="16"/>
       <c r="E1049" s="7"/>
     </row>
     <row r="1050" spans="1:5">
-      <c r="A1050" s="14"/>
-      <c r="B1050" s="14"/>
-      <c r="C1050" s="14"/>
-      <c r="D1050" s="15"/>
+      <c r="A1050" s="15"/>
+      <c r="B1050" s="15"/>
+      <c r="C1050" s="15"/>
+      <c r="D1050" s="16"/>
       <c r="E1050" s="7"/>
     </row>
     <row r="1051" spans="1:5">
-      <c r="A1051" s="14"/>
-      <c r="B1051" s="14"/>
-      <c r="C1051" s="14"/>
-      <c r="D1051" s="16"/>
+      <c r="A1051" s="15"/>
+      <c r="B1051" s="15"/>
+      <c r="C1051" s="15"/>
+      <c r="D1051" s="17"/>
       <c r="E1051" s="7"/>
     </row>
     <row r="1052" spans="1:5">
-      <c r="A1052" s="14"/>
-      <c r="B1052" s="14"/>
-      <c r="C1052" s="14"/>
-      <c r="D1052" s="15"/>
+      <c r="A1052" s="15"/>
+      <c r="B1052" s="15"/>
+      <c r="C1052" s="15"/>
+      <c r="D1052" s="16"/>
       <c r="E1052" s="7"/>
     </row>
     <row r="1053" spans="1:5">
-      <c r="A1053" s="14"/>
-      <c r="B1053" s="14"/>
-      <c r="C1053" s="14"/>
-      <c r="D1053" s="15"/>
+      <c r="A1053" s="15"/>
+      <c r="B1053" s="15"/>
+      <c r="C1053" s="15"/>
+      <c r="D1053" s="16"/>
       <c r="E1053" s="7"/>
     </row>
     <row r="1054" spans="1:5">
-      <c r="A1054" s="14"/>
-      <c r="B1054" s="14"/>
-      <c r="C1054" s="14"/>
-      <c r="D1054" s="15"/>
+      <c r="A1054" s="15"/>
+      <c r="B1054" s="15"/>
+      <c r="C1054" s="15"/>
+      <c r="D1054" s="16"/>
       <c r="E1054" s="7"/>
     </row>
     <row r="1055" spans="1:5">
-      <c r="A1055" s="14"/>
-      <c r="B1055" s="14"/>
-      <c r="C1055" s="14"/>
-      <c r="D1055" s="16"/>
+      <c r="A1055" s="15"/>
+      <c r="B1055" s="15"/>
+      <c r="C1055" s="15"/>
+      <c r="D1055" s="17"/>
       <c r="E1055" s="7"/>
     </row>
     <row r="1056" spans="1:5">
-      <c r="A1056" s="14"/>
+      <c r="A1056" s="15"/>
       <c r="B1056" s="7"/>
-      <c r="C1056" s="14"/>
-      <c r="D1056" s="15"/>
+      <c r="C1056" s="15"/>
+      <c r="D1056" s="16"/>
       <c r="E1056" s="7"/>
     </row>
     <row r="1057" spans="1:5">
-      <c r="A1057" s="14"/>
-      <c r="B1057" s="14"/>
-      <c r="C1057" s="14"/>
-      <c r="D1057" s="16"/>
+      <c r="A1057" s="15"/>
+      <c r="B1057" s="15"/>
+      <c r="C1057" s="15"/>
+      <c r="D1057" s="17"/>
       <c r="E1057" s="7"/>
     </row>
     <row r="1058" spans="1:5">
       <c r="A1058" s="7"/>
       <c r="B1058" s="7"/>
       <c r="C1058" s="7"/>
-      <c r="D1058" s="16"/>
+      <c r="D1058" s="17"/>
       <c r="E1058" s="7"/>
     </row>
     <row r="1059" spans="1:5">
-      <c r="A1059" s="14"/>
-      <c r="B1059" s="14"/>
-      <c r="C1059" s="14"/>
-      <c r="D1059" s="16"/>
+      <c r="A1059" s="15"/>
+      <c r="B1059" s="15"/>
+      <c r="C1059" s="15"/>
+      <c r="D1059" s="17"/>
       <c r="E1059" s="7"/>
     </row>
     <row r="1060" spans="1:5">
-      <c r="A1060" s="14"/>
-      <c r="B1060" s="14"/>
-      <c r="C1060" s="14"/>
-      <c r="D1060" s="16"/>
+      <c r="A1060" s="15"/>
+      <c r="B1060" s="15"/>
+      <c r="C1060" s="15"/>
+      <c r="D1060" s="17"/>
       <c r="E1060" s="7"/>
     </row>
     <row r="1061" spans="1:5">
-      <c r="A1061" s="14"/>
-      <c r="B1061" s="14"/>
-      <c r="C1061" s="14"/>
-      <c r="D1061" s="16"/>
+      <c r="A1061" s="15"/>
+      <c r="B1061" s="15"/>
+      <c r="C1061" s="15"/>
+      <c r="D1061" s="17"/>
       <c r="E1061" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <autoFilter ref="A1:E223">
-    <sortState ref="A2:E223">
+    <sortState ref="A1:E223">
       <sortCondition ref="C2:C223" customList="国语,英语,日语"/>
       <sortCondition ref="A2:A223"/>
     </sortState>
@@ -11293,6 +11309,9 @@
       <formula1>"国语,日语,英语"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" display="https://music.163.com/dj?id=2531882234&amp;userid=60433980"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="396">
   <si>
     <t>歌名</t>
   </si>
@@ -131,12 +131,18 @@
     <t>刘亦心</t>
   </si>
   <si>
+    <t>BV1e84y1D7nG</t>
+  </si>
+  <si>
     <t>巴赫旧约</t>
   </si>
   <si>
     <t>汪苏泷</t>
   </si>
   <si>
+    <t>2534181552</t>
+  </si>
+  <si>
     <t>白鸽</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
     <t>王菲</t>
   </si>
   <si>
+    <t>2534209509</t>
+  </si>
+  <si>
     <t>宝贝</t>
   </si>
   <si>
@@ -161,12 +170,21 @@
     <t>GNZ48</t>
   </si>
   <si>
+    <t>BV1764y157Ek&amp;p=12</t>
+  </si>
+  <si>
     <t>背对背拥抱</t>
   </si>
   <si>
+    <t>2531501254</t>
+  </si>
+  <si>
     <t>被驯服的象</t>
   </si>
   <si>
+    <t>2534995507</t>
+  </si>
+  <si>
     <t>哔哩吧啦boom</t>
   </si>
   <si>
@@ -357,6 +375,9 @@
   </si>
   <si>
     <t>合理失控</t>
+  </si>
+  <si>
+    <t>BV1HM4y1E71F&amp;p=1</t>
   </si>
   <si>
     <t>黑暗骑士</t>
@@ -773,6 +794,9 @@
   </si>
   <si>
     <t>下课铃声</t>
+  </si>
+  <si>
+    <t>BV1HM4y1E71F&amp;p=13</t>
   </si>
   <si>
     <t>下雨天</t>
@@ -2421,7 +2445,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8018018018018" defaultRowHeight="14.1" outlineLevelCol="5"/>
@@ -2608,27 +2632,32 @@
         <v>8</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
@@ -2636,25 +2665,28 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -2664,10 +2696,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>8</v>
@@ -2675,11 +2707,13 @@
       <c r="D16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>7</v>
@@ -2689,10 +2723,13 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
@@ -2702,13 +2739,16 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
+      <c r="F18" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>8</v>
@@ -2718,10 +2758,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>8</v>
@@ -2731,7 +2771,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>11</v>
@@ -2744,10 +2784,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>8</v>
@@ -2757,10 +2797,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>8</v>
@@ -2770,10 +2810,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -2782,10 +2822,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>8</v>
@@ -2795,10 +2835,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>8</v>
@@ -2808,10 +2848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>8</v>
@@ -2821,10 +2861,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>8</v>
@@ -2834,10 +2874,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>8</v>
@@ -2847,10 +2887,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>8</v>
@@ -2860,10 +2900,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>8</v>
@@ -2873,7 +2913,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>20</v>
@@ -2888,10 +2928,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>8</v>
@@ -2901,7 +2941,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>20</v>
@@ -2916,7 +2956,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>11</v>
@@ -2929,10 +2969,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>8</v>
@@ -2942,10 +2982,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>8</v>
@@ -2955,10 +2995,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>8</v>
@@ -2968,10 +3008,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>8</v>
@@ -2981,10 +3021,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>8</v>
@@ -2994,10 +3034,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>8</v>
@@ -3007,10 +3047,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>8</v>
@@ -3020,10 +3060,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>8</v>
@@ -3033,10 +3073,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>8</v>
@@ -3046,10 +3086,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>8</v>
@@ -3059,10 +3099,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>8</v>
@@ -3072,10 +3112,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>8</v>
@@ -3085,10 +3125,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>8</v>
@@ -3098,10 +3138,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>8</v>
@@ -3111,7 +3151,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>7</v>
@@ -3124,10 +3164,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>8</v>
@@ -3137,10 +3177,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>8</v>
@@ -3150,10 +3190,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>8</v>
@@ -3163,10 +3203,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>8</v>
@@ -3176,10 +3216,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>8</v>
@@ -3187,14 +3227,16 @@
       <c r="D55" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>8</v>
@@ -3204,7 +3246,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>7</v>
@@ -3217,10 +3259,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>8</v>
@@ -3230,7 +3272,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>11</v>
@@ -3243,10 +3285,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>8</v>
@@ -3256,10 +3298,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>8</v>
@@ -3269,10 +3311,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>8</v>
@@ -3282,10 +3324,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>8</v>
@@ -3295,10 +3337,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>8</v>
@@ -3308,7 +3350,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>20</v>
@@ -3320,15 +3362,15 @@
         <v>21</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>8</v>
@@ -3338,7 +3380,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>20</v>
@@ -3350,15 +3392,15 @@
         <v>21</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" ht="14.15" spans="1:5">
       <c r="A68" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>8</v>
@@ -3368,10 +3410,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>8</v>
@@ -3381,10 +3423,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>8</v>
@@ -3393,10 +3435,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>8</v>
@@ -3406,10 +3448,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>8</v>
@@ -3419,22 +3461,22 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>20</v>
@@ -3449,10 +3491,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>8</v>
@@ -3462,7 +3504,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>7</v>
@@ -3475,10 +3517,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>8</v>
@@ -3488,10 +3530,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>8</v>
@@ -3501,10 +3543,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>8</v>
@@ -3514,7 +3556,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>20</v>
@@ -3529,10 +3571,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>8</v>
@@ -3541,10 +3583,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>8</v>
@@ -3554,7 +3596,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>20</v>
@@ -3569,10 +3611,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>8</v>
@@ -3582,10 +3624,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>8</v>
@@ -3595,10 +3637,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>8</v>
@@ -3608,10 +3650,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>8</v>
@@ -3621,10 +3663,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>8</v>
@@ -3634,10 +3676,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>8</v>
@@ -3647,10 +3689,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>8</v>
@@ -3660,7 +3702,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>7</v>
@@ -3670,15 +3712,15 @@
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>8</v>
@@ -3688,10 +3730,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>8</v>
@@ -3703,10 +3745,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>8</v>
@@ -3716,10 +3758,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>8</v>
@@ -3729,10 +3771,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>8</v>
@@ -3742,10 +3784,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>8</v>
@@ -3755,10 +3797,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>8</v>
@@ -3768,10 +3810,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>8</v>
@@ -3781,10 +3823,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>8</v>
@@ -3794,10 +3836,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>8</v>
@@ -3807,10 +3849,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>8</v>
@@ -3820,10 +3862,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>8</v>
@@ -3833,10 +3875,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>8</v>
@@ -3846,10 +3888,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>8</v>
@@ -3859,10 +3901,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>8</v>
@@ -3872,10 +3914,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>8</v>
@@ -3885,10 +3927,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>8</v>
@@ -3898,10 +3940,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>8</v>
@@ -3911,10 +3953,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>8</v>
@@ -3924,10 +3966,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>8</v>
@@ -3937,10 +3979,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>8</v>
@@ -3950,10 +3992,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>8</v>
@@ -3963,10 +4005,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>8</v>
@@ -3976,10 +4018,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>8</v>
@@ -3989,7 +4031,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>20</v>
@@ -4004,7 +4046,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>20</v>
@@ -4019,10 +4061,10 @@
     </row>
     <row r="118" ht="14.15" spans="1:5">
       <c r="A118" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>8</v>
@@ -4032,10 +4074,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>8</v>
@@ -4045,10 +4087,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>8</v>
@@ -4058,10 +4100,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>8</v>
@@ -4071,7 +4113,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>7</v>
@@ -4084,10 +4126,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>8</v>
@@ -4097,10 +4139,10 @@
     </row>
     <row r="124" ht="15" spans="1:5">
       <c r="A124" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>8</v>
@@ -4110,10 +4152,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>8</v>
@@ -4123,10 +4165,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>8</v>
@@ -4136,10 +4178,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>8</v>
@@ -4149,10 +4191,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>8</v>
@@ -4162,10 +4204,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>8</v>
@@ -4174,7 +4216,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>20</v>
@@ -4189,10 +4231,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>8</v>
@@ -4202,10 +4244,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>8</v>
@@ -4215,10 +4257,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>8</v>
@@ -4228,10 +4270,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>8</v>
@@ -4241,10 +4283,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>8</v>
@@ -4254,10 +4296,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>8</v>
@@ -4267,10 +4309,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>8</v>
@@ -4280,10 +4322,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>8</v>
@@ -4293,7 +4335,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>20</v>
@@ -4308,10 +4350,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>8</v>
@@ -4321,10 +4363,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>8</v>
@@ -4334,7 +4376,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>20</v>
@@ -4345,14 +4387,16 @@
       <c r="D142" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="9"/>
+      <c r="E142" s="9" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>8</v>
@@ -4362,25 +4406,25 @@
     </row>
     <row r="144" ht="14.15" spans="1:5">
       <c r="A144" s="13" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>8</v>
@@ -4390,10 +4434,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>8</v>
@@ -4403,10 +4447,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>8</v>
@@ -4416,10 +4460,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>8</v>
@@ -4429,10 +4473,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>8</v>
@@ -4442,25 +4486,25 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="9" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>8</v>
@@ -4470,7 +4514,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>20</v>
@@ -4482,15 +4526,15 @@
         <v>21</v>
       </c>
       <c r="E152" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>8</v>
@@ -4500,10 +4544,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>8</v>
@@ -4513,7 +4557,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>20</v>
@@ -4525,15 +4569,15 @@
         <v>21</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>8</v>
@@ -4543,7 +4587,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>20</v>
@@ -4558,10 +4602,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>8</v>
@@ -4571,10 +4615,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>8</v>
@@ -4584,10 +4628,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>8</v>
@@ -4597,10 +4641,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>8</v>
@@ -4610,10 +4654,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>8</v>
@@ -4623,10 +4667,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>8</v>
@@ -4636,7 +4680,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>16</v>
@@ -4649,10 +4693,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>8</v>
@@ -4662,10 +4706,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>8</v>
@@ -4675,10 +4719,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>8</v>
@@ -4688,10 +4732,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>8</v>
@@ -4701,10 +4745,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>8</v>
@@ -4714,25 +4758,25 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="8"/>
       <c r="E170" s="9" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>8</v>
@@ -4742,10 +4786,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>8</v>
@@ -4755,10 +4799,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>8</v>
@@ -4768,10 +4812,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>8</v>
@@ -4781,10 +4825,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>8</v>
@@ -4794,10 +4838,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>8</v>
@@ -4807,10 +4851,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>8</v>
@@ -4820,10 +4864,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>8</v>
@@ -4833,630 +4877,630 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D179" s="8"/>
       <c r="E179" s="9" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D180" s="8"/>
       <c r="E180" s="9"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D181" s="8"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D182" s="8"/>
       <c r="E182" s="9"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E183" s="9"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="D184" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E184" s="9"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D185" s="8"/>
       <c r="E185" s="9"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D187" s="8"/>
       <c r="E187" s="9"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D188" s="8"/>
       <c r="E188" s="9"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D189" s="8"/>
       <c r="E189" s="9" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D190" s="8"/>
       <c r="E190" s="9"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D191" s="8"/>
       <c r="E191" s="9"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D192" s="8"/>
       <c r="E192" s="9"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D195" s="8"/>
       <c r="E195" s="9"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="9"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E198" s="9"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E200" s="9"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E202" s="9"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D203" s="8"/>
       <c r="E203" s="9"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="9"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E205" s="9"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D206" s="8"/>
       <c r="E206" s="9"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D207" s="8"/>
       <c r="E207" s="9"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E208" s="9"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D209" s="8"/>
       <c r="E209" s="9"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E210" s="9"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E211" s="9"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D212" s="8"/>
       <c r="E212" s="9"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D213" s="8"/>
       <c r="E213" s="9"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="9"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D215" s="8"/>
       <c r="E215" s="9"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D216" s="8"/>
       <c r="E216" s="9"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="9"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E218" s="9"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D219" s="8"/>
       <c r="E219" s="9"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D220" s="8"/>
       <c r="E220" s="9"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D221" s="8"/>
       <c r="E221" s="9"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E222" s="9"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D223" s="8"/>
       <c r="E223" s="9"/>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$406</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$413</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="733">
   <si>
     <t>歌名</t>
   </si>
@@ -403,6 +403,12 @@
     <t>BV1764y157Ek&amp;p=11</t>
   </si>
   <si>
+    <t>初恋你好</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=13</t>
+  </si>
+  <si>
     <t>触电</t>
   </si>
   <si>
@@ -637,6 +643,9 @@
     <t>阿悄</t>
   </si>
   <si>
+    <t>BV1Rs4y1F7Be</t>
+  </si>
+  <si>
     <t>海芋恋</t>
   </si>
   <si>
@@ -1250,6 +1259,12 @@
   </si>
   <si>
     <t>赵薇</t>
+  </si>
+  <si>
+    <t>圈圈点点圈圈点点圈圈点点</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=10</t>
   </si>
   <si>
     <t>晴天</t>
@@ -1485,10 +1500,16 @@
     <t>我喜欢上你时的内心活动</t>
   </si>
   <si>
+    <t>BV1LV411X7Sp</t>
+  </si>
+  <si>
     <t>我要你</t>
   </si>
   <si>
     <t>我只在乎你</t>
+  </si>
+  <si>
+    <t>BV1Ej411U7EH</t>
   </si>
   <si>
     <t>我的歌声里</t>
@@ -1793,6 +1814,12 @@
     <t>月亮代表我的心</t>
   </si>
   <si>
+    <t>月光润色女孩</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=12</t>
+  </si>
+  <si>
     <t>越来越不动</t>
   </si>
   <si>
@@ -1925,12 +1952,24 @@
     <t>竹村桐子</t>
   </si>
   <si>
+    <t>VOiCE</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=3</t>
+  </si>
+  <si>
     <t>Ref.rain</t>
   </si>
   <si>
     <t>Aimer</t>
   </si>
   <si>
+    <t>Rain Stops,Good-Bye</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=7</t>
+  </si>
+  <si>
     <t>secret base</t>
   </si>
   <si>
@@ -1944,6 +1983,12 @@
   </si>
   <si>
     <t>BV1FF411R73s&amp;p=11</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=9</t>
   </si>
   <si>
     <t>单相思／カタオモイ</t>
@@ -2035,7 +2080,16 @@
     <t>BV1ec411g7Yn&amp;p=5</t>
   </si>
   <si>
+    <t>福寿草</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=2</t>
+  </si>
+  <si>
     <t>千本樱</t>
+  </si>
+  <si>
+    <t>BV1ec411g7Yn&amp;p=8</t>
   </si>
   <si>
     <t>秋绪</t>
@@ -3414,12 +3468,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1076"/>
+  <dimension ref="A1:F1083"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M198" sqref="M198"/>
+      <selection pane="bottomLeft" activeCell="L249" sqref="L249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8018018018018" defaultRowHeight="14.1" outlineLevelCol="5"/>
@@ -4240,13 +4294,17 @@
         <v>121</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
@@ -4266,50 +4324,50 @@
         <v>125</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D59" s="9"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="D60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>8</v>
@@ -4319,10 +4377,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
@@ -4361,7 +4419,7 @@
         <v>136</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>8</v>
@@ -4371,10 +4429,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>8</v>
@@ -4387,7 +4445,7 @@
         <v>139</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>8</v>
@@ -4397,10 +4455,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>8</v>
@@ -4413,7 +4471,7 @@
         <v>142</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>8</v>
@@ -4423,10 +4481,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>8</v>
@@ -4439,7 +4497,7 @@
         <v>145</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>8</v>
@@ -4449,30 +4507,30 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D73" s="9"/>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="9"/>
+      <c r="D74" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5">
@@ -4499,22 +4557,22 @@
         <v>8</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="10" t="s">
-        <v>153</v>
-      </c>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
@@ -4553,23 +4611,19 @@
         <v>8</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="10" t="s">
-        <v>162</v>
-      </c>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="C81" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="10" t="s">
         <v>164</v>
       </c>
@@ -4579,20 +4633,24 @@
         <v>165</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>8</v>
@@ -4602,38 +4660,38 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
       <c r="C85" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="10"/>
+      <c r="E85" s="10" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" s="8" t="s">
         <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>8</v>
@@ -4646,7 +4704,7 @@
         <v>174</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>8</v>
@@ -4656,31 +4714,31 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="10" t="s">
-        <v>177</v>
-      </c>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="10"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="8" t="s">
@@ -4739,80 +4797,80 @@
         <v>188</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="10" t="s">
-        <v>189</v>
-      </c>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" s="10"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="9"/>
+      <c r="D96" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E96" s="10"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="10"/>
+      <c r="D98" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>8</v>
@@ -4844,14 +4902,16 @@
         <v>8</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="10"/>
+      <c r="E101" s="10" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>8</v>
@@ -4861,40 +4921,40 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10"/>
+      <c r="D104" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>8</v>
@@ -4904,10 +4964,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>8</v>
@@ -4917,10 +4977,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>8</v>
@@ -4930,10 +4990,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>8</v>
@@ -4943,10 +5003,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>8</v>
@@ -4956,10 +5016,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>8</v>
@@ -4969,38 +5029,38 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="10" t="s">
-        <v>219</v>
-      </c>
+      <c r="E111" s="10"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="9"/>
-      <c r="E112" s="10"/>
+      <c r="E112" s="10" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>8</v>
@@ -5010,10 +5070,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>8</v>
@@ -5022,11 +5082,11 @@
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>224</v>
+      <c r="A115" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>8</v>
@@ -5035,11 +5095,11 @@
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="8" t="s">
-        <v>226</v>
+      <c r="A116" t="s">
+        <v>227</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>8</v>
@@ -5049,10 +5109,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>8</v>
@@ -5062,10 +5122,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>8</v>
@@ -5075,102 +5135,102 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>231</v>
-      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="9"/>
+      <c r="D120" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E120" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D121" s="9"/>
       <c r="E121" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="10"/>
+      <c r="D122" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>239</v>
-      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="10"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="10"/>
-    </row>
-    <row r="125" ht="14.15" spans="1:5">
+      <c r="D124" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>8</v>
@@ -5178,12 +5238,12 @@
       <c r="D125" s="9"/>
       <c r="E125" s="10"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" ht="14.15" spans="1:5">
       <c r="A126" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B126" s="8" t="s">
         <v>244</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>8</v>
@@ -5193,10 +5253,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>8</v>
@@ -5206,10 +5266,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>8</v>
@@ -5219,18 +5279,16 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" t="s">
-        <v>251</v>
-      </c>
+      <c r="E129" s="10"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="8" t="s">
@@ -5243,14 +5301,16 @@
         <v>8</v>
       </c>
       <c r="D130" s="9"/>
-      <c r="E130" s="10"/>
+      <c r="E130" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>8</v>
@@ -5260,10 +5320,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>8</v>
@@ -5273,10 +5333,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>8</v>
@@ -5286,10 +5346,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>8</v>
@@ -5299,10 +5359,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>8</v>
@@ -5312,18 +5372,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="9"/>
-      <c r="E136" s="10" t="s">
-        <v>263</v>
-      </c>
+      <c r="E136" s="10"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="8" t="s">
@@ -5336,22 +5394,22 @@
         <v>8</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="10"/>
+      <c r="E137" s="10" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="9"/>
-      <c r="E138" s="10" t="s">
-        <v>268</v>
-      </c>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
@@ -5373,35 +5431,37 @@
         <v>272</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E140" s="10"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="10" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="9"/>
+      <c r="D141" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>8</v>
@@ -5411,18 +5471,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="9"/>
-      <c r="E143" s="10" t="s">
-        <v>278</v>
-      </c>
+      <c r="E143" s="10"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="8" t="s">
@@ -5435,14 +5493,16 @@
         <v>8</v>
       </c>
       <c r="D144" s="9"/>
-      <c r="E144" s="10"/>
+      <c r="E144" s="10" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>8</v>
@@ -5452,25 +5512,23 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="9"/>
-      <c r="E146" s="10" t="s">
-        <v>284</v>
-      </c>
+      <c r="E146" s="10"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>8</v>
@@ -5515,20 +5573,22 @@
         <v>294</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="9"/>
-      <c r="E150" s="10"/>
+      <c r="E150" s="10" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>8</v>
@@ -5538,10 +5598,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>8</v>
@@ -5551,24 +5611,20 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>299</v>
-      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="10"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>16</v>
@@ -5580,57 +5636,57 @@
         <v>28</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="10"/>
+      <c r="D155" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="9"/>
-      <c r="E156" s="10" t="s">
-        <v>306</v>
-      </c>
+      <c r="E156" s="10"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D157" s="9"/>
       <c r="E157" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>16</v>
@@ -5642,113 +5698,117 @@
         <v>28</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="10"/>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="D159" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="E160" s="10"/>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="9"/>
-      <c r="E161" s="10" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D162" s="9"/>
       <c r="E162" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="9"/>
-      <c r="E163" s="10"/>
+      <c r="D163" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="9"/>
-      <c r="E164" s="10" t="s">
-        <v>321</v>
-      </c>
+      <c r="E164" s="10"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="E165" s="10"/>
+      <c r="E165" s="10" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>8</v>
@@ -5758,10 +5818,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>8</v>
@@ -5771,10 +5831,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>8</v>
@@ -5784,10 +5844,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>8</v>
@@ -5797,10 +5857,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>8</v>
@@ -5810,10 +5870,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>8</v>
@@ -5823,10 +5883,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>8</v>
@@ -5836,81 +5896,81 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B173" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="10"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>336</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="C174" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="9"/>
-      <c r="E174" s="10"/>
+      <c r="E174" s="10" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="8" t="s">
-        <v>338</v>
+      <c r="A175" t="s">
+        <v>339</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="9"/>
-      <c r="E175" s="10" t="s">
-        <v>339</v>
-      </c>
+      <c r="E175" s="10"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D176" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E176" s="10"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="10" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="9"/>
+      <c r="D177" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E177" s="10"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>8</v>
@@ -5920,10 +5980,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>8</v>
@@ -5933,10 +5993,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>8</v>
@@ -5946,10 +6006,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>346</v>
+        <v>95</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>8</v>
@@ -5959,10 +6019,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>8</v>
@@ -5972,40 +6032,40 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E183" s="10" t="s">
-        <v>350</v>
-      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="10"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D184" s="9"/>
-      <c r="E184" s="10"/>
+      <c r="D184" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>8</v>
@@ -6015,10 +6075,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>8</v>
@@ -6028,18 +6088,16 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="9"/>
-      <c r="E187" s="10" t="s">
-        <v>358</v>
-      </c>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="8" t="s">
@@ -6052,14 +6110,16 @@
         <v>8</v>
       </c>
       <c r="D188" s="9"/>
-      <c r="E188" s="10"/>
+      <c r="E188" s="10" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>8</v>
@@ -6069,10 +6129,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>8</v>
@@ -6082,10 +6142,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>8</v>
@@ -6095,10 +6155,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>95</v>
+        <v>368</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>8</v>
@@ -6108,25 +6168,23 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="9"/>
-      <c r="E193" s="10" t="s">
-        <v>368</v>
-      </c>
+      <c r="E193" s="10"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>370</v>
+        <v>72</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>8</v>
@@ -6156,20 +6214,22 @@
         <v>375</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="9"/>
-      <c r="E196" s="10"/>
+      <c r="E196" s="10" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>8</v>
@@ -6179,38 +6239,38 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="9"/>
-      <c r="E198" s="10" t="s">
-        <v>378</v>
-      </c>
+      <c r="E198" s="10"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>380</v>
+        <v>168</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="9"/>
-      <c r="E199" s="10"/>
+      <c r="E199" s="10" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>19</v>
+        <v>383</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>8</v>
@@ -6220,10 +6280,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>8</v>
@@ -6233,55 +6293,55 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B202" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B202" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C202" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="9"/>
-      <c r="E202" s="10" t="s">
-        <v>384</v>
-      </c>
+      <c r="E202" s="10"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B203" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="9"/>
+      <c r="E203" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="9" t="s">
+      <c r="C204" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E203" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>387</v>
-      </c>
-      <c r="B204" s="8" t="s">
+      <c r="E204" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>390</v>
+      </c>
+      <c r="B205" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="9"/>
-      <c r="E204" s="10"/>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>8</v>
@@ -6291,10 +6351,10 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>8</v>
@@ -6304,40 +6364,40 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B207" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="9"/>
+      <c r="E207" s="10"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B208" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="9" t="s">
+      <c r="C208" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E207" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>394</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="9"/>
-      <c r="E208" s="10"/>
+      <c r="E208" s="10" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="8" t="s">
-        <v>395</v>
+      <c r="A209" t="s">
+        <v>397</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>8</v>
@@ -6347,10 +6407,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>8</v>
@@ -6360,10 +6420,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>398</v>
+        <v>101</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>8</v>
@@ -6373,18 +6433,16 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="9"/>
-      <c r="E212" s="10" t="s">
-        <v>401</v>
-      </c>
+      <c r="E212" s="10"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="8" t="s">
@@ -6397,14 +6455,16 @@
         <v>8</v>
       </c>
       <c r="D213" s="9"/>
-      <c r="E213" s="10"/>
+      <c r="E213" s="10" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>8</v>
@@ -6414,25 +6474,25 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>406</v>
+        <v>183</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>326</v>
+        <v>101</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>8</v>
@@ -6442,23 +6502,25 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>148</v>
+        <v>411</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="9"/>
-      <c r="E217" s="10"/>
+      <c r="E217" s="10" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>8</v>
@@ -6466,30 +6528,25 @@
       <c r="D218" s="9"/>
       <c r="E218" s="10"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D219" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D219" s="9"/>
       <c r="E219" s="10"/>
-      <c r="F219" s="3" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>61</v>
+        <v>411</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>8</v>
@@ -6497,25 +6554,30 @@
       <c r="D220" s="9"/>
       <c r="E220" s="10"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:6">
       <c r="A221" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D221" s="9"/>
+      <c r="D221" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E221" s="10"/>
+      <c r="F221" s="3" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>416</v>
+        <v>61</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>8</v>
@@ -6525,10 +6587,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>8</v>
@@ -6538,10 +6600,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>8</v>
@@ -6551,10 +6613,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>8</v>
@@ -6564,81 +6626,79 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D226" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D226" s="9"/>
       <c r="E226" s="10"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D227" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D227" s="9"/>
       <c r="E227" s="10"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>424</v>
+        <v>16</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D228" s="9"/>
+      <c r="D228" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E228" s="10"/>
     </row>
-    <row r="229" ht="14.15" spans="1:5">
+    <row r="229" spans="1:5">
       <c r="A229" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B229" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D229" s="9"/>
+      <c r="D229" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E229" s="10"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>159</v>
+        <v>429</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="9"/>
-      <c r="E230" s="10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="E230" s="10"/>
+    </row>
+    <row r="231" ht="14.15" spans="1:5">
       <c r="A231" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>82</v>
+        <v>430</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>8</v>
@@ -6648,23 +6708,25 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="9"/>
-      <c r="E232" s="10"/>
+      <c r="E232" s="10" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>8</v>
@@ -6674,10 +6736,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>8</v>
@@ -6687,10 +6749,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>8</v>
@@ -6700,10 +6762,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>8</v>
@@ -6716,7 +6778,7 @@
         <v>438</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>8</v>
@@ -6726,10 +6788,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>8</v>
@@ -6739,10 +6801,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>148</v>
+        <v>444</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>8</v>
@@ -6752,10 +6814,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>7</v>
+        <v>446</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>8</v>
@@ -6765,25 +6827,23 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="9"/>
-      <c r="E241" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="242" ht="15" spans="1:5">
+      <c r="E241" s="10"/>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>446</v>
+        <v>448</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>8</v>
@@ -6793,25 +6853,25 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="9"/>
       <c r="E243" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="244" ht="15" spans="1:5">
       <c r="A244" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B244" s="8" t="s">
-        <v>86</v>
+      <c r="B244" s="13" t="s">
+        <v>451</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>8</v>
@@ -6821,23 +6881,25 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="9"/>
-      <c r="E245" s="10"/>
+      <c r="E245" s="10" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>8</v>
@@ -6847,10 +6909,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>453</v>
+        <v>32</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>8</v>
@@ -6860,10 +6922,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>242</v>
+        <v>48</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>8</v>
@@ -6873,10 +6935,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>326</v>
+        <v>458</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>8</v>
@@ -6886,10 +6948,10 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>8</v>
@@ -6899,10 +6961,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>32</v>
+        <v>329</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>8</v>
@@ -6912,10 +6974,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="8" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>8</v>
@@ -6925,10 +6987,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>8</v>
@@ -6936,24 +6998,25 @@
       <c r="D253" s="9"/>
       <c r="E253" s="10"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:5">
       <c r="A254" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>326</v>
+        <v>464</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="9"/>
+      <c r="E254" s="10"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>8</v>
@@ -6961,25 +7024,24 @@
       <c r="D255" s="9"/>
       <c r="E255" s="10"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:4">
       <c r="A256" s="8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="9"/>
-      <c r="E256" s="10"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>8</v>
@@ -6989,25 +7051,23 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D258" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D258" s="9"/>
       <c r="E258" s="10"/>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>303</v>
+        <v>56</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>8</v>
@@ -7017,23 +7077,25 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D260" s="9"/>
+      <c r="D260" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E260" s="10"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>8</v>
@@ -7043,10 +7105,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>470</v>
+        <v>289</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>8</v>
@@ -7056,10 +7118,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>216</v>
+        <v>376</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>8</v>
@@ -7069,10 +7131,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>112</v>
+        <v>475</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>8</v>
@@ -7082,10 +7144,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>8</v>
@@ -7095,10 +7157,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>8</v>
@@ -7108,10 +7170,10 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>8</v>
@@ -7121,25 +7183,23 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="9"/>
-      <c r="E268" s="10" t="s">
-        <v>477</v>
-      </c>
+      <c r="E268" s="10"/>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>32</v>
+        <v>383</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>8</v>
@@ -7149,36 +7209,40 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="9"/>
-      <c r="E270" s="10"/>
+      <c r="E270" s="10" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="9"/>
-      <c r="E271" s="10"/>
+      <c r="E271" s="10" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="8" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>8</v>
@@ -7188,23 +7252,25 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="9"/>
-      <c r="E273" s="10"/>
+      <c r="E273" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="8" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>8</v>
@@ -7214,25 +7280,23 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D275" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="D275" s="9"/>
       <c r="E275" s="10"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>8</v>
@@ -7242,40 +7306,38 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="8" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D277" s="9"/>
+      <c r="D277" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E277" s="10"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>16</v>
+        <v>495</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D278" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E278" s="10" t="s">
-        <v>491</v>
-      </c>
+      <c r="D278" s="9"/>
+      <c r="E278" s="10"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>493</v>
+        <v>32</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>8</v>
@@ -7283,27 +7345,29 @@
       <c r="D279" s="9"/>
       <c r="E279" s="10"/>
     </row>
-    <row r="280" ht="14.15" spans="1:5">
-      <c r="A280" s="14" t="s">
-        <v>494</v>
+    <row r="280" spans="1:5">
+      <c r="A280" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>495</v>
+        <v>16</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D280" s="9"/>
+      <c r="D280" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E280" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>8</v>
@@ -7311,25 +7375,27 @@
       <c r="D281" s="9"/>
       <c r="E281" s="10"/>
     </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="8" t="s">
-        <v>499</v>
+    <row r="282" ht="14.15" spans="1:5">
+      <c r="A282" s="14" t="s">
+        <v>501</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="9"/>
-      <c r="E282" s="10"/>
+      <c r="E282" s="10" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="8" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>8</v>
@@ -7339,10 +7405,10 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="8" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>8</v>
@@ -7352,10 +7418,10 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>8</v>
@@ -7365,10 +7431,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="8" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>32</v>
+        <v>510</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>8</v>
@@ -7378,10 +7444,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="8" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>507</v>
+        <v>392</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>8</v>
@@ -7391,10 +7457,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>509</v>
+        <v>32</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>8</v>
@@ -7404,10 +7470,10 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="8" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>8</v>
@@ -7417,25 +7483,23 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>112</v>
+        <v>516</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="9"/>
-      <c r="E290" s="10" t="s">
-        <v>513</v>
-      </c>
+      <c r="E290" s="10"/>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="8" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>166</v>
+        <v>518</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>8</v>
@@ -7445,23 +7509,25 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="8" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="9"/>
-      <c r="E292" s="10"/>
+      <c r="E292" s="10" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="8" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>8</v>
@@ -7471,10 +7537,10 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="8" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>518</v>
+        <v>95</v>
       </c>
       <c r="C294" s="8" t="s">
         <v>8</v>
@@ -7484,25 +7550,23 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>520</v>
+        <v>61</v>
       </c>
       <c r="C295" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="9"/>
-      <c r="E295" s="10" t="s">
-        <v>521</v>
-      </c>
+      <c r="E295" s="10"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="8" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>72</v>
+        <v>525</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>8</v>
@@ -7512,23 +7576,25 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="9"/>
-      <c r="E297" s="10"/>
+      <c r="E297" s="10" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>526</v>
+        <v>72</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>8</v>
@@ -7538,10 +7604,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>8</v>
@@ -7551,10 +7617,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>8</v>
@@ -7564,27 +7630,23 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="8" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D301" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E301" t="s">
-        <v>530</v>
-      </c>
+      <c r="D301" s="9"/>
+      <c r="E301" s="10"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>61</v>
+        <v>392</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>8</v>
@@ -7594,23 +7656,27 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="8" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>533</v>
+        <v>16</v>
       </c>
       <c r="C303" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D303" s="9"/>
-      <c r="E303" s="10"/>
+      <c r="D303" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="C304" s="8" t="s">
         <v>8</v>
@@ -7620,10 +7686,10 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>101</v>
+        <v>540</v>
       </c>
       <c r="C305" s="8" t="s">
         <v>8</v>
@@ -7633,27 +7699,23 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="8" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D306" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E306" s="10" t="s">
-        <v>537</v>
-      </c>
+      <c r="D306" s="9"/>
+      <c r="E306" s="10"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="8" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>8</v>
@@ -7663,7 +7725,7 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="8" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>16</v>
@@ -7675,15 +7737,15 @@
         <v>28</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="8" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>8</v>
@@ -7693,25 +7755,27 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="8" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D310" s="9"/>
+      <c r="D310" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E310" s="10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>545</v>
+        <v>217</v>
       </c>
       <c r="C311" s="8" t="s">
         <v>8</v>
@@ -7721,23 +7785,25 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="C312" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="9"/>
-      <c r="E312" s="10"/>
+      <c r="E312" s="10" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="8" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>56</v>
+        <v>552</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>8</v>
@@ -7747,25 +7813,23 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="8" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>248</v>
+        <v>101</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="9"/>
-      <c r="E314" s="10" t="s">
-        <v>549</v>
-      </c>
+      <c r="E314" s="10"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>380</v>
+        <v>56</v>
       </c>
       <c r="C315" s="8" t="s">
         <v>8</v>
@@ -7775,23 +7839,25 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>389</v>
+        <v>251</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="9"/>
-      <c r="E316" s="10"/>
+      <c r="E316" s="10" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="8" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>8</v>
@@ -7801,10 +7867,10 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="8" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>8</v>
@@ -7814,10 +7880,10 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="8" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="C319" s="8" t="s">
         <v>8</v>
@@ -7827,10 +7893,10 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="8" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>380</v>
+        <v>21</v>
       </c>
       <c r="C320" s="8" t="s">
         <v>8</v>
@@ -7840,10 +7906,10 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="8" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>557</v>
+        <v>217</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>8</v>
@@ -7853,10 +7919,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B322" s="15" t="s">
-        <v>559</v>
+        <v>562</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="C322" s="8" t="s">
         <v>8</v>
@@ -7866,10 +7932,10 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="8" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>159</v>
+        <v>564</v>
       </c>
       <c r="C323" s="8" t="s">
         <v>8</v>
@@ -7879,10 +7945,10 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>166</v>
+        <v>565</v>
+      </c>
+      <c r="B324" s="15" t="s">
+        <v>566</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>8</v>
@@ -7892,10 +7958,10 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="8" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>8</v>
@@ -7905,10 +7971,10 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="8" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>564</v>
+        <v>168</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>8</v>
@@ -7918,66 +7984,66 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="8" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="9"/>
-      <c r="E327" s="10" t="s">
-        <v>566</v>
-      </c>
+      <c r="E327" s="10"/>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="8" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="9"/>
-      <c r="E328" s="10" t="s">
-        <v>569</v>
-      </c>
+      <c r="E328" s="10"/>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>571</v>
+        <v>32</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="9"/>
-      <c r="E329" s="10"/>
+      <c r="E329" s="10" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>373</v>
+        <v>575</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="9"/>
-      <c r="E330" s="10"/>
+      <c r="E330" s="10" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="8" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>365</v>
+        <v>578</v>
       </c>
       <c r="C331" s="8" t="s">
         <v>8</v>
@@ -7987,10 +8053,10 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="8" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>575</v>
+        <v>376</v>
       </c>
       <c r="C332" s="8" t="s">
         <v>8</v>
@@ -8000,25 +8066,23 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="8" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="9"/>
-      <c r="E333" s="10" t="s">
-        <v>577</v>
-      </c>
+      <c r="E333" s="10"/>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="8" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>173</v>
+        <v>582</v>
       </c>
       <c r="C334" s="8" t="s">
         <v>8</v>
@@ -8028,23 +8092,25 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="8" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="C335" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="9"/>
-      <c r="E335" s="10"/>
+      <c r="E335" s="10" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="8" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="C336" s="8" t="s">
         <v>8</v>
@@ -8054,23 +8120,25 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="8" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C337" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="9"/>
-      <c r="E337" s="10"/>
+      <c r="E337" s="10" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="8" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>583</v>
+        <v>11</v>
       </c>
       <c r="C338" s="8" t="s">
         <v>8</v>
@@ -8080,10 +8148,10 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="8" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C339" s="8" t="s">
         <v>8</v>
@@ -8093,10 +8161,10 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="8" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C340" s="8" t="s">
         <v>8</v>
@@ -8106,27 +8174,23 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="8" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>27</v>
+        <v>592</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D341" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E341" s="10" t="s">
-        <v>587</v>
-      </c>
+      <c r="D341" s="9"/>
+      <c r="E341" s="10"/>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="8" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>303</v>
+        <v>72</v>
       </c>
       <c r="C342" s="8" t="s">
         <v>8</v>
@@ -8136,10 +8200,10 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="8" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="C343" s="8" t="s">
         <v>8</v>
@@ -8149,23 +8213,27 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>592</v>
+        <v>27</v>
       </c>
       <c r="C344" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D344" s="9"/>
-      <c r="E344" s="10"/>
+      <c r="D344" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E344" s="10" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="8" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>594</v>
+        <v>306</v>
       </c>
       <c r="C345" s="8" t="s">
         <v>8</v>
@@ -8175,10 +8243,10 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="8" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C346" s="8" t="s">
         <v>8</v>
@@ -8188,10 +8256,10 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="8" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="C347" s="8" t="s">
         <v>8</v>
@@ -8201,10 +8269,10 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="8" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="C348" s="8" t="s">
         <v>8</v>
@@ -8214,10 +8282,10 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="8" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>305</v>
+        <v>605</v>
       </c>
       <c r="C349" s="8" t="s">
         <v>8</v>
@@ -8227,43 +8295,42 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="8" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="D350" s="9"/>
-      <c r="E350" s="10" t="s">
-        <v>603</v>
-      </c>
+      <c r="E350" s="10"/>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>605</v>
+        <v>552</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>606</v>
+        <v>8</v>
       </c>
       <c r="D351" s="9"/>
       <c r="E351" s="10"/>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:5">
       <c r="A352" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>608</v>
+        <v>308</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>606</v>
+        <v>8</v>
       </c>
       <c r="D352" s="9"/>
+      <c r="E352" s="10"/>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="8" t="s">
@@ -8273,197 +8340,198 @@
         <v>610</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D353" s="9"/>
-      <c r="E353" s="10"/>
+      <c r="E353" s="10" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="8" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D354" s="9" t="s">
-        <v>613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D354" s="9"/>
       <c r="E354" s="10"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:4">
       <c r="A355" s="8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D355" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E355" s="10"/>
+        <v>615</v>
+      </c>
+      <c r="D355" s="9"/>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C356" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="D356" s="9"/>
       <c r="E356" s="10"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="8" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E357" s="10" t="s">
-        <v>618</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="E357" s="10"/>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="8" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="8" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D359" s="9"/>
       <c r="E359" s="10"/>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="8" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D360" s="9"/>
-      <c r="E360" s="10"/>
+        <v>615</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E360" s="10" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="8" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D361" s="9"/>
+        <v>615</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>622</v>
+      </c>
       <c r="E361" s="10"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="8" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D362" s="9"/>
-      <c r="E362" s="10" t="s">
-        <v>629</v>
-      </c>
+      <c r="E362" s="10"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="8" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D363" s="9"/>
+        <v>615</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>622</v>
+      </c>
       <c r="E363" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="8" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D364" s="9"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D365" s="9"/>
+        <v>615</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>622</v>
+      </c>
       <c r="E365" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B366" s="16" t="s">
         <v>638</v>
       </c>
+      <c r="B366" s="8" t="s">
+        <v>639</v>
+      </c>
       <c r="C366" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D366" s="9"/>
-      <c r="E366" s="10" t="s">
-        <v>639</v>
-      </c>
+      <c r="E366" s="10"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="8" t="s">
@@ -8473,622 +8541,680 @@
         <v>641</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D367" s="9"/>
-      <c r="E367" s="10"/>
+      <c r="E367" s="10" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D368" s="9" t="s">
-        <v>613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D368" s="9"/>
       <c r="E368" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D369" s="9" t="s">
-        <v>613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D369" s="9"/>
       <c r="E369" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D370" s="9"/>
       <c r="E370" s="10"/>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D371" s="9"/>
-      <c r="E371" s="10"/>
+      <c r="E371" s="10" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B372" s="8" t="s">
-        <v>612</v>
+        <v>652</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>653</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D372" s="9" t="s">
-        <v>613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D372" s="9"/>
       <c r="E372" s="10" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="8" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D373" s="9"/>
       <c r="E373" s="10"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="8" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E374" s="10"/>
+        <v>622</v>
+      </c>
+      <c r="E374" s="10" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="8" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="8" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>612</v>
+        <v>662</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D376" s="9" t="s">
-        <v>613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D376" s="9"/>
       <c r="E376" s="10"/>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="8" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D377" s="9"/>
       <c r="E377" s="10"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="8" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D378" s="9"/>
+        <v>615</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>622</v>
+      </c>
       <c r="E378" s="10" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="8" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D379" s="9" t="s">
-        <v>613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D379" s="9"/>
       <c r="E379" s="10"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="8" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D380" s="9"/>
+        <v>615</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>622</v>
+      </c>
       <c r="E380" s="10"/>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="8" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B381" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D381" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="C381" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D381" s="9"/>
-      <c r="E381" s="10"/>
+      <c r="E381" s="10" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="8" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E382" s="10"/>
+        <v>622</v>
+      </c>
+      <c r="E382" s="10" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="8" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="E383" s="10"/>
+        <v>622</v>
+      </c>
+      <c r="E383" s="10" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="8" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D384" s="9"/>
       <c r="E384" s="10"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="8" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D385" s="9"/>
-      <c r="E385" s="10"/>
+      <c r="E385" s="10" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="8" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E386" s="10"/>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="8" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D387" s="9"/>
-      <c r="E387" s="10" t="s">
-        <v>677</v>
-      </c>
+      <c r="E387" s="10"/>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="8" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D388" s="9" t="s">
-        <v>613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D388" s="9"/>
       <c r="E388" s="10"/>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="8" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E389" s="10"/>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="8" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>681</v>
+        <v>621</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D390" s="9"/>
-      <c r="E390" s="10" t="s">
-        <v>682</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D390" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E390" s="10"/>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="8" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D391" s="9"/>
-      <c r="E391" s="10" t="s">
-        <v>685</v>
-      </c>
+      <c r="E391" s="10"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="8" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D392" s="9"/>
       <c r="E392" s="10"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="8" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D393" s="9"/>
+        <v>615</v>
+      </c>
+      <c r="D393" s="9" t="s">
+        <v>622</v>
+      </c>
       <c r="E393" s="10"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="B394" s="17" t="s">
-        <v>661</v>
+        <v>694</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>690</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D394" s="9"/>
-      <c r="E394" s="10"/>
+      <c r="E394" s="10" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="8" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>691</v>
+        <v>621</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D395" s="9"/>
+        <v>615</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>622</v>
+      </c>
       <c r="E395" s="10"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="8" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E396" s="10"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="8" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D397" s="9"/>
-      <c r="E397" s="10"/>
+      <c r="E397" s="10" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="8" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D398" s="9"/>
-      <c r="E398" s="10"/>
+      <c r="E398" s="10" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="8" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>647</v>
+        <v>690</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D399" s="9"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="8" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D400" s="9" t="s">
-        <v>613</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D400" s="9"/>
       <c r="E400" s="10"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>659</v>
+        <v>707</v>
+      </c>
+      <c r="B401" s="17" t="s">
+        <v>679</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D401" s="9"/>
-      <c r="E401" s="10" t="s">
-        <v>700</v>
-      </c>
+      <c r="E401" s="10"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="8" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>624</v>
+        <v>709</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D402" s="9"/>
-      <c r="E402" s="10" t="s">
-        <v>702</v>
-      </c>
+      <c r="E402" s="10"/>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="8" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>704</v>
+        <v>621</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="D403" s="9"/>
-      <c r="E403" s="10" t="s">
-        <v>705</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E403" s="10"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="8" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D404" s="9"/>
-      <c r="E404" s="10" t="s">
-        <v>708</v>
-      </c>
+      <c r="E404" s="10"/>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="8" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D405" s="9"/>
-      <c r="E405" s="10" t="s">
-        <v>711</v>
-      </c>
+      <c r="E405" s="10"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="8" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>713</v>
+        <v>662</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D406" s="9"/>
-      <c r="E406" s="10" t="s">
-        <v>714</v>
-      </c>
+      <c r="E406" s="10"/>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="8"/>
-      <c r="B407" s="8"/>
-      <c r="C407" s="8"/>
-      <c r="D407" s="9"/>
+      <c r="A407" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D407" s="9" t="s">
+        <v>622</v>
+      </c>
       <c r="E407" s="10"/>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="8"/>
-      <c r="B408" s="8"/>
-      <c r="C408" s="8"/>
+      <c r="A408" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="D408" s="9"/>
-      <c r="E408" s="10"/>
+      <c r="E408" s="10" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="8"/>
-      <c r="B409" s="8"/>
-      <c r="C409" s="8"/>
+      <c r="A409" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="D409" s="9"/>
-      <c r="E409" s="10"/>
+      <c r="E409" s="10" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="8"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="8"/>
+      <c r="A410" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="D410" s="9"/>
-      <c r="E410" s="10"/>
+      <c r="E410" s="10" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="8"/>
-      <c r="B411" s="8"/>
-      <c r="C411" s="8"/>
+      <c r="A411" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="D411" s="9"/>
-      <c r="E411" s="10"/>
+      <c r="E411" s="10" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="8"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="8"/>
+      <c r="A412" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="D412" s="9"/>
-      <c r="E412" s="10"/>
+      <c r="E412" s="10" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="8"/>
-      <c r="B413" s="8"/>
-      <c r="C413" s="8"/>
+      <c r="A413" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="D413" s="9"/>
-      <c r="E413" s="10"/>
+      <c r="E413" s="10" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="8"/>
@@ -10469,11 +10595,12 @@
       <c r="D610" s="9"/>
       <c r="E610" s="10"/>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:5">
       <c r="A611" s="8"/>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
       <c r="D611" s="9"/>
+      <c r="E611" s="10"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="8"/>
@@ -10517,12 +10644,11 @@
       <c r="D617" s="9"/>
       <c r="E617" s="10"/>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:4">
       <c r="A618" s="8"/>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
       <c r="D618" s="9"/>
-      <c r="E618" s="10"/>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="8"/>
@@ -10546,84 +10672,84 @@
       <c r="E621" s="10"/>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="18"/>
-      <c r="B622" s="18"/>
-      <c r="C622" s="18"/>
-      <c r="D622" s="19"/>
+      <c r="A622" s="8"/>
+      <c r="B622" s="8"/>
+      <c r="C622" s="8"/>
+      <c r="D622" s="9"/>
       <c r="E622" s="10"/>
     </row>
     <row r="623" spans="1:5">
-      <c r="A623" s="18"/>
-      <c r="B623" s="10"/>
-      <c r="C623" s="18"/>
-      <c r="D623" s="20"/>
+      <c r="A623" s="8"/>
+      <c r="B623" s="8"/>
+      <c r="C623" s="8"/>
+      <c r="D623" s="9"/>
       <c r="E623" s="10"/>
     </row>
     <row r="624" spans="1:5">
-      <c r="A624" s="18"/>
-      <c r="B624" s="18"/>
-      <c r="C624" s="18"/>
-      <c r="D624" s="20"/>
+      <c r="A624" s="8"/>
+      <c r="B624" s="8"/>
+      <c r="C624" s="8"/>
+      <c r="D624" s="9"/>
       <c r="E624" s="10"/>
     </row>
     <row r="625" spans="1:5">
-      <c r="A625" s="10"/>
-      <c r="B625" s="10"/>
-      <c r="C625" s="18"/>
-      <c r="D625" s="20"/>
+      <c r="A625" s="8"/>
+      <c r="B625" s="8"/>
+      <c r="C625" s="8"/>
+      <c r="D625" s="9"/>
       <c r="E625" s="10"/>
     </row>
     <row r="626" spans="1:5">
-      <c r="A626" s="18"/>
-      <c r="B626" s="18"/>
-      <c r="C626" s="18"/>
-      <c r="D626" s="20"/>
+      <c r="A626" s="8"/>
+      <c r="B626" s="8"/>
+      <c r="C626" s="8"/>
+      <c r="D626" s="9"/>
       <c r="E626" s="10"/>
     </row>
     <row r="627" spans="1:5">
-      <c r="A627" s="18"/>
-      <c r="B627" s="18"/>
-      <c r="C627" s="18"/>
-      <c r="D627" s="20"/>
+      <c r="A627" s="8"/>
+      <c r="B627" s="8"/>
+      <c r="C627" s="8"/>
+      <c r="D627" s="9"/>
       <c r="E627" s="10"/>
     </row>
     <row r="628" spans="1:5">
-      <c r="A628" s="18"/>
-      <c r="B628" s="18"/>
-      <c r="C628" s="18"/>
-      <c r="D628" s="19"/>
+      <c r="A628" s="8"/>
+      <c r="B628" s="8"/>
+      <c r="C628" s="8"/>
+      <c r="D628" s="9"/>
       <c r="E628" s="10"/>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="18"/>
-      <c r="B629" s="10"/>
+      <c r="B629" s="18"/>
       <c r="C629" s="18"/>
-      <c r="D629" s="20"/>
+      <c r="D629" s="19"/>
       <c r="E629" s="10"/>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="18"/>
-      <c r="B630" s="18"/>
+      <c r="B630" s="10"/>
       <c r="C630" s="18"/>
       <c r="D630" s="20"/>
       <c r="E630" s="10"/>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="18"/>
-      <c r="B631" s="21"/>
+      <c r="B631" s="18"/>
       <c r="C631" s="18"/>
       <c r="D631" s="20"/>
       <c r="E631" s="10"/>
     </row>
     <row r="632" spans="1:5">
-      <c r="A632" s="18"/>
-      <c r="B632" s="18"/>
+      <c r="A632" s="10"/>
+      <c r="B632" s="10"/>
       <c r="C632" s="18"/>
-      <c r="D632" s="19"/>
+      <c r="D632" s="20"/>
       <c r="E632" s="10"/>
     </row>
     <row r="633" spans="1:5">
-      <c r="A633" s="22"/>
+      <c r="A633" s="18"/>
       <c r="B633" s="18"/>
       <c r="C633" s="18"/>
       <c r="D633" s="20"/>
@@ -10647,19 +10773,19 @@
       <c r="A636" s="18"/>
       <c r="B636" s="10"/>
       <c r="C636" s="18"/>
-      <c r="D636" s="19"/>
+      <c r="D636" s="20"/>
       <c r="E636" s="10"/>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" s="18"/>
       <c r="B637" s="18"/>
       <c r="C637" s="18"/>
-      <c r="D637" s="19"/>
+      <c r="D637" s="20"/>
       <c r="E637" s="10"/>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="18"/>
-      <c r="B638" s="18"/>
+      <c r="B638" s="21"/>
       <c r="C638" s="18"/>
       <c r="D638" s="20"/>
       <c r="E638" s="10"/>
@@ -10668,14 +10794,14 @@
       <c r="A639" s="18"/>
       <c r="B639" s="18"/>
       <c r="C639" s="18"/>
-      <c r="D639" s="20"/>
+      <c r="D639" s="19"/>
       <c r="E639" s="10"/>
     </row>
     <row r="640" spans="1:5">
-      <c r="A640" s="18"/>
-      <c r="B640" s="10"/>
+      <c r="A640" s="22"/>
+      <c r="B640" s="18"/>
       <c r="C640" s="18"/>
-      <c r="D640" s="19"/>
+      <c r="D640" s="20"/>
       <c r="E640" s="10"/>
     </row>
     <row r="641" spans="1:5">
@@ -10696,12 +10822,12 @@
       <c r="A643" s="18"/>
       <c r="B643" s="10"/>
       <c r="C643" s="18"/>
-      <c r="D643" s="20"/>
+      <c r="D643" s="19"/>
       <c r="E643" s="10"/>
     </row>
     <row r="644" spans="1:5">
       <c r="A644" s="18"/>
-      <c r="B644" s="10"/>
+      <c r="B644" s="18"/>
       <c r="C644" s="18"/>
       <c r="D644" s="19"/>
       <c r="E644" s="10"/>
@@ -10710,26 +10836,26 @@
       <c r="A645" s="18"/>
       <c r="B645" s="18"/>
       <c r="C645" s="18"/>
-      <c r="D645" s="19"/>
+      <c r="D645" s="20"/>
       <c r="E645" s="10"/>
     </row>
     <row r="646" spans="1:5">
       <c r="A646" s="18"/>
       <c r="B646" s="18"/>
       <c r="C646" s="18"/>
-      <c r="D646" s="19"/>
+      <c r="D646" s="20"/>
       <c r="E646" s="10"/>
     </row>
     <row r="647" spans="1:5">
       <c r="A647" s="18"/>
       <c r="B647" s="10"/>
       <c r="C647" s="18"/>
-      <c r="D647" s="20"/>
+      <c r="D647" s="19"/>
       <c r="E647" s="10"/>
     </row>
     <row r="648" spans="1:5">
       <c r="A648" s="18"/>
-      <c r="B648" s="23"/>
+      <c r="B648" s="18"/>
       <c r="C648" s="18"/>
       <c r="D648" s="20"/>
       <c r="E648" s="10"/>
@@ -10738,21 +10864,21 @@
       <c r="A649" s="18"/>
       <c r="B649" s="18"/>
       <c r="C649" s="18"/>
-      <c r="D649" s="20"/>
+      <c r="D649" s="19"/>
       <c r="E649" s="10"/>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="18"/>
       <c r="B650" s="10"/>
       <c r="C650" s="18"/>
-      <c r="D650" s="19"/>
+      <c r="D650" s="20"/>
       <c r="E650" s="10"/>
     </row>
     <row r="651" spans="1:5">
       <c r="A651" s="18"/>
-      <c r="B651" s="18"/>
+      <c r="B651" s="10"/>
       <c r="C651" s="18"/>
-      <c r="D651" s="20"/>
+      <c r="D651" s="19"/>
       <c r="E651" s="10"/>
     </row>
     <row r="652" spans="1:5">
@@ -10764,21 +10890,21 @@
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="18"/>
-      <c r="B653" s="10"/>
+      <c r="B653" s="18"/>
       <c r="C653" s="18"/>
       <c r="D653" s="19"/>
       <c r="E653" s="10"/>
     </row>
     <row r="654" spans="1:5">
       <c r="A654" s="18"/>
-      <c r="B654" s="18"/>
+      <c r="B654" s="10"/>
       <c r="C654" s="18"/>
       <c r="D654" s="20"/>
       <c r="E654" s="10"/>
     </row>
     <row r="655" spans="1:5">
       <c r="A655" s="18"/>
-      <c r="B655" s="18"/>
+      <c r="B655" s="23"/>
       <c r="C655" s="18"/>
       <c r="D655" s="20"/>
       <c r="E655" s="10"/>
@@ -10787,61 +10913,61 @@
       <c r="A656" s="18"/>
       <c r="B656" s="18"/>
       <c r="C656" s="18"/>
-      <c r="D656" s="19"/>
+      <c r="D656" s="20"/>
       <c r="E656" s="10"/>
     </row>
     <row r="657" spans="1:5">
       <c r="A657" s="18"/>
       <c r="B657" s="10"/>
       <c r="C657" s="18"/>
-      <c r="D657" s="20"/>
+      <c r="D657" s="19"/>
       <c r="E657" s="10"/>
     </row>
     <row r="658" spans="1:5">
       <c r="A658" s="18"/>
-      <c r="B658" s="10"/>
+      <c r="B658" s="18"/>
       <c r="C658" s="18"/>
-      <c r="D658" s="19"/>
+      <c r="D658" s="20"/>
       <c r="E658" s="10"/>
     </row>
     <row r="659" spans="1:5">
       <c r="A659" s="18"/>
       <c r="B659" s="18"/>
       <c r="C659" s="18"/>
-      <c r="D659" s="20"/>
+      <c r="D659" s="19"/>
       <c r="E659" s="10"/>
     </row>
     <row r="660" spans="1:5">
-      <c r="A660" s="10"/>
-      <c r="B660" s="18"/>
+      <c r="A660" s="18"/>
+      <c r="B660" s="10"/>
       <c r="C660" s="18"/>
-      <c r="D660" s="20"/>
+      <c r="D660" s="19"/>
       <c r="E660" s="10"/>
     </row>
     <row r="661" spans="1:5">
-      <c r="A661" s="10"/>
-      <c r="B661" s="10"/>
+      <c r="A661" s="18"/>
+      <c r="B661" s="18"/>
       <c r="C661" s="18"/>
       <c r="D661" s="20"/>
       <c r="E661" s="10"/>
     </row>
     <row r="662" spans="1:5">
       <c r="A662" s="18"/>
-      <c r="B662" s="10"/>
+      <c r="B662" s="18"/>
       <c r="C662" s="18"/>
       <c r="D662" s="20"/>
       <c r="E662" s="10"/>
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="18"/>
-      <c r="B663" s="10"/>
+      <c r="B663" s="18"/>
       <c r="C663" s="18"/>
-      <c r="D663" s="20"/>
+      <c r="D663" s="19"/>
       <c r="E663" s="10"/>
     </row>
     <row r="664" spans="1:5">
       <c r="A664" s="18"/>
-      <c r="B664" s="18"/>
+      <c r="B664" s="10"/>
       <c r="C664" s="18"/>
       <c r="D664" s="20"/>
       <c r="E664" s="10"/>
@@ -10855,27 +10981,27 @@
     </row>
     <row r="666" spans="1:5">
       <c r="A666" s="18"/>
-      <c r="B666" s="10"/>
+      <c r="B666" s="18"/>
       <c r="C666" s="18"/>
       <c r="D666" s="20"/>
       <c r="E666" s="10"/>
     </row>
     <row r="667" spans="1:5">
-      <c r="A667" s="18"/>
-      <c r="B667" s="10"/>
+      <c r="A667" s="10"/>
+      <c r="B667" s="18"/>
       <c r="C667" s="18"/>
       <c r="D667" s="20"/>
       <c r="E667" s="10"/>
     </row>
     <row r="668" spans="1:5">
-      <c r="A668" s="18"/>
-      <c r="B668" s="18"/>
+      <c r="A668" s="10"/>
+      <c r="B668" s="10"/>
       <c r="C668" s="18"/>
       <c r="D668" s="20"/>
       <c r="E668" s="10"/>
     </row>
     <row r="669" spans="1:5">
-      <c r="A669" s="10"/>
+      <c r="A669" s="18"/>
       <c r="B669" s="10"/>
       <c r="C669" s="18"/>
       <c r="D669" s="20"/>
@@ -10883,7 +11009,7 @@
     </row>
     <row r="670" spans="1:5">
       <c r="A670" s="18"/>
-      <c r="B670" s="18"/>
+      <c r="B670" s="10"/>
       <c r="C670" s="18"/>
       <c r="D670" s="20"/>
       <c r="E670" s="10"/>
@@ -10892,12 +11018,12 @@
       <c r="A671" s="18"/>
       <c r="B671" s="18"/>
       <c r="C671" s="18"/>
-      <c r="D671" s="19"/>
+      <c r="D671" s="20"/>
       <c r="E671" s="10"/>
     </row>
     <row r="672" spans="1:5">
       <c r="A672" s="18"/>
-      <c r="B672" s="18"/>
+      <c r="B672" s="10"/>
       <c r="C672" s="18"/>
       <c r="D672" s="19"/>
       <c r="E672" s="10"/>
@@ -10911,7 +11037,7 @@
     </row>
     <row r="674" spans="1:5">
       <c r="A674" s="18"/>
-      <c r="B674" s="18"/>
+      <c r="B674" s="10"/>
       <c r="C674" s="18"/>
       <c r="D674" s="20"/>
       <c r="E674" s="10"/>
@@ -10920,19 +11046,19 @@
       <c r="A675" s="18"/>
       <c r="B675" s="18"/>
       <c r="C675" s="18"/>
-      <c r="D675" s="19"/>
+      <c r="D675" s="20"/>
       <c r="E675" s="10"/>
     </row>
     <row r="676" spans="1:5">
-      <c r="A676" s="18"/>
-      <c r="B676" s="18"/>
+      <c r="A676" s="10"/>
+      <c r="B676" s="10"/>
       <c r="C676" s="18"/>
-      <c r="D676" s="19"/>
+      <c r="D676" s="20"/>
       <c r="E676" s="10"/>
     </row>
     <row r="677" spans="1:5">
       <c r="A677" s="18"/>
-      <c r="B677" s="10"/>
+      <c r="B677" s="18"/>
       <c r="C677" s="18"/>
       <c r="D677" s="20"/>
       <c r="E677" s="10"/>
@@ -10960,49 +11086,49 @@
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="18"/>
-      <c r="B681" s="10"/>
+      <c r="B681" s="18"/>
       <c r="C681" s="18"/>
-      <c r="D681" s="19"/>
+      <c r="D681" s="20"/>
       <c r="E681" s="10"/>
     </row>
     <row r="682" spans="1:5">
       <c r="A682" s="18"/>
-      <c r="B682" s="10"/>
+      <c r="B682" s="18"/>
       <c r="C682" s="18"/>
       <c r="D682" s="19"/>
       <c r="E682" s="10"/>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="18"/>
-      <c r="B683" s="10"/>
+      <c r="B683" s="18"/>
       <c r="C683" s="18"/>
-      <c r="D683" s="20"/>
+      <c r="D683" s="19"/>
       <c r="E683" s="10"/>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="10"/>
+      <c r="A684" s="18"/>
       <c r="B684" s="10"/>
       <c r="C684" s="18"/>
-      <c r="D684" s="19"/>
+      <c r="D684" s="20"/>
       <c r="E684" s="10"/>
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="18"/>
       <c r="B685" s="18"/>
       <c r="C685" s="18"/>
-      <c r="D685" s="20"/>
+      <c r="D685" s="19"/>
       <c r="E685" s="10"/>
     </row>
     <row r="686" spans="1:5">
       <c r="A686" s="18"/>
       <c r="B686" s="18"/>
       <c r="C686" s="18"/>
-      <c r="D686" s="20"/>
+      <c r="D686" s="19"/>
       <c r="E686" s="10"/>
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="18"/>
-      <c r="B687" s="18"/>
+      <c r="B687" s="10"/>
       <c r="C687" s="18"/>
       <c r="D687" s="20"/>
       <c r="E687" s="10"/>
@@ -11016,9 +11142,9 @@
     </row>
     <row r="689" spans="1:5">
       <c r="A689" s="18"/>
-      <c r="B689" s="18"/>
+      <c r="B689" s="10"/>
       <c r="C689" s="18"/>
-      <c r="D689" s="20"/>
+      <c r="D689" s="19"/>
       <c r="E689" s="10"/>
     </row>
     <row r="690" spans="1:5">
@@ -11029,15 +11155,15 @@
       <c r="E690" s="10"/>
     </row>
     <row r="691" spans="1:5">
-      <c r="A691" s="18"/>
+      <c r="A691" s="10"/>
       <c r="B691" s="10"/>
       <c r="C691" s="18"/>
-      <c r="D691" s="20"/>
+      <c r="D691" s="19"/>
       <c r="E691" s="10"/>
     </row>
     <row r="692" spans="1:5">
       <c r="A692" s="18"/>
-      <c r="B692" s="10"/>
+      <c r="B692" s="18"/>
       <c r="C692" s="18"/>
       <c r="D692" s="20"/>
       <c r="E692" s="10"/>
@@ -11051,14 +11177,14 @@
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="18"/>
-      <c r="B694" s="10"/>
+      <c r="B694" s="18"/>
       <c r="C694" s="18"/>
       <c r="D694" s="20"/>
       <c r="E694" s="10"/>
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="18"/>
-      <c r="B695" s="18"/>
+      <c r="B695" s="10"/>
       <c r="C695" s="18"/>
       <c r="D695" s="19"/>
       <c r="E695" s="10"/>
@@ -11067,7 +11193,7 @@
       <c r="A696" s="18"/>
       <c r="B696" s="18"/>
       <c r="C696" s="18"/>
-      <c r="D696" s="19"/>
+      <c r="D696" s="20"/>
       <c r="E696" s="10"/>
     </row>
     <row r="697" spans="1:5">
@@ -11079,9 +11205,9 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698" s="18"/>
-      <c r="B698" s="18"/>
+      <c r="B698" s="10"/>
       <c r="C698" s="18"/>
-      <c r="D698" s="19"/>
+      <c r="D698" s="20"/>
       <c r="E698" s="10"/>
     </row>
     <row r="699" spans="1:5">
@@ -11100,13 +11226,13 @@
     </row>
     <row r="701" spans="1:5">
       <c r="A701" s="18"/>
-      <c r="B701" s="18"/>
+      <c r="B701" s="10"/>
       <c r="C701" s="18"/>
-      <c r="D701" s="19"/>
+      <c r="D701" s="20"/>
       <c r="E701" s="10"/>
     </row>
     <row r="702" spans="1:5">
-      <c r="A702" s="10"/>
+      <c r="A702" s="18"/>
       <c r="B702" s="18"/>
       <c r="C702" s="18"/>
       <c r="D702" s="19"/>
@@ -11116,21 +11242,21 @@
       <c r="A703" s="18"/>
       <c r="B703" s="18"/>
       <c r="C703" s="18"/>
-      <c r="D703" s="20"/>
+      <c r="D703" s="19"/>
       <c r="E703" s="10"/>
     </row>
     <row r="704" spans="1:5">
       <c r="A704" s="18"/>
-      <c r="B704" s="18"/>
+      <c r="B704" s="10"/>
       <c r="C704" s="18"/>
       <c r="D704" s="20"/>
       <c r="E704" s="10"/>
     </row>
     <row r="705" spans="1:5">
       <c r="A705" s="18"/>
-      <c r="B705" s="10"/>
+      <c r="B705" s="18"/>
       <c r="C705" s="18"/>
-      <c r="D705" s="20"/>
+      <c r="D705" s="19"/>
       <c r="E705" s="10"/>
     </row>
     <row r="706" spans="1:5">
@@ -11142,21 +11268,21 @@
     </row>
     <row r="707" spans="1:5">
       <c r="A707" s="18"/>
-      <c r="B707" s="10"/>
+      <c r="B707" s="18"/>
       <c r="C707" s="18"/>
       <c r="D707" s="20"/>
       <c r="E707" s="10"/>
     </row>
     <row r="708" spans="1:5">
       <c r="A708" s="18"/>
-      <c r="B708" s="10"/>
+      <c r="B708" s="18"/>
       <c r="C708" s="18"/>
       <c r="D708" s="19"/>
       <c r="E708" s="10"/>
     </row>
     <row r="709" spans="1:5">
-      <c r="A709" s="18"/>
-      <c r="B709" s="10"/>
+      <c r="A709" s="10"/>
+      <c r="B709" s="18"/>
       <c r="C709" s="18"/>
       <c r="D709" s="19"/>
       <c r="E709" s="10"/>
@@ -11165,33 +11291,33 @@
       <c r="A710" s="18"/>
       <c r="B710" s="18"/>
       <c r="C710" s="18"/>
-      <c r="D710" s="19"/>
+      <c r="D710" s="20"/>
       <c r="E710" s="10"/>
     </row>
     <row r="711" spans="1:5">
       <c r="A711" s="18"/>
       <c r="B711" s="18"/>
       <c r="C711" s="18"/>
-      <c r="D711" s="19"/>
+      <c r="D711" s="20"/>
       <c r="E711" s="10"/>
     </row>
     <row r="712" spans="1:5">
       <c r="A712" s="18"/>
       <c r="B712" s="10"/>
       <c r="C712" s="18"/>
-      <c r="D712" s="19"/>
+      <c r="D712" s="20"/>
       <c r="E712" s="10"/>
     </row>
     <row r="713" spans="1:5">
-      <c r="A713" s="10"/>
-      <c r="B713" s="24"/>
+      <c r="A713" s="18"/>
+      <c r="B713" s="10"/>
       <c r="C713" s="18"/>
-      <c r="D713" s="19"/>
+      <c r="D713" s="20"/>
       <c r="E713" s="10"/>
     </row>
     <row r="714" spans="1:5">
       <c r="A714" s="18"/>
-      <c r="B714" s="18"/>
+      <c r="B714" s="10"/>
       <c r="C714" s="18"/>
       <c r="D714" s="20"/>
       <c r="E714" s="10"/>
@@ -11200,14 +11326,14 @@
       <c r="A715" s="18"/>
       <c r="B715" s="10"/>
       <c r="C715" s="18"/>
-      <c r="D715" s="20"/>
+      <c r="D715" s="19"/>
       <c r="E715" s="10"/>
     </row>
     <row r="716" spans="1:5">
-      <c r="A716" s="10"/>
+      <c r="A716" s="18"/>
       <c r="B716" s="10"/>
       <c r="C716" s="18"/>
-      <c r="D716" s="20"/>
+      <c r="D716" s="19"/>
       <c r="E716" s="10"/>
     </row>
     <row r="717" spans="1:5">
@@ -11219,23 +11345,23 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="18"/>
-      <c r="B718" s="10"/>
+      <c r="B718" s="18"/>
       <c r="C718" s="18"/>
-      <c r="D718" s="20"/>
+      <c r="D718" s="19"/>
       <c r="E718" s="10"/>
     </row>
     <row r="719" spans="1:5">
       <c r="A719" s="18"/>
       <c r="B719" s="10"/>
       <c r="C719" s="18"/>
-      <c r="D719" s="20"/>
+      <c r="D719" s="19"/>
       <c r="E719" s="10"/>
     </row>
     <row r="720" spans="1:5">
-      <c r="A720" s="18"/>
-      <c r="B720" s="10"/>
+      <c r="A720" s="10"/>
+      <c r="B720" s="24"/>
       <c r="C720" s="18"/>
-      <c r="D720" s="20"/>
+      <c r="D720" s="19"/>
       <c r="E720" s="10"/>
     </row>
     <row r="721" spans="1:5">
@@ -11247,13 +11373,13 @@
     </row>
     <row r="722" spans="1:5">
       <c r="A722" s="18"/>
-      <c r="B722" s="23"/>
+      <c r="B722" s="10"/>
       <c r="C722" s="18"/>
       <c r="D722" s="20"/>
       <c r="E722" s="10"/>
     </row>
     <row r="723" spans="1:5">
-      <c r="A723" s="18"/>
+      <c r="A723" s="10"/>
       <c r="B723" s="10"/>
       <c r="C723" s="18"/>
       <c r="D723" s="20"/>
@@ -11261,9 +11387,9 @@
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="18"/>
-      <c r="B724" s="10"/>
+      <c r="B724" s="18"/>
       <c r="C724" s="18"/>
-      <c r="D724" s="20"/>
+      <c r="D724" s="19"/>
       <c r="E724" s="10"/>
     </row>
     <row r="725" spans="1:5">
@@ -11275,41 +11401,41 @@
     </row>
     <row r="726" spans="1:5">
       <c r="A726" s="18"/>
-      <c r="B726" s="18"/>
+      <c r="B726" s="10"/>
       <c r="C726" s="18"/>
-      <c r="D726" s="19"/>
+      <c r="D726" s="20"/>
       <c r="E726" s="10"/>
     </row>
     <row r="727" spans="1:5">
       <c r="A727" s="18"/>
-      <c r="B727" s="18"/>
+      <c r="B727" s="10"/>
       <c r="C727" s="18"/>
       <c r="D727" s="20"/>
       <c r="E727" s="10"/>
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="18"/>
-      <c r="B728" s="10"/>
+      <c r="B728" s="18"/>
       <c r="C728" s="18"/>
       <c r="D728" s="20"/>
       <c r="E728" s="10"/>
     </row>
     <row r="729" spans="1:5">
       <c r="A729" s="18"/>
-      <c r="B729" s="10"/>
+      <c r="B729" s="23"/>
       <c r="C729" s="18"/>
       <c r="D729" s="20"/>
       <c r="E729" s="10"/>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="18"/>
-      <c r="B730" s="18"/>
+      <c r="B730" s="10"/>
       <c r="C730" s="18"/>
       <c r="D730" s="20"/>
       <c r="E730" s="10"/>
     </row>
     <row r="731" spans="1:5">
-      <c r="A731" s="10"/>
+      <c r="A731" s="18"/>
       <c r="B731" s="10"/>
       <c r="C731" s="18"/>
       <c r="D731" s="20"/>
@@ -11317,9 +11443,9 @@
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="18"/>
-      <c r="B732" s="18"/>
+      <c r="B732" s="10"/>
       <c r="C732" s="18"/>
-      <c r="D732" s="19"/>
+      <c r="D732" s="20"/>
       <c r="E732" s="10"/>
     </row>
     <row r="733" spans="1:5">
@@ -11338,14 +11464,14 @@
     </row>
     <row r="735" spans="1:5">
       <c r="A735" s="18"/>
-      <c r="B735" s="18"/>
+      <c r="B735" s="10"/>
       <c r="C735" s="18"/>
       <c r="D735" s="20"/>
       <c r="E735" s="10"/>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="18"/>
-      <c r="B736" s="18"/>
+      <c r="B736" s="10"/>
       <c r="C736" s="18"/>
       <c r="D736" s="20"/>
       <c r="E736" s="10"/>
@@ -11354,11 +11480,11 @@
       <c r="A737" s="18"/>
       <c r="B737" s="18"/>
       <c r="C737" s="18"/>
-      <c r="D737" s="19"/>
+      <c r="D737" s="20"/>
       <c r="E737" s="10"/>
     </row>
     <row r="738" spans="1:5">
-      <c r="A738" s="18"/>
+      <c r="A738" s="10"/>
       <c r="B738" s="10"/>
       <c r="C738" s="18"/>
       <c r="D738" s="20"/>
@@ -11389,7 +11515,7 @@
       <c r="A742" s="18"/>
       <c r="B742" s="18"/>
       <c r="C742" s="18"/>
-      <c r="D742" s="19"/>
+      <c r="D742" s="20"/>
       <c r="E742" s="10"/>
     </row>
     <row r="743" spans="1:5">
@@ -11403,7 +11529,7 @@
       <c r="A744" s="18"/>
       <c r="B744" s="18"/>
       <c r="C744" s="18"/>
-      <c r="D744" s="20"/>
+      <c r="D744" s="19"/>
       <c r="E744" s="10"/>
     </row>
     <row r="745" spans="1:5">
@@ -11415,21 +11541,21 @@
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="18"/>
-      <c r="B746" s="10"/>
+      <c r="B746" s="18"/>
       <c r="C746" s="18"/>
-      <c r="D746" s="20"/>
+      <c r="D746" s="19"/>
       <c r="E746" s="10"/>
     </row>
     <row r="747" spans="1:5">
       <c r="A747" s="18"/>
-      <c r="B747" s="10"/>
+      <c r="B747" s="18"/>
       <c r="C747" s="18"/>
-      <c r="D747" s="20"/>
+      <c r="D747" s="19"/>
       <c r="E747" s="10"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="18"/>
-      <c r="B748" s="10"/>
+      <c r="B748" s="18"/>
       <c r="C748" s="18"/>
       <c r="D748" s="20"/>
       <c r="E748" s="10"/>
@@ -11438,7 +11564,7 @@
       <c r="A749" s="18"/>
       <c r="B749" s="18"/>
       <c r="C749" s="18"/>
-      <c r="D749" s="20"/>
+      <c r="D749" s="19"/>
       <c r="E749" s="10"/>
     </row>
     <row r="750" spans="1:5">
@@ -11457,27 +11583,27 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="18"/>
-      <c r="B752" s="18"/>
+      <c r="B752" s="10"/>
       <c r="C752" s="18"/>
       <c r="D752" s="20"/>
       <c r="E752" s="10"/>
     </row>
     <row r="753" spans="1:5">
       <c r="A753" s="18"/>
-      <c r="B753" s="18"/>
+      <c r="B753" s="10"/>
       <c r="C753" s="18"/>
-      <c r="D753" s="19"/>
+      <c r="D753" s="20"/>
       <c r="E753" s="10"/>
     </row>
     <row r="754" spans="1:5">
-      <c r="A754" s="10"/>
+      <c r="A754" s="18"/>
       <c r="B754" s="10"/>
-      <c r="C754" s="10"/>
+      <c r="C754" s="18"/>
       <c r="D754" s="20"/>
       <c r="E754" s="10"/>
     </row>
     <row r="755" spans="1:5">
-      <c r="A755" s="10"/>
+      <c r="A755" s="18"/>
       <c r="B755" s="10"/>
       <c r="C755" s="18"/>
       <c r="D755" s="20"/>
@@ -11494,7 +11620,7 @@
       <c r="A757" s="18"/>
       <c r="B757" s="18"/>
       <c r="C757" s="18"/>
-      <c r="D757" s="19"/>
+      <c r="D757" s="20"/>
       <c r="E757" s="10"/>
     </row>
     <row r="758" spans="1:5">
@@ -11513,28 +11639,28 @@
     </row>
     <row r="760" spans="1:5">
       <c r="A760" s="18"/>
-      <c r="B760" s="10"/>
+      <c r="B760" s="18"/>
       <c r="C760" s="18"/>
       <c r="D760" s="19"/>
       <c r="E760" s="10"/>
     </row>
     <row r="761" spans="1:5">
-      <c r="A761" s="18"/>
-      <c r="B761" s="18"/>
-      <c r="C761" s="18"/>
-      <c r="D761" s="19"/>
+      <c r="A761" s="10"/>
+      <c r="B761" s="10"/>
+      <c r="C761" s="10"/>
+      <c r="D761" s="20"/>
       <c r="E761" s="10"/>
     </row>
     <row r="762" spans="1:5">
-      <c r="A762" s="18"/>
-      <c r="B762" s="18"/>
+      <c r="A762" s="10"/>
+      <c r="B762" s="10"/>
       <c r="C762" s="18"/>
-      <c r="D762" s="19"/>
+      <c r="D762" s="20"/>
       <c r="E762" s="10"/>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="18"/>
-      <c r="B763" s="10"/>
+      <c r="B763" s="18"/>
       <c r="C763" s="18"/>
       <c r="D763" s="20"/>
       <c r="E763" s="10"/>
@@ -11548,14 +11674,14 @@
     </row>
     <row r="765" spans="1:5">
       <c r="A765" s="18"/>
-      <c r="B765" s="10"/>
+      <c r="B765" s="18"/>
       <c r="C765" s="18"/>
       <c r="D765" s="20"/>
       <c r="E765" s="10"/>
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="18"/>
-      <c r="B766" s="10"/>
+      <c r="B766" s="18"/>
       <c r="C766" s="18"/>
       <c r="D766" s="20"/>
       <c r="E766" s="10"/>
@@ -11576,16 +11702,16 @@
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="18"/>
-      <c r="B769" s="10"/>
+      <c r="B769" s="18"/>
       <c r="C769" s="18"/>
       <c r="D769" s="19"/>
       <c r="E769" s="10"/>
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="18"/>
-      <c r="B770" s="18"/>
+      <c r="B770" s="10"/>
       <c r="C770" s="18"/>
-      <c r="D770" s="19"/>
+      <c r="D770" s="20"/>
       <c r="E770" s="10"/>
     </row>
     <row r="771" spans="1:5">
@@ -11597,93 +11723,93 @@
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="18"/>
-      <c r="B772" s="18"/>
+      <c r="B772" s="10"/>
       <c r="C772" s="18"/>
-      <c r="D772" s="19"/>
+      <c r="D772" s="20"/>
       <c r="E772" s="10"/>
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="18"/>
-      <c r="B773" s="18"/>
+      <c r="B773" s="10"/>
       <c r="C773" s="18"/>
-      <c r="D773" s="19"/>
+      <c r="D773" s="20"/>
       <c r="E773" s="10"/>
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="18"/>
-      <c r="B774" s="18"/>
+      <c r="B774" s="10"/>
       <c r="C774" s="18"/>
-      <c r="D774" s="20"/>
+      <c r="D774" s="19"/>
       <c r="E774" s="10"/>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="18"/>
       <c r="B775" s="18"/>
       <c r="C775" s="18"/>
-      <c r="D775" s="20"/>
+      <c r="D775" s="19"/>
       <c r="E775" s="10"/>
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="18"/>
-      <c r="B776" s="18"/>
+      <c r="B776" s="10"/>
       <c r="C776" s="18"/>
       <c r="D776" s="19"/>
       <c r="E776" s="10"/>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="18"/>
-      <c r="B777" s="10"/>
+      <c r="B777" s="18"/>
       <c r="C777" s="18"/>
       <c r="D777" s="19"/>
       <c r="E777" s="10"/>
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="18"/>
-      <c r="B778" s="10"/>
+      <c r="B778" s="18"/>
       <c r="C778" s="18"/>
       <c r="D778" s="19"/>
       <c r="E778" s="10"/>
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="18"/>
-      <c r="B779" s="25"/>
+      <c r="B779" s="18"/>
       <c r="C779" s="18"/>
-      <c r="D779" s="20"/>
+      <c r="D779" s="19"/>
       <c r="E779" s="10"/>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="18"/>
-      <c r="B780" s="10"/>
+      <c r="B780" s="18"/>
       <c r="C780" s="18"/>
-      <c r="D780" s="20"/>
+      <c r="D780" s="19"/>
       <c r="E780" s="10"/>
     </row>
     <row r="781" spans="1:5">
-      <c r="A781" s="10"/>
-      <c r="B781" s="10"/>
+      <c r="A781" s="18"/>
+      <c r="B781" s="18"/>
       <c r="C781" s="18"/>
       <c r="D781" s="20"/>
       <c r="E781" s="10"/>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="18"/>
-      <c r="B782" s="10"/>
+      <c r="B782" s="18"/>
       <c r="C782" s="18"/>
-      <c r="D782" s="19"/>
+      <c r="D782" s="20"/>
       <c r="E782" s="10"/>
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="18"/>
       <c r="B783" s="18"/>
       <c r="C783" s="18"/>
-      <c r="D783" s="20"/>
+      <c r="D783" s="19"/>
       <c r="E783" s="10"/>
     </row>
     <row r="784" spans="1:5">
-      <c r="A784" s="10"/>
-      <c r="B784" s="18"/>
+      <c r="A784" s="18"/>
+      <c r="B784" s="10"/>
       <c r="C784" s="18"/>
-      <c r="D784" s="20"/>
+      <c r="D784" s="19"/>
       <c r="E784" s="10"/>
     </row>
     <row r="785" spans="1:5">
@@ -11695,20 +11821,20 @@
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="18"/>
-      <c r="B786" s="18"/>
+      <c r="B786" s="25"/>
       <c r="C786" s="18"/>
       <c r="D786" s="20"/>
       <c r="E786" s="10"/>
     </row>
     <row r="787" spans="1:5">
-      <c r="A787" s="10"/>
-      <c r="B787" s="18"/>
+      <c r="A787" s="18"/>
+      <c r="B787" s="10"/>
       <c r="C787" s="18"/>
       <c r="D787" s="20"/>
       <c r="E787" s="10"/>
     </row>
     <row r="788" spans="1:5">
-      <c r="A788" s="18"/>
+      <c r="A788" s="10"/>
       <c r="B788" s="10"/>
       <c r="C788" s="18"/>
       <c r="D788" s="20"/>
@@ -11716,7 +11842,7 @@
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="18"/>
-      <c r="B789" s="18"/>
+      <c r="B789" s="10"/>
       <c r="C789" s="18"/>
       <c r="D789" s="19"/>
       <c r="E789" s="10"/>
@@ -11725,33 +11851,33 @@
       <c r="A790" s="18"/>
       <c r="B790" s="18"/>
       <c r="C790" s="18"/>
-      <c r="D790" s="19"/>
+      <c r="D790" s="20"/>
       <c r="E790" s="10"/>
     </row>
     <row r="791" spans="1:5">
-      <c r="A791" s="18"/>
-      <c r="B791" s="10"/>
+      <c r="A791" s="10"/>
+      <c r="B791" s="18"/>
       <c r="C791" s="18"/>
       <c r="D791" s="20"/>
       <c r="E791" s="10"/>
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="18"/>
-      <c r="B792" s="18"/>
+      <c r="B792" s="10"/>
       <c r="C792" s="18"/>
       <c r="D792" s="19"/>
       <c r="E792" s="10"/>
     </row>
     <row r="793" spans="1:5">
       <c r="A793" s="18"/>
-      <c r="B793" s="21"/>
+      <c r="B793" s="18"/>
       <c r="C793" s="18"/>
       <c r="D793" s="20"/>
       <c r="E793" s="10"/>
     </row>
     <row r="794" spans="1:5">
-      <c r="A794" s="18"/>
-      <c r="B794" s="10"/>
+      <c r="A794" s="10"/>
+      <c r="B794" s="18"/>
       <c r="C794" s="18"/>
       <c r="D794" s="20"/>
       <c r="E794" s="10"/>
@@ -11765,16 +11891,16 @@
     </row>
     <row r="796" spans="1:5">
       <c r="A796" s="18"/>
-      <c r="B796" s="10"/>
+      <c r="B796" s="18"/>
       <c r="C796" s="18"/>
-      <c r="D796" s="20"/>
+      <c r="D796" s="19"/>
       <c r="E796" s="10"/>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="18"/>
       <c r="B797" s="18"/>
       <c r="C797" s="18"/>
-      <c r="D797" s="20"/>
+      <c r="D797" s="19"/>
       <c r="E797" s="10"/>
     </row>
     <row r="798" spans="1:5">
@@ -11788,28 +11914,28 @@
       <c r="A799" s="18"/>
       <c r="B799" s="18"/>
       <c r="C799" s="18"/>
-      <c r="D799" s="20"/>
+      <c r="D799" s="19"/>
       <c r="E799" s="10"/>
     </row>
     <row r="800" spans="1:5">
       <c r="A800" s="18"/>
-      <c r="B800" s="18"/>
+      <c r="B800" s="21"/>
       <c r="C800" s="18"/>
       <c r="D800" s="20"/>
       <c r="E800" s="10"/>
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="18"/>
-      <c r="B801" s="18"/>
+      <c r="B801" s="10"/>
       <c r="C801" s="18"/>
       <c r="D801" s="20"/>
       <c r="E801" s="10"/>
     </row>
     <row r="802" spans="1:5">
       <c r="A802" s="18"/>
-      <c r="B802" s="18"/>
+      <c r="B802" s="10"/>
       <c r="C802" s="18"/>
-      <c r="D802" s="19"/>
+      <c r="D802" s="20"/>
       <c r="E802" s="10"/>
     </row>
     <row r="803" spans="1:5">
@@ -11823,12 +11949,12 @@
       <c r="A804" s="18"/>
       <c r="B804" s="18"/>
       <c r="C804" s="18"/>
-      <c r="D804" s="19"/>
+      <c r="D804" s="20"/>
       <c r="E804" s="10"/>
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="18"/>
-      <c r="B805" s="18"/>
+      <c r="B805" s="10"/>
       <c r="C805" s="18"/>
       <c r="D805" s="20"/>
       <c r="E805" s="10"/>
@@ -11837,7 +11963,7 @@
       <c r="A806" s="18"/>
       <c r="B806" s="18"/>
       <c r="C806" s="18"/>
-      <c r="D806" s="19"/>
+      <c r="D806" s="20"/>
       <c r="E806" s="10"/>
     </row>
     <row r="807" spans="1:5">
@@ -11849,7 +11975,7 @@
     </row>
     <row r="808" spans="1:5">
       <c r="A808" s="18"/>
-      <c r="B808" s="10"/>
+      <c r="B808" s="18"/>
       <c r="C808" s="18"/>
       <c r="D808" s="20"/>
       <c r="E808" s="10"/>
@@ -11858,7 +11984,7 @@
       <c r="A809" s="18"/>
       <c r="B809" s="18"/>
       <c r="C809" s="18"/>
-      <c r="D809" s="20"/>
+      <c r="D809" s="19"/>
       <c r="E809" s="10"/>
     </row>
     <row r="810" spans="1:5">
@@ -11870,37 +11996,37 @@
     </row>
     <row r="811" spans="1:5">
       <c r="A811" s="18"/>
-      <c r="B811" s="10"/>
+      <c r="B811" s="18"/>
       <c r="C811" s="18"/>
-      <c r="D811" s="20"/>
+      <c r="D811" s="19"/>
       <c r="E811" s="10"/>
     </row>
     <row r="812" spans="1:5">
       <c r="A812" s="18"/>
       <c r="B812" s="18"/>
       <c r="C812" s="18"/>
-      <c r="D812" s="19"/>
+      <c r="D812" s="20"/>
       <c r="E812" s="10"/>
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="18"/>
       <c r="B813" s="18"/>
       <c r="C813" s="18"/>
-      <c r="D813" s="20"/>
+      <c r="D813" s="19"/>
       <c r="E813" s="10"/>
     </row>
     <row r="814" spans="1:5">
       <c r="A814" s="18"/>
-      <c r="B814" s="10"/>
+      <c r="B814" s="18"/>
       <c r="C814" s="18"/>
       <c r="D814" s="20"/>
       <c r="E814" s="10"/>
     </row>
     <row r="815" spans="1:5">
       <c r="A815" s="18"/>
-      <c r="B815" s="18"/>
+      <c r="B815" s="10"/>
       <c r="C815" s="18"/>
-      <c r="D815" s="19"/>
+      <c r="D815" s="20"/>
       <c r="E815" s="10"/>
     </row>
     <row r="816" spans="1:5">
@@ -11912,7 +12038,7 @@
     </row>
     <row r="817" spans="1:5">
       <c r="A817" s="18"/>
-      <c r="B817" s="18"/>
+      <c r="B817" s="10"/>
       <c r="C817" s="18"/>
       <c r="D817" s="20"/>
       <c r="E817" s="10"/>
@@ -11928,7 +12054,7 @@
       <c r="A819" s="18"/>
       <c r="B819" s="18"/>
       <c r="C819" s="18"/>
-      <c r="D819" s="20"/>
+      <c r="D819" s="19"/>
       <c r="E819" s="10"/>
     </row>
     <row r="820" spans="1:5">
@@ -11940,14 +12066,14 @@
     </row>
     <row r="821" spans="1:5">
       <c r="A821" s="18"/>
-      <c r="B821" s="18"/>
+      <c r="B821" s="10"/>
       <c r="C821" s="18"/>
-      <c r="D821" s="19"/>
+      <c r="D821" s="20"/>
       <c r="E821" s="10"/>
     </row>
     <row r="822" spans="1:5">
       <c r="A822" s="18"/>
-      <c r="B822" s="10"/>
+      <c r="B822" s="18"/>
       <c r="C822" s="18"/>
       <c r="D822" s="19"/>
       <c r="E822" s="10"/>
@@ -11956,35 +12082,35 @@
       <c r="A823" s="18"/>
       <c r="B823" s="18"/>
       <c r="C823" s="18"/>
-      <c r="D823" s="19"/>
+      <c r="D823" s="20"/>
       <c r="E823" s="10"/>
     </row>
     <row r="824" spans="1:5">
       <c r="A824" s="18"/>
       <c r="B824" s="18"/>
       <c r="C824" s="18"/>
-      <c r="D824" s="19"/>
+      <c r="D824" s="20"/>
       <c r="E824" s="10"/>
     </row>
     <row r="825" spans="1:5">
       <c r="A825" s="18"/>
-      <c r="B825" s="18"/>
+      <c r="B825" s="10"/>
       <c r="C825" s="18"/>
-      <c r="D825" s="19"/>
+      <c r="D825" s="20"/>
       <c r="E825" s="10"/>
     </row>
     <row r="826" spans="1:5">
       <c r="A826" s="18"/>
       <c r="B826" s="18"/>
       <c r="C826" s="18"/>
-      <c r="D826" s="19"/>
+      <c r="D826" s="20"/>
       <c r="E826" s="10"/>
     </row>
     <row r="827" spans="1:5">
       <c r="A827" s="18"/>
       <c r="B827" s="18"/>
       <c r="C827" s="18"/>
-      <c r="D827" s="19"/>
+      <c r="D827" s="20"/>
       <c r="E827" s="10"/>
     </row>
     <row r="828" spans="1:5">
@@ -11996,7 +12122,7 @@
     </row>
     <row r="829" spans="1:5">
       <c r="A829" s="18"/>
-      <c r="B829" s="18"/>
+      <c r="B829" s="10"/>
       <c r="C829" s="18"/>
       <c r="D829" s="19"/>
       <c r="E829" s="10"/>
@@ -12005,103 +12131,103 @@
       <c r="A830" s="18"/>
       <c r="B830" s="18"/>
       <c r="C830" s="18"/>
-      <c r="D830" s="20"/>
+      <c r="D830" s="19"/>
       <c r="E830" s="10"/>
     </row>
     <row r="831" spans="1:5">
       <c r="A831" s="18"/>
-      <c r="B831" s="10"/>
+      <c r="B831" s="18"/>
       <c r="C831" s="18"/>
-      <c r="D831" s="20"/>
+      <c r="D831" s="19"/>
       <c r="E831" s="10"/>
     </row>
     <row r="832" spans="1:5">
       <c r="A832" s="18"/>
-      <c r="B832" s="10"/>
+      <c r="B832" s="18"/>
       <c r="C832" s="18"/>
-      <c r="D832" s="20"/>
+      <c r="D832" s="19"/>
       <c r="E832" s="10"/>
     </row>
     <row r="833" spans="1:5">
       <c r="A833" s="18"/>
-      <c r="B833" s="10"/>
+      <c r="B833" s="18"/>
       <c r="C833" s="18"/>
       <c r="D833" s="19"/>
       <c r="E833" s="10"/>
     </row>
     <row r="834" spans="1:5">
       <c r="A834" s="18"/>
-      <c r="B834" s="10"/>
+      <c r="B834" s="18"/>
       <c r="C834" s="18"/>
-      <c r="D834" s="20"/>
+      <c r="D834" s="19"/>
       <c r="E834" s="10"/>
     </row>
     <row r="835" spans="1:5">
       <c r="A835" s="18"/>
       <c r="B835" s="18"/>
       <c r="C835" s="18"/>
-      <c r="D835" s="20"/>
+      <c r="D835" s="19"/>
       <c r="E835" s="10"/>
     </row>
     <row r="836" spans="1:5">
       <c r="A836" s="18"/>
-      <c r="B836" s="10"/>
+      <c r="B836" s="18"/>
       <c r="C836" s="18"/>
-      <c r="D836" s="20"/>
+      <c r="D836" s="19"/>
       <c r="E836" s="10"/>
     </row>
     <row r="837" spans="1:5">
       <c r="A837" s="18"/>
       <c r="B837" s="18"/>
       <c r="C837" s="18"/>
-      <c r="D837" s="19"/>
+      <c r="D837" s="20"/>
       <c r="E837" s="10"/>
     </row>
     <row r="838" spans="1:5">
       <c r="A838" s="18"/>
-      <c r="B838" s="18"/>
+      <c r="B838" s="10"/>
       <c r="C838" s="18"/>
       <c r="D838" s="20"/>
       <c r="E838" s="10"/>
     </row>
     <row r="839" spans="1:5">
-      <c r="A839" s="10"/>
-      <c r="B839" s="18"/>
+      <c r="A839" s="18"/>
+      <c r="B839" s="10"/>
       <c r="C839" s="18"/>
       <c r="D839" s="20"/>
       <c r="E839" s="10"/>
     </row>
     <row r="840" spans="1:5">
       <c r="A840" s="18"/>
-      <c r="B840" s="18"/>
+      <c r="B840" s="10"/>
       <c r="C840" s="18"/>
-      <c r="D840" s="20"/>
+      <c r="D840" s="19"/>
       <c r="E840" s="10"/>
     </row>
     <row r="841" spans="1:5">
       <c r="A841" s="18"/>
       <c r="B841" s="10"/>
       <c r="C841" s="18"/>
-      <c r="D841" s="19"/>
+      <c r="D841" s="20"/>
       <c r="E841" s="10"/>
     </row>
     <row r="842" spans="1:5">
       <c r="A842" s="18"/>
-      <c r="B842" s="10"/>
+      <c r="B842" s="18"/>
       <c r="C842" s="18"/>
-      <c r="D842" s="19"/>
+      <c r="D842" s="20"/>
       <c r="E842" s="10"/>
     </row>
     <row r="843" spans="1:5">
       <c r="A843" s="18"/>
-      <c r="B843" s="18"/>
+      <c r="B843" s="10"/>
       <c r="C843" s="18"/>
       <c r="D843" s="20"/>
       <c r="E843" s="10"/>
     </row>
     <row r="844" spans="1:5">
       <c r="A844" s="18"/>
-      <c r="B844" s="10"/>
+      <c r="B844" s="18"/>
       <c r="C844" s="18"/>
       <c r="D844" s="19"/>
       <c r="E844" s="10"/>
@@ -12114,15 +12240,15 @@
       <c r="E845" s="10"/>
     </row>
     <row r="846" spans="1:5">
-      <c r="A846" s="18"/>
-      <c r="B846" s="10"/>
+      <c r="A846" s="10"/>
+      <c r="B846" s="18"/>
       <c r="C846" s="18"/>
       <c r="D846" s="20"/>
       <c r="E846" s="10"/>
     </row>
     <row r="847" spans="1:5">
       <c r="A847" s="18"/>
-      <c r="B847" s="10"/>
+      <c r="B847" s="18"/>
       <c r="C847" s="18"/>
       <c r="D847" s="20"/>
       <c r="E847" s="10"/>
@@ -12143,7 +12269,7 @@
     </row>
     <row r="850" spans="1:5">
       <c r="A850" s="18"/>
-      <c r="B850" s="10"/>
+      <c r="B850" s="18"/>
       <c r="C850" s="18"/>
       <c r="D850" s="20"/>
       <c r="E850" s="10"/>
@@ -12152,19 +12278,19 @@
       <c r="A851" s="18"/>
       <c r="B851" s="10"/>
       <c r="C851" s="18"/>
-      <c r="D851" s="20"/>
+      <c r="D851" s="19"/>
       <c r="E851" s="10"/>
     </row>
     <row r="852" spans="1:5">
       <c r="A852" s="18"/>
       <c r="B852" s="18"/>
       <c r="C852" s="18"/>
-      <c r="D852" s="19"/>
+      <c r="D852" s="20"/>
       <c r="E852" s="10"/>
     </row>
     <row r="853" spans="1:5">
       <c r="A853" s="18"/>
-      <c r="B853" s="18"/>
+      <c r="B853" s="10"/>
       <c r="C853" s="18"/>
       <c r="D853" s="20"/>
       <c r="E853" s="10"/>
@@ -12178,23 +12304,23 @@
     </row>
     <row r="855" spans="1:5">
       <c r="A855" s="18"/>
-      <c r="B855" s="18"/>
+      <c r="B855" s="10"/>
       <c r="C855" s="18"/>
       <c r="D855" s="19"/>
       <c r="E855" s="10"/>
     </row>
     <row r="856" spans="1:5">
       <c r="A856" s="18"/>
-      <c r="B856" s="18"/>
+      <c r="B856" s="10"/>
       <c r="C856" s="18"/>
       <c r="D856" s="19"/>
       <c r="E856" s="10"/>
     </row>
     <row r="857" spans="1:5">
       <c r="A857" s="18"/>
-      <c r="B857" s="18"/>
+      <c r="B857" s="10"/>
       <c r="C857" s="18"/>
-      <c r="D857" s="19"/>
+      <c r="D857" s="20"/>
       <c r="E857" s="10"/>
     </row>
     <row r="858" spans="1:5">
@@ -12206,14 +12332,14 @@
     </row>
     <row r="859" spans="1:5">
       <c r="A859" s="18"/>
-      <c r="B859" s="10"/>
+      <c r="B859" s="18"/>
       <c r="C859" s="18"/>
-      <c r="D859" s="20"/>
+      <c r="D859" s="19"/>
       <c r="E859" s="10"/>
     </row>
     <row r="860" spans="1:5">
       <c r="A860" s="18"/>
-      <c r="B860" s="10"/>
+      <c r="B860" s="18"/>
       <c r="C860" s="18"/>
       <c r="D860" s="20"/>
       <c r="E860" s="10"/>
@@ -12229,26 +12355,26 @@
       <c r="A862" s="18"/>
       <c r="B862" s="18"/>
       <c r="C862" s="18"/>
-      <c r="D862" s="20"/>
+      <c r="D862" s="19"/>
       <c r="E862" s="10"/>
     </row>
     <row r="863" spans="1:5">
       <c r="A863" s="18"/>
-      <c r="B863" s="10"/>
+      <c r="B863" s="18"/>
       <c r="C863" s="18"/>
       <c r="D863" s="19"/>
       <c r="E863" s="10"/>
     </row>
     <row r="864" spans="1:5">
       <c r="A864" s="18"/>
-      <c r="B864" s="10"/>
+      <c r="B864" s="18"/>
       <c r="C864" s="18"/>
-      <c r="D864" s="20"/>
+      <c r="D864" s="19"/>
       <c r="E864" s="10"/>
     </row>
     <row r="865" spans="1:5">
       <c r="A865" s="18"/>
-      <c r="B865" s="26"/>
+      <c r="B865" s="10"/>
       <c r="C865" s="18"/>
       <c r="D865" s="20"/>
       <c r="E865" s="10"/>
@@ -12269,7 +12395,7 @@
     </row>
     <row r="868" spans="1:5">
       <c r="A868" s="18"/>
-      <c r="B868" s="18"/>
+      <c r="B868" s="10"/>
       <c r="C868" s="18"/>
       <c r="D868" s="20"/>
       <c r="E868" s="10"/>
@@ -12278,12 +12404,12 @@
       <c r="A869" s="18"/>
       <c r="B869" s="18"/>
       <c r="C869" s="18"/>
-      <c r="D869" s="19"/>
+      <c r="D869" s="20"/>
       <c r="E869" s="10"/>
     </row>
     <row r="870" spans="1:5">
       <c r="A870" s="18"/>
-      <c r="B870" s="18"/>
+      <c r="B870" s="10"/>
       <c r="C870" s="18"/>
       <c r="D870" s="19"/>
       <c r="E870" s="10"/>
@@ -12297,9 +12423,9 @@
     </row>
     <row r="872" spans="1:5">
       <c r="A872" s="18"/>
-      <c r="B872" s="18"/>
+      <c r="B872" s="26"/>
       <c r="C872" s="18"/>
-      <c r="D872" s="19"/>
+      <c r="D872" s="20"/>
       <c r="E872" s="10"/>
     </row>
     <row r="873" spans="1:5">
@@ -12318,14 +12444,14 @@
     </row>
     <row r="875" spans="1:5">
       <c r="A875" s="18"/>
-      <c r="B875" s="10"/>
+      <c r="B875" s="18"/>
       <c r="C875" s="18"/>
       <c r="D875" s="20"/>
       <c r="E875" s="10"/>
     </row>
     <row r="876" spans="1:5">
       <c r="A876" s="18"/>
-      <c r="B876" s="10"/>
+      <c r="B876" s="18"/>
       <c r="C876" s="18"/>
       <c r="D876" s="19"/>
       <c r="E876" s="10"/>
@@ -12334,12 +12460,12 @@
       <c r="A877" s="18"/>
       <c r="B877" s="18"/>
       <c r="C877" s="18"/>
-      <c r="D877" s="20"/>
+      <c r="D877" s="19"/>
       <c r="E877" s="10"/>
     </row>
     <row r="878" spans="1:5">
       <c r="A878" s="18"/>
-      <c r="B878" s="18"/>
+      <c r="B878" s="10"/>
       <c r="C878" s="18"/>
       <c r="D878" s="20"/>
       <c r="E878" s="10"/>
@@ -12348,19 +12474,19 @@
       <c r="A879" s="18"/>
       <c r="B879" s="18"/>
       <c r="C879" s="18"/>
-      <c r="D879" s="20"/>
+      <c r="D879" s="19"/>
       <c r="E879" s="10"/>
     </row>
     <row r="880" spans="1:5">
       <c r="A880" s="18"/>
-      <c r="B880" s="18"/>
+      <c r="B880" s="10"/>
       <c r="C880" s="18"/>
       <c r="D880" s="20"/>
       <c r="E880" s="10"/>
     </row>
     <row r="881" spans="1:5">
       <c r="A881" s="18"/>
-      <c r="B881" s="18"/>
+      <c r="B881" s="10"/>
       <c r="C881" s="18"/>
       <c r="D881" s="20"/>
       <c r="E881" s="10"/>
@@ -12376,21 +12502,21 @@
       <c r="A883" s="18"/>
       <c r="B883" s="10"/>
       <c r="C883" s="18"/>
-      <c r="D883" s="20"/>
+      <c r="D883" s="19"/>
       <c r="E883" s="10"/>
     </row>
     <row r="884" spans="1:5">
       <c r="A884" s="18"/>
-      <c r="B884" s="25"/>
+      <c r="B884" s="18"/>
       <c r="C884" s="18"/>
       <c r="D884" s="20"/>
       <c r="E884" s="10"/>
     </row>
     <row r="885" spans="1:5">
       <c r="A885" s="18"/>
-      <c r="B885" s="10"/>
+      <c r="B885" s="18"/>
       <c r="C885" s="18"/>
-      <c r="D885" s="19"/>
+      <c r="D885" s="20"/>
       <c r="E885" s="10"/>
     </row>
     <row r="886" spans="1:5">
@@ -12418,26 +12544,26 @@
       <c r="A889" s="18"/>
       <c r="B889" s="10"/>
       <c r="C889" s="18"/>
-      <c r="D889" s="19"/>
+      <c r="D889" s="20"/>
       <c r="E889" s="10"/>
     </row>
     <row r="890" spans="1:5">
       <c r="A890" s="18"/>
-      <c r="B890" s="18"/>
+      <c r="B890" s="10"/>
       <c r="C890" s="18"/>
-      <c r="D890" s="19"/>
+      <c r="D890" s="20"/>
       <c r="E890" s="10"/>
     </row>
     <row r="891" spans="1:5">
       <c r="A891" s="18"/>
-      <c r="B891" s="18"/>
+      <c r="B891" s="25"/>
       <c r="C891" s="18"/>
-      <c r="D891" s="27"/>
+      <c r="D891" s="20"/>
       <c r="E891" s="10"/>
     </row>
     <row r="892" spans="1:5">
       <c r="A892" s="18"/>
-      <c r="B892" s="18"/>
+      <c r="B892" s="10"/>
       <c r="C892" s="18"/>
       <c r="D892" s="19"/>
       <c r="E892" s="10"/>
@@ -12465,7 +12591,7 @@
     </row>
     <row r="896" spans="1:5">
       <c r="A896" s="18"/>
-      <c r="B896" s="18"/>
+      <c r="B896" s="10"/>
       <c r="C896" s="18"/>
       <c r="D896" s="19"/>
       <c r="E896" s="10"/>
@@ -12474,14 +12600,14 @@
       <c r="A897" s="18"/>
       <c r="B897" s="18"/>
       <c r="C897" s="18"/>
-      <c r="D897" s="20"/>
+      <c r="D897" s="19"/>
       <c r="E897" s="10"/>
     </row>
     <row r="898" spans="1:5">
-      <c r="A898" s="10"/>
+      <c r="A898" s="18"/>
       <c r="B898" s="18"/>
       <c r="C898" s="18"/>
-      <c r="D898" s="19"/>
+      <c r="D898" s="27"/>
       <c r="E898" s="10"/>
     </row>
     <row r="899" spans="1:5">
@@ -12492,87 +12618,87 @@
       <c r="E899" s="10"/>
     </row>
     <row r="900" spans="1:5">
-      <c r="A900" s="10"/>
+      <c r="A900" s="18"/>
       <c r="B900" s="18"/>
       <c r="C900" s="18"/>
-      <c r="D900" s="19"/>
+      <c r="D900" s="20"/>
       <c r="E900" s="10"/>
     </row>
     <row r="901" spans="1:5">
       <c r="A901" s="18"/>
-      <c r="B901" s="10"/>
+      <c r="B901" s="18"/>
       <c r="C901" s="18"/>
       <c r="D901" s="20"/>
       <c r="E901" s="10"/>
     </row>
     <row r="902" spans="1:5">
       <c r="A902" s="18"/>
-      <c r="B902" s="28"/>
+      <c r="B902" s="18"/>
       <c r="C902" s="18"/>
-      <c r="D902" s="29"/>
+      <c r="D902" s="20"/>
       <c r="E902" s="10"/>
     </row>
     <row r="903" spans="1:5">
       <c r="A903" s="18"/>
       <c r="B903" s="18"/>
       <c r="C903" s="18"/>
-      <c r="D903" s="20"/>
+      <c r="D903" s="19"/>
       <c r="E903" s="10"/>
     </row>
     <row r="904" spans="1:5">
       <c r="A904" s="18"/>
       <c r="B904" s="18"/>
       <c r="C904" s="18"/>
-      <c r="D904" s="19"/>
+      <c r="D904" s="20"/>
       <c r="E904" s="10"/>
     </row>
     <row r="905" spans="1:5">
-      <c r="A905" s="18"/>
+      <c r="A905" s="10"/>
       <c r="B905" s="18"/>
       <c r="C905" s="18"/>
       <c r="D905" s="19"/>
       <c r="E905" s="10"/>
     </row>
     <row r="906" spans="1:5">
-      <c r="A906" s="10"/>
+      <c r="A906" s="18"/>
       <c r="B906" s="18"/>
       <c r="C906" s="18"/>
-      <c r="D906" s="20"/>
+      <c r="D906" s="19"/>
       <c r="E906" s="10"/>
     </row>
     <row r="907" spans="1:5">
-      <c r="A907" s="18"/>
-      <c r="B907" s="30"/>
+      <c r="A907" s="10"/>
+      <c r="B907" s="18"/>
       <c r="C907" s="18"/>
-      <c r="D907" s="29"/>
+      <c r="D907" s="19"/>
       <c r="E907" s="10"/>
     </row>
     <row r="908" spans="1:5">
       <c r="A908" s="18"/>
-      <c r="B908" s="18"/>
+      <c r="B908" s="10"/>
       <c r="C908" s="18"/>
-      <c r="D908" s="19"/>
+      <c r="D908" s="20"/>
       <c r="E908" s="10"/>
     </row>
     <row r="909" spans="1:5">
       <c r="A909" s="18"/>
-      <c r="B909" s="18"/>
+      <c r="B909" s="28"/>
       <c r="C909" s="18"/>
-      <c r="D909" s="19"/>
+      <c r="D909" s="29"/>
       <c r="E909" s="10"/>
     </row>
     <row r="910" spans="1:5">
-      <c r="A910" s="31"/>
-      <c r="B910" s="31"/>
+      <c r="A910" s="18"/>
+      <c r="B910" s="18"/>
       <c r="C910" s="18"/>
-      <c r="D910" s="32"/>
+      <c r="D910" s="20"/>
       <c r="E910" s="10"/>
     </row>
     <row r="911" spans="1:5">
       <c r="A911" s="18"/>
       <c r="B911" s="18"/>
       <c r="C911" s="18"/>
-      <c r="D911" s="20"/>
+      <c r="D911" s="19"/>
       <c r="E911" s="10"/>
     </row>
     <row r="912" spans="1:5">
@@ -12584,23 +12710,23 @@
     </row>
     <row r="913" spans="1:5">
       <c r="A913" s="10"/>
-      <c r="B913" s="10"/>
+      <c r="B913" s="18"/>
       <c r="C913" s="18"/>
       <c r="D913" s="20"/>
       <c r="E913" s="10"/>
     </row>
     <row r="914" spans="1:5">
-      <c r="A914" s="10"/>
-      <c r="B914" s="18"/>
+      <c r="A914" s="18"/>
+      <c r="B914" s="30"/>
       <c r="C914" s="18"/>
       <c r="D914" s="29"/>
       <c r="E914" s="10"/>
     </row>
     <row r="915" spans="1:5">
-      <c r="A915" s="10"/>
-      <c r="B915" s="10"/>
-      <c r="C915" s="10"/>
-      <c r="D915" s="20"/>
+      <c r="A915" s="18"/>
+      <c r="B915" s="18"/>
+      <c r="C915" s="18"/>
+      <c r="D915" s="19"/>
       <c r="E915" s="10"/>
     </row>
     <row r="916" spans="1:5">
@@ -12611,10 +12737,10 @@
       <c r="E916" s="10"/>
     </row>
     <row r="917" spans="1:5">
-      <c r="A917" s="18"/>
-      <c r="B917" s="18"/>
+      <c r="A917" s="31"/>
+      <c r="B917" s="31"/>
       <c r="C917" s="18"/>
-      <c r="D917" s="20"/>
+      <c r="D917" s="32"/>
       <c r="E917" s="10"/>
     </row>
     <row r="918" spans="1:5">
@@ -12628,35 +12754,35 @@
       <c r="A919" s="18"/>
       <c r="B919" s="18"/>
       <c r="C919" s="18"/>
-      <c r="D919" s="20"/>
+      <c r="D919" s="19"/>
       <c r="E919" s="10"/>
     </row>
     <row r="920" spans="1:5">
-      <c r="A920" s="18"/>
-      <c r="B920" s="18"/>
+      <c r="A920" s="10"/>
+      <c r="B920" s="10"/>
       <c r="C920" s="18"/>
       <c r="D920" s="20"/>
       <c r="E920" s="10"/>
     </row>
     <row r="921" spans="1:5">
       <c r="A921" s="10"/>
-      <c r="B921" s="33"/>
+      <c r="B921" s="18"/>
       <c r="C921" s="18"/>
-      <c r="D921" s="20"/>
+      <c r="D921" s="29"/>
       <c r="E921" s="10"/>
     </row>
     <row r="922" spans="1:5">
-      <c r="A922" s="18"/>
-      <c r="B922" s="25"/>
-      <c r="C922" s="18"/>
-      <c r="D922" s="19"/>
+      <c r="A922" s="10"/>
+      <c r="B922" s="10"/>
+      <c r="C922" s="10"/>
+      <c r="D922" s="20"/>
       <c r="E922" s="10"/>
     </row>
     <row r="923" spans="1:5">
-      <c r="A923" s="10"/>
-      <c r="B923" s="10"/>
-      <c r="C923" s="10"/>
-      <c r="D923" s="20"/>
+      <c r="A923" s="18"/>
+      <c r="B923" s="18"/>
+      <c r="C923" s="18"/>
+      <c r="D923" s="19"/>
       <c r="E923" s="10"/>
     </row>
     <row r="924" spans="1:5">
@@ -12670,14 +12796,14 @@
       <c r="A925" s="18"/>
       <c r="B925" s="18"/>
       <c r="C925" s="18"/>
-      <c r="D925" s="19"/>
+      <c r="D925" s="20"/>
       <c r="E925" s="10"/>
     </row>
     <row r="926" spans="1:5">
       <c r="A926" s="18"/>
-      <c r="B926" s="25"/>
+      <c r="B926" s="18"/>
       <c r="C926" s="18"/>
-      <c r="D926" s="19"/>
+      <c r="D926" s="20"/>
       <c r="E926" s="10"/>
     </row>
     <row r="927" spans="1:5">
@@ -12688,28 +12814,28 @@
       <c r="E927" s="10"/>
     </row>
     <row r="928" spans="1:5">
-      <c r="A928" s="18"/>
-      <c r="B928" s="10"/>
+      <c r="A928" s="10"/>
+      <c r="B928" s="33"/>
       <c r="C928" s="18"/>
-      <c r="D928" s="19"/>
+      <c r="D928" s="20"/>
       <c r="E928" s="10"/>
     </row>
     <row r="929" spans="1:5">
       <c r="A929" s="18"/>
-      <c r="B929" s="10"/>
+      <c r="B929" s="25"/>
       <c r="C929" s="18"/>
       <c r="D929" s="19"/>
       <c r="E929" s="10"/>
     </row>
     <row r="930" spans="1:5">
       <c r="A930" s="10"/>
-      <c r="B930" s="18"/>
-      <c r="C930" s="18"/>
-      <c r="D930" s="29"/>
+      <c r="B930" s="10"/>
+      <c r="C930" s="10"/>
+      <c r="D930" s="20"/>
       <c r="E930" s="10"/>
     </row>
     <row r="931" spans="1:5">
-      <c r="A931" s="10"/>
+      <c r="A931" s="18"/>
       <c r="B931" s="18"/>
       <c r="C931" s="18"/>
       <c r="D931" s="20"/>
@@ -12719,46 +12845,46 @@
       <c r="A932" s="18"/>
       <c r="B932" s="18"/>
       <c r="C932" s="18"/>
-      <c r="D932" s="20"/>
+      <c r="D932" s="19"/>
       <c r="E932" s="10"/>
     </row>
     <row r="933" spans="1:5">
       <c r="A933" s="18"/>
-      <c r="B933" s="18"/>
+      <c r="B933" s="25"/>
       <c r="C933" s="18"/>
-      <c r="D933" s="20"/>
+      <c r="D933" s="19"/>
       <c r="E933" s="10"/>
     </row>
     <row r="934" spans="1:5">
       <c r="A934" s="18"/>
-      <c r="B934" s="10"/>
+      <c r="B934" s="18"/>
       <c r="C934" s="18"/>
       <c r="D934" s="20"/>
       <c r="E934" s="10"/>
     </row>
     <row r="935" spans="1:5">
       <c r="A935" s="18"/>
-      <c r="B935" s="18"/>
+      <c r="B935" s="10"/>
       <c r="C935" s="18"/>
-      <c r="D935" s="20"/>
+      <c r="D935" s="19"/>
       <c r="E935" s="10"/>
     </row>
     <row r="936" spans="1:5">
       <c r="A936" s="18"/>
-      <c r="B936" s="18"/>
+      <c r="B936" s="10"/>
       <c r="C936" s="18"/>
-      <c r="D936" s="20"/>
+      <c r="D936" s="19"/>
       <c r="E936" s="10"/>
     </row>
     <row r="937" spans="1:5">
-      <c r="A937" s="18"/>
+      <c r="A937" s="10"/>
       <c r="B937" s="18"/>
       <c r="C937" s="18"/>
-      <c r="D937" s="19"/>
+      <c r="D937" s="29"/>
       <c r="E937" s="10"/>
     </row>
     <row r="938" spans="1:5">
-      <c r="A938" s="18"/>
+      <c r="A938" s="10"/>
       <c r="B938" s="18"/>
       <c r="C938" s="18"/>
       <c r="D938" s="20"/>
@@ -12766,23 +12892,23 @@
     </row>
     <row r="939" spans="1:5">
       <c r="A939" s="18"/>
-      <c r="B939" s="10"/>
-      <c r="C939" s="10"/>
-      <c r="D939" s="19"/>
+      <c r="B939" s="18"/>
+      <c r="C939" s="18"/>
+      <c r="D939" s="20"/>
       <c r="E939" s="10"/>
     </row>
     <row r="940" spans="1:5">
       <c r="A940" s="18"/>
-      <c r="B940" s="10"/>
+      <c r="B940" s="18"/>
       <c r="C940" s="18"/>
-      <c r="D940" s="19"/>
+      <c r="D940" s="20"/>
       <c r="E940" s="10"/>
     </row>
     <row r="941" spans="1:5">
       <c r="A941" s="18"/>
       <c r="B941" s="10"/>
       <c r="C941" s="18"/>
-      <c r="D941" s="19"/>
+      <c r="D941" s="20"/>
       <c r="E941" s="10"/>
     </row>
     <row r="942" spans="1:5">
@@ -12793,8 +12919,8 @@
       <c r="E942" s="10"/>
     </row>
     <row r="943" spans="1:5">
-      <c r="A943" s="10"/>
-      <c r="B943" s="34"/>
+      <c r="A943" s="18"/>
+      <c r="B943" s="18"/>
       <c r="C943" s="18"/>
       <c r="D943" s="20"/>
       <c r="E943" s="10"/>
@@ -12814,21 +12940,21 @@
       <c r="E945" s="10"/>
     </row>
     <row r="946" spans="1:5">
-      <c r="A946" s="10"/>
-      <c r="B946" s="18"/>
-      <c r="C946" s="18"/>
+      <c r="A946" s="18"/>
+      <c r="B946" s="10"/>
+      <c r="C946" s="10"/>
       <c r="D946" s="19"/>
       <c r="E946" s="10"/>
     </row>
     <row r="947" spans="1:5">
-      <c r="A947" s="10"/>
-      <c r="B947" s="18"/>
+      <c r="A947" s="18"/>
+      <c r="B947" s="10"/>
       <c r="C947" s="18"/>
-      <c r="D947" s="20"/>
+      <c r="D947" s="19"/>
       <c r="E947" s="10"/>
     </row>
     <row r="948" spans="1:5">
-      <c r="A948" s="10"/>
+      <c r="A948" s="18"/>
       <c r="B948" s="10"/>
       <c r="C948" s="18"/>
       <c r="D948" s="19"/>
@@ -12842,43 +12968,43 @@
       <c r="E949" s="10"/>
     </row>
     <row r="950" spans="1:5">
-      <c r="A950" s="31"/>
-      <c r="B950" s="18"/>
+      <c r="A950" s="10"/>
+      <c r="B950" s="34"/>
       <c r="C950" s="18"/>
       <c r="D950" s="20"/>
       <c r="E950" s="10"/>
     </row>
     <row r="951" spans="1:5">
-      <c r="A951" s="10"/>
+      <c r="A951" s="18"/>
       <c r="B951" s="18"/>
       <c r="C951" s="18"/>
-      <c r="D951" s="20"/>
+      <c r="D951" s="19"/>
       <c r="E951" s="10"/>
     </row>
     <row r="952" spans="1:5">
       <c r="A952" s="18"/>
       <c r="B952" s="18"/>
       <c r="C952" s="18"/>
-      <c r="D952" s="19"/>
+      <c r="D952" s="20"/>
       <c r="E952" s="10"/>
     </row>
     <row r="953" spans="1:5">
-      <c r="A953" s="18"/>
+      <c r="A953" s="10"/>
       <c r="B953" s="18"/>
       <c r="C953" s="18"/>
-      <c r="D953" s="20"/>
+      <c r="D953" s="19"/>
       <c r="E953" s="10"/>
     </row>
     <row r="954" spans="1:5">
-      <c r="A954" s="18"/>
+      <c r="A954" s="10"/>
       <c r="B954" s="18"/>
       <c r="C954" s="18"/>
-      <c r="D954" s="19"/>
+      <c r="D954" s="20"/>
       <c r="E954" s="10"/>
     </row>
     <row r="955" spans="1:5">
-      <c r="A955" s="18"/>
-      <c r="B955" s="18"/>
+      <c r="A955" s="10"/>
+      <c r="B955" s="10"/>
       <c r="C955" s="18"/>
       <c r="D955" s="19"/>
       <c r="E955" s="10"/>
@@ -12887,21 +13013,21 @@
       <c r="A956" s="18"/>
       <c r="B956" s="18"/>
       <c r="C956" s="18"/>
-      <c r="D956" s="19"/>
+      <c r="D956" s="20"/>
       <c r="E956" s="10"/>
     </row>
     <row r="957" spans="1:5">
-      <c r="A957" s="18"/>
-      <c r="B957" s="10"/>
+      <c r="A957" s="31"/>
+      <c r="B957" s="18"/>
       <c r="C957" s="18"/>
       <c r="D957" s="20"/>
       <c r="E957" s="10"/>
     </row>
     <row r="958" spans="1:5">
-      <c r="A958" s="18"/>
+      <c r="A958" s="10"/>
       <c r="B958" s="18"/>
       <c r="C958" s="18"/>
-      <c r="D958" s="19"/>
+      <c r="D958" s="20"/>
       <c r="E958" s="10"/>
     </row>
     <row r="959" spans="1:5">
@@ -12913,23 +13039,23 @@
     </row>
     <row r="960" spans="1:5">
       <c r="A960" s="18"/>
-      <c r="B960" s="10"/>
-      <c r="C960" s="10"/>
+      <c r="B960" s="18"/>
+      <c r="C960" s="18"/>
       <c r="D960" s="20"/>
       <c r="E960" s="10"/>
     </row>
     <row r="961" spans="1:5">
       <c r="A961" s="18"/>
-      <c r="B961" s="35"/>
+      <c r="B961" s="18"/>
       <c r="C961" s="18"/>
-      <c r="D961" s="20"/>
+      <c r="D961" s="19"/>
       <c r="E961" s="10"/>
     </row>
     <row r="962" spans="1:5">
       <c r="A962" s="18"/>
       <c r="B962" s="18"/>
       <c r="C962" s="18"/>
-      <c r="D962" s="36"/>
+      <c r="D962" s="19"/>
       <c r="E962" s="10"/>
     </row>
     <row r="963" spans="1:5">
@@ -12941,126 +13067,126 @@
     </row>
     <row r="964" spans="1:5">
       <c r="A964" s="18"/>
-      <c r="B964" s="37"/>
+      <c r="B964" s="10"/>
       <c r="C964" s="18"/>
-      <c r="D964" s="19"/>
+      <c r="D964" s="20"/>
       <c r="E964" s="10"/>
     </row>
     <row r="965" spans="1:5">
-      <c r="A965" s="10"/>
-      <c r="B965" s="10"/>
+      <c r="A965" s="18"/>
+      <c r="B965" s="18"/>
       <c r="C965" s="18"/>
-      <c r="D965" s="20"/>
+      <c r="D965" s="19"/>
       <c r="E965" s="10"/>
     </row>
     <row r="966" spans="1:5">
-      <c r="A966" s="10"/>
+      <c r="A966" s="18"/>
       <c r="B966" s="18"/>
       <c r="C966" s="18"/>
       <c r="D966" s="19"/>
       <c r="E966" s="10"/>
     </row>
     <row r="967" spans="1:5">
-      <c r="A967" s="10"/>
-      <c r="B967" s="18"/>
-      <c r="C967" s="18"/>
+      <c r="A967" s="18"/>
+      <c r="B967" s="10"/>
+      <c r="C967" s="10"/>
       <c r="D967" s="20"/>
       <c r="E967" s="10"/>
     </row>
     <row r="968" spans="1:5">
       <c r="A968" s="18"/>
-      <c r="B968" s="18"/>
+      <c r="B968" s="35"/>
       <c r="C968" s="18"/>
-      <c r="D968" s="19"/>
+      <c r="D968" s="20"/>
       <c r="E968" s="10"/>
     </row>
     <row r="969" spans="1:5">
-      <c r="A969" s="10"/>
-      <c r="B969" s="10"/>
+      <c r="A969" s="18"/>
+      <c r="B969" s="18"/>
       <c r="C969" s="18"/>
-      <c r="D969" s="20"/>
+      <c r="D969" s="36"/>
       <c r="E969" s="10"/>
     </row>
     <row r="970" spans="1:5">
       <c r="A970" s="18"/>
       <c r="B970" s="18"/>
       <c r="C970" s="18"/>
-      <c r="D970" s="20"/>
+      <c r="D970" s="19"/>
       <c r="E970" s="10"/>
     </row>
     <row r="971" spans="1:5">
       <c r="A971" s="18"/>
-      <c r="B971" s="10"/>
+      <c r="B971" s="37"/>
       <c r="C971" s="18"/>
-      <c r="D971" s="20"/>
+      <c r="D971" s="19"/>
       <c r="E971" s="10"/>
     </row>
     <row r="972" spans="1:5">
-      <c r="A972" s="18"/>
-      <c r="B972" s="18"/>
+      <c r="A972" s="10"/>
+      <c r="B972" s="10"/>
       <c r="C972" s="18"/>
       <c r="D972" s="20"/>
       <c r="E972" s="10"/>
     </row>
     <row r="973" spans="1:5">
-      <c r="A973" s="18"/>
+      <c r="A973" s="10"/>
       <c r="B973" s="18"/>
       <c r="C973" s="18"/>
-      <c r="D973" s="20"/>
+      <c r="D973" s="19"/>
       <c r="E973" s="10"/>
     </row>
     <row r="974" spans="1:5">
       <c r="A974" s="10"/>
       <c r="B974" s="18"/>
       <c r="C974" s="18"/>
-      <c r="D974" s="19"/>
+      <c r="D974" s="20"/>
       <c r="E974" s="10"/>
     </row>
     <row r="975" spans="1:5">
       <c r="A975" s="18"/>
-      <c r="B975" s="10"/>
-      <c r="C975" s="10"/>
-      <c r="D975" s="20"/>
+      <c r="B975" s="18"/>
+      <c r="C975" s="18"/>
+      <c r="D975" s="19"/>
       <c r="E975" s="10"/>
     </row>
     <row r="976" spans="1:5">
-      <c r="A976" s="18"/>
+      <c r="A976" s="10"/>
       <c r="B976" s="10"/>
       <c r="C976" s="18"/>
       <c r="D976" s="20"/>
       <c r="E976" s="10"/>
     </row>
     <row r="977" spans="1:5">
-      <c r="A977" s="10"/>
+      <c r="A977" s="18"/>
       <c r="B977" s="18"/>
       <c r="C977" s="18"/>
-      <c r="D977" s="19"/>
+      <c r="D977" s="20"/>
       <c r="E977" s="10"/>
     </row>
     <row r="978" spans="1:5">
       <c r="A978" s="18"/>
       <c r="B978" s="10"/>
       <c r="C978" s="18"/>
-      <c r="D978" s="19"/>
+      <c r="D978" s="20"/>
       <c r="E978" s="10"/>
     </row>
     <row r="979" spans="1:5">
       <c r="A979" s="18"/>
       <c r="B979" s="18"/>
       <c r="C979" s="18"/>
-      <c r="D979" s="19"/>
+      <c r="D979" s="20"/>
       <c r="E979" s="10"/>
     </row>
     <row r="980" spans="1:5">
       <c r="A980" s="18"/>
-      <c r="B980" s="10"/>
+      <c r="B980" s="18"/>
       <c r="C980" s="18"/>
-      <c r="D980" s="19"/>
+      <c r="D980" s="20"/>
       <c r="E980" s="10"/>
     </row>
     <row r="981" spans="1:5">
-      <c r="A981" s="18"/>
-      <c r="B981" s="10"/>
+      <c r="A981" s="10"/>
+      <c r="B981" s="18"/>
       <c r="C981" s="18"/>
       <c r="D981" s="19"/>
       <c r="E981" s="10"/>
@@ -13068,29 +13194,30 @@
     <row r="982" spans="1:5">
       <c r="A982" s="18"/>
       <c r="B982" s="10"/>
-      <c r="C982" s="18"/>
+      <c r="C982" s="10"/>
       <c r="D982" s="20"/>
       <c r="E982" s="10"/>
     </row>
     <row r="983" spans="1:5">
       <c r="A983" s="18"/>
-      <c r="B983" s="18"/>
+      <c r="B983" s="10"/>
       <c r="C983" s="18"/>
       <c r="D983" s="20"/>
       <c r="E983" s="10"/>
     </row>
     <row r="984" spans="1:5">
-      <c r="A984" s="18"/>
+      <c r="A984" s="10"/>
       <c r="B984" s="18"/>
       <c r="C984" s="18"/>
       <c r="D984" s="19"/>
       <c r="E984" s="10"/>
     </row>
-    <row r="985" spans="1:4">
-      <c r="A985" s="10"/>
+    <row r="985" spans="1:5">
+      <c r="A985" s="18"/>
       <c r="B985" s="10"/>
       <c r="C985" s="18"/>
-      <c r="D985" s="20"/>
+      <c r="D985" s="19"/>
+      <c r="E985" s="10"/>
     </row>
     <row r="986" spans="1:5">
       <c r="A986" s="18"/>
@@ -13100,31 +13227,31 @@
       <c r="E986" s="10"/>
     </row>
     <row r="987" spans="1:5">
-      <c r="A987" s="10"/>
-      <c r="B987" s="38"/>
+      <c r="A987" s="18"/>
+      <c r="B987" s="10"/>
       <c r="C987" s="18"/>
-      <c r="D987" s="29"/>
+      <c r="D987" s="19"/>
       <c r="E987" s="10"/>
     </row>
     <row r="988" spans="1:5">
       <c r="A988" s="18"/>
-      <c r="B988" s="18"/>
+      <c r="B988" s="10"/>
       <c r="C988" s="18"/>
-      <c r="D988" s="20"/>
+      <c r="D988" s="19"/>
       <c r="E988" s="10"/>
     </row>
     <row r="989" spans="1:5">
       <c r="A989" s="18"/>
-      <c r="B989" s="18"/>
+      <c r="B989" s="10"/>
       <c r="C989" s="18"/>
-      <c r="D989" s="19"/>
+      <c r="D989" s="20"/>
       <c r="E989" s="10"/>
     </row>
     <row r="990" spans="1:5">
       <c r="A990" s="18"/>
       <c r="B990" s="18"/>
       <c r="C990" s="18"/>
-      <c r="D990" s="19"/>
+      <c r="D990" s="20"/>
       <c r="E990" s="10"/>
     </row>
     <row r="991" spans="1:5">
@@ -13134,12 +13261,11 @@
       <c r="D991" s="19"/>
       <c r="E991" s="10"/>
     </row>
-    <row r="992" spans="1:5">
-      <c r="A992" s="18"/>
+    <row r="992" spans="1:4">
+      <c r="A992" s="10"/>
       <c r="B992" s="10"/>
       <c r="C992" s="18"/>
       <c r="D992" s="20"/>
-      <c r="E992" s="10"/>
     </row>
     <row r="993" spans="1:5">
       <c r="A993" s="18"/>
@@ -13150,13 +13276,13 @@
     </row>
     <row r="994" spans="1:5">
       <c r="A994" s="10"/>
-      <c r="B994" s="10"/>
-      <c r="C994" s="10"/>
-      <c r="D994" s="20"/>
+      <c r="B994" s="38"/>
+      <c r="C994" s="18"/>
+      <c r="D994" s="29"/>
       <c r="E994" s="10"/>
     </row>
     <row r="995" spans="1:5">
-      <c r="A995" s="10"/>
+      <c r="A995" s="18"/>
       <c r="B995" s="18"/>
       <c r="C995" s="18"/>
       <c r="D995" s="20"/>
@@ -13171,44 +13297,44 @@
     </row>
     <row r="997" spans="1:5">
       <c r="A997" s="18"/>
-      <c r="B997" s="10"/>
+      <c r="B997" s="18"/>
       <c r="C997" s="18"/>
-      <c r="D997" s="20"/>
+      <c r="D997" s="19"/>
       <c r="E997" s="10"/>
     </row>
     <row r="998" spans="1:5">
       <c r="A998" s="18"/>
       <c r="B998" s="18"/>
       <c r="C998" s="18"/>
-      <c r="D998" s="29"/>
+      <c r="D998" s="19"/>
       <c r="E998" s="10"/>
     </row>
     <row r="999" spans="1:5">
       <c r="A999" s="18"/>
       <c r="B999" s="10"/>
-      <c r="C999" s="10"/>
+      <c r="C999" s="18"/>
       <c r="D999" s="20"/>
       <c r="E999" s="10"/>
     </row>
     <row r="1000" spans="1:5">
       <c r="A1000" s="18"/>
-      <c r="B1000" s="10"/>
+      <c r="B1000" s="18"/>
       <c r="C1000" s="18"/>
-      <c r="D1000" s="20"/>
+      <c r="D1000" s="19"/>
       <c r="E1000" s="10"/>
     </row>
     <row r="1001" spans="1:5">
-      <c r="A1001" s="18"/>
+      <c r="A1001" s="10"/>
       <c r="B1001" s="10"/>
-      <c r="C1001" s="18"/>
-      <c r="D1001" s="19"/>
+      <c r="C1001" s="10"/>
+      <c r="D1001" s="20"/>
       <c r="E1001" s="10"/>
     </row>
     <row r="1002" spans="1:5">
-      <c r="A1002" s="18"/>
-      <c r="B1002" s="10"/>
+      <c r="A1002" s="10"/>
+      <c r="B1002" s="18"/>
       <c r="C1002" s="18"/>
-      <c r="D1002" s="19"/>
+      <c r="D1002" s="20"/>
       <c r="E1002" s="10"/>
     </row>
     <row r="1003" spans="1:5">
@@ -13220,7 +13346,7 @@
     </row>
     <row r="1004" spans="1:5">
       <c r="A1004" s="18"/>
-      <c r="B1004" s="18"/>
+      <c r="B1004" s="10"/>
       <c r="C1004" s="18"/>
       <c r="D1004" s="20"/>
       <c r="E1004" s="10"/>
@@ -13229,13 +13355,13 @@
       <c r="A1005" s="18"/>
       <c r="B1005" s="18"/>
       <c r="C1005" s="18"/>
-      <c r="D1005" s="20"/>
+      <c r="D1005" s="29"/>
       <c r="E1005" s="10"/>
     </row>
     <row r="1006" spans="1:5">
       <c r="A1006" s="18"/>
-      <c r="B1006" s="18"/>
-      <c r="C1006" s="18"/>
+      <c r="B1006" s="10"/>
+      <c r="C1006" s="10"/>
       <c r="D1006" s="20"/>
       <c r="E1006" s="10"/>
     </row>
@@ -13248,57 +13374,57 @@
     </row>
     <row r="1008" spans="1:5">
       <c r="A1008" s="18"/>
-      <c r="B1008" s="18"/>
+      <c r="B1008" s="10"/>
       <c r="C1008" s="18"/>
-      <c r="D1008" s="20"/>
+      <c r="D1008" s="19"/>
       <c r="E1008" s="10"/>
     </row>
     <row r="1009" spans="1:5">
       <c r="A1009" s="18"/>
       <c r="B1009" s="10"/>
       <c r="C1009" s="18"/>
-      <c r="D1009" s="20"/>
+      <c r="D1009" s="19"/>
       <c r="E1009" s="10"/>
     </row>
     <row r="1010" spans="1:5">
       <c r="A1010" s="18"/>
-      <c r="B1010" s="10"/>
+      <c r="B1010" s="18"/>
       <c r="C1010" s="18"/>
-      <c r="D1010" s="20"/>
+      <c r="D1010" s="19"/>
       <c r="E1010" s="10"/>
     </row>
     <row r="1011" spans="1:5">
       <c r="A1011" s="18"/>
-      <c r="B1011" s="10"/>
+      <c r="B1011" s="18"/>
       <c r="C1011" s="18"/>
-      <c r="D1011" s="19"/>
+      <c r="D1011" s="20"/>
       <c r="E1011" s="10"/>
     </row>
     <row r="1012" spans="1:5">
       <c r="A1012" s="18"/>
-      <c r="B1012" s="10"/>
+      <c r="B1012" s="18"/>
       <c r="C1012" s="18"/>
       <c r="D1012" s="20"/>
       <c r="E1012" s="10"/>
     </row>
     <row r="1013" spans="1:5">
       <c r="A1013" s="18"/>
-      <c r="B1013" s="10"/>
+      <c r="B1013" s="18"/>
       <c r="C1013" s="18"/>
       <c r="D1013" s="20"/>
       <c r="E1013" s="10"/>
     </row>
     <row r="1014" spans="1:5">
       <c r="A1014" s="18"/>
-      <c r="B1014" s="18"/>
+      <c r="B1014" s="10"/>
       <c r="C1014" s="18"/>
-      <c r="D1014" s="19"/>
+      <c r="D1014" s="20"/>
       <c r="E1014" s="10"/>
     </row>
     <row r="1015" spans="1:5">
-      <c r="A1015" s="10"/>
-      <c r="B1015" s="10"/>
-      <c r="C1015" s="10"/>
+      <c r="A1015" s="18"/>
+      <c r="B1015" s="18"/>
+      <c r="C1015" s="18"/>
       <c r="D1015" s="20"/>
       <c r="E1015" s="10"/>
     </row>
@@ -13318,36 +13444,36 @@
     </row>
     <row r="1018" spans="1:5">
       <c r="A1018" s="18"/>
-      <c r="B1018" s="18"/>
+      <c r="B1018" s="10"/>
       <c r="C1018" s="18"/>
-      <c r="D1018" s="20"/>
+      <c r="D1018" s="19"/>
       <c r="E1018" s="10"/>
     </row>
     <row r="1019" spans="1:5">
       <c r="A1019" s="18"/>
-      <c r="B1019" s="18"/>
+      <c r="B1019" s="10"/>
       <c r="C1019" s="18"/>
       <c r="D1019" s="20"/>
       <c r="E1019" s="10"/>
     </row>
     <row r="1020" spans="1:5">
       <c r="A1020" s="18"/>
-      <c r="B1020" s="18"/>
+      <c r="B1020" s="10"/>
       <c r="C1020" s="18"/>
       <c r="D1020" s="20"/>
       <c r="E1020" s="10"/>
     </row>
     <row r="1021" spans="1:5">
       <c r="A1021" s="18"/>
-      <c r="B1021" s="10"/>
+      <c r="B1021" s="18"/>
       <c r="C1021" s="18"/>
       <c r="D1021" s="19"/>
       <c r="E1021" s="10"/>
     </row>
     <row r="1022" spans="1:5">
-      <c r="A1022" s="18"/>
+      <c r="A1022" s="10"/>
       <c r="B1022" s="10"/>
-      <c r="C1022" s="18"/>
+      <c r="C1022" s="10"/>
       <c r="D1022" s="20"/>
       <c r="E1022" s="10"/>
     </row>
@@ -13367,21 +13493,21 @@
     </row>
     <row r="1025" spans="1:5">
       <c r="A1025" s="18"/>
-      <c r="B1025" s="10"/>
+      <c r="B1025" s="18"/>
       <c r="C1025" s="18"/>
-      <c r="D1025" s="19"/>
+      <c r="D1025" s="20"/>
       <c r="E1025" s="10"/>
     </row>
     <row r="1026" spans="1:5">
       <c r="A1026" s="18"/>
-      <c r="B1026" s="10"/>
+      <c r="B1026" s="18"/>
       <c r="C1026" s="18"/>
       <c r="D1026" s="20"/>
       <c r="E1026" s="10"/>
     </row>
     <row r="1027" spans="1:5">
       <c r="A1027" s="18"/>
-      <c r="B1027" s="10"/>
+      <c r="B1027" s="18"/>
       <c r="C1027" s="18"/>
       <c r="D1027" s="20"/>
       <c r="E1027" s="10"/>
@@ -13390,7 +13516,7 @@
       <c r="A1028" s="18"/>
       <c r="B1028" s="10"/>
       <c r="C1028" s="18"/>
-      <c r="D1028" s="20"/>
+      <c r="D1028" s="19"/>
       <c r="E1028" s="10"/>
     </row>
     <row r="1029" spans="1:5">
@@ -13409,7 +13535,7 @@
     </row>
     <row r="1031" spans="1:5">
       <c r="A1031" s="18"/>
-      <c r="B1031" s="18"/>
+      <c r="B1031" s="10"/>
       <c r="C1031" s="18"/>
       <c r="D1031" s="20"/>
       <c r="E1031" s="10"/>
@@ -13422,15 +13548,15 @@
       <c r="E1032" s="10"/>
     </row>
     <row r="1033" spans="1:5">
-      <c r="A1033" s="10"/>
-      <c r="B1033" s="18"/>
+      <c r="A1033" s="18"/>
+      <c r="B1033" s="10"/>
       <c r="C1033" s="18"/>
       <c r="D1033" s="20"/>
       <c r="E1033" s="10"/>
     </row>
     <row r="1034" spans="1:5">
       <c r="A1034" s="18"/>
-      <c r="B1034" s="18"/>
+      <c r="B1034" s="10"/>
       <c r="C1034" s="18"/>
       <c r="D1034" s="20"/>
       <c r="E1034" s="10"/>
@@ -13451,14 +13577,14 @@
     </row>
     <row r="1037" spans="1:5">
       <c r="A1037" s="18"/>
-      <c r="B1037" s="18"/>
+      <c r="B1037" s="10"/>
       <c r="C1037" s="18"/>
       <c r="D1037" s="20"/>
       <c r="E1037" s="10"/>
     </row>
     <row r="1038" spans="1:5">
       <c r="A1038" s="18"/>
-      <c r="B1038" s="10"/>
+      <c r="B1038" s="18"/>
       <c r="C1038" s="18"/>
       <c r="D1038" s="20"/>
       <c r="E1038" s="10"/>
@@ -13467,14 +13593,14 @@
       <c r="A1039" s="18"/>
       <c r="B1039" s="10"/>
       <c r="C1039" s="18"/>
-      <c r="D1039" s="20"/>
+      <c r="D1039" s="19"/>
       <c r="E1039" s="10"/>
     </row>
     <row r="1040" spans="1:5">
-      <c r="A1040" s="18"/>
+      <c r="A1040" s="10"/>
       <c r="B1040" s="18"/>
       <c r="C1040" s="18"/>
-      <c r="D1040" s="19"/>
+      <c r="D1040" s="20"/>
       <c r="E1040" s="10"/>
     </row>
     <row r="1041" spans="1:5">
@@ -13486,7 +13612,7 @@
     </row>
     <row r="1042" spans="1:5">
       <c r="A1042" s="18"/>
-      <c r="B1042" s="18"/>
+      <c r="B1042" s="10"/>
       <c r="C1042" s="18"/>
       <c r="D1042" s="20"/>
       <c r="E1042" s="10"/>
@@ -13499,17 +13625,17 @@
       <c r="E1043" s="10"/>
     </row>
     <row r="1044" spans="1:5">
-      <c r="A1044" s="39"/>
-      <c r="B1044" s="40"/>
+      <c r="A1044" s="18"/>
+      <c r="B1044" s="18"/>
       <c r="C1044" s="18"/>
       <c r="D1044" s="20"/>
       <c r="E1044" s="10"/>
     </row>
     <row r="1045" spans="1:5">
-      <c r="A1045" s="41"/>
-      <c r="B1045" s="18"/>
+      <c r="A1045" s="18"/>
+      <c r="B1045" s="10"/>
       <c r="C1045" s="18"/>
-      <c r="D1045" s="19"/>
+      <c r="D1045" s="20"/>
       <c r="E1045" s="10"/>
     </row>
     <row r="1046" spans="1:5">
@@ -13521,14 +13647,14 @@
     </row>
     <row r="1047" spans="1:5">
       <c r="A1047" s="18"/>
-      <c r="B1047" s="10"/>
+      <c r="B1047" s="18"/>
       <c r="C1047" s="18"/>
-      <c r="D1047" s="20"/>
+      <c r="D1047" s="19"/>
       <c r="E1047" s="10"/>
     </row>
     <row r="1048" spans="1:5">
       <c r="A1048" s="18"/>
-      <c r="B1048" s="10"/>
+      <c r="B1048" s="18"/>
       <c r="C1048" s="18"/>
       <c r="D1048" s="20"/>
       <c r="E1048" s="10"/>
@@ -13548,64 +13674,64 @@
       <c r="E1050" s="10"/>
     </row>
     <row r="1051" spans="1:5">
-      <c r="A1051" s="18"/>
-      <c r="B1051" s="18"/>
+      <c r="A1051" s="39"/>
+      <c r="B1051" s="40"/>
       <c r="C1051" s="18"/>
-      <c r="D1051" s="19"/>
+      <c r="D1051" s="20"/>
       <c r="E1051" s="10"/>
     </row>
     <row r="1052" spans="1:5">
-      <c r="A1052" s="18"/>
-      <c r="B1052" s="10"/>
+      <c r="A1052" s="41"/>
+      <c r="B1052" s="18"/>
       <c r="C1052" s="18"/>
-      <c r="D1052" s="20"/>
+      <c r="D1052" s="19"/>
       <c r="E1052" s="10"/>
     </row>
     <row r="1053" spans="1:5">
       <c r="A1053" s="18"/>
-      <c r="B1053" s="18"/>
+      <c r="B1053" s="10"/>
       <c r="C1053" s="18"/>
       <c r="D1053" s="20"/>
       <c r="E1053" s="10"/>
     </row>
     <row r="1054" spans="1:5">
       <c r="A1054" s="18"/>
-      <c r="B1054" s="18"/>
+      <c r="B1054" s="10"/>
       <c r="C1054" s="18"/>
-      <c r="D1054" s="19"/>
+      <c r="D1054" s="20"/>
       <c r="E1054" s="10"/>
     </row>
     <row r="1055" spans="1:5">
       <c r="A1055" s="18"/>
-      <c r="B1055" s="18"/>
+      <c r="B1055" s="10"/>
       <c r="C1055" s="18"/>
-      <c r="D1055" s="19"/>
+      <c r="D1055" s="20"/>
       <c r="E1055" s="10"/>
     </row>
     <row r="1056" spans="1:5">
       <c r="A1056" s="18"/>
       <c r="B1056" s="18"/>
       <c r="C1056" s="18"/>
-      <c r="D1056" s="19"/>
+      <c r="D1056" s="20"/>
       <c r="E1056" s="10"/>
     </row>
     <row r="1057" spans="1:5">
       <c r="A1057" s="18"/>
-      <c r="B1057" s="18"/>
+      <c r="B1057" s="10"/>
       <c r="C1057" s="18"/>
-      <c r="D1057" s="19"/>
+      <c r="D1057" s="20"/>
       <c r="E1057" s="10"/>
     </row>
     <row r="1058" spans="1:5">
-      <c r="A1058" s="10"/>
+      <c r="A1058" s="18"/>
       <c r="B1058" s="18"/>
       <c r="C1058" s="18"/>
-      <c r="D1058" s="20"/>
+      <c r="D1058" s="19"/>
       <c r="E1058" s="10"/>
     </row>
     <row r="1059" spans="1:5">
       <c r="A1059" s="18"/>
-      <c r="B1059" s="18"/>
+      <c r="B1059" s="10"/>
       <c r="C1059" s="18"/>
       <c r="D1059" s="20"/>
       <c r="E1059" s="10"/>
@@ -13621,21 +13747,21 @@
       <c r="A1061" s="18"/>
       <c r="B1061" s="18"/>
       <c r="C1061" s="18"/>
-      <c r="D1061" s="20"/>
+      <c r="D1061" s="19"/>
       <c r="E1061" s="10"/>
     </row>
     <row r="1062" spans="1:5">
       <c r="A1062" s="18"/>
       <c r="B1062" s="18"/>
       <c r="C1062" s="18"/>
-      <c r="D1062" s="20"/>
+      <c r="D1062" s="19"/>
       <c r="E1062" s="10"/>
     </row>
     <row r="1063" spans="1:5">
       <c r="A1063" s="18"/>
       <c r="B1063" s="18"/>
       <c r="C1063" s="18"/>
-      <c r="D1063" s="20"/>
+      <c r="D1063" s="19"/>
       <c r="E1063" s="10"/>
     </row>
     <row r="1064" spans="1:5">
@@ -13646,10 +13772,10 @@
       <c r="E1064" s="10"/>
     </row>
     <row r="1065" spans="1:5">
-      <c r="A1065" s="18"/>
+      <c r="A1065" s="10"/>
       <c r="B1065" s="18"/>
       <c r="C1065" s="18"/>
-      <c r="D1065" s="19"/>
+      <c r="D1065" s="20"/>
       <c r="E1065" s="10"/>
     </row>
     <row r="1066" spans="1:5">
@@ -13663,21 +13789,21 @@
       <c r="A1067" s="18"/>
       <c r="B1067" s="18"/>
       <c r="C1067" s="18"/>
-      <c r="D1067" s="19"/>
+      <c r="D1067" s="20"/>
       <c r="E1067" s="10"/>
     </row>
     <row r="1068" spans="1:5">
       <c r="A1068" s="18"/>
       <c r="B1068" s="18"/>
       <c r="C1068" s="18"/>
-      <c r="D1068" s="19"/>
+      <c r="D1068" s="20"/>
       <c r="E1068" s="10"/>
     </row>
     <row r="1069" spans="1:5">
       <c r="A1069" s="18"/>
       <c r="B1069" s="18"/>
       <c r="C1069" s="18"/>
-      <c r="D1069" s="19"/>
+      <c r="D1069" s="20"/>
       <c r="E1069" s="10"/>
     </row>
     <row r="1070" spans="1:5">
@@ -13689,7 +13815,7 @@
     </row>
     <row r="1071" spans="1:5">
       <c r="A1071" s="18"/>
-      <c r="B1071" s="10"/>
+      <c r="B1071" s="18"/>
       <c r="C1071" s="18"/>
       <c r="D1071" s="19"/>
       <c r="E1071" s="10"/>
@@ -13698,13 +13824,13 @@
       <c r="A1072" s="18"/>
       <c r="B1072" s="18"/>
       <c r="C1072" s="18"/>
-      <c r="D1072" s="20"/>
+      <c r="D1072" s="19"/>
       <c r="E1072" s="10"/>
     </row>
     <row r="1073" spans="1:5">
-      <c r="A1073" s="10"/>
-      <c r="B1073" s="10"/>
-      <c r="C1073" s="10"/>
+      <c r="A1073" s="18"/>
+      <c r="B1073" s="18"/>
+      <c r="C1073" s="18"/>
       <c r="D1073" s="20"/>
       <c r="E1073" s="10"/>
     </row>
@@ -13712,27 +13838,76 @@
       <c r="A1074" s="18"/>
       <c r="B1074" s="18"/>
       <c r="C1074" s="18"/>
-      <c r="D1074" s="20"/>
+      <c r="D1074" s="19"/>
       <c r="E1074" s="10"/>
     </row>
     <row r="1075" spans="1:5">
       <c r="A1075" s="18"/>
       <c r="B1075" s="18"/>
       <c r="C1075" s="18"/>
-      <c r="D1075" s="20"/>
+      <c r="D1075" s="19"/>
       <c r="E1075" s="10"/>
     </row>
     <row r="1076" spans="1:5">
       <c r="A1076" s="18"/>
       <c r="B1076" s="18"/>
       <c r="C1076" s="18"/>
-      <c r="D1076" s="20"/>
+      <c r="D1076" s="19"/>
       <c r="E1076" s="10"/>
+    </row>
+    <row r="1077" spans="1:5">
+      <c r="A1077" s="18"/>
+      <c r="B1077" s="18"/>
+      <c r="C1077" s="18"/>
+      <c r="D1077" s="20"/>
+      <c r="E1077" s="10"/>
+    </row>
+    <row r="1078" spans="1:5">
+      <c r="A1078" s="18"/>
+      <c r="B1078" s="10"/>
+      <c r="C1078" s="18"/>
+      <c r="D1078" s="19"/>
+      <c r="E1078" s="10"/>
+    </row>
+    <row r="1079" spans="1:5">
+      <c r="A1079" s="18"/>
+      <c r="B1079" s="18"/>
+      <c r="C1079" s="18"/>
+      <c r="D1079" s="20"/>
+      <c r="E1079" s="10"/>
+    </row>
+    <row r="1080" spans="1:5">
+      <c r="A1080" s="10"/>
+      <c r="B1080" s="10"/>
+      <c r="C1080" s="10"/>
+      <c r="D1080" s="20"/>
+      <c r="E1080" s="10"/>
+    </row>
+    <row r="1081" spans="1:5">
+      <c r="A1081" s="18"/>
+      <c r="B1081" s="18"/>
+      <c r="C1081" s="18"/>
+      <c r="D1081" s="20"/>
+      <c r="E1081" s="10"/>
+    </row>
+    <row r="1082" spans="1:5">
+      <c r="A1082" s="18"/>
+      <c r="B1082" s="18"/>
+      <c r="C1082" s="18"/>
+      <c r="D1082" s="20"/>
+      <c r="E1082" s="10"/>
+    </row>
+    <row r="1083" spans="1:5">
+      <c r="A1083" s="18"/>
+      <c r="B1083" s="18"/>
+      <c r="C1083" s="18"/>
+      <c r="D1083" s="20"/>
+      <c r="E1083" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:E406">
-    <sortState ref="A1:E406">
+  <autoFilter ref="A1:E413">
+    <sortState ref="A1:E413">
       <sortCondition ref="C2:C223" customList="国语,英语,日语"/>
       <sortCondition ref="A2:A223"/>
     </sortState>
@@ -13743,7 +13918,7 @@
     <sortCondition ref="A2:A385"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C5 C8 C9 C10 C11 C12 C13 C14 C15 C21 C22 C23 C47 C48 C58 C59 C60 C61 C62 C63 C73 C80 C81 C87 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C119 C139 C142 C143 C150 C151 C152 C153 C154 C155 C156 C159 C160 C164 C165 C168 C169 C182 C183 C184 C194 C195 C196 C197 C203 C204 C224 C225 C230 C231 C232 C235 C247 C271 C272 C273 C274 C314 C333 C334 C335 C336 C337 C338 C339 C340 C341 C342 C343 C357 C360 C361 C362 C363 C364 C372 C396 C397 C398 C399 C400 C401 C402 C403 C404 C405 C2:C3 C6:C7 C16:C20 C24:C31 C32:C40 C41:C43 C44:C46 C49:C50 C51:C57 C64:C65 C66:C72 C74:C79 C82:C84 C85:C86 C88:C96 C111:C114 C115:C118 C120:C122 C123:C130 C131:C132 C133:C136 C137:C138 C140:C141 C144:C149 C157:C158 C161:C163 C166:C167 C170:C174 C175:C176 C177:C179 C180:C181 C185:C188 C189:C193 C198:C202 C205:C206 C207:C211 C212:C214 C215:C217 C218:C219 C220:C221 C222:C223 C226:C229 C233:C234 C236:C246 C248:C270 C275:C313 C315:C332 C344:C356 C358:C359 C365:C371 C373:C395 C406:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C5 C8 C9 C10 C11 C12 C13 C14 C15 C21 C22 C23 C47 C48 C57 C58 C59 C60 C61 C62 C63 C64 C74 C81 C82 C88 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C120 C140 C143 C144 C151 C152 C153 C154 C155 C156 C157 C160 C161 C165 C166 C169 C170 C183 C184 C185 C195 C196 C197 C198 C204 C205 C215 C216 C226 C227 C232 C233 C234 C237 C249 C273 C274 C275 C276 C316 C335 C336 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C360 C363 C364 C365 C366 C367 C368 C369 C370 C378 C382 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C2:C3 C6:C7 C16:C20 C24:C31 C32:C40 C41:C43 C44:C46 C49:C50 C51:C56 C65:C66 C67:C73 C75:C80 C83:C85 C86:C87 C89:C97 C112:C115 C116:C119 C121:C123 C124:C131 C132:C133 C134:C137 C138:C139 C141:C142 C145:C150 C158:C159 C162:C164 C167:C168 C171:C175 C176:C177 C178:C180 C181:C182 C186:C189 C190:C194 C199:C203 C206:C207 C208:C212 C213:C214 C217:C219 C220:C221 C222:C223 C224:C225 C228:C231 C235:C236 C238:C248 C250:C272 C277:C315 C317:C334 C347:C359 C361:C362 C371:C377 C379:C381 C383:C402 C413:C1048576">
       <formula1>"国语,日语,英语"</formula1>
     </dataValidation>
   </dataValidations>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="734">
   <si>
     <t>歌名</t>
   </si>
@@ -1791,6 +1791,9 @@
   </si>
   <si>
     <t>李翊君</t>
+  </si>
+  <si>
+    <t>BV1r94y1N7mB</t>
   </si>
   <si>
     <t>雨天</t>
@@ -3471,9 +3474,9 @@
   <dimension ref="A1:F1083"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L249" sqref="L249"/>
+      <selection pane="bottomLeft" activeCell="H329" sqref="H329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8018018018018" defaultRowHeight="14.1" outlineLevelCol="5"/>
@@ -8049,11 +8052,13 @@
         <v>8</v>
       </c>
       <c r="D331" s="9"/>
-      <c r="E331" s="10"/>
+      <c r="E331" s="10" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>376</v>
@@ -8066,7 +8071,7 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>368</v>
@@ -8079,10 +8084,10 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C334" s="8" t="s">
         <v>8</v>
@@ -8092,7 +8097,7 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>376</v>
@@ -8102,12 +8107,12 @@
       </c>
       <c r="D335" s="9"/>
       <c r="E335" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>175</v>
@@ -8120,7 +8125,7 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>183</v>
@@ -8130,12 +8135,12 @@
       </c>
       <c r="D337" s="9"/>
       <c r="E337" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>11</v>
@@ -8148,7 +8153,7 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>30</v>
@@ -8161,7 +8166,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>175</v>
@@ -8174,10 +8179,10 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>8</v>
@@ -8187,7 +8192,7 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>72</v>
@@ -8200,7 +8205,7 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>150</v>
@@ -8213,7 +8218,7 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>27</v>
@@ -8225,12 +8230,12 @@
         <v>28</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>306</v>
@@ -8243,10 +8248,10 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C346" s="8" t="s">
         <v>8</v>
@@ -8256,10 +8261,10 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C347" s="8" t="s">
         <v>8</v>
@@ -8269,10 +8274,10 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C348" s="8" t="s">
         <v>8</v>
@@ -8282,10 +8287,10 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C349" s="8" t="s">
         <v>8</v>
@@ -8295,7 +8300,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>82</v>
@@ -8308,7 +8313,7 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>552</v>
@@ -8321,7 +8326,7 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>308</v>
@@ -8334,886 +8339,886 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D353" s="9"/>
       <c r="E353" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D354" s="9"/>
       <c r="E354" s="10"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C355" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>615</v>
       </c>
       <c r="D355" s="9"/>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D356" s="9"/>
       <c r="E356" s="10"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E357" s="10"/>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D358" s="9" t="s">
         <v>623</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C358" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="D358" s="9" t="s">
-        <v>622</v>
       </c>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D359" s="9"/>
       <c r="E359" s="10"/>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E361" s="10"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D362" s="9"/>
       <c r="E362" s="10"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D364" s="9"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D366" s="9"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D368" s="9"/>
       <c r="E368" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D369" s="9"/>
       <c r="E369" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D370" s="9"/>
       <c r="E370" s="10"/>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D371" s="9"/>
       <c r="E371" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D372" s="9"/>
       <c r="E372" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D373" s="9"/>
       <c r="E373" s="10"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D376" s="9"/>
       <c r="E376" s="10"/>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D377" s="9"/>
       <c r="E377" s="10"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D379" s="9"/>
       <c r="E379" s="10"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E380" s="10"/>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E381" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E382" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="8" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E383" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D384" s="9"/>
       <c r="E384" s="10"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D385" s="9"/>
       <c r="E385" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E386" s="10"/>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D387" s="9"/>
       <c r="E387" s="10"/>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D388" s="9"/>
       <c r="E388" s="10"/>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E389" s="10"/>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E390" s="10"/>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D391" s="9"/>
       <c r="E391" s="10"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D392" s="9"/>
       <c r="E392" s="10"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E393" s="10"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D394" s="9"/>
       <c r="E394" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E395" s="10"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E396" s="10"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D397" s="9"/>
       <c r="E397" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D398" s="9"/>
       <c r="E398" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D399" s="9"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D400" s="9"/>
       <c r="E400" s="10"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B401" s="17" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D401" s="9"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D402" s="9"/>
       <c r="E402" s="10"/>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E403" s="10"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D404" s="9"/>
       <c r="E404" s="10"/>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D405" s="9"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D406" s="9"/>
       <c r="E406" s="10"/>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D407" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E407" s="10"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D408" s="9"/>
       <c r="E408" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D409" s="9"/>
       <c r="E409" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D410" s="9"/>
       <c r="E410" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D411" s="9"/>
       <c r="E411" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D412" s="9"/>
       <c r="E412" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D413" s="9"/>
       <c r="E413" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="414" spans="1:5">

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="735">
   <si>
     <t>歌名</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Higher Brothers</t>
+  </si>
+  <si>
+    <t>BV1Na4y127jx</t>
   </si>
   <si>
     <t>NaCl</t>
@@ -3474,9 +3477,9 @@
   <dimension ref="A1:F1083"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H329" sqref="H329"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8018018018018" defaultRowHeight="14.1" outlineLevelCol="5"/>
@@ -3626,29 +3629,31 @@
         <v>8</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>8</v>
@@ -3658,10 +3663,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>8</v>
@@ -3671,7 +3676,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>7</v>
@@ -3684,7 +3689,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>16</v>
@@ -3693,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>8</v>
@@ -3713,30 +3718,30 @@
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -3749,7 +3754,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>19</v>
@@ -3762,10 +3767,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>8</v>
@@ -3775,10 +3780,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>8</v>
@@ -3788,40 +3793,40 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>8</v>
@@ -3829,15 +3834,15 @@
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>8</v>
@@ -3847,10 +3852,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>8</v>
@@ -3858,15 +3863,15 @@
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>8</v>
@@ -3876,10 +3881,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>8</v>
@@ -3889,24 +3894,24 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>7</v>
@@ -3917,15 +3922,15 @@
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>8</v>
@@ -3935,7 +3940,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -3946,15 +3951,15 @@
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>8</v>
@@ -3962,30 +3967,30 @@
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>8</v>
@@ -3995,7 +4000,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>11</v>
@@ -4008,10 +4013,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>8</v>
@@ -4021,10 +4026,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>8</v>
@@ -4034,10 +4039,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>8</v>
@@ -4046,7 +4051,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>7</v>
@@ -4059,10 +4064,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>8</v>
@@ -4072,10 +4077,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>8</v>
@@ -4085,10 +4090,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>8</v>
@@ -4098,10 +4103,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>8</v>
@@ -4111,10 +4116,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>8</v>
@@ -4124,10 +4129,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>8</v>
@@ -4137,7 +4142,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>19</v>
@@ -4150,7 +4155,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>7</v>
@@ -4160,15 +4165,15 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>8</v>
@@ -4178,25 +4183,25 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>8</v>
@@ -4206,10 +4211,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>8</v>
@@ -4219,7 +4224,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>7</v>
@@ -4232,10 +4237,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>8</v>
@@ -4245,7 +4250,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>16</v>
@@ -4254,15 +4259,15 @@
         <v>8</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>16</v>
@@ -4271,13 +4276,13 @@
         <v>8</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>16</v>
@@ -4286,15 +4291,15 @@
         <v>8</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>16</v>
@@ -4303,18 +4308,18 @@
         <v>8</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>8</v>
@@ -4324,10 +4329,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>8</v>
@@ -4337,7 +4342,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>16</v>
@@ -4346,13 +4351,13 @@
         <v>8</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>11</v>
@@ -4362,15 +4367,15 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>8</v>
@@ -4380,7 +4385,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>19</v>
@@ -4393,10 +4398,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>8</v>
@@ -4406,10 +4411,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>8</v>
@@ -4419,10 +4424,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>8</v>
@@ -4432,7 +4437,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>7</v>
@@ -4445,10 +4450,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>8</v>
@@ -4458,10 +4463,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>8</v>
@@ -4471,10 +4476,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>8</v>
@@ -4484,7 +4489,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>7</v>
@@ -4497,10 +4502,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>8</v>
@@ -4510,7 +4515,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>19</v>
@@ -4523,7 +4528,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>16</v>
@@ -4532,16 +4537,16 @@
         <v>8</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>8</v>
@@ -4551,10 +4556,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>8</v>
@@ -4564,25 +4569,25 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>8</v>
@@ -4592,10 +4597,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>8</v>
@@ -4605,10 +4610,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>8</v>
@@ -4618,22 +4623,22 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>16</v>
@@ -4642,18 +4647,18 @@
         <v>8</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>8</v>
@@ -4663,10 +4668,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>8</v>
@@ -4676,25 +4681,25 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>8</v>
@@ -4704,10 +4709,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>8</v>
@@ -4717,10 +4722,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>8</v>
@@ -4730,25 +4735,25 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>8</v>
@@ -4758,10 +4763,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>8</v>
@@ -4771,10 +4776,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>8</v>
@@ -4784,10 +4789,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>8</v>
@@ -4797,10 +4802,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>8</v>
@@ -4810,7 +4815,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>7</v>
@@ -4820,12 +4825,12 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>16</v>
@@ -4834,16 +4839,16 @@
         <v>8</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E96" s="10"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>8</v>
@@ -4853,7 +4858,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>16</v>
@@ -4862,18 +4867,18 @@
         <v>8</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>8</v>
@@ -4883,10 +4888,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>8</v>
@@ -4896,25 +4901,25 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>8</v>
@@ -4924,10 +4929,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>8</v>
@@ -4937,27 +4942,27 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>8</v>
@@ -4967,7 +4972,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>7</v>
@@ -4980,10 +4985,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>8</v>
@@ -4993,7 +4998,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>11</v>
@@ -5006,10 +5011,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>8</v>
@@ -5019,10 +5024,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>8</v>
@@ -5032,10 +5037,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>8</v>
@@ -5045,25 +5050,25 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>8</v>
@@ -5073,10 +5078,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>8</v>
@@ -5086,10 +5091,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>8</v>
@@ -5099,10 +5104,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>8</v>
@@ -5112,10 +5117,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>8</v>
@@ -5125,10 +5130,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>8</v>
@@ -5138,10 +5143,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>8</v>
@@ -5151,7 +5156,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>16</v>
@@ -5160,30 +5165,30 @@
         <v>8</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>16</v>
@@ -5192,18 +5197,18 @@
         <v>8</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>8</v>
@@ -5213,7 +5218,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>16</v>
@@ -5222,18 +5227,18 @@
         <v>8</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>8</v>
@@ -5243,10 +5248,10 @@
     </row>
     <row r="126" ht="14.15" spans="1:5">
       <c r="A126" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>8</v>
@@ -5256,10 +5261,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>8</v>
@@ -5269,10 +5274,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>8</v>
@@ -5282,10 +5287,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>8</v>
@@ -5295,25 +5300,25 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>8</v>
@@ -5323,10 +5328,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>8</v>
@@ -5336,7 +5341,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>7</v>
@@ -5349,10 +5354,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>8</v>
@@ -5362,7 +5367,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>19</v>
@@ -5375,10 +5380,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>8</v>
@@ -5388,25 +5393,25 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>8</v>
@@ -5416,37 +5421,37 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>16</v>
@@ -5455,16 +5460,16 @@
         <v>8</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>8</v>
@@ -5474,10 +5479,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>8</v>
@@ -5487,25 +5492,25 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>8</v>
@@ -5515,10 +5520,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>8</v>
@@ -5528,7 +5533,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>7</v>
@@ -5538,60 +5543,60 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>8</v>
@@ -5601,10 +5606,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>8</v>
@@ -5614,10 +5619,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>8</v>
@@ -5627,7 +5632,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>16</v>
@@ -5636,15 +5641,15 @@
         <v>8</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>16</v>
@@ -5653,18 +5658,18 @@
         <v>8</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>8</v>
@@ -5674,22 +5679,22 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>16</v>
@@ -5698,15 +5703,15 @@
         <v>8</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>16</v>
@@ -5715,18 +5720,18 @@
         <v>8</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>8</v>
@@ -5736,10 +5741,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>8</v>
@@ -5748,22 +5753,22 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>16</v>
@@ -5772,18 +5777,18 @@
         <v>8</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>8</v>
@@ -5793,25 +5798,25 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>8</v>
@@ -5821,10 +5826,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>8</v>
@@ -5834,10 +5839,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>8</v>
@@ -5847,10 +5852,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>8</v>
@@ -5860,10 +5865,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>8</v>
@@ -5873,10 +5878,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>8</v>
@@ -5886,10 +5891,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>8</v>
@@ -5899,10 +5904,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>8</v>
@@ -5912,7 +5917,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>7</v>
@@ -5922,15 +5927,15 @@
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>8</v>
@@ -5940,7 +5945,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>19</v>
@@ -5950,30 +5955,30 @@
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E177" s="10"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>8</v>
@@ -5983,10 +5988,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>8</v>
@@ -5996,10 +6001,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>8</v>
@@ -6009,10 +6014,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>8</v>
@@ -6022,10 +6027,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>8</v>
@@ -6035,10 +6040,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>8</v>
@@ -6048,7 +6053,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>16</v>
@@ -6057,18 +6062,18 @@
         <v>8</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>8</v>
@@ -6078,7 +6083,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>19</v>
@@ -6091,10 +6096,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>8</v>
@@ -6104,25 +6109,25 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>8</v>
@@ -6132,10 +6137,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>8</v>
@@ -6145,10 +6150,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>8</v>
@@ -6158,10 +6163,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>8</v>
@@ -6171,10 +6176,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>8</v>
@@ -6184,55 +6189,55 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>8</v>
@@ -6242,10 +6247,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>8</v>
@@ -6255,25 +6260,25 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>8</v>
@@ -6283,7 +6288,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>19</v>
@@ -6296,10 +6301,10 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>8</v>
@@ -6309,42 +6314,42 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>8</v>
@@ -6354,10 +6359,10 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>8</v>
@@ -6367,10 +6372,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>8</v>
@@ -6380,7 +6385,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>16</v>
@@ -6389,18 +6394,18 @@
         <v>8</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>8</v>
@@ -6410,10 +6415,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>8</v>
@@ -6423,10 +6428,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>8</v>
@@ -6436,10 +6441,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>8</v>
@@ -6449,25 +6454,25 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>8</v>
@@ -6477,25 +6482,25 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>8</v>
@@ -6505,25 +6510,25 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>8</v>
@@ -6533,10 +6538,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>8</v>
@@ -6546,10 +6551,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>8</v>
@@ -6559,7 +6564,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>16</v>
@@ -6568,19 +6573,19 @@
         <v>8</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>8</v>
@@ -6590,10 +6595,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>8</v>
@@ -6603,10 +6608,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>8</v>
@@ -6616,10 +6621,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>8</v>
@@ -6629,10 +6634,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>8</v>
@@ -6642,10 +6647,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>8</v>
@@ -6655,7 +6660,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>16</v>
@@ -6664,13 +6669,13 @@
         <v>8</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E228" s="10"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>16</v>
@@ -6679,16 +6684,16 @@
         <v>8</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E229" s="10"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>8</v>
@@ -6698,10 +6703,10 @@
     </row>
     <row r="231" ht="14.15" spans="1:5">
       <c r="A231" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>8</v>
@@ -6711,25 +6716,25 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>8</v>
@@ -6739,10 +6744,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>8</v>
@@ -6752,10 +6757,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>8</v>
@@ -6765,10 +6770,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>8</v>
@@ -6778,10 +6783,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>8</v>
@@ -6791,10 +6796,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>8</v>
@@ -6804,10 +6809,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>8</v>
@@ -6817,10 +6822,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>8</v>
@@ -6830,10 +6835,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>8</v>
@@ -6843,7 +6848,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>7</v>
@@ -6856,25 +6861,25 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="9"/>
       <c r="E243" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="244" ht="15" spans="1:5">
       <c r="A244" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>8</v>
@@ -6884,25 +6889,25 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>8</v>
@@ -6912,10 +6917,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>8</v>
@@ -6925,10 +6930,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>8</v>
@@ -6938,10 +6943,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>8</v>
@@ -6951,10 +6956,10 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>8</v>
@@ -6964,10 +6969,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>8</v>
@@ -6977,10 +6982,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>8</v>
@@ -6990,10 +6995,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>8</v>
@@ -7003,10 +7008,10 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>8</v>
@@ -7016,10 +7021,10 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>8</v>
@@ -7029,10 +7034,10 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>8</v>
@@ -7041,10 +7046,10 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>8</v>
@@ -7054,7 +7059,7 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>7</v>
@@ -7067,10 +7072,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>8</v>
@@ -7080,7 +7085,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>16</v>
@@ -7089,16 +7094,16 @@
         <v>8</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E260" s="10"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>8</v>
@@ -7108,10 +7113,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>8</v>
@@ -7121,10 +7126,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>8</v>
@@ -7134,10 +7139,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>8</v>
@@ -7147,10 +7152,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>8</v>
@@ -7160,10 +7165,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>8</v>
@@ -7173,7 +7178,7 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>7</v>
@@ -7186,10 +7191,10 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>8</v>
@@ -7199,10 +7204,10 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>8</v>
@@ -7212,40 +7217,40 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>8</v>
@@ -7255,25 +7260,25 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>8</v>
@@ -7283,10 +7288,10 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>8</v>
@@ -7296,10 +7301,10 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>8</v>
@@ -7309,7 +7314,7 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>16</v>
@@ -7318,16 +7323,16 @@
         <v>8</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E277" s="10"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>8</v>
@@ -7337,10 +7342,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>8</v>
@@ -7350,7 +7355,7 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>16</v>
@@ -7359,18 +7364,18 @@
         <v>8</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>8</v>
@@ -7380,25 +7385,25 @@
     </row>
     <row r="282" ht="14.15" spans="1:5">
       <c r="A282" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>8</v>
@@ -7408,10 +7413,10 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>8</v>
@@ -7421,10 +7426,10 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>8</v>
@@ -7434,10 +7439,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>8</v>
@@ -7447,10 +7452,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>8</v>
@@ -7460,10 +7465,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>8</v>
@@ -7473,10 +7478,10 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>8</v>
@@ -7486,10 +7491,10 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>8</v>
@@ -7499,10 +7504,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>8</v>
@@ -7512,25 +7517,25 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>8</v>
@@ -7540,10 +7545,10 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C294" s="8" t="s">
         <v>8</v>
@@ -7553,10 +7558,10 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C295" s="8" t="s">
         <v>8</v>
@@ -7566,10 +7571,10 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>8</v>
@@ -7579,25 +7584,25 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="9"/>
       <c r="E297" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>8</v>
@@ -7607,10 +7612,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>8</v>
@@ -7620,10 +7625,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>8</v>
@@ -7633,7 +7638,7 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>7</v>
@@ -7646,10 +7651,10 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>8</v>
@@ -7659,7 +7664,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>16</v>
@@ -7668,18 +7673,18 @@
         <v>8</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E303" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C304" s="8" t="s">
         <v>8</v>
@@ -7689,10 +7694,10 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C305" s="8" t="s">
         <v>8</v>
@@ -7702,10 +7707,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>8</v>
@@ -7715,10 +7720,10 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>8</v>
@@ -7728,7 +7733,7 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>16</v>
@@ -7737,18 +7742,18 @@
         <v>8</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>8</v>
@@ -7758,7 +7763,7 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>16</v>
@@ -7767,18 +7772,18 @@
         <v>8</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C311" s="8" t="s">
         <v>8</v>
@@ -7788,25 +7793,25 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C312" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>8</v>
@@ -7816,10 +7821,10 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>8</v>
@@ -7829,10 +7834,10 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C315" s="8" t="s">
         <v>8</v>
@@ -7842,25 +7847,25 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="9"/>
       <c r="E316" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>8</v>
@@ -7870,10 +7875,10 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>8</v>
@@ -7883,10 +7888,10 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C319" s="8" t="s">
         <v>8</v>
@@ -7896,7 +7901,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>21</v>
@@ -7909,10 +7914,10 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>8</v>
@@ -7922,10 +7927,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C322" s="8" t="s">
         <v>8</v>
@@ -7935,10 +7940,10 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C323" s="8" t="s">
         <v>8</v>
@@ -7948,10 +7953,10 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>8</v>
@@ -7961,10 +7966,10 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>8</v>
@@ -7974,10 +7979,10 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>8</v>
@@ -7987,10 +7992,10 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>8</v>
@@ -8000,10 +8005,10 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>8</v>
@@ -8013,55 +8018,55 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="9"/>
       <c r="E329" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="9"/>
       <c r="E330" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C331" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="9"/>
       <c r="E331" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C332" s="8" t="s">
         <v>8</v>
@@ -8071,10 +8076,10 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>8</v>
@@ -8084,10 +8089,10 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C334" s="8" t="s">
         <v>8</v>
@@ -8097,25 +8102,25 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C335" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="9"/>
       <c r="E335" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C336" s="8" t="s">
         <v>8</v>
@@ -8125,22 +8130,22 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C337" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="9"/>
       <c r="E337" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>11</v>
@@ -8153,10 +8158,10 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C339" s="8" t="s">
         <v>8</v>
@@ -8166,10 +8171,10 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C340" s="8" t="s">
         <v>8</v>
@@ -8179,10 +8184,10 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>8</v>
@@ -8192,10 +8197,10 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C342" s="8" t="s">
         <v>8</v>
@@ -8205,10 +8210,10 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C343" s="8" t="s">
         <v>8</v>
@@ -8218,27 +8223,27 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C344" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C345" s="8" t="s">
         <v>8</v>
@@ -8248,10 +8253,10 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C346" s="8" t="s">
         <v>8</v>
@@ -8261,10 +8266,10 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C347" s="8" t="s">
         <v>8</v>
@@ -8274,10 +8279,10 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C348" s="8" t="s">
         <v>8</v>
@@ -8287,10 +8292,10 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C349" s="8" t="s">
         <v>8</v>
@@ -8300,10 +8305,10 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C350" s="8" t="s">
         <v>8</v>
@@ -8313,10 +8318,10 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C351" s="8" t="s">
         <v>8</v>
@@ -8326,10 +8331,10 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C352" s="8" t="s">
         <v>8</v>
@@ -8339,886 +8344,886 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D353" s="9"/>
       <c r="E353" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D354" s="9"/>
       <c r="E354" s="10"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C355" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>616</v>
       </c>
       <c r="D355" s="9"/>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D356" s="9"/>
       <c r="E356" s="10"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E357" s="10"/>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D358" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="C358" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="D358" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D359" s="9"/>
       <c r="E359" s="10"/>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E361" s="10"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D362" s="9"/>
       <c r="E362" s="10"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D364" s="9"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D366" s="9"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D368" s="9"/>
       <c r="E368" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D369" s="9"/>
       <c r="E369" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D370" s="9"/>
       <c r="E370" s="10"/>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D371" s="9"/>
       <c r="E371" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D372" s="9"/>
       <c r="E372" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D373" s="9"/>
       <c r="E373" s="10"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D376" s="9"/>
       <c r="E376" s="10"/>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D377" s="9"/>
       <c r="E377" s="10"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D379" s="9"/>
       <c r="E379" s="10"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E380" s="10"/>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E381" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E382" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E383" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D384" s="9"/>
       <c r="E384" s="10"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D385" s="9"/>
       <c r="E385" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E386" s="10"/>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D387" s="9"/>
       <c r="E387" s="10"/>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D388" s="9"/>
       <c r="E388" s="10"/>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E389" s="10"/>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E390" s="10"/>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D391" s="9"/>
       <c r="E391" s="10"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D392" s="9"/>
       <c r="E392" s="10"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E393" s="10"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D394" s="9"/>
       <c r="E394" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E395" s="10"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E396" s="10"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D397" s="9"/>
       <c r="E397" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D398" s="9"/>
       <c r="E398" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D399" s="9"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D400" s="9"/>
       <c r="E400" s="10"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B401" s="17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D401" s="9"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="8" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D402" s="9"/>
       <c r="E402" s="10"/>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E403" s="10"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D404" s="9"/>
       <c r="E404" s="10"/>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D405" s="9"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D406" s="9"/>
       <c r="E406" s="10"/>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D407" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E407" s="10"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D408" s="9"/>
       <c r="E408" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D409" s="9"/>
       <c r="E409" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D410" s="9"/>
       <c r="E410" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D411" s="9"/>
       <c r="E411" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D412" s="9"/>
       <c r="E412" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D413" s="9"/>
       <c r="E413" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="414" spans="1:5">

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="968">
   <si>
     <t>歌名</t>
   </si>
@@ -739,12 +739,6 @@
     <t>snow halation</t>
   </si>
   <si>
-    <t>戴上假睫毛</t>
-  </si>
-  <si>
-    <t>きゃりーぱみゅぱみゅ</t>
-  </si>
-  <si>
     <t>Bad apple</t>
   </si>
   <si>
@@ -2947,10 +2941,13 @@
     <t>莫名其妙爱上你</t>
   </si>
   <si>
+    <t>戴上假睫毛</t>
+  </si>
+  <si>
+    <t>竹村桐子</t>
+  </si>
+  <si>
     <t>PONPONPON</t>
-  </si>
-  <si>
-    <t>竹村桐子</t>
   </si>
   <si>
     <t>忍者棒棒/にんじゃりばんばん</t>
@@ -3736,7 +3733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3784,9 +3781,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4179,9 +4173,9 @@
   <dimension ref="A1:F1085"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B551" sqref="B551"/>
+      <selection pane="bottomLeft" activeCell="H568" sqref="H568:H569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4481,7 +4475,6 @@
       <c r="C24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5">
@@ -4494,7 +4487,6 @@
       <c r="C25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="2"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5">
@@ -4507,7 +4499,6 @@
       <c r="C26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:3">
@@ -4747,7 +4738,6 @@
       <c r="C43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="2"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:4">
@@ -4976,7 +4966,6 @@
       <c r="C60" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="2"/>
       <c r="E60" t="s">
         <v>110</v>
       </c>
@@ -5035,7 +5024,6 @@
       <c r="C65" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="2"/>
       <c r="E65" t="s">
         <v>120</v>
       </c>
@@ -6166,32 +6154,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
+    <row r="144" spans="1:5">
+      <c r="A144" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="8" t="s">
+      <c r="D144" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E144" t="s">
         <v>239</v>
       </c>
-      <c r="B145" s="8" t="s">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
         <v>240</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="B145" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" t="s">
         <v>11</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E145" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -6205,7 +6193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>244</v>
       </c>
@@ -6215,69 +6203,69 @@
       <c r="C147" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="E147" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B148" t="s">
-        <v>247</v>
-      </c>
-      <c r="C148" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="C148" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>249</v>
       </c>
       <c r="B149" t="s">
         <v>250</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
       </c>
-      <c r="E150" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>254</v>
       </c>
       <c r="B151" t="s">
+        <v>253</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
         <v>255</v>
       </c>
-      <c r="C151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>256</v>
       </c>
       <c r="B152" t="s">
-        <v>255</v>
-      </c>
-      <c r="C152" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" t="s">
         <v>257</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -6298,7 +6286,7 @@
       <c r="B154" t="s">
         <v>261</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6313,162 +6301,155 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>264</v>
       </c>
       <c r="B156" t="s">
+        <v>263</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
         <v>265</v>
       </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" t="s">
+      <c r="A157" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B157" t="s">
-        <v>265</v>
-      </c>
-      <c r="C157" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s">
+      <c r="B157" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="8" t="s">
+      <c r="B158" t="s">
+        <v>263</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
         <v>268</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="9"/>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
         <v>269</v>
       </c>
-      <c r="B159" t="s">
-        <v>265</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" s="9">
+        <v>2534165585</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>270</v>
       </c>
       <c r="B160" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
         <v>271</v>
       </c>
-      <c r="C160" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="F160" s="9">
-        <v>2534165585</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s">
+      <c r="F161" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>274</v>
       </c>
       <c r="B162" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
       </c>
-      <c r="D162" s="2"/>
-      <c r="F162" s="3" t="s">
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
+        <v>269</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
         <v>276</v>
       </c>
-      <c r="B163" t="s">
-        <v>271</v>
-      </c>
-      <c r="C163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>277</v>
       </c>
       <c r="B164" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
       </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s">
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
+        <v>269</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
         <v>279</v>
       </c>
-      <c r="B165" t="s">
-        <v>271</v>
-      </c>
-      <c r="C165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="8" t="s">
+      <c r="B166" t="s">
         <v>280</v>
       </c>
-      <c r="B166" t="s">
-        <v>271</v>
-      </c>
       <c r="C166" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="E166" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B167" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -6476,7 +6457,7 @@
         <v>284</v>
       </c>
       <c r="B168" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
@@ -6484,10 +6465,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B169" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
@@ -6495,10 +6476,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C170" t="s">
         <v>8</v>
@@ -6506,10 +6487,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B171" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C171" t="s">
         <v>8</v>
@@ -6517,10 +6498,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C172" t="s">
         <v>8</v>
@@ -6528,10 +6509,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B173" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
@@ -6539,10 +6520,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>290</v>
+      </c>
+      <c r="B174" t="s">
         <v>291</v>
-      </c>
-      <c r="B174" t="s">
-        <v>285</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -6556,7 +6537,7 @@
         <v>293</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -6564,34 +6545,34 @@
         <v>294</v>
       </c>
       <c r="B176" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B177" t="s">
-        <v>295</v>
-      </c>
-      <c r="C177" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="8" t="s">
+      <c r="C177" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
         <v>297</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" t="s">
         <v>298</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" s="9"/>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
@@ -6604,39 +6585,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>301</v>
       </c>
       <c r="B180" t="s">
+        <v>300</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
         <v>302</v>
       </c>
-      <c r="C180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>303</v>
       </c>
       <c r="B181" t="s">
-        <v>302</v>
-      </c>
-      <c r="C181" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>304</v>
+      </c>
+      <c r="B182" t="s">
         <v>305</v>
       </c>
-      <c r="B182" t="s">
-        <v>302</v>
-      </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6647,32 +6628,32 @@
       <c r="B183" t="s">
         <v>307</v>
       </c>
-      <c r="C183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
+      <c r="C183" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
         <v>310</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" t="s">
         <v>311</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" s="9"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
@@ -6681,29 +6662,29 @@
       <c r="B186" t="s">
         <v>313</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="s">
+      <c r="A187" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="8" t="s">
+      <c r="A188" t="s">
         <v>316</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" t="s">
         <v>317</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6712,7 +6693,7 @@
         <v>318</v>
       </c>
       <c r="B189" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C189" t="s">
         <v>8</v>
@@ -6720,10 +6701,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B190" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
@@ -6731,10 +6712,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B191" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
@@ -6742,12 +6723,12 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>321</v>
+      </c>
+      <c r="B192" t="s">
         <v>322</v>
       </c>
-      <c r="B192" t="s">
-        <v>319</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="C192" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6758,41 +6739,41 @@
       <c r="B193" t="s">
         <v>324</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>325</v>
       </c>
       <c r="B194" t="s">
+        <v>324</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
         <v>326</v>
       </c>
-      <c r="C194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>327</v>
       </c>
       <c r="B195" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C195" t="s">
         <v>8</v>
-      </c>
-      <c r="E195" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B196" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C196" t="s">
         <v>8</v>
@@ -6800,164 +6781,164 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
+        <v>329</v>
+      </c>
+      <c r="B197" t="s">
+        <v>324</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
         <v>330</v>
       </c>
-      <c r="B197" t="s">
-        <v>326</v>
-      </c>
-      <c r="C197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
+        <v>324</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s">
         <v>331</v>
       </c>
-      <c r="B198" t="s">
-        <v>326</v>
-      </c>
-      <c r="C198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>332</v>
       </c>
       <c r="B199" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
-      </c>
-      <c r="E199" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
+        <v>333</v>
+      </c>
+      <c r="B200" t="s">
+        <v>324</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
         <v>334</v>
       </c>
-      <c r="B200" t="s">
-        <v>326</v>
-      </c>
-      <c r="C200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="B201" t="s">
+        <v>324</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
         <v>335</v>
       </c>
-      <c r="B201" t="s">
-        <v>326</v>
-      </c>
-      <c r="C201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>336</v>
       </c>
       <c r="B202" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C202" t="s">
         <v>8</v>
-      </c>
-      <c r="E202" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
+        <v>337</v>
+      </c>
+      <c r="B203" t="s">
+        <v>324</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
         <v>338</v>
       </c>
-      <c r="B203" t="s">
-        <v>326</v>
-      </c>
-      <c r="C203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
+      <c r="B204" t="s">
+        <v>324</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
         <v>339</v>
       </c>
-      <c r="B204" t="s">
-        <v>326</v>
-      </c>
-      <c r="C204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B205" t="s">
-        <v>326</v>
-      </c>
-      <c r="C205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="B205" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9">
+        <v>2536595683</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="8" t="s">
+      <c r="B206" t="s">
+        <v>324</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
         <v>342</v>
       </c>
-      <c r="B206" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" s="9"/>
-      <c r="F206" s="9">
-        <v>2536595683</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
+      <c r="B207" t="s">
         <v>343</v>
       </c>
-      <c r="B207" t="s">
-        <v>326</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="3">
+        <v>2531882234</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>344</v>
       </c>
       <c r="B208" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C208" t="s">
         <v>8</v>
-      </c>
-      <c r="F208" s="3">
-        <v>2531882234</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>345</v>
+      </c>
+      <c r="B209" t="s">
         <v>346</v>
       </c>
-      <c r="B209" t="s">
-        <v>345</v>
-      </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>347</v>
       </c>
@@ -6965,7 +6946,10 @@
         <v>348</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6973,7 +6957,7 @@
         <v>349</v>
       </c>
       <c r="B211" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C211" t="s">
         <v>11</v>
@@ -6982,18 +6966,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B212" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C212" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="E212" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7001,7 +6988,7 @@
         <v>352</v>
       </c>
       <c r="B213" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C213" t="s">
         <v>11</v>
@@ -7018,7 +7005,7 @@
         <v>354</v>
       </c>
       <c r="B214" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C214" t="s">
         <v>11</v>
@@ -7031,16 +7018,16 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" t="s">
+      <c r="A215" s="8" t="s">
         <v>356</v>
       </c>
       <c r="B215" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C215" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E215" t="s">
@@ -7048,16 +7035,16 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="8" t="s">
+      <c r="A216" t="s">
         <v>358</v>
       </c>
       <c r="B216" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C216" t="s">
         <v>11</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D216" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E216" t="s">
@@ -7069,7 +7056,7 @@
         <v>360</v>
       </c>
       <c r="B217" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C217" t="s">
         <v>11</v>
@@ -7086,7 +7073,7 @@
         <v>362</v>
       </c>
       <c r="B218" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C218" t="s">
         <v>11</v>
@@ -7098,12 +7085,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>364</v>
       </c>
       <c r="B219" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C219" t="s">
         <v>11</v>
@@ -7111,22 +7098,22 @@
       <c r="D219" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E219" t="s">
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>366</v>
-      </c>
       <c r="B220" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C220" t="s">
         <v>11</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="E220" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7134,7 +7121,7 @@
         <v>367</v>
       </c>
       <c r="B221" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C221" t="s">
         <v>11</v>
@@ -7146,12 +7133,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>369</v>
       </c>
       <c r="B222" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C222" t="s">
         <v>11</v>
@@ -7159,16 +7146,13 @@
       <c r="D222" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E222" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C223" t="s">
         <v>11</v>
@@ -7179,10 +7163,10 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B224" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C224" t="s">
         <v>11</v>
@@ -7193,10 +7177,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B225" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C225" t="s">
         <v>11</v>
@@ -7205,26 +7189,27 @@
         <v>57</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
+        <v>373</v>
+      </c>
+      <c r="B226" t="s">
+        <v>348</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E226" s="9"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B226" t="s">
-        <v>350</v>
-      </c>
-      <c r="C226" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>375</v>
-      </c>
-      <c r="B227" t="s">
-        <v>350</v>
+      <c r="B227" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>11</v>
@@ -7236,10 +7221,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>11</v>
@@ -7249,27 +7234,26 @@
       </c>
       <c r="E228" s="9"/>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C229" s="8" t="s">
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>376</v>
+      </c>
+      <c r="B229" t="s">
+        <v>348</v>
+      </c>
+      <c r="C229" t="s">
         <v>11</v>
       </c>
-      <c r="D229" s="11" t="s">
+      <c r="D229" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E229" s="9"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B230" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C230" t="s">
         <v>11</v>
@@ -7280,10 +7264,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B231" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C231" t="s">
         <v>11</v>
@@ -7294,10 +7278,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B232" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C232" t="s">
         <v>11</v>
@@ -7308,10 +7292,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B233" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C233" t="s">
         <v>11</v>
@@ -7320,54 +7304,51 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
+    <row r="234" spans="1:3">
+      <c r="A234" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B234" t="s">
         <v>382</v>
-      </c>
-      <c r="B234" t="s">
-        <v>350</v>
       </c>
       <c r="C234" t="s">
         <v>11</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="8" t="s">
+      <c r="A235" t="s">
         <v>383</v>
       </c>
       <c r="B235" t="s">
         <v>384</v>
       </c>
-      <c r="C235" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="C235" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>385</v>
       </c>
       <c r="B236" t="s">
         <v>386</v>
       </c>
-      <c r="C236" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B237" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
-      </c>
-      <c r="E237" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -7375,7 +7356,7 @@
         <v>390</v>
       </c>
       <c r="B238" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C238" t="s">
         <v>11</v>
@@ -7383,46 +7364,46 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>391</v>
+      </c>
+      <c r="B239" t="s">
         <v>392</v>
       </c>
-      <c r="B239" t="s">
-        <v>391</v>
-      </c>
       <c r="C239" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>393</v>
       </c>
       <c r="B240" t="s">
+        <v>392</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" t="s">
         <v>394</v>
       </c>
-      <c r="C240" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>395</v>
       </c>
       <c r="B241" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C241" t="s">
         <v>8</v>
-      </c>
-      <c r="E241" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B242" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C242" t="s">
         <v>8</v>
@@ -7430,10 +7411,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>397</v>
+      </c>
+      <c r="B243" t="s">
         <v>398</v>
-      </c>
-      <c r="B243" t="s">
-        <v>394</v>
       </c>
       <c r="C243" t="s">
         <v>8</v>
@@ -7444,7 +7425,7 @@
         <v>399</v>
       </c>
       <c r="B244" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -7452,80 +7433,80 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
+        <v>400</v>
+      </c>
+      <c r="B245" t="s">
+        <v>398</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
         <v>401</v>
       </c>
-      <c r="B245" t="s">
-        <v>400</v>
-      </c>
-      <c r="C245" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
+      <c r="B246" t="s">
+        <v>398</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246" t="s">
         <v>402</v>
       </c>
-      <c r="B246" t="s">
-        <v>400</v>
-      </c>
-      <c r="C246" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>403</v>
       </c>
       <c r="B247" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
-      </c>
-      <c r="E247" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>404</v>
+      </c>
+      <c r="B248" t="s">
+        <v>398</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B248" t="s">
-        <v>400</v>
-      </c>
-      <c r="C248" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" t="s">
+      <c r="B249" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" s="9"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
         <v>406</v>
       </c>
-      <c r="B249" t="s">
-        <v>400</v>
-      </c>
-      <c r="C249" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="8" t="s">
+      <c r="B250" t="s">
         <v>407</v>
       </c>
-      <c r="B250" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E250" s="9"/>
+      <c r="C250" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>408</v>
       </c>
       <c r="B251" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C251" t="s">
         <v>8</v>
@@ -7533,10 +7514,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>409</v>
+      </c>
+      <c r="B252" t="s">
         <v>410</v>
-      </c>
-      <c r="B252" t="s">
-        <v>409</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
@@ -7558,7 +7539,7 @@
         <v>413</v>
       </c>
       <c r="B254" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
@@ -7566,10 +7547,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>414</v>
+      </c>
+      <c r="B255" t="s">
         <v>415</v>
-      </c>
-      <c r="B255" t="s">
-        <v>414</v>
       </c>
       <c r="C255" t="s">
         <v>8</v>
@@ -7591,7 +7572,7 @@
         <v>418</v>
       </c>
       <c r="B257" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C257" t="s">
         <v>8</v>
@@ -7599,10 +7580,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>419</v>
+      </c>
+      <c r="B258" t="s">
         <v>420</v>
-      </c>
-      <c r="B258" t="s">
-        <v>419</v>
       </c>
       <c r="C258" t="s">
         <v>8</v>
@@ -7624,7 +7605,7 @@
         <v>423</v>
       </c>
       <c r="B260" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C260" t="s">
         <v>8</v>
@@ -7632,13 +7613,13 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>424</v>
+      </c>
+      <c r="B261" t="s">
         <v>425</v>
       </c>
-      <c r="B261" t="s">
-        <v>424</v>
-      </c>
       <c r="C261" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -7649,7 +7630,7 @@
         <v>427</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -7657,35 +7638,35 @@
         <v>428</v>
       </c>
       <c r="B263" t="s">
+        <v>427</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
         <v>429</v>
       </c>
-      <c r="C263" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
+      <c r="B264" t="s">
         <v>430</v>
       </c>
-      <c r="B264" t="s">
-        <v>429</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="C264" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>431</v>
       </c>
       <c r="B265" t="s">
         <v>432</v>
       </c>
-      <c r="C265" t="s">
-        <v>11</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>57</v>
+      <c r="C265" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -7695,11 +7676,11 @@
       <c r="B266" t="s">
         <v>434</v>
       </c>
-      <c r="C266" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>435</v>
       </c>
@@ -7709,47 +7690,47 @@
       <c r="C267" t="s">
         <v>8</v>
       </c>
+      <c r="E267" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B268" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
       </c>
       <c r="E268" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B269" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E269" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B270" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C270" t="s">
-        <v>11</v>
-      </c>
-      <c r="E270" t="s">
-        <v>445</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -7760,10 +7741,10 @@
         <v>447</v>
       </c>
       <c r="C271" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>448</v>
       </c>
@@ -7771,24 +7752,24 @@
         <v>449</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B273" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C273" t="s">
         <v>8</v>
       </c>
-      <c r="F273" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>453</v>
       </c>
@@ -7798,33 +7779,33 @@
       <c r="C274" t="s">
         <v>8</v>
       </c>
+      <c r="E274" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>455</v>
-      </c>
-      <c r="B275" t="s">
         <v>456</v>
       </c>
+      <c r="B275" s="13" t="s">
+        <v>457</v>
+      </c>
       <c r="C275" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E275" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>458</v>
-      </c>
-      <c r="B276" s="13" t="s">
         <v>459</v>
       </c>
+      <c r="B276" t="s">
+        <v>460</v>
+      </c>
       <c r="C276" t="s">
-        <v>11</v>
-      </c>
-      <c r="E276" t="s">
-        <v>460</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -7857,7 +7838,7 @@
         <v>466</v>
       </c>
       <c r="C279" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -7868,7 +7849,7 @@
         <v>468</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -7876,20 +7857,20 @@
         <v>469</v>
       </c>
       <c r="B281" t="s">
-        <v>470</v>
-      </c>
-      <c r="C281" t="s">
+        <v>468</v>
+      </c>
+      <c r="C281" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>470</v>
+      </c>
+      <c r="B282" t="s">
         <v>471</v>
       </c>
-      <c r="B282" t="s">
-        <v>470</v>
-      </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7904,7 +7885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>474</v>
       </c>
@@ -7914,28 +7895,30 @@
       <c r="C284" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="F284" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B285" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C285" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="2"/>
-      <c r="F285" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>479</v>
       </c>
       <c r="B286" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C286" t="s">
         <v>11</v>
@@ -7943,13 +7926,16 @@
       <c r="D286" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="E286" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>481</v>
       </c>
       <c r="B287" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C287" t="s">
         <v>11</v>
@@ -7957,16 +7943,13 @@
       <c r="D287" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E287" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
+        <v>482</v>
+      </c>
+      <c r="B288" t="s">
         <v>483</v>
-      </c>
-      <c r="B288" t="s">
-        <v>480</v>
       </c>
       <c r="C288" t="s">
         <v>11</v>
@@ -7975,7 +7958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>484</v>
       </c>
@@ -7983,85 +7966,83 @@
         <v>485</v>
       </c>
       <c r="C289" t="s">
-        <v>11</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2"/>
+      <c r="E289" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B290" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C290" t="s">
         <v>8</v>
       </c>
-      <c r="E290" t="s">
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" t="s">
+      <c r="B291" t="s">
+        <v>485</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" t="s">
         <v>489</v>
       </c>
-      <c r="B291" t="s">
-        <v>487</v>
-      </c>
-      <c r="C291" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>490</v>
       </c>
       <c r="B292" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C292" t="s">
         <v>8</v>
-      </c>
-      <c r="E292" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>491</v>
+      </c>
+      <c r="B293" t="s">
+        <v>485</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
         <v>492</v>
       </c>
-      <c r="B293" t="s">
-        <v>487</v>
-      </c>
-      <c r="C293" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" t="s">
+      <c r="B294" t="s">
         <v>493</v>
       </c>
-      <c r="B294" t="s">
-        <v>487</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="C294" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B295" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C295" t="s">
         <v>8</v>
-      </c>
-      <c r="E295" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -8069,35 +8050,35 @@
         <v>497</v>
       </c>
       <c r="B296" t="s">
+        <v>496</v>
+      </c>
+      <c r="C296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
         <v>498</v>
       </c>
-      <c r="C296" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" t="s">
+      <c r="B297" t="s">
         <v>499</v>
       </c>
-      <c r="B297" t="s">
-        <v>498</v>
-      </c>
-      <c r="C297" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="C297" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>500</v>
       </c>
       <c r="B298" t="s">
         <v>501</v>
       </c>
-      <c r="C298" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>57</v>
+      <c r="C298" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -8122,7 +8103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>506</v>
       </c>
@@ -8132,22 +8113,22 @@
       <c r="C301" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="E301" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B302" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C302" t="s">
         <v>8</v>
       </c>
-      <c r="E302" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>511</v>
       </c>
@@ -8157,19 +8138,19 @@
       <c r="C303" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="E303" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B304" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C304" t="s">
-        <v>8</v>
-      </c>
-      <c r="E304" t="s">
-        <v>515</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -8180,7 +8161,7 @@
         <v>517</v>
       </c>
       <c r="C305" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -8188,7 +8169,7 @@
         <v>518</v>
       </c>
       <c r="B306" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C306" t="s">
         <v>8</v>
@@ -8196,46 +8177,46 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
+        <v>519</v>
+      </c>
+      <c r="B307" t="s">
+        <v>517</v>
+      </c>
+      <c r="C307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
         <v>520</v>
       </c>
-      <c r="B307" t="s">
-        <v>519</v>
-      </c>
-      <c r="C307" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" t="s">
+      <c r="B308" t="s">
+        <v>517</v>
+      </c>
+      <c r="C308" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" t="s">
         <v>521</v>
       </c>
-      <c r="B308" t="s">
-        <v>519</v>
-      </c>
-      <c r="C308" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>522</v>
       </c>
       <c r="B309" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C309" t="s">
         <v>8</v>
-      </c>
-      <c r="E309" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B310" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C310" t="s">
         <v>8</v>
@@ -8243,10 +8224,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B311" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C311" t="s">
         <v>8</v>
@@ -8254,23 +8235,23 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B312" t="s">
-        <v>519</v>
-      </c>
-      <c r="C312" t="s">
+        <v>517</v>
+      </c>
+      <c r="C312" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
+        <v>526</v>
+      </c>
+      <c r="B313" t="s">
         <v>527</v>
       </c>
-      <c r="B313" t="s">
-        <v>519</v>
-      </c>
-      <c r="C313" s="8" t="s">
+      <c r="C313" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8285,7 +8266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>530</v>
       </c>
@@ -8295,77 +8276,77 @@
       <c r="C315" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="F315" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B316" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C316" t="s">
         <v>8</v>
       </c>
-      <c r="F316" s="3" t="s">
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" t="s">
+      <c r="B317" t="s">
+        <v>531</v>
+      </c>
+      <c r="C317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B317" t="s">
-        <v>533</v>
-      </c>
-      <c r="C317" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>536</v>
       </c>
       <c r="B318" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C318" t="s">
         <v>8</v>
       </c>
-      <c r="F318" s="3" t="s">
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" t="s">
+      <c r="B319" t="s">
+        <v>531</v>
+      </c>
+      <c r="C319" t="s">
+        <v>8</v>
+      </c>
+      <c r="E319" t="s">
         <v>538</v>
       </c>
-      <c r="B319" t="s">
-        <v>533</v>
-      </c>
-      <c r="C319" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>539</v>
       </c>
       <c r="B320" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C320" t="s">
         <v>8</v>
-      </c>
-      <c r="E320" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B321" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C321" t="s">
         <v>8</v>
@@ -8373,60 +8354,63 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
+        <v>541</v>
+      </c>
+      <c r="B322" t="s">
+        <v>531</v>
+      </c>
+      <c r="C322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
         <v>542</v>
       </c>
-      <c r="B322" t="s">
-        <v>533</v>
-      </c>
-      <c r="C322" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" t="s">
+      <c r="B323" t="s">
+        <v>531</v>
+      </c>
+      <c r="C323" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323" t="s">
         <v>543</v>
       </c>
-      <c r="B323" t="s">
-        <v>533</v>
-      </c>
-      <c r="C323" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>544</v>
       </c>
       <c r="B324" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C324" t="s">
         <v>8</v>
-      </c>
-      <c r="E324" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
+        <v>545</v>
+      </c>
+      <c r="B325" t="s">
+        <v>531</v>
+      </c>
+      <c r="C325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
         <v>546</v>
       </c>
-      <c r="B325" t="s">
-        <v>533</v>
-      </c>
-      <c r="C325" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" t="s">
+      <c r="B326" t="s">
+        <v>531</v>
+      </c>
+      <c r="C326" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326" t="s">
         <v>547</v>
-      </c>
-      <c r="B326" t="s">
-        <v>533</v>
-      </c>
-      <c r="C326" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8434,7 +8418,7 @@
         <v>548</v>
       </c>
       <c r="B327" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C327" t="s">
         <v>8</v>
@@ -8443,26 +8427,23 @@
         <v>549</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>550</v>
       </c>
       <c r="B328" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C328" t="s">
         <v>8</v>
-      </c>
-      <c r="E328" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B329" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C329" t="s">
         <v>8</v>
@@ -8470,10 +8451,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B330" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C330" t="s">
         <v>8</v>
@@ -8481,10 +8462,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B331" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C331" t="s">
         <v>8</v>
@@ -8492,10 +8473,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
+        <v>554</v>
+      </c>
+      <c r="B332" t="s">
         <v>555</v>
-      </c>
-      <c r="B332" t="s">
-        <v>533</v>
       </c>
       <c r="C332" t="s">
         <v>8</v>
@@ -8519,7 +8500,7 @@
       <c r="B334" t="s">
         <v>559</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8530,7 +8511,7 @@
       <c r="B335" t="s">
         <v>561</v>
       </c>
-      <c r="C335" s="8" t="s">
+      <c r="C335" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8546,24 +8527,24 @@
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" t="s">
+      <c r="A337" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="8" t="s">
+      <c r="A338" t="s">
         <v>566</v>
       </c>
-      <c r="B338" s="8" t="s">
+      <c r="B338" t="s">
         <v>567</v>
       </c>
-      <c r="C338" s="8" t="s">
+      <c r="C338" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8578,7 +8559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>570</v>
       </c>
@@ -8588,32 +8569,32 @@
       <c r="C340" t="s">
         <v>8</v>
       </c>
+      <c r="E340" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341" t="s">
-        <v>572</v>
-      </c>
-      <c r="B341" t="s">
+      <c r="A341" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="C341" t="s">
-        <v>8</v>
-      </c>
-      <c r="E341" t="s">
+      <c r="B341" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E341" s="9"/>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="8" t="s">
+      <c r="B342" t="s">
         <v>575</v>
       </c>
-      <c r="B342" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C342" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E342" s="9"/>
+      <c r="C342" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
@@ -8626,7 +8607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>578</v>
       </c>
@@ -8636,33 +8617,33 @@
       <c r="C344" t="s">
         <v>8</v>
       </c>
+      <c r="E344" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B345" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C345" t="s">
         <v>8</v>
       </c>
       <c r="E345" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B346" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C346" t="s">
         <v>8</v>
-      </c>
-      <c r="E346" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -8670,43 +8651,43 @@
         <v>586</v>
       </c>
       <c r="B347" t="s">
+        <v>585</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
         <v>587</v>
       </c>
-      <c r="C347" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" t="s">
+      <c r="B348" t="s">
         <v>588</v>
       </c>
-      <c r="B348" t="s">
-        <v>587</v>
-      </c>
-      <c r="C348" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="C348" t="s">
+        <v>8</v>
+      </c>
+      <c r="E348" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B349" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C349" t="s">
         <v>8</v>
-      </c>
-      <c r="E349" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B350" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C350" t="s">
         <v>8</v>
@@ -8714,10 +8695,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B351" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C351" t="s">
         <v>8</v>
@@ -8725,10 +8706,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
+        <v>593</v>
+      </c>
+      <c r="B352" t="s">
         <v>594</v>
-      </c>
-      <c r="B352" t="s">
-        <v>590</v>
       </c>
       <c r="C352" t="s">
         <v>8</v>
@@ -8789,54 +8770,54 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>605</v>
       </c>
       <c r="B358" t="s">
+        <v>604</v>
+      </c>
+      <c r="C358" t="s">
+        <v>8</v>
+      </c>
+      <c r="E358" t="s">
         <v>606</v>
       </c>
-      <c r="C358" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>607</v>
       </c>
       <c r="B359" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C359" t="s">
         <v>8</v>
       </c>
-      <c r="E359" t="s">
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" t="s">
+      <c r="B360" t="s">
+        <v>604</v>
+      </c>
+      <c r="C360" t="s">
+        <v>8</v>
+      </c>
+      <c r="E360" t="s">
         <v>609</v>
       </c>
-      <c r="B360" t="s">
-        <v>606</v>
-      </c>
-      <c r="C360" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>610</v>
       </c>
       <c r="B361" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C361" t="s">
         <v>8</v>
-      </c>
-      <c r="E361" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -8850,50 +8831,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>614</v>
       </c>
       <c r="B363" t="s">
+        <v>613</v>
+      </c>
+      <c r="C363" t="s">
+        <v>8</v>
+      </c>
+      <c r="E363" t="s">
         <v>615</v>
       </c>
-      <c r="C363" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>616</v>
       </c>
       <c r="B364" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C364" t="s">
         <v>8</v>
-      </c>
-      <c r="E364" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B365" t="s">
-        <v>615</v>
-      </c>
-      <c r="C365" t="s">
+        <v>613</v>
+      </c>
+      <c r="C365" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
+        <v>618</v>
+      </c>
+      <c r="B366" t="s">
         <v>619</v>
       </c>
-      <c r="B366" t="s">
-        <v>615</v>
-      </c>
-      <c r="C366" s="8" t="s">
+      <c r="C366" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8927,7 +8908,7 @@
         <v>625</v>
       </c>
       <c r="C369" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -8938,7 +8919,7 @@
         <v>627</v>
       </c>
       <c r="C370" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -8946,7 +8927,7 @@
         <v>628</v>
       </c>
       <c r="B371" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C371" t="s">
         <v>8</v>
@@ -8954,10 +8935,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B372" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C372" t="s">
         <v>8</v>
@@ -8965,10 +8946,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B373" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C373" t="s">
         <v>8</v>
@@ -8976,10 +8957,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B374" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C374" t="s">
         <v>8</v>
@@ -8987,10 +8968,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B375" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C375" t="s">
         <v>8</v>
@@ -8998,10 +8979,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B376" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C376" t="s">
         <v>8</v>
@@ -9009,10 +8990,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
+        <v>634</v>
+      </c>
+      <c r="B377" t="s">
         <v>635</v>
-      </c>
-      <c r="B377" t="s">
-        <v>629</v>
       </c>
       <c r="C377" t="s">
         <v>8</v>
@@ -9070,7 +9051,7 @@
         <v>645</v>
       </c>
       <c r="C382" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -9080,51 +9061,51 @@
       <c r="B383" t="s">
         <v>647</v>
       </c>
-      <c r="C383" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
+      <c r="C383" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" t="s">
         <v>648</v>
       </c>
       <c r="B384" t="s">
         <v>649</v>
       </c>
-      <c r="C384" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="C384" t="s">
+        <v>8</v>
+      </c>
+      <c r="F384" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B385" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C385" t="s">
         <v>8</v>
       </c>
-      <c r="F385" s="9" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
+    </row>
+    <row r="386" ht="14.25" spans="1:3">
       <c r="A386" t="s">
+        <v>330</v>
+      </c>
+      <c r="B386" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
         <v>654</v>
       </c>
-      <c r="C386" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="387" ht="14.25" spans="1:3">
-      <c r="A387" t="s">
-        <v>332</v>
-      </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" t="s">
         <v>655</v>
       </c>
       <c r="C387" t="s">
@@ -9138,7 +9119,7 @@
       <c r="B388" t="s">
         <v>657</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9149,7 +9130,7 @@
       <c r="B389" t="s">
         <v>659</v>
       </c>
-      <c r="C389" s="8" t="s">
+      <c r="C389" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9158,7 +9139,7 @@
         <v>660</v>
       </c>
       <c r="B390" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C390" t="s">
         <v>8</v>
@@ -9166,10 +9147,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B391" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C391" t="s">
         <v>8</v>
@@ -9177,10 +9158,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
+        <v>662</v>
+      </c>
+      <c r="B392" t="s">
         <v>663</v>
-      </c>
-      <c r="B392" t="s">
-        <v>661</v>
       </c>
       <c r="C392" t="s">
         <v>8</v>
@@ -9191,7 +9172,7 @@
         <v>664</v>
       </c>
       <c r="B393" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C393" t="s">
         <v>8</v>
@@ -9199,122 +9180,122 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
+        <v>665</v>
+      </c>
+      <c r="B394" t="s">
         <v>666</v>
       </c>
-      <c r="B394" t="s">
-        <v>665</v>
-      </c>
-      <c r="C394" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
+      <c r="C394" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
       <c r="A395" t="s">
         <v>667</v>
       </c>
       <c r="B395" t="s">
         <v>668</v>
       </c>
-      <c r="C395" s="8" t="s">
-        <v>8</v>
+      <c r="C395" t="s">
+        <v>8</v>
+      </c>
+      <c r="E395" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" t="s">
-        <v>669</v>
+      <c r="A396" s="8" t="s">
+        <v>670</v>
       </c>
       <c r="B396" t="s">
-        <v>670</v>
-      </c>
-      <c r="C396" t="s">
-        <v>8</v>
-      </c>
-      <c r="E396" t="s">
         <v>671</v>
       </c>
+      <c r="C396" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E396" s="9"/>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="8" t="s">
+      <c r="A397" t="s">
         <v>672</v>
       </c>
       <c r="B397" t="s">
         <v>673</v>
       </c>
-      <c r="C397" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E397" s="9"/>
+      <c r="C397" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B398" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C398" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E398" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>677</v>
-      </c>
-      <c r="B399" t="s">
         <v>678</v>
+      </c>
+      <c r="B399" s="15" t="s">
+        <v>679</v>
       </c>
       <c r="C399" t="s">
         <v>11</v>
       </c>
-      <c r="E399" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="A400" t="s">
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="B400" s="15" t="s">
+      <c r="B400" t="s">
         <v>681</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401" s="8" t="s">
+      <c r="E400" s="9"/>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
         <v>682</v>
       </c>
       <c r="B401" t="s">
         <v>683</v>
       </c>
-      <c r="C401" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E401" s="9"/>
+      <c r="C401" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>684</v>
       </c>
       <c r="B402" t="s">
-        <v>685</v>
-      </c>
-      <c r="C402" t="s">
+        <v>683</v>
+      </c>
+      <c r="C402" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
+        <v>685</v>
+      </c>
+      <c r="B403" t="s">
         <v>686</v>
       </c>
-      <c r="B403" t="s">
-        <v>685</v>
-      </c>
-      <c r="C403" s="8" t="s">
+      <c r="C403" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9334,7 +9315,7 @@
         <v>689</v>
       </c>
       <c r="B405" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
@@ -9342,38 +9323,38 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
+        <v>690</v>
+      </c>
+      <c r="B406" t="s">
+        <v>688</v>
+      </c>
+      <c r="C406" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
         <v>691</v>
       </c>
-      <c r="B406" t="s">
-        <v>690</v>
-      </c>
-      <c r="C406" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
-      <c r="A407" t="s">
+      <c r="B407" t="s">
+        <v>688</v>
+      </c>
+      <c r="C407" t="s">
+        <v>8</v>
+      </c>
+      <c r="E407" t="s">
         <v>692</v>
       </c>
-      <c r="B407" t="s">
-        <v>690</v>
-      </c>
-      <c r="C407" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>693</v>
       </c>
       <c r="B408" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
-      </c>
-      <c r="E408" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -9384,7 +9365,7 @@
         <v>696</v>
       </c>
       <c r="C409" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -9395,40 +9376,40 @@
         <v>698</v>
       </c>
       <c r="C410" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>699</v>
       </c>
       <c r="B411" t="s">
+        <v>698</v>
+      </c>
+      <c r="C411" t="s">
+        <v>8</v>
+      </c>
+      <c r="E411" t="s">
         <v>700</v>
       </c>
-      <c r="C411" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>701</v>
       </c>
       <c r="B412" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
-      </c>
-      <c r="E412" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B413" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -9436,10 +9417,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B414" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
@@ -9447,38 +9428,38 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
+        <v>704</v>
+      </c>
+      <c r="B415" t="s">
+        <v>698</v>
+      </c>
+      <c r="C415" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
         <v>705</v>
       </c>
-      <c r="B415" t="s">
-        <v>700</v>
-      </c>
-      <c r="C415" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
-      <c r="A416" t="s">
+      <c r="B416" t="s">
+        <v>698</v>
+      </c>
+      <c r="C416" t="s">
+        <v>8</v>
+      </c>
+      <c r="E416" t="s">
         <v>706</v>
       </c>
-      <c r="B416" t="s">
-        <v>700</v>
-      </c>
-      <c r="C416" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>707</v>
       </c>
       <c r="B417" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
-      </c>
-      <c r="E417" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -9497,7 +9478,7 @@
         <v>711</v>
       </c>
       <c r="B419" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
@@ -9505,10 +9486,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B420" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
@@ -9516,10 +9497,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B421" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
@@ -9527,41 +9508,41 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
+        <v>714</v>
+      </c>
+      <c r="B422" t="s">
         <v>715</v>
       </c>
-      <c r="B422" t="s">
-        <v>712</v>
-      </c>
       <c r="C422" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
       <c r="A423" t="s">
         <v>716</v>
       </c>
       <c r="B423" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C423" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="424" spans="1:5">
+      <c r="E423" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>718</v>
       </c>
       <c r="B424" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C424" t="s">
-        <v>11</v>
-      </c>
-      <c r="E424" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425" t="s">
         <v>720</v>
       </c>
@@ -9571,27 +9552,27 @@
       <c r="C425" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="426" spans="1:6">
+      <c r="F425" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B426" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
-      </c>
-      <c r="F426" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B427" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C427" t="s">
         <v>8</v>
@@ -9599,10 +9580,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B428" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C428" t="s">
         <v>8</v>
@@ -9610,10 +9591,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B429" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C429" t="s">
         <v>8</v>
@@ -9621,10 +9602,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B430" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
@@ -9632,10 +9613,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B431" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C431" t="s">
         <v>8</v>
@@ -9643,46 +9624,46 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
+        <v>729</v>
+      </c>
+      <c r="B432" t="s">
+        <v>721</v>
+      </c>
+      <c r="C432" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
         <v>730</v>
       </c>
-      <c r="B432" t="s">
-        <v>723</v>
-      </c>
-      <c r="C432" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
-      <c r="A433" t="s">
+      <c r="B433" t="s">
         <v>731</v>
       </c>
-      <c r="B433" t="s">
-        <v>723</v>
-      </c>
-      <c r="C433" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6">
+      <c r="C433" t="s">
+        <v>8</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B434" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C434" t="s">
         <v>8</v>
-      </c>
-      <c r="F434" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B435" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C435" t="s">
         <v>8</v>
@@ -9690,10 +9671,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B436" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C436" t="s">
         <v>8</v>
@@ -9701,50 +9682,50 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
+        <v>736</v>
+      </c>
+      <c r="B437" t="s">
+        <v>731</v>
+      </c>
+      <c r="C437" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="B437" t="s">
-        <v>733</v>
-      </c>
-      <c r="C437" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="A438" t="s">
+      <c r="B438" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E438" s="9"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
         <v>738</v>
       </c>
-      <c r="B438" t="s">
-        <v>733</v>
-      </c>
-      <c r="C438" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="A439" s="8" t="s">
+      <c r="B439" t="s">
         <v>739</v>
       </c>
-      <c r="B439" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="C439" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E439" s="9"/>
-    </row>
-    <row r="440" spans="1:5">
+      <c r="C439" t="s">
+        <v>8</v>
+      </c>
+      <c r="E439" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B440" t="s">
-        <v>741</v>
-      </c>
-      <c r="C440" t="s">
-        <v>8</v>
-      </c>
-      <c r="E440" t="s">
         <v>742</v>
+      </c>
+      <c r="C440" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -9765,7 +9746,7 @@
       <c r="B442" t="s">
         <v>746</v>
       </c>
-      <c r="C442" s="8" t="s">
+      <c r="C442" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9785,7 +9766,7 @@
         <v>749</v>
       </c>
       <c r="B444" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C444" t="s">
         <v>8</v>
@@ -9793,10 +9774,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B445" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C445" t="s">
         <v>8</v>
@@ -9804,10 +9785,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B446" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C446" t="s">
         <v>8</v>
@@ -9815,10 +9796,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B447" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C447" t="s">
         <v>8</v>
@@ -9826,105 +9807,105 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
+        <v>753</v>
+      </c>
+      <c r="B448" t="s">
+        <v>748</v>
+      </c>
+      <c r="C448" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" t="s">
         <v>754</v>
       </c>
-      <c r="B448" t="s">
-        <v>750</v>
-      </c>
-      <c r="C448" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
-      <c r="A449" t="s">
+      <c r="B449" t="s">
+        <v>748</v>
+      </c>
+      <c r="C449" t="s">
+        <v>8</v>
+      </c>
+      <c r="E449" t="s">
         <v>755</v>
       </c>
-      <c r="B449" t="s">
-        <v>750</v>
-      </c>
-      <c r="C449" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+    </row>
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>756</v>
       </c>
       <c r="B450" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C450" t="s">
         <v>8</v>
-      </c>
-      <c r="E450" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
+        <v>757</v>
+      </c>
+      <c r="B451" t="s">
+        <v>748</v>
+      </c>
+      <c r="C451" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="B451" t="s">
-        <v>750</v>
-      </c>
-      <c r="C451" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
-      <c r="A452" t="s">
+      <c r="B452" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C452" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E452" s="9"/>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
         <v>759</v>
       </c>
-      <c r="B452" t="s">
-        <v>750</v>
-      </c>
-      <c r="C452" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
-      <c r="A453" s="8" t="s">
+      <c r="B453" t="s">
         <v>760</v>
       </c>
-      <c r="B453" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="C453" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E453" s="9"/>
-    </row>
-    <row r="454" spans="1:3">
+      <c r="C453" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
       <c r="A454" t="s">
         <v>761</v>
       </c>
       <c r="B454" t="s">
+        <v>760</v>
+      </c>
+      <c r="C454" t="s">
+        <v>8</v>
+      </c>
+      <c r="E454" t="s">
         <v>762</v>
       </c>
-      <c r="C454" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="A455" t="s">
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="8" t="s">
         <v>763</v>
       </c>
       <c r="B455" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C455" t="s">
         <v>8</v>
       </c>
-      <c r="E455" t="s">
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="456" spans="1:3">
-      <c r="A456" s="8" t="s">
-        <v>765</v>
-      </c>
       <c r="B456" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C456" t="s">
         <v>8</v>
@@ -9932,82 +9913,82 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B457" t="s">
-        <v>762</v>
-      </c>
-      <c r="C457" t="s">
+        <v>760</v>
+      </c>
+      <c r="C457" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
+        <v>766</v>
+      </c>
+      <c r="B458" t="s">
         <v>767</v>
       </c>
-      <c r="B458" t="s">
-        <v>762</v>
-      </c>
       <c r="C458" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
-      <c r="A459" t="s">
+    <row r="459" spans="1:5">
+      <c r="A459" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="8" t="s">
         <v>769</v>
       </c>
       <c r="C459" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="460" spans="1:5">
+      <c r="E459" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
       <c r="A460" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B460" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="C460" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E460" s="8" t="s">
+      <c r="B461" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="461" spans="1:3">
-      <c r="A461" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="B461" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="C461" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
-      <c r="A462" s="10" t="s">
+      <c r="C461" t="s">
+        <v>8</v>
+      </c>
+      <c r="E461" t="s">
         <v>773</v>
       </c>
-      <c r="B462" t="s">
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
         <v>774</v>
       </c>
+      <c r="B462" s="12" t="s">
+        <v>775</v>
+      </c>
       <c r="C462" t="s">
         <v>8</v>
-      </c>
-      <c r="E462" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>776</v>
       </c>
-      <c r="B463" s="16" t="s">
-        <v>777</v>
+      <c r="B463" t="s">
+        <v>775</v>
       </c>
       <c r="C463" t="s">
         <v>8</v>
@@ -10015,10 +9996,10 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
+        <v>777</v>
+      </c>
+      <c r="B464" t="s">
         <v>778</v>
-      </c>
-      <c r="B464" t="s">
-        <v>777</v>
       </c>
       <c r="C464" t="s">
         <v>8</v>
@@ -10029,7 +10010,7 @@
         <v>779</v>
       </c>
       <c r="B465" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C465" t="s">
         <v>8</v>
@@ -10037,10 +10018,10 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B466" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C466" t="s">
         <v>8</v>
@@ -10048,10 +10029,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
+        <v>781</v>
+      </c>
+      <c r="B467" t="s">
         <v>782</v>
-      </c>
-      <c r="B467" t="s">
-        <v>780</v>
       </c>
       <c r="C467" t="s">
         <v>8</v>
@@ -10065,7 +10046,7 @@
         <v>784</v>
       </c>
       <c r="C468" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -10075,8 +10056,8 @@
       <c r="B469" t="s">
         <v>786</v>
       </c>
-      <c r="C469" t="s">
-        <v>11</v>
+      <c r="C469" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -10086,7 +10067,7 @@
       <c r="B470" t="s">
         <v>788</v>
       </c>
-      <c r="C470" s="8" t="s">
+      <c r="C470" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10101,7 +10082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:5">
       <c r="A472" t="s">
         <v>791</v>
       </c>
@@ -10111,27 +10092,27 @@
       <c r="C472" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="473" spans="1:5">
+      <c r="E472" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B473" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C473" t="s">
         <v>8</v>
-      </c>
-      <c r="E473" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B474" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C474" t="s">
         <v>8</v>
@@ -10139,10 +10120,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
+        <v>796</v>
+      </c>
+      <c r="B475" t="s">
         <v>797</v>
-      </c>
-      <c r="B475" t="s">
-        <v>794</v>
       </c>
       <c r="C475" t="s">
         <v>8</v>
@@ -10155,48 +10136,47 @@
       <c r="B476" t="s">
         <v>799</v>
       </c>
-      <c r="C476" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
+      <c r="C476" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
       <c r="A477" t="s">
         <v>800</v>
       </c>
       <c r="B477" t="s">
         <v>801</v>
       </c>
-      <c r="C477" s="8" t="s">
-        <v>8</v>
+      <c r="C477" t="s">
+        <v>8</v>
+      </c>
+      <c r="E477" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B478" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C478" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E478" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B479" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C479" t="s">
         <v>11</v>
-      </c>
-      <c r="D479" s="2"/>
-      <c r="E479" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -10207,7 +10187,7 @@
         <v>809</v>
       </c>
       <c r="C480" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -10226,18 +10206,18 @@
         <v>812</v>
       </c>
       <c r="B482" t="s">
-        <v>813</v>
-      </c>
-      <c r="C482" t="s">
+        <v>811</v>
+      </c>
+      <c r="C482" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B483" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C483" s="8" t="s">
         <v>8</v>
@@ -10245,10 +10225,10 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
+        <v>814</v>
+      </c>
+      <c r="B484" t="s">
         <v>815</v>
-      </c>
-      <c r="B484" t="s">
-        <v>813</v>
       </c>
       <c r="C484" s="8" t="s">
         <v>8</v>
@@ -10270,21 +10250,24 @@
         <v>818</v>
       </c>
       <c r="B486" t="s">
+        <v>817</v>
+      </c>
+      <c r="C486" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" t="s">
         <v>819</v>
       </c>
-      <c r="C486" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
-      <c r="A487" t="s">
+      <c r="B487" t="s">
         <v>820</v>
       </c>
-      <c r="B487" t="s">
-        <v>819</v>
-      </c>
       <c r="C487" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10292,7 +10275,7 @@
         <v>821</v>
       </c>
       <c r="B488" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C488" s="8" t="s">
         <v>8</v>
@@ -10301,144 +10284,142 @@
         <v>31</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
-      <c r="A489" t="s">
+    <row r="489" spans="1:5">
+      <c r="A489" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B489" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="B489" t="s">
-        <v>822</v>
-      </c>
       <c r="C489" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D489" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D489" s="2"/>
+      <c r="E489" s="9"/>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="8" t="s">
+      <c r="A490" t="s">
         <v>824</v>
       </c>
-      <c r="B490" s="8" t="s">
+      <c r="B490" t="s">
         <v>825</v>
       </c>
-      <c r="C490" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E490" s="9"/>
+      <c r="C490" t="s">
+        <v>8</v>
+      </c>
+      <c r="E490" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B491" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C491" t="s">
         <v>8</v>
       </c>
       <c r="E491" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
       <c r="A492" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B492" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C492" t="s">
         <v>8</v>
       </c>
-      <c r="E492" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6">
+      <c r="F492" s="9">
+        <v>2533635607</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>832</v>
       </c>
       <c r="B493" t="s">
         <v>833</v>
       </c>
-      <c r="C493" t="s">
-        <v>8</v>
-      </c>
-      <c r="F493" s="9">
-        <v>2533635607</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
+      <c r="C493" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
       <c r="A494" t="s">
         <v>834</v>
       </c>
       <c r="B494" t="s">
         <v>835</v>
       </c>
-      <c r="C494" s="8" t="s">
-        <v>8</v>
+      <c r="C494" t="s">
+        <v>8</v>
+      </c>
+      <c r="E494" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="495" spans="1:5">
-      <c r="A495" t="s">
-        <v>836</v>
-      </c>
-      <c r="B495" t="s">
+      <c r="A495" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="C495" t="s">
-        <v>8</v>
-      </c>
-      <c r="E495" t="s">
+      <c r="B495" s="8" t="s">
         <v>838</v>
       </c>
+      <c r="C495" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E495" s="9"/>
     </row>
     <row r="496" spans="1:5">
-      <c r="A496" s="8" t="s">
+      <c r="A496" t="s">
         <v>839</v>
       </c>
-      <c r="B496" s="8" t="s">
+      <c r="B496" t="s">
         <v>840</v>
       </c>
-      <c r="C496" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E496" s="9"/>
-    </row>
-    <row r="497" spans="1:5">
+      <c r="C496" t="s">
+        <v>8</v>
+      </c>
+      <c r="E496" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B497" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C497" t="s">
         <v>8</v>
-      </c>
-      <c r="E497" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B498" t="s">
-        <v>842</v>
-      </c>
-      <c r="C498" t="s">
+        <v>840</v>
+      </c>
+      <c r="C498" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
+        <v>844</v>
+      </c>
+      <c r="B499" t="s">
         <v>845</v>
       </c>
-      <c r="B499" t="s">
-        <v>842</v>
-      </c>
-      <c r="C499" s="8" t="s">
+      <c r="C499" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10447,7 +10428,7 @@
         <v>846</v>
       </c>
       <c r="B500" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C500" t="s">
         <v>8</v>
@@ -10455,10 +10436,10 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B501" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C501" t="s">
         <v>8</v>
@@ -10466,10 +10447,10 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
+        <v>848</v>
+      </c>
+      <c r="B502" t="s">
         <v>849</v>
-      </c>
-      <c r="B502" t="s">
-        <v>847</v>
       </c>
       <c r="C502" t="s">
         <v>8</v>
@@ -10480,7 +10461,7 @@
         <v>850</v>
       </c>
       <c r="B503" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C503" t="s">
         <v>8</v>
@@ -10488,10 +10469,10 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B504" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C504" t="s">
         <v>8</v>
@@ -10499,10 +10480,10 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B505" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C505" t="s">
         <v>8</v>
@@ -10510,10 +10491,10 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B506" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C506" t="s">
         <v>8</v>
@@ -10521,10 +10502,10 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
+        <v>854</v>
+      </c>
+      <c r="B507" s="12" t="s">
         <v>855</v>
-      </c>
-      <c r="B507" t="s">
-        <v>851</v>
       </c>
       <c r="C507" t="s">
         <v>8</v>
@@ -10534,7 +10515,7 @@
       <c r="A508" t="s">
         <v>856</v>
       </c>
-      <c r="B508" s="16" t="s">
+      <c r="B508" t="s">
         <v>857</v>
       </c>
       <c r="C508" t="s">
@@ -10548,57 +10529,57 @@
       <c r="B509" t="s">
         <v>859</v>
       </c>
-      <c r="C509" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
+      <c r="C509" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
       <c r="A510" t="s">
         <v>860</v>
       </c>
       <c r="B510" t="s">
         <v>861</v>
       </c>
-      <c r="C510" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+      <c r="C510" t="s">
+        <v>11</v>
+      </c>
+      <c r="E510" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B511" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C511" t="s">
         <v>11</v>
       </c>
-      <c r="E511" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="A512" t="s">
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C512" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="513" spans="1:5">
-      <c r="A513" s="8" t="s">
+      <c r="E512" s="9"/>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
         <v>867</v>
       </c>
-      <c r="B513" s="8" t="s">
+      <c r="B513" t="s">
         <v>868</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E513" s="9"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
@@ -10611,20 +10592,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:5">
       <c r="A515" t="s">
         <v>871</v>
       </c>
       <c r="B515" t="s">
         <v>872</v>
       </c>
-      <c r="C515" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+      <c r="C515" t="s">
+        <v>8</v>
+      </c>
+      <c r="E515" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>873</v>
+        <v>93</v>
       </c>
       <c r="B516" t="s">
         <v>874</v>
@@ -10632,13 +10616,10 @@
       <c r="C516" t="s">
         <v>8</v>
       </c>
-      <c r="E516" t="s">
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" t="s">
         <v>875</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
-      <c r="A517" t="s">
-        <v>93</v>
       </c>
       <c r="B517" t="s">
         <v>876</v>
@@ -10646,19 +10627,19 @@
       <c r="C517" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="518" spans="1:5">
+      <c r="E517" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B518" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C518" t="s">
         <v>8</v>
-      </c>
-      <c r="E518" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -10668,7 +10649,7 @@
       <c r="B519" t="s">
         <v>881</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C519" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10688,43 +10669,43 @@
         <v>884</v>
       </c>
       <c r="B521" t="s">
+        <v>883</v>
+      </c>
+      <c r="C521" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" t="s">
         <v>885</v>
       </c>
-      <c r="C521" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
-      <c r="A522" t="s">
+      <c r="B522" t="s">
         <v>886</v>
       </c>
-      <c r="B522" t="s">
-        <v>885</v>
-      </c>
-      <c r="C522" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+      <c r="C522" t="s">
+        <v>8</v>
+      </c>
+      <c r="E522" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B523" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C523" t="s">
         <v>8</v>
-      </c>
-      <c r="E523" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
+        <v>889</v>
+      </c>
+      <c r="B524" t="s">
         <v>890</v>
-      </c>
-      <c r="B524" t="s">
-        <v>888</v>
       </c>
       <c r="C524" t="s">
         <v>8</v>
@@ -10746,43 +10727,43 @@
         <v>893</v>
       </c>
       <c r="B526" t="s">
+        <v>892</v>
+      </c>
+      <c r="C526" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" t="s">
         <v>894</v>
       </c>
-      <c r="C526" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="A527" t="s">
+      <c r="B527" t="s">
+        <v>892</v>
+      </c>
+      <c r="C527" t="s">
+        <v>8</v>
+      </c>
+      <c r="E527" t="s">
         <v>895</v>
       </c>
-      <c r="B527" t="s">
-        <v>894</v>
-      </c>
-      <c r="C527" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+    </row>
+    <row r="528" spans="1:3">
       <c r="A528" t="s">
         <v>896</v>
       </c>
       <c r="B528" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C528" t="s">
         <v>8</v>
-      </c>
-      <c r="E528" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B529" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C529" t="s">
         <v>8</v>
@@ -10790,10 +10771,10 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
+        <v>898</v>
+      </c>
+      <c r="B530" t="s">
         <v>899</v>
-      </c>
-      <c r="B530" t="s">
-        <v>894</v>
       </c>
       <c r="C530" t="s">
         <v>8</v>
@@ -10804,7 +10785,7 @@
         <v>900</v>
       </c>
       <c r="B531" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C531" t="s">
         <v>8</v>
@@ -10812,10 +10793,10 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B532" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C532" t="s">
         <v>8</v>
@@ -10823,10 +10804,10 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B533" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C533" t="s">
         <v>8</v>
@@ -10834,10 +10815,10 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B534" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C534" t="s">
         <v>8</v>
@@ -10845,10 +10826,10 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B535" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C535" t="s">
         <v>8</v>
@@ -10856,10 +10837,10 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B536" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C536" t="s">
         <v>8</v>
@@ -10867,21 +10848,21 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B537" t="s">
-        <v>901</v>
-      </c>
-      <c r="C537" t="s">
+        <v>899</v>
+      </c>
+      <c r="C537" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B538" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C538" s="8" t="s">
         <v>8</v>
@@ -10889,10 +10870,10 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
+        <v>908</v>
+      </c>
+      <c r="B539" t="s">
         <v>909</v>
-      </c>
-      <c r="B539" t="s">
-        <v>901</v>
       </c>
       <c r="C539" s="8" t="s">
         <v>8</v>
@@ -10905,11 +10886,11 @@
       <c r="B540" t="s">
         <v>911</v>
       </c>
-      <c r="C540" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3">
+      <c r="C540" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
       <c r="A541" t="s">
         <v>912</v>
       </c>
@@ -10919,19 +10900,19 @@
       <c r="C541" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="542" spans="1:5">
+      <c r="E541" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B542" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C542" t="s">
         <v>8</v>
-      </c>
-      <c r="E542" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -10963,7 +10944,7 @@
       <c r="B545" t="s">
         <v>922</v>
       </c>
-      <c r="C545" t="s">
+      <c r="C545" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10974,7 +10955,7 @@
       <c r="B546" t="s">
         <v>924</v>
       </c>
-      <c r="C546" s="8" t="s">
+      <c r="C546" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10997,7 +10978,7 @@
         <v>928</v>
       </c>
       <c r="C548" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -11007,8 +10988,8 @@
       <c r="B549" t="s">
         <v>930</v>
       </c>
-      <c r="C549" t="s">
-        <v>11</v>
+      <c r="C549" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -11018,7 +10999,7 @@
       <c r="B550" t="s">
         <v>932</v>
       </c>
-      <c r="C550" s="8" t="s">
+      <c r="C550" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11027,7 +11008,7 @@
         <v>933</v>
       </c>
       <c r="B551" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C551" t="s">
         <v>8</v>
@@ -11035,10 +11016,10 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B552" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C552" t="s">
         <v>8</v>
@@ -11046,10 +11027,10 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B553" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C553" t="s">
         <v>8</v>
@@ -11057,10 +11038,10 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B554" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C554" t="s">
         <v>8</v>
@@ -11068,10 +11049,10 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B555" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C555" t="s">
         <v>8</v>
@@ -11079,10 +11060,10 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B556" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C556" t="s">
         <v>8</v>
@@ -11090,46 +11071,46 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557" t="s">
+        <v>939</v>
+      </c>
+      <c r="B557" t="s">
+        <v>932</v>
+      </c>
+      <c r="C557" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" t="s">
         <v>940</v>
       </c>
-      <c r="B557" t="s">
-        <v>934</v>
-      </c>
-      <c r="C557" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3">
-      <c r="A558" t="s">
+      <c r="B558" t="s">
+        <v>932</v>
+      </c>
+      <c r="C558" t="s">
+        <v>8</v>
+      </c>
+      <c r="E558" t="s">
         <v>941</v>
       </c>
-      <c r="B558" t="s">
-        <v>934</v>
-      </c>
-      <c r="C558" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5">
+    </row>
+    <row r="559" spans="1:3">
       <c r="A559" t="s">
         <v>942</v>
       </c>
       <c r="B559" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C559" t="s">
         <v>8</v>
-      </c>
-      <c r="E559" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B560" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C560" t="s">
         <v>8</v>
@@ -11137,10 +11118,10 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B561" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C561" t="s">
         <v>8</v>
@@ -11148,10 +11129,10 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B562" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C562" t="s">
         <v>8</v>
@@ -11159,10 +11140,10 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B563" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C563" t="s">
         <v>8</v>
@@ -11170,21 +11151,21 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B564" t="s">
-        <v>934</v>
-      </c>
-      <c r="C564" t="s">
+        <v>932</v>
+      </c>
+      <c r="C564" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B565" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C565" s="8" t="s">
         <v>8</v>
@@ -11192,10 +11173,10 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B566" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C566" s="8" t="s">
         <v>8</v>
@@ -11203,12 +11184,12 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567" t="s">
+        <v>950</v>
+      </c>
+      <c r="B567" t="s">
         <v>951</v>
       </c>
-      <c r="B567" t="s">
-        <v>934</v>
-      </c>
-      <c r="C567" s="8" t="s">
+      <c r="C567" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11216,7 +11197,7 @@
       <c r="A568" t="s">
         <v>952</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="16" t="s">
         <v>953</v>
       </c>
       <c r="C568" t="s">
@@ -11227,7 +11208,7 @@
       <c r="A569" t="s">
         <v>954</v>
       </c>
-      <c r="B569" s="17" t="s">
+      <c r="B569" t="s">
         <v>955</v>
       </c>
       <c r="C569" t="s">
@@ -11250,21 +11231,21 @@
         <v>958</v>
       </c>
       <c r="B571" t="s">
-        <v>959</v>
-      </c>
-      <c r="C571" t="s">
+        <v>957</v>
+      </c>
+      <c r="C571" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" t="s">
+        <v>959</v>
+      </c>
+      <c r="B572" t="s">
         <v>960</v>
       </c>
-      <c r="B572" t="s">
-        <v>959</v>
-      </c>
-      <c r="C572" s="8" t="s">
-        <v>8</v>
+      <c r="C572" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -11272,7 +11253,7 @@
         <v>961</v>
       </c>
       <c r="B573" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C573" t="s">
         <v>11</v>
@@ -11280,10 +11261,10 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B574" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C574" t="s">
         <v>11</v>
@@ -11291,2244 +11272,2244 @@
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="B575" t="s">
         <v>964</v>
-      </c>
-      <c r="B575" t="s">
-        <v>965</v>
       </c>
       <c r="C575" t="s">
         <v>11</v>
       </c>
       <c r="E575" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" t="s">
+        <v>966</v>
+      </c>
+      <c r="B576" t="s">
         <v>967</v>
       </c>
-      <c r="B576" t="s">
-        <v>968</v>
-      </c>
       <c r="C576" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="631" spans="1:4">
-      <c r="A631" s="18"/>
-      <c r="B631" s="18"/>
-      <c r="C631" s="18"/>
-      <c r="D631" s="19"/>
+      <c r="A631" s="17"/>
+      <c r="B631" s="17"/>
+      <c r="C631" s="17"/>
+      <c r="D631" s="18"/>
     </row>
     <row r="632" spans="1:3">
-      <c r="A632" s="18"/>
-      <c r="C632" s="18"/>
+      <c r="A632" s="17"/>
+      <c r="C632" s="17"/>
     </row>
     <row r="633" spans="1:3">
-      <c r="A633" s="18"/>
-      <c r="B633" s="18"/>
-      <c r="C633" s="18"/>
+      <c r="A633" s="17"/>
+      <c r="B633" s="17"/>
+      <c r="C633" s="17"/>
     </row>
     <row r="634" spans="3:3">
-      <c r="C634" s="18"/>
+      <c r="C634" s="17"/>
     </row>
     <row r="635" spans="1:3">
-      <c r="A635" s="18"/>
-      <c r="B635" s="18"/>
-      <c r="C635" s="18"/>
+      <c r="A635" s="17"/>
+      <c r="B635" s="17"/>
+      <c r="C635" s="17"/>
     </row>
     <row r="636" spans="1:3">
-      <c r="A636" s="18"/>
-      <c r="B636" s="18"/>
-      <c r="C636" s="18"/>
+      <c r="A636" s="17"/>
+      <c r="B636" s="17"/>
+      <c r="C636" s="17"/>
     </row>
     <row r="637" spans="1:4">
-      <c r="A637" s="18"/>
-      <c r="B637" s="18"/>
-      <c r="C637" s="18"/>
-      <c r="D637" s="19"/>
+      <c r="A637" s="17"/>
+      <c r="B637" s="17"/>
+      <c r="C637" s="17"/>
+      <c r="D637" s="18"/>
     </row>
     <row r="638" spans="1:3">
-      <c r="A638" s="18"/>
-      <c r="C638" s="18"/>
+      <c r="A638" s="17"/>
+      <c r="C638" s="17"/>
     </row>
     <row r="639" spans="1:3">
-      <c r="A639" s="18"/>
-      <c r="B639" s="18"/>
-      <c r="C639" s="18"/>
+      <c r="A639" s="17"/>
+      <c r="B639" s="17"/>
+      <c r="C639" s="17"/>
     </row>
     <row r="640" spans="1:3">
-      <c r="A640" s="18"/>
-      <c r="B640" s="20"/>
-      <c r="C640" s="18"/>
+      <c r="A640" s="17"/>
+      <c r="B640" s="19"/>
+      <c r="C640" s="17"/>
     </row>
     <row r="641" spans="1:4">
-      <c r="A641" s="18"/>
-      <c r="B641" s="18"/>
-      <c r="C641" s="18"/>
-      <c r="D641" s="19"/>
+      <c r="A641" s="17"/>
+      <c r="B641" s="17"/>
+      <c r="C641" s="17"/>
+      <c r="D641" s="18"/>
     </row>
     <row r="642" spans="2:3">
-      <c r="B642" s="18"/>
-      <c r="C642" s="18"/>
+      <c r="B642" s="17"/>
+      <c r="C642" s="17"/>
     </row>
     <row r="643" spans="1:3">
-      <c r="A643" s="18"/>
-      <c r="B643" s="18"/>
-      <c r="C643" s="18"/>
+      <c r="A643" s="17"/>
+      <c r="B643" s="17"/>
+      <c r="C643" s="17"/>
     </row>
     <row r="644" spans="1:4">
-      <c r="A644" s="18"/>
-      <c r="B644" s="18"/>
-      <c r="C644" s="18"/>
-      <c r="D644" s="19"/>
+      <c r="A644" s="17"/>
+      <c r="B644" s="17"/>
+      <c r="C644" s="17"/>
+      <c r="D644" s="18"/>
     </row>
     <row r="645" spans="1:4">
-      <c r="A645" s="18"/>
-      <c r="C645" s="18"/>
-      <c r="D645" s="19"/>
+      <c r="A645" s="17"/>
+      <c r="C645" s="17"/>
+      <c r="D645" s="18"/>
     </row>
     <row r="646" spans="1:4">
-      <c r="A646" s="18"/>
-      <c r="B646" s="18"/>
-      <c r="C646" s="18"/>
-      <c r="D646" s="19"/>
+      <c r="A646" s="17"/>
+      <c r="B646" s="17"/>
+      <c r="C646" s="17"/>
+      <c r="D646" s="18"/>
     </row>
     <row r="647" spans="1:3">
-      <c r="A647" s="18"/>
-      <c r="B647" s="18"/>
-      <c r="C647" s="18"/>
+      <c r="A647" s="17"/>
+      <c r="B647" s="17"/>
+      <c r="C647" s="17"/>
     </row>
     <row r="648" spans="1:3">
-      <c r="A648" s="18"/>
-      <c r="B648" s="18"/>
-      <c r="C648" s="18"/>
+      <c r="A648" s="17"/>
+      <c r="B648" s="17"/>
+      <c r="C648" s="17"/>
     </row>
     <row r="649" spans="1:4">
-      <c r="A649" s="18"/>
-      <c r="C649" s="18"/>
-      <c r="D649" s="19"/>
+      <c r="A649" s="17"/>
+      <c r="C649" s="17"/>
+      <c r="D649" s="18"/>
     </row>
     <row r="650" spans="1:3">
-      <c r="A650" s="18"/>
-      <c r="B650" s="18"/>
-      <c r="C650" s="18"/>
+      <c r="A650" s="17"/>
+      <c r="B650" s="17"/>
+      <c r="C650" s="17"/>
     </row>
     <row r="651" spans="1:4">
-      <c r="A651" s="18"/>
-      <c r="B651" s="18"/>
-      <c r="C651" s="18"/>
-      <c r="D651" s="19"/>
+      <c r="A651" s="17"/>
+      <c r="B651" s="17"/>
+      <c r="C651" s="17"/>
+      <c r="D651" s="18"/>
     </row>
     <row r="652" spans="1:3">
-      <c r="A652" s="18"/>
-      <c r="C652" s="18"/>
+      <c r="A652" s="17"/>
+      <c r="C652" s="17"/>
     </row>
     <row r="653" spans="1:4">
-      <c r="A653" s="18"/>
-      <c r="C653" s="18"/>
-      <c r="D653" s="19"/>
+      <c r="A653" s="17"/>
+      <c r="C653" s="17"/>
+      <c r="D653" s="18"/>
     </row>
     <row r="654" spans="1:4">
-      <c r="A654" s="18"/>
-      <c r="B654" s="18"/>
-      <c r="C654" s="18"/>
-      <c r="D654" s="19"/>
+      <c r="A654" s="17"/>
+      <c r="B654" s="17"/>
+      <c r="C654" s="17"/>
+      <c r="D654" s="18"/>
     </row>
     <row r="655" spans="1:4">
-      <c r="A655" s="18"/>
-      <c r="B655" s="18"/>
-      <c r="C655" s="18"/>
-      <c r="D655" s="19"/>
+      <c r="A655" s="17"/>
+      <c r="B655" s="17"/>
+      <c r="C655" s="17"/>
+      <c r="D655" s="18"/>
     </row>
     <row r="656" spans="1:3">
-      <c r="A656" s="18"/>
-      <c r="C656" s="18"/>
+      <c r="A656" s="17"/>
+      <c r="C656" s="17"/>
     </row>
     <row r="657" spans="1:3">
-      <c r="A657" s="18"/>
-      <c r="B657" s="21"/>
-      <c r="C657" s="18"/>
+      <c r="A657" s="17"/>
+      <c r="B657" s="20"/>
+      <c r="C657" s="17"/>
     </row>
     <row r="658" spans="1:3">
-      <c r="A658" s="18"/>
-      <c r="B658" s="18"/>
-      <c r="C658" s="18"/>
+      <c r="A658" s="17"/>
+      <c r="B658" s="17"/>
+      <c r="C658" s="17"/>
     </row>
     <row r="659" spans="1:4">
-      <c r="A659" s="18"/>
-      <c r="C659" s="18"/>
-      <c r="D659" s="19"/>
+      <c r="A659" s="17"/>
+      <c r="C659" s="17"/>
+      <c r="D659" s="18"/>
     </row>
     <row r="660" spans="1:3">
-      <c r="A660" s="18"/>
-      <c r="B660" s="18"/>
-      <c r="C660" s="18"/>
+      <c r="A660" s="17"/>
+      <c r="B660" s="17"/>
+      <c r="C660" s="17"/>
     </row>
     <row r="661" spans="1:4">
-      <c r="A661" s="18"/>
-      <c r="B661" s="18"/>
-      <c r="C661" s="18"/>
-      <c r="D661" s="19"/>
+      <c r="A661" s="17"/>
+      <c r="B661" s="17"/>
+      <c r="C661" s="17"/>
+      <c r="D661" s="18"/>
     </row>
     <row r="662" spans="1:4">
-      <c r="A662" s="18"/>
-      <c r="C662" s="18"/>
-      <c r="D662" s="19"/>
+      <c r="A662" s="17"/>
+      <c r="C662" s="17"/>
+      <c r="D662" s="18"/>
     </row>
     <row r="663" spans="1:3">
-      <c r="A663" s="18"/>
-      <c r="B663" s="18"/>
-      <c r="C663" s="18"/>
+      <c r="A663" s="17"/>
+      <c r="B663" s="17"/>
+      <c r="C663" s="17"/>
     </row>
     <row r="664" spans="1:3">
-      <c r="A664" s="18"/>
-      <c r="B664" s="18"/>
-      <c r="C664" s="18"/>
+      <c r="A664" s="17"/>
+      <c r="B664" s="17"/>
+      <c r="C664" s="17"/>
     </row>
     <row r="665" spans="1:4">
-      <c r="A665" s="18"/>
-      <c r="B665" s="18"/>
-      <c r="C665" s="18"/>
-      <c r="D665" s="19"/>
+      <c r="A665" s="17"/>
+      <c r="B665" s="17"/>
+      <c r="C665" s="17"/>
+      <c r="D665" s="18"/>
     </row>
     <row r="666" spans="1:3">
-      <c r="A666" s="18"/>
-      <c r="C666" s="18"/>
+      <c r="A666" s="17"/>
+      <c r="C666" s="17"/>
     </row>
     <row r="667" spans="1:4">
-      <c r="A667" s="18"/>
-      <c r="C667" s="18"/>
-      <c r="D667" s="19"/>
+      <c r="A667" s="17"/>
+      <c r="C667" s="17"/>
+      <c r="D667" s="18"/>
     </row>
     <row r="668" spans="1:3">
-      <c r="A668" s="18"/>
-      <c r="B668" s="18"/>
-      <c r="C668" s="18"/>
+      <c r="A668" s="17"/>
+      <c r="B668" s="17"/>
+      <c r="C668" s="17"/>
     </row>
     <row r="669" spans="2:3">
-      <c r="B669" s="18"/>
-      <c r="C669" s="18"/>
+      <c r="B669" s="17"/>
+      <c r="C669" s="17"/>
     </row>
     <row r="670" spans="3:3">
-      <c r="C670" s="18"/>
+      <c r="C670" s="17"/>
     </row>
     <row r="671" spans="1:3">
-      <c r="A671" s="18"/>
-      <c r="C671" s="18"/>
+      <c r="A671" s="17"/>
+      <c r="C671" s="17"/>
     </row>
     <row r="672" spans="1:3">
-      <c r="A672" s="18"/>
-      <c r="C672" s="18"/>
+      <c r="A672" s="17"/>
+      <c r="C672" s="17"/>
     </row>
     <row r="673" spans="1:3">
-      <c r="A673" s="18"/>
-      <c r="B673" s="18"/>
-      <c r="C673" s="18"/>
+      <c r="A673" s="17"/>
+      <c r="B673" s="17"/>
+      <c r="C673" s="17"/>
     </row>
     <row r="674" spans="1:4">
-      <c r="A674" s="18"/>
-      <c r="C674" s="18"/>
-      <c r="D674" s="19"/>
+      <c r="A674" s="17"/>
+      <c r="C674" s="17"/>
+      <c r="D674" s="18"/>
     </row>
     <row r="675" spans="1:3">
-      <c r="A675" s="18"/>
-      <c r="C675" s="18"/>
+      <c r="A675" s="17"/>
+      <c r="C675" s="17"/>
     </row>
     <row r="676" spans="1:3">
-      <c r="A676" s="18"/>
-      <c r="C676" s="18"/>
+      <c r="A676" s="17"/>
+      <c r="C676" s="17"/>
     </row>
     <row r="677" spans="1:3">
-      <c r="A677" s="18"/>
-      <c r="B677" s="18"/>
-      <c r="C677" s="18"/>
+      <c r="A677" s="17"/>
+      <c r="B677" s="17"/>
+      <c r="C677" s="17"/>
     </row>
     <row r="678" spans="3:3">
-      <c r="C678" s="18"/>
+      <c r="C678" s="17"/>
     </row>
     <row r="679" spans="1:3">
-      <c r="A679" s="18"/>
-      <c r="B679" s="18"/>
-      <c r="C679" s="18"/>
+      <c r="A679" s="17"/>
+      <c r="B679" s="17"/>
+      <c r="C679" s="17"/>
     </row>
     <row r="680" spans="1:4">
-      <c r="A680" s="18"/>
-      <c r="B680" s="18"/>
-      <c r="C680" s="18"/>
-      <c r="D680" s="19"/>
+      <c r="A680" s="17"/>
+      <c r="B680" s="17"/>
+      <c r="C680" s="17"/>
+      <c r="D680" s="18"/>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="18"/>
-      <c r="B681" s="18"/>
-      <c r="C681" s="18"/>
-      <c r="D681" s="19"/>
+      <c r="A681" s="17"/>
+      <c r="B681" s="17"/>
+      <c r="C681" s="17"/>
+      <c r="D681" s="18"/>
     </row>
     <row r="682" spans="1:3">
-      <c r="A682" s="18"/>
-      <c r="C682" s="18"/>
+      <c r="A682" s="17"/>
+      <c r="C682" s="17"/>
     </row>
     <row r="683" spans="1:3">
-      <c r="A683" s="18"/>
-      <c r="B683" s="18"/>
-      <c r="C683" s="18"/>
+      <c r="A683" s="17"/>
+      <c r="B683" s="17"/>
+      <c r="C683" s="17"/>
     </row>
     <row r="684" spans="1:4">
-      <c r="A684" s="18"/>
-      <c r="B684" s="18"/>
-      <c r="C684" s="18"/>
-      <c r="D684" s="19"/>
+      <c r="A684" s="17"/>
+      <c r="B684" s="17"/>
+      <c r="C684" s="17"/>
+      <c r="D684" s="18"/>
     </row>
     <row r="685" spans="1:4">
-      <c r="A685" s="18"/>
-      <c r="B685" s="18"/>
-      <c r="C685" s="18"/>
-      <c r="D685" s="19"/>
+      <c r="A685" s="17"/>
+      <c r="B685" s="17"/>
+      <c r="C685" s="17"/>
+      <c r="D685" s="18"/>
     </row>
     <row r="686" spans="1:3">
-      <c r="A686" s="18"/>
-      <c r="C686" s="18"/>
+      <c r="A686" s="17"/>
+      <c r="C686" s="17"/>
     </row>
     <row r="687" spans="1:4">
-      <c r="A687" s="18"/>
-      <c r="B687" s="18"/>
-      <c r="C687" s="18"/>
-      <c r="D687" s="19"/>
+      <c r="A687" s="17"/>
+      <c r="B687" s="17"/>
+      <c r="C687" s="17"/>
+      <c r="D687" s="18"/>
     </row>
     <row r="688" spans="1:4">
-      <c r="A688" s="18"/>
-      <c r="B688" s="18"/>
-      <c r="C688" s="18"/>
-      <c r="D688" s="19"/>
+      <c r="A688" s="17"/>
+      <c r="B688" s="17"/>
+      <c r="C688" s="17"/>
+      <c r="D688" s="18"/>
     </row>
     <row r="689" spans="1:3">
-      <c r="A689" s="18"/>
-      <c r="C689" s="18"/>
+      <c r="A689" s="17"/>
+      <c r="C689" s="17"/>
     </row>
     <row r="690" spans="1:4">
-      <c r="A690" s="18"/>
-      <c r="C690" s="18"/>
-      <c r="D690" s="19"/>
+      <c r="A690" s="17"/>
+      <c r="C690" s="17"/>
+      <c r="D690" s="18"/>
     </row>
     <row r="691" spans="1:4">
-      <c r="A691" s="18"/>
-      <c r="C691" s="18"/>
-      <c r="D691" s="19"/>
+      <c r="A691" s="17"/>
+      <c r="C691" s="17"/>
+      <c r="D691" s="18"/>
     </row>
     <row r="692" spans="1:3">
-      <c r="A692" s="18"/>
-      <c r="C692" s="18"/>
+      <c r="A692" s="17"/>
+      <c r="C692" s="17"/>
     </row>
     <row r="693" spans="3:4">
-      <c r="C693" s="18"/>
-      <c r="D693" s="19"/>
+      <c r="C693" s="17"/>
+      <c r="D693" s="18"/>
     </row>
     <row r="694" spans="1:3">
-      <c r="A694" s="18"/>
-      <c r="B694" s="18"/>
-      <c r="C694" s="18"/>
+      <c r="A694" s="17"/>
+      <c r="B694" s="17"/>
+      <c r="C694" s="17"/>
     </row>
     <row r="695" spans="1:3">
-      <c r="A695" s="18"/>
-      <c r="B695" s="18"/>
-      <c r="C695" s="18"/>
+      <c r="A695" s="17"/>
+      <c r="B695" s="17"/>
+      <c r="C695" s="17"/>
     </row>
     <row r="696" spans="1:3">
-      <c r="A696" s="18"/>
-      <c r="B696" s="18"/>
-      <c r="C696" s="18"/>
+      <c r="A696" s="17"/>
+      <c r="B696" s="17"/>
+      <c r="C696" s="17"/>
     </row>
     <row r="697" spans="1:4">
-      <c r="A697" s="18"/>
-      <c r="C697" s="18"/>
-      <c r="D697" s="19"/>
+      <c r="A697" s="17"/>
+      <c r="C697" s="17"/>
+      <c r="D697" s="18"/>
     </row>
     <row r="698" spans="1:3">
-      <c r="A698" s="18"/>
-      <c r="B698" s="18"/>
-      <c r="C698" s="18"/>
+      <c r="A698" s="17"/>
+      <c r="B698" s="17"/>
+      <c r="C698" s="17"/>
     </row>
     <row r="699" spans="1:3">
-      <c r="A699" s="18"/>
-      <c r="C699" s="18"/>
+      <c r="A699" s="17"/>
+      <c r="C699" s="17"/>
     </row>
     <row r="700" spans="1:3">
-      <c r="A700" s="18"/>
-      <c r="C700" s="18"/>
+      <c r="A700" s="17"/>
+      <c r="C700" s="17"/>
     </row>
     <row r="701" spans="1:3">
-      <c r="A701" s="18"/>
-      <c r="C701" s="18"/>
+      <c r="A701" s="17"/>
+      <c r="C701" s="17"/>
     </row>
     <row r="702" spans="1:3">
-      <c r="A702" s="18"/>
-      <c r="B702" s="18"/>
-      <c r="C702" s="18"/>
+      <c r="A702" s="17"/>
+      <c r="B702" s="17"/>
+      <c r="C702" s="17"/>
     </row>
     <row r="703" spans="1:3">
-      <c r="A703" s="18"/>
-      <c r="C703" s="18"/>
+      <c r="A703" s="17"/>
+      <c r="C703" s="17"/>
     </row>
     <row r="704" spans="1:4">
-      <c r="A704" s="18"/>
-      <c r="B704" s="18"/>
-      <c r="C704" s="18"/>
-      <c r="D704" s="19"/>
+      <c r="A704" s="17"/>
+      <c r="B704" s="17"/>
+      <c r="C704" s="17"/>
+      <c r="D704" s="18"/>
     </row>
     <row r="705" spans="1:4">
-      <c r="A705" s="18"/>
-      <c r="B705" s="18"/>
-      <c r="C705" s="18"/>
-      <c r="D705" s="19"/>
+      <c r="A705" s="17"/>
+      <c r="B705" s="17"/>
+      <c r="C705" s="17"/>
+      <c r="D705" s="18"/>
     </row>
     <row r="706" spans="1:3">
-      <c r="A706" s="18"/>
-      <c r="C706" s="18"/>
+      <c r="A706" s="17"/>
+      <c r="C706" s="17"/>
     </row>
     <row r="707" spans="1:4">
-      <c r="A707" s="18"/>
-      <c r="B707" s="18"/>
-      <c r="C707" s="18"/>
-      <c r="D707" s="19"/>
+      <c r="A707" s="17"/>
+      <c r="B707" s="17"/>
+      <c r="C707" s="17"/>
+      <c r="D707" s="18"/>
     </row>
     <row r="708" spans="1:3">
-      <c r="A708" s="18"/>
-      <c r="C708" s="18"/>
+      <c r="A708" s="17"/>
+      <c r="C708" s="17"/>
     </row>
     <row r="709" spans="1:3">
-      <c r="A709" s="18"/>
-      <c r="B709" s="18"/>
-      <c r="C709" s="18"/>
+      <c r="A709" s="17"/>
+      <c r="B709" s="17"/>
+      <c r="C709" s="17"/>
     </row>
     <row r="710" spans="1:4">
-      <c r="A710" s="18"/>
-      <c r="B710" s="18"/>
-      <c r="C710" s="18"/>
-      <c r="D710" s="19"/>
+      <c r="A710" s="17"/>
+      <c r="B710" s="17"/>
+      <c r="C710" s="17"/>
+      <c r="D710" s="18"/>
     </row>
     <row r="711" spans="2:4">
-      <c r="B711" s="18"/>
-      <c r="C711" s="18"/>
-      <c r="D711" s="19"/>
+      <c r="B711" s="17"/>
+      <c r="C711" s="17"/>
+      <c r="D711" s="18"/>
     </row>
     <row r="712" spans="1:3">
-      <c r="A712" s="18"/>
-      <c r="B712" s="18"/>
-      <c r="C712" s="18"/>
+      <c r="A712" s="17"/>
+      <c r="B712" s="17"/>
+      <c r="C712" s="17"/>
     </row>
     <row r="713" spans="1:3">
-      <c r="A713" s="18"/>
-      <c r="B713" s="18"/>
-      <c r="C713" s="18"/>
+      <c r="A713" s="17"/>
+      <c r="B713" s="17"/>
+      <c r="C713" s="17"/>
     </row>
     <row r="714" spans="1:3">
-      <c r="A714" s="18"/>
-      <c r="C714" s="18"/>
+      <c r="A714" s="17"/>
+      <c r="C714" s="17"/>
     </row>
     <row r="715" spans="1:3">
-      <c r="A715" s="18"/>
-      <c r="C715" s="18"/>
+      <c r="A715" s="17"/>
+      <c r="C715" s="17"/>
     </row>
     <row r="716" spans="1:3">
-      <c r="A716" s="18"/>
-      <c r="C716" s="18"/>
+      <c r="A716" s="17"/>
+      <c r="C716" s="17"/>
     </row>
     <row r="717" spans="1:4">
-      <c r="A717" s="18"/>
-      <c r="C717" s="18"/>
-      <c r="D717" s="19"/>
+      <c r="A717" s="17"/>
+      <c r="C717" s="17"/>
+      <c r="D717" s="18"/>
     </row>
     <row r="718" spans="1:4">
-      <c r="A718" s="18"/>
-      <c r="C718" s="18"/>
-      <c r="D718" s="19"/>
+      <c r="A718" s="17"/>
+      <c r="C718" s="17"/>
+      <c r="D718" s="18"/>
     </row>
     <row r="719" spans="1:4">
-      <c r="A719" s="18"/>
-      <c r="B719" s="18"/>
-      <c r="C719" s="18"/>
-      <c r="D719" s="19"/>
+      <c r="A719" s="17"/>
+      <c r="B719" s="17"/>
+      <c r="C719" s="17"/>
+      <c r="D719" s="18"/>
     </row>
     <row r="720" spans="1:4">
-      <c r="A720" s="18"/>
-      <c r="B720" s="18"/>
-      <c r="C720" s="18"/>
-      <c r="D720" s="19"/>
+      <c r="A720" s="17"/>
+      <c r="B720" s="17"/>
+      <c r="C720" s="17"/>
+      <c r="D720" s="18"/>
     </row>
     <row r="721" spans="1:4">
-      <c r="A721" s="18"/>
-      <c r="C721" s="18"/>
-      <c r="D721" s="19"/>
+      <c r="A721" s="17"/>
+      <c r="C721" s="17"/>
+      <c r="D721" s="18"/>
     </row>
     <row r="722" spans="2:4">
-      <c r="B722" s="22"/>
-      <c r="C722" s="18"/>
-      <c r="D722" s="19"/>
+      <c r="B722" s="21"/>
+      <c r="C722" s="17"/>
+      <c r="D722" s="18"/>
     </row>
     <row r="723" spans="1:3">
-      <c r="A723" s="18"/>
-      <c r="B723" s="18"/>
-      <c r="C723" s="18"/>
+      <c r="A723" s="17"/>
+      <c r="B723" s="17"/>
+      <c r="C723" s="17"/>
     </row>
     <row r="724" spans="1:3">
-      <c r="A724" s="18"/>
-      <c r="C724" s="18"/>
+      <c r="A724" s="17"/>
+      <c r="C724" s="17"/>
     </row>
     <row r="725" spans="3:3">
-      <c r="C725" s="18"/>
+      <c r="C725" s="17"/>
     </row>
     <row r="726" spans="1:4">
-      <c r="A726" s="18"/>
-      <c r="B726" s="18"/>
-      <c r="C726" s="18"/>
-      <c r="D726" s="19"/>
+      <c r="A726" s="17"/>
+      <c r="B726" s="17"/>
+      <c r="C726" s="17"/>
+      <c r="D726" s="18"/>
     </row>
     <row r="727" spans="1:3">
-      <c r="A727" s="18"/>
-      <c r="C727" s="18"/>
+      <c r="A727" s="17"/>
+      <c r="C727" s="17"/>
     </row>
     <row r="728" spans="1:3">
-      <c r="A728" s="18"/>
-      <c r="C728" s="18"/>
+      <c r="A728" s="17"/>
+      <c r="C728" s="17"/>
     </row>
     <row r="729" spans="1:3">
-      <c r="A729" s="18"/>
-      <c r="C729" s="18"/>
+      <c r="A729" s="17"/>
+      <c r="C729" s="17"/>
     </row>
     <row r="730" spans="1:3">
-      <c r="A730" s="18"/>
-      <c r="B730" s="18"/>
-      <c r="C730" s="18"/>
+      <c r="A730" s="17"/>
+      <c r="B730" s="17"/>
+      <c r="C730" s="17"/>
     </row>
     <row r="731" spans="1:3">
-      <c r="A731" s="18"/>
-      <c r="B731" s="21"/>
-      <c r="C731" s="18"/>
+      <c r="A731" s="17"/>
+      <c r="B731" s="20"/>
+      <c r="C731" s="17"/>
     </row>
     <row r="732" spans="1:3">
-      <c r="A732" s="18"/>
-      <c r="C732" s="18"/>
+      <c r="A732" s="17"/>
+      <c r="C732" s="17"/>
     </row>
     <row r="733" spans="1:3">
-      <c r="A733" s="18"/>
-      <c r="C733" s="18"/>
+      <c r="A733" s="17"/>
+      <c r="C733" s="17"/>
     </row>
     <row r="734" spans="1:3">
-      <c r="A734" s="18"/>
-      <c r="C734" s="18"/>
+      <c r="A734" s="17"/>
+      <c r="C734" s="17"/>
     </row>
     <row r="735" spans="1:4">
-      <c r="A735" s="18"/>
-      <c r="B735" s="18"/>
-      <c r="C735" s="18"/>
-      <c r="D735" s="19"/>
+      <c r="A735" s="17"/>
+      <c r="B735" s="17"/>
+      <c r="C735" s="17"/>
+      <c r="D735" s="18"/>
     </row>
     <row r="736" spans="1:3">
-      <c r="A736" s="18"/>
-      <c r="B736" s="18"/>
-      <c r="C736" s="18"/>
+      <c r="A736" s="17"/>
+      <c r="B736" s="17"/>
+      <c r="C736" s="17"/>
     </row>
     <row r="737" spans="1:3">
-      <c r="A737" s="18"/>
-      <c r="C737" s="18"/>
+      <c r="A737" s="17"/>
+      <c r="C737" s="17"/>
     </row>
     <row r="738" spans="1:3">
-      <c r="A738" s="18"/>
-      <c r="C738" s="18"/>
+      <c r="A738" s="17"/>
+      <c r="C738" s="17"/>
     </row>
     <row r="739" spans="1:3">
-      <c r="A739" s="18"/>
-      <c r="B739" s="18"/>
-      <c r="C739" s="18"/>
+      <c r="A739" s="17"/>
+      <c r="B739" s="17"/>
+      <c r="C739" s="17"/>
     </row>
     <row r="740" spans="3:3">
-      <c r="C740" s="18"/>
+      <c r="C740" s="17"/>
     </row>
     <row r="741" spans="1:4">
-      <c r="A741" s="18"/>
-      <c r="B741" s="18"/>
-      <c r="C741" s="18"/>
-      <c r="D741" s="19"/>
+      <c r="A741" s="17"/>
+      <c r="B741" s="17"/>
+      <c r="C741" s="17"/>
+      <c r="D741" s="18"/>
     </row>
     <row r="742" spans="1:4">
-      <c r="A742" s="18"/>
-      <c r="B742" s="18"/>
-      <c r="C742" s="18"/>
-      <c r="D742" s="19"/>
+      <c r="A742" s="17"/>
+      <c r="B742" s="17"/>
+      <c r="C742" s="17"/>
+      <c r="D742" s="18"/>
     </row>
     <row r="743" spans="1:3">
-      <c r="A743" s="18"/>
-      <c r="B743" s="18"/>
-      <c r="C743" s="18"/>
+      <c r="A743" s="17"/>
+      <c r="B743" s="17"/>
+      <c r="C743" s="17"/>
     </row>
     <row r="744" spans="1:3">
-      <c r="A744" s="18"/>
-      <c r="B744" s="18"/>
-      <c r="C744" s="18"/>
+      <c r="A744" s="17"/>
+      <c r="B744" s="17"/>
+      <c r="C744" s="17"/>
     </row>
     <row r="745" spans="1:3">
-      <c r="A745" s="18"/>
-      <c r="B745" s="18"/>
-      <c r="C745" s="18"/>
+      <c r="A745" s="17"/>
+      <c r="B745" s="17"/>
+      <c r="C745" s="17"/>
     </row>
     <row r="746" spans="1:4">
-      <c r="A746" s="18"/>
-      <c r="B746" s="18"/>
-      <c r="C746" s="18"/>
-      <c r="D746" s="19"/>
+      <c r="A746" s="17"/>
+      <c r="B746" s="17"/>
+      <c r="C746" s="17"/>
+      <c r="D746" s="18"/>
     </row>
     <row r="747" spans="1:3">
-      <c r="A747" s="18"/>
-      <c r="C747" s="18"/>
+      <c r="A747" s="17"/>
+      <c r="C747" s="17"/>
     </row>
     <row r="748" spans="1:4">
-      <c r="A748" s="18"/>
-      <c r="B748" s="18"/>
-      <c r="C748" s="18"/>
-      <c r="D748" s="19"/>
+      <c r="A748" s="17"/>
+      <c r="B748" s="17"/>
+      <c r="C748" s="17"/>
+      <c r="D748" s="18"/>
     </row>
     <row r="749" spans="1:4">
-      <c r="A749" s="18"/>
-      <c r="B749" s="18"/>
-      <c r="C749" s="18"/>
-      <c r="D749" s="19"/>
+      <c r="A749" s="17"/>
+      <c r="B749" s="17"/>
+      <c r="C749" s="17"/>
+      <c r="D749" s="18"/>
     </row>
     <row r="750" spans="1:3">
-      <c r="A750" s="18"/>
-      <c r="B750" s="18"/>
-      <c r="C750" s="18"/>
+      <c r="A750" s="17"/>
+      <c r="B750" s="17"/>
+      <c r="C750" s="17"/>
     </row>
     <row r="751" spans="1:4">
-      <c r="A751" s="18"/>
-      <c r="B751" s="18"/>
-      <c r="C751" s="18"/>
-      <c r="D751" s="19"/>
+      <c r="A751" s="17"/>
+      <c r="B751" s="17"/>
+      <c r="C751" s="17"/>
+      <c r="D751" s="18"/>
     </row>
     <row r="752" spans="1:3">
-      <c r="A752" s="18"/>
-      <c r="B752" s="18"/>
-      <c r="C752" s="18"/>
+      <c r="A752" s="17"/>
+      <c r="B752" s="17"/>
+      <c r="C752" s="17"/>
     </row>
     <row r="753" spans="1:3">
-      <c r="A753" s="18"/>
-      <c r="B753" s="18"/>
-      <c r="C753" s="18"/>
+      <c r="A753" s="17"/>
+      <c r="B753" s="17"/>
+      <c r="C753" s="17"/>
     </row>
     <row r="754" spans="1:3">
-      <c r="A754" s="18"/>
-      <c r="C754" s="18"/>
+      <c r="A754" s="17"/>
+      <c r="C754" s="17"/>
     </row>
     <row r="755" spans="1:3">
-      <c r="A755" s="18"/>
-      <c r="C755" s="18"/>
+      <c r="A755" s="17"/>
+      <c r="C755" s="17"/>
     </row>
     <row r="756" spans="1:3">
-      <c r="A756" s="18"/>
-      <c r="C756" s="18"/>
+      <c r="A756" s="17"/>
+      <c r="C756" s="17"/>
     </row>
     <row r="757" spans="1:3">
-      <c r="A757" s="18"/>
-      <c r="C757" s="18"/>
+      <c r="A757" s="17"/>
+      <c r="C757" s="17"/>
     </row>
     <row r="758" spans="1:3">
-      <c r="A758" s="18"/>
-      <c r="B758" s="18"/>
-      <c r="C758" s="18"/>
+      <c r="A758" s="17"/>
+      <c r="B758" s="17"/>
+      <c r="C758" s="17"/>
     </row>
     <row r="759" spans="1:3">
-      <c r="A759" s="18"/>
-      <c r="B759" s="18"/>
-      <c r="C759" s="18"/>
+      <c r="A759" s="17"/>
+      <c r="B759" s="17"/>
+      <c r="C759" s="17"/>
     </row>
     <row r="760" spans="1:3">
-      <c r="A760" s="18"/>
-      <c r="B760" s="18"/>
-      <c r="C760" s="18"/>
+      <c r="A760" s="17"/>
+      <c r="B760" s="17"/>
+      <c r="C760" s="17"/>
     </row>
     <row r="761" spans="1:3">
-      <c r="A761" s="18"/>
-      <c r="B761" s="18"/>
-      <c r="C761" s="18"/>
+      <c r="A761" s="17"/>
+      <c r="B761" s="17"/>
+      <c r="C761" s="17"/>
     </row>
     <row r="762" spans="1:4">
-      <c r="A762" s="18"/>
-      <c r="B762" s="18"/>
-      <c r="C762" s="18"/>
-      <c r="D762" s="19"/>
+      <c r="A762" s="17"/>
+      <c r="B762" s="17"/>
+      <c r="C762" s="17"/>
+      <c r="D762" s="18"/>
     </row>
     <row r="764" spans="3:3">
-      <c r="C764" s="18"/>
+      <c r="C764" s="17"/>
     </row>
     <row r="765" spans="1:3">
-      <c r="A765" s="18"/>
-      <c r="B765" s="18"/>
-      <c r="C765" s="18"/>
+      <c r="A765" s="17"/>
+      <c r="B765" s="17"/>
+      <c r="C765" s="17"/>
     </row>
     <row r="766" spans="1:4">
-      <c r="A766" s="18"/>
-      <c r="B766" s="18"/>
-      <c r="C766" s="18"/>
-      <c r="D766" s="19"/>
+      <c r="A766" s="17"/>
+      <c r="B766" s="17"/>
+      <c r="C766" s="17"/>
+      <c r="D766" s="18"/>
     </row>
     <row r="767" spans="1:3">
-      <c r="A767" s="18"/>
-      <c r="B767" s="18"/>
-      <c r="C767" s="18"/>
+      <c r="A767" s="17"/>
+      <c r="B767" s="17"/>
+      <c r="C767" s="17"/>
     </row>
     <row r="768" spans="1:3">
-      <c r="A768" s="18"/>
-      <c r="B768" s="18"/>
-      <c r="C768" s="18"/>
+      <c r="A768" s="17"/>
+      <c r="B768" s="17"/>
+      <c r="C768" s="17"/>
     </row>
     <row r="769" spans="1:4">
-      <c r="A769" s="18"/>
-      <c r="C769" s="18"/>
-      <c r="D769" s="19"/>
+      <c r="A769" s="17"/>
+      <c r="C769" s="17"/>
+      <c r="D769" s="18"/>
     </row>
     <row r="770" spans="1:4">
-      <c r="A770" s="18"/>
-      <c r="B770" s="18"/>
-      <c r="C770" s="18"/>
-      <c r="D770" s="19"/>
+      <c r="A770" s="17"/>
+      <c r="B770" s="17"/>
+      <c r="C770" s="17"/>
+      <c r="D770" s="18"/>
     </row>
     <row r="771" spans="1:4">
-      <c r="A771" s="18"/>
-      <c r="B771" s="18"/>
-      <c r="C771" s="18"/>
-      <c r="D771" s="19"/>
+      <c r="A771" s="17"/>
+      <c r="B771" s="17"/>
+      <c r="C771" s="17"/>
+      <c r="D771" s="18"/>
     </row>
     <row r="772" spans="1:3">
-      <c r="A772" s="18"/>
-      <c r="C772" s="18"/>
+      <c r="A772" s="17"/>
+      <c r="C772" s="17"/>
     </row>
     <row r="773" spans="1:4">
-      <c r="A773" s="18"/>
-      <c r="B773" s="18"/>
-      <c r="C773" s="18"/>
-      <c r="D773" s="19"/>
+      <c r="A773" s="17"/>
+      <c r="B773" s="17"/>
+      <c r="C773" s="17"/>
+      <c r="D773" s="18"/>
     </row>
     <row r="774" spans="1:3">
-      <c r="A774" s="18"/>
-      <c r="C774" s="18"/>
+      <c r="A774" s="17"/>
+      <c r="C774" s="17"/>
     </row>
     <row r="775" spans="1:3">
-      <c r="A775" s="18"/>
-      <c r="C775" s="18"/>
+      <c r="A775" s="17"/>
+      <c r="C775" s="17"/>
     </row>
     <row r="776" spans="1:4">
-      <c r="A776" s="18"/>
-      <c r="C776" s="18"/>
-      <c r="D776" s="19"/>
+      <c r="A776" s="17"/>
+      <c r="C776" s="17"/>
+      <c r="D776" s="18"/>
     </row>
     <row r="777" spans="1:4">
-      <c r="A777" s="18"/>
-      <c r="B777" s="18"/>
-      <c r="C777" s="18"/>
-      <c r="D777" s="19"/>
+      <c r="A777" s="17"/>
+      <c r="B777" s="17"/>
+      <c r="C777" s="17"/>
+      <c r="D777" s="18"/>
     </row>
     <row r="778" spans="1:4">
-      <c r="A778" s="18"/>
-      <c r="C778" s="18"/>
-      <c r="D778" s="19"/>
+      <c r="A778" s="17"/>
+      <c r="C778" s="17"/>
+      <c r="D778" s="18"/>
     </row>
     <row r="779" spans="1:4">
-      <c r="A779" s="18"/>
-      <c r="B779" s="18"/>
-      <c r="C779" s="18"/>
-      <c r="D779" s="19"/>
+      <c r="A779" s="17"/>
+      <c r="B779" s="17"/>
+      <c r="C779" s="17"/>
+      <c r="D779" s="18"/>
     </row>
     <row r="780" spans="1:4">
-      <c r="A780" s="18"/>
-      <c r="B780" s="18"/>
-      <c r="C780" s="18"/>
-      <c r="D780" s="19"/>
+      <c r="A780" s="17"/>
+      <c r="B780" s="17"/>
+      <c r="C780" s="17"/>
+      <c r="D780" s="18"/>
     </row>
     <row r="781" spans="1:4">
-      <c r="A781" s="18"/>
-      <c r="B781" s="18"/>
-      <c r="C781" s="18"/>
-      <c r="D781" s="19"/>
+      <c r="A781" s="17"/>
+      <c r="B781" s="17"/>
+      <c r="C781" s="17"/>
+      <c r="D781" s="18"/>
     </row>
     <row r="782" spans="1:4">
-      <c r="A782" s="18"/>
-      <c r="B782" s="18"/>
-      <c r="C782" s="18"/>
-      <c r="D782" s="19"/>
+      <c r="A782" s="17"/>
+      <c r="B782" s="17"/>
+      <c r="C782" s="17"/>
+      <c r="D782" s="18"/>
     </row>
     <row r="783" spans="1:3">
-      <c r="A783" s="18"/>
-      <c r="B783" s="18"/>
-      <c r="C783" s="18"/>
+      <c r="A783" s="17"/>
+      <c r="B783" s="17"/>
+      <c r="C783" s="17"/>
     </row>
     <row r="784" spans="1:3">
-      <c r="A784" s="18"/>
-      <c r="B784" s="18"/>
-      <c r="C784" s="18"/>
+      <c r="A784" s="17"/>
+      <c r="B784" s="17"/>
+      <c r="C784" s="17"/>
     </row>
     <row r="785" spans="1:4">
-      <c r="A785" s="18"/>
-      <c r="B785" s="18"/>
-      <c r="C785" s="18"/>
-      <c r="D785" s="19"/>
+      <c r="A785" s="17"/>
+      <c r="B785" s="17"/>
+      <c r="C785" s="17"/>
+      <c r="D785" s="18"/>
     </row>
     <row r="786" spans="1:4">
-      <c r="A786" s="18"/>
-      <c r="C786" s="18"/>
-      <c r="D786" s="19"/>
+      <c r="A786" s="17"/>
+      <c r="C786" s="17"/>
+      <c r="D786" s="18"/>
     </row>
     <row r="787" spans="1:4">
-      <c r="A787" s="18"/>
-      <c r="C787" s="18"/>
-      <c r="D787" s="19"/>
+      <c r="A787" s="17"/>
+      <c r="C787" s="17"/>
+      <c r="D787" s="18"/>
     </row>
     <row r="788" spans="1:3">
-      <c r="A788" s="18"/>
-      <c r="B788" s="23"/>
-      <c r="C788" s="18"/>
+      <c r="A788" s="17"/>
+      <c r="B788" s="22"/>
+      <c r="C788" s="17"/>
     </row>
     <row r="789" spans="1:3">
-      <c r="A789" s="18"/>
-      <c r="C789" s="18"/>
+      <c r="A789" s="17"/>
+      <c r="C789" s="17"/>
     </row>
     <row r="790" spans="3:3">
-      <c r="C790" s="18"/>
+      <c r="C790" s="17"/>
     </row>
     <row r="791" spans="1:4">
-      <c r="A791" s="18"/>
-      <c r="C791" s="18"/>
-      <c r="D791" s="19"/>
+      <c r="A791" s="17"/>
+      <c r="C791" s="17"/>
+      <c r="D791" s="18"/>
     </row>
     <row r="792" spans="1:3">
-      <c r="A792" s="18"/>
-      <c r="B792" s="18"/>
-      <c r="C792" s="18"/>
+      <c r="A792" s="17"/>
+      <c r="B792" s="17"/>
+      <c r="C792" s="17"/>
     </row>
     <row r="793" spans="2:3">
-      <c r="B793" s="18"/>
-      <c r="C793" s="18"/>
+      <c r="B793" s="17"/>
+      <c r="C793" s="17"/>
     </row>
     <row r="794" spans="1:4">
-      <c r="A794" s="18"/>
-      <c r="C794" s="18"/>
-      <c r="D794" s="19"/>
+      <c r="A794" s="17"/>
+      <c r="C794" s="17"/>
+      <c r="D794" s="18"/>
     </row>
     <row r="795" spans="1:3">
-      <c r="A795" s="18"/>
-      <c r="B795" s="18"/>
-      <c r="C795" s="18"/>
+      <c r="A795" s="17"/>
+      <c r="B795" s="17"/>
+      <c r="C795" s="17"/>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" s="18"/>
-      <c r="C796" s="18"/>
+      <c r="B796" s="17"/>
+      <c r="C796" s="17"/>
     </row>
     <row r="797" spans="1:3">
-      <c r="A797" s="18"/>
-      <c r="C797" s="18"/>
+      <c r="A797" s="17"/>
+      <c r="C797" s="17"/>
     </row>
     <row r="798" spans="1:4">
-      <c r="A798" s="18"/>
-      <c r="B798" s="18"/>
-      <c r="C798" s="18"/>
-      <c r="D798" s="19"/>
+      <c r="A798" s="17"/>
+      <c r="B798" s="17"/>
+      <c r="C798" s="17"/>
+      <c r="D798" s="18"/>
     </row>
     <row r="799" spans="1:4">
-      <c r="A799" s="18"/>
-      <c r="B799" s="18"/>
-      <c r="C799" s="18"/>
-      <c r="D799" s="19"/>
+      <c r="A799" s="17"/>
+      <c r="B799" s="17"/>
+      <c r="C799" s="17"/>
+      <c r="D799" s="18"/>
     </row>
     <row r="800" spans="1:3">
-      <c r="A800" s="18"/>
-      <c r="C800" s="18"/>
+      <c r="A800" s="17"/>
+      <c r="C800" s="17"/>
     </row>
     <row r="801" spans="1:4">
-      <c r="A801" s="18"/>
-      <c r="B801" s="18"/>
-      <c r="C801" s="18"/>
-      <c r="D801" s="19"/>
+      <c r="A801" s="17"/>
+      <c r="B801" s="17"/>
+      <c r="C801" s="17"/>
+      <c r="D801" s="18"/>
     </row>
     <row r="802" spans="1:3">
-      <c r="A802" s="18"/>
-      <c r="B802" s="20"/>
-      <c r="C802" s="18"/>
+      <c r="A802" s="17"/>
+      <c r="B802" s="19"/>
+      <c r="C802" s="17"/>
     </row>
     <row r="803" spans="1:3">
-      <c r="A803" s="18"/>
-      <c r="C803" s="18"/>
+      <c r="A803" s="17"/>
+      <c r="C803" s="17"/>
     </row>
     <row r="804" spans="1:3">
-      <c r="A804" s="18"/>
-      <c r="C804" s="18"/>
+      <c r="A804" s="17"/>
+      <c r="C804" s="17"/>
     </row>
     <row r="805" spans="1:3">
-      <c r="A805" s="18"/>
-      <c r="C805" s="18"/>
+      <c r="A805" s="17"/>
+      <c r="C805" s="17"/>
     </row>
     <row r="806" spans="1:3">
-      <c r="A806" s="18"/>
-      <c r="B806" s="18"/>
-      <c r="C806" s="18"/>
+      <c r="A806" s="17"/>
+      <c r="B806" s="17"/>
+      <c r="C806" s="17"/>
     </row>
     <row r="807" spans="1:3">
-      <c r="A807" s="18"/>
-      <c r="C807" s="18"/>
+      <c r="A807" s="17"/>
+      <c r="C807" s="17"/>
     </row>
     <row r="808" spans="1:3">
-      <c r="A808" s="18"/>
-      <c r="B808" s="18"/>
-      <c r="C808" s="18"/>
+      <c r="A808" s="17"/>
+      <c r="B808" s="17"/>
+      <c r="C808" s="17"/>
     </row>
     <row r="809" spans="1:3">
-      <c r="A809" s="18"/>
-      <c r="B809" s="18"/>
-      <c r="C809" s="18"/>
+      <c r="A809" s="17"/>
+      <c r="B809" s="17"/>
+      <c r="C809" s="17"/>
     </row>
     <row r="810" spans="1:3">
-      <c r="A810" s="18"/>
-      <c r="B810" s="18"/>
-      <c r="C810" s="18"/>
+      <c r="A810" s="17"/>
+      <c r="B810" s="17"/>
+      <c r="C810" s="17"/>
     </row>
     <row r="811" spans="1:4">
-      <c r="A811" s="18"/>
-      <c r="B811" s="18"/>
-      <c r="C811" s="18"/>
-      <c r="D811" s="19"/>
+      <c r="A811" s="17"/>
+      <c r="B811" s="17"/>
+      <c r="C811" s="17"/>
+      <c r="D811" s="18"/>
     </row>
     <row r="812" spans="1:3">
-      <c r="A812" s="18"/>
-      <c r="C812" s="18"/>
+      <c r="A812" s="17"/>
+      <c r="C812" s="17"/>
     </row>
     <row r="813" spans="1:4">
-      <c r="A813" s="18"/>
-      <c r="B813" s="18"/>
-      <c r="C813" s="18"/>
-      <c r="D813" s="19"/>
+      <c r="A813" s="17"/>
+      <c r="B813" s="17"/>
+      <c r="C813" s="17"/>
+      <c r="D813" s="18"/>
     </row>
     <row r="814" spans="1:3">
-      <c r="A814" s="18"/>
-      <c r="B814" s="18"/>
-      <c r="C814" s="18"/>
+      <c r="A814" s="17"/>
+      <c r="B814" s="17"/>
+      <c r="C814" s="17"/>
     </row>
     <row r="815" spans="1:4">
-      <c r="A815" s="18"/>
-      <c r="B815" s="18"/>
-      <c r="C815" s="18"/>
-      <c r="D815" s="19"/>
+      <c r="A815" s="17"/>
+      <c r="B815" s="17"/>
+      <c r="C815" s="17"/>
+      <c r="D815" s="18"/>
     </row>
     <row r="816" spans="1:3">
-      <c r="A816" s="18"/>
-      <c r="B816" s="18"/>
-      <c r="C816" s="18"/>
+      <c r="A816" s="17"/>
+      <c r="B816" s="17"/>
+      <c r="C816" s="17"/>
     </row>
     <row r="817" spans="1:3">
-      <c r="A817" s="18"/>
-      <c r="C817" s="18"/>
+      <c r="A817" s="17"/>
+      <c r="C817" s="17"/>
     </row>
     <row r="818" spans="1:3">
-      <c r="A818" s="18"/>
-      <c r="B818" s="18"/>
-      <c r="C818" s="18"/>
+      <c r="A818" s="17"/>
+      <c r="B818" s="17"/>
+      <c r="C818" s="17"/>
     </row>
     <row r="819" spans="1:3">
-      <c r="A819" s="18"/>
-      <c r="C819" s="18"/>
+      <c r="A819" s="17"/>
+      <c r="C819" s="17"/>
     </row>
     <row r="820" spans="1:3">
-      <c r="A820" s="18"/>
-      <c r="C820" s="18"/>
+      <c r="A820" s="17"/>
+      <c r="C820" s="17"/>
     </row>
     <row r="821" spans="1:4">
-      <c r="A821" s="18"/>
-      <c r="B821" s="18"/>
-      <c r="C821" s="18"/>
-      <c r="D821" s="19"/>
+      <c r="A821" s="17"/>
+      <c r="B821" s="17"/>
+      <c r="C821" s="17"/>
+      <c r="D821" s="18"/>
     </row>
     <row r="822" spans="1:3">
-      <c r="A822" s="18"/>
-      <c r="B822" s="18"/>
-      <c r="C822" s="18"/>
+      <c r="A822" s="17"/>
+      <c r="B822" s="17"/>
+      <c r="C822" s="17"/>
     </row>
     <row r="823" spans="1:3">
-      <c r="A823" s="18"/>
-      <c r="C823" s="18"/>
+      <c r="A823" s="17"/>
+      <c r="C823" s="17"/>
     </row>
     <row r="824" spans="1:4">
-      <c r="A824" s="18"/>
-      <c r="B824" s="18"/>
-      <c r="C824" s="18"/>
-      <c r="D824" s="19"/>
+      <c r="A824" s="17"/>
+      <c r="B824" s="17"/>
+      <c r="C824" s="17"/>
+      <c r="D824" s="18"/>
     </row>
     <row r="825" spans="1:3">
-      <c r="A825" s="18"/>
-      <c r="B825" s="18"/>
-      <c r="C825" s="18"/>
+      <c r="A825" s="17"/>
+      <c r="B825" s="17"/>
+      <c r="C825" s="17"/>
     </row>
     <row r="826" spans="1:3">
-      <c r="A826" s="18"/>
-      <c r="B826" s="18"/>
-      <c r="C826" s="18"/>
+      <c r="A826" s="17"/>
+      <c r="B826" s="17"/>
+      <c r="C826" s="17"/>
     </row>
     <row r="827" spans="1:3">
-      <c r="A827" s="18"/>
-      <c r="C827" s="18"/>
+      <c r="A827" s="17"/>
+      <c r="C827" s="17"/>
     </row>
     <row r="828" spans="1:3">
-      <c r="A828" s="18"/>
-      <c r="B828" s="18"/>
-      <c r="C828" s="18"/>
+      <c r="A828" s="17"/>
+      <c r="B828" s="17"/>
+      <c r="C828" s="17"/>
     </row>
     <row r="829" spans="1:3">
-      <c r="A829" s="18"/>
-      <c r="B829" s="18"/>
-      <c r="C829" s="18"/>
+      <c r="A829" s="17"/>
+      <c r="B829" s="17"/>
+      <c r="C829" s="17"/>
     </row>
     <row r="830" spans="1:4">
-      <c r="A830" s="18"/>
-      <c r="B830" s="18"/>
-      <c r="C830" s="18"/>
-      <c r="D830" s="19"/>
+      <c r="A830" s="17"/>
+      <c r="B830" s="17"/>
+      <c r="C830" s="17"/>
+      <c r="D830" s="18"/>
     </row>
     <row r="831" spans="1:4">
-      <c r="A831" s="18"/>
-      <c r="C831" s="18"/>
-      <c r="D831" s="19"/>
+      <c r="A831" s="17"/>
+      <c r="C831" s="17"/>
+      <c r="D831" s="18"/>
     </row>
     <row r="832" spans="1:4">
-      <c r="A832" s="18"/>
-      <c r="B832" s="18"/>
-      <c r="C832" s="18"/>
-      <c r="D832" s="19"/>
+      <c r="A832" s="17"/>
+      <c r="B832" s="17"/>
+      <c r="C832" s="17"/>
+      <c r="D832" s="18"/>
     </row>
     <row r="833" spans="1:4">
-      <c r="A833" s="18"/>
-      <c r="B833" s="18"/>
-      <c r="C833" s="18"/>
-      <c r="D833" s="19"/>
+      <c r="A833" s="17"/>
+      <c r="B833" s="17"/>
+      <c r="C833" s="17"/>
+      <c r="D833" s="18"/>
     </row>
     <row r="834" spans="1:4">
-      <c r="A834" s="18"/>
-      <c r="B834" s="18"/>
-      <c r="C834" s="18"/>
-      <c r="D834" s="19"/>
+      <c r="A834" s="17"/>
+      <c r="B834" s="17"/>
+      <c r="C834" s="17"/>
+      <c r="D834" s="18"/>
     </row>
     <row r="835" spans="1:4">
-      <c r="A835" s="18"/>
-      <c r="B835" s="18"/>
-      <c r="C835" s="18"/>
-      <c r="D835" s="19"/>
+      <c r="A835" s="17"/>
+      <c r="B835" s="17"/>
+      <c r="C835" s="17"/>
+      <c r="D835" s="18"/>
     </row>
     <row r="836" spans="1:4">
-      <c r="A836" s="18"/>
-      <c r="B836" s="18"/>
-      <c r="C836" s="18"/>
-      <c r="D836" s="19"/>
+      <c r="A836" s="17"/>
+      <c r="B836" s="17"/>
+      <c r="C836" s="17"/>
+      <c r="D836" s="18"/>
     </row>
     <row r="837" spans="1:4">
-      <c r="A837" s="18"/>
-      <c r="B837" s="18"/>
-      <c r="C837" s="18"/>
-      <c r="D837" s="19"/>
+      <c r="A837" s="17"/>
+      <c r="B837" s="17"/>
+      <c r="C837" s="17"/>
+      <c r="D837" s="18"/>
     </row>
     <row r="838" spans="1:4">
-      <c r="A838" s="18"/>
-      <c r="B838" s="18"/>
-      <c r="C838" s="18"/>
-      <c r="D838" s="19"/>
+      <c r="A838" s="17"/>
+      <c r="B838" s="17"/>
+      <c r="C838" s="17"/>
+      <c r="D838" s="18"/>
     </row>
     <row r="839" spans="1:3">
-      <c r="A839" s="18"/>
-      <c r="B839" s="18"/>
-      <c r="C839" s="18"/>
+      <c r="A839" s="17"/>
+      <c r="B839" s="17"/>
+      <c r="C839" s="17"/>
     </row>
     <row r="840" spans="1:3">
-      <c r="A840" s="18"/>
-      <c r="C840" s="18"/>
+      <c r="A840" s="17"/>
+      <c r="C840" s="17"/>
     </row>
     <row r="841" spans="1:3">
-      <c r="A841" s="18"/>
-      <c r="C841" s="18"/>
+      <c r="A841" s="17"/>
+      <c r="C841" s="17"/>
     </row>
     <row r="842" spans="1:4">
-      <c r="A842" s="18"/>
-      <c r="C842" s="18"/>
-      <c r="D842" s="19"/>
+      <c r="A842" s="17"/>
+      <c r="C842" s="17"/>
+      <c r="D842" s="18"/>
     </row>
     <row r="843" spans="1:3">
-      <c r="A843" s="18"/>
-      <c r="C843" s="18"/>
+      <c r="A843" s="17"/>
+      <c r="C843" s="17"/>
     </row>
     <row r="844" spans="1:3">
-      <c r="A844" s="18"/>
-      <c r="B844" s="18"/>
-      <c r="C844" s="18"/>
+      <c r="A844" s="17"/>
+      <c r="B844" s="17"/>
+      <c r="C844" s="17"/>
     </row>
     <row r="845" spans="1:3">
-      <c r="A845" s="18"/>
-      <c r="C845" s="18"/>
+      <c r="A845" s="17"/>
+      <c r="C845" s="17"/>
     </row>
     <row r="846" spans="1:4">
-      <c r="A846" s="18"/>
-      <c r="B846" s="18"/>
-      <c r="C846" s="18"/>
-      <c r="D846" s="19"/>
+      <c r="A846" s="17"/>
+      <c r="B846" s="17"/>
+      <c r="C846" s="17"/>
+      <c r="D846" s="18"/>
     </row>
     <row r="847" spans="1:3">
-      <c r="A847" s="18"/>
-      <c r="B847" s="18"/>
-      <c r="C847" s="18"/>
+      <c r="A847" s="17"/>
+      <c r="B847" s="17"/>
+      <c r="C847" s="17"/>
     </row>
     <row r="848" spans="2:3">
-      <c r="B848" s="18"/>
-      <c r="C848" s="18"/>
+      <c r="B848" s="17"/>
+      <c r="C848" s="17"/>
     </row>
     <row r="849" spans="1:3">
-      <c r="A849" s="18"/>
-      <c r="B849" s="18"/>
-      <c r="C849" s="18"/>
+      <c r="A849" s="17"/>
+      <c r="B849" s="17"/>
+      <c r="C849" s="17"/>
     </row>
     <row r="850" spans="1:4">
-      <c r="A850" s="18"/>
-      <c r="C850" s="18"/>
-      <c r="D850" s="19"/>
+      <c r="A850" s="17"/>
+      <c r="C850" s="17"/>
+      <c r="D850" s="18"/>
     </row>
     <row r="851" spans="1:4">
-      <c r="A851" s="18"/>
-      <c r="C851" s="18"/>
-      <c r="D851" s="19"/>
+      <c r="A851" s="17"/>
+      <c r="C851" s="17"/>
+      <c r="D851" s="18"/>
     </row>
     <row r="852" spans="1:3">
-      <c r="A852" s="18"/>
-      <c r="B852" s="18"/>
-      <c r="C852" s="18"/>
+      <c r="A852" s="17"/>
+      <c r="B852" s="17"/>
+      <c r="C852" s="17"/>
     </row>
     <row r="853" spans="1:4">
-      <c r="A853" s="18"/>
-      <c r="C853" s="18"/>
-      <c r="D853" s="19"/>
+      <c r="A853" s="17"/>
+      <c r="C853" s="17"/>
+      <c r="D853" s="18"/>
     </row>
     <row r="854" spans="1:3">
-      <c r="A854" s="18"/>
-      <c r="B854" s="18"/>
-      <c r="C854" s="18"/>
+      <c r="A854" s="17"/>
+      <c r="B854" s="17"/>
+      <c r="C854" s="17"/>
     </row>
     <row r="855" spans="1:3">
-      <c r="A855" s="18"/>
-      <c r="C855" s="18"/>
+      <c r="A855" s="17"/>
+      <c r="C855" s="17"/>
     </row>
     <row r="856" spans="1:3">
-      <c r="A856" s="18"/>
-      <c r="C856" s="18"/>
+      <c r="A856" s="17"/>
+      <c r="C856" s="17"/>
     </row>
     <row r="857" spans="1:4">
-      <c r="A857" s="18"/>
-      <c r="C857" s="18"/>
-      <c r="D857" s="19"/>
+      <c r="A857" s="17"/>
+      <c r="C857" s="17"/>
+      <c r="D857" s="18"/>
     </row>
     <row r="858" spans="1:4">
-      <c r="A858" s="18"/>
-      <c r="C858" s="18"/>
-      <c r="D858" s="19"/>
+      <c r="A858" s="17"/>
+      <c r="C858" s="17"/>
+      <c r="D858" s="18"/>
     </row>
     <row r="859" spans="1:3">
-      <c r="A859" s="18"/>
-      <c r="C859" s="18"/>
+      <c r="A859" s="17"/>
+      <c r="C859" s="17"/>
     </row>
     <row r="860" spans="1:3">
-      <c r="A860" s="18"/>
-      <c r="C860" s="18"/>
+      <c r="A860" s="17"/>
+      <c r="C860" s="17"/>
     </row>
     <row r="861" spans="1:4">
-      <c r="A861" s="18"/>
-      <c r="B861" s="18"/>
-      <c r="C861" s="18"/>
-      <c r="D861" s="19"/>
+      <c r="A861" s="17"/>
+      <c r="B861" s="17"/>
+      <c r="C861" s="17"/>
+      <c r="D861" s="18"/>
     </row>
     <row r="862" spans="1:3">
-      <c r="A862" s="18"/>
-      <c r="B862" s="18"/>
-      <c r="C862" s="18"/>
+      <c r="A862" s="17"/>
+      <c r="B862" s="17"/>
+      <c r="C862" s="17"/>
     </row>
     <row r="863" spans="1:3">
-      <c r="A863" s="18"/>
-      <c r="C863" s="18"/>
+      <c r="A863" s="17"/>
+      <c r="C863" s="17"/>
     </row>
     <row r="864" spans="1:4">
-      <c r="A864" s="18"/>
-      <c r="B864" s="18"/>
-      <c r="C864" s="18"/>
-      <c r="D864" s="19"/>
+      <c r="A864" s="17"/>
+      <c r="B864" s="17"/>
+      <c r="C864" s="17"/>
+      <c r="D864" s="18"/>
     </row>
     <row r="865" spans="1:4">
-      <c r="A865" s="18"/>
-      <c r="B865" s="18"/>
-      <c r="C865" s="18"/>
-      <c r="D865" s="19"/>
+      <c r="A865" s="17"/>
+      <c r="B865" s="17"/>
+      <c r="C865" s="17"/>
+      <c r="D865" s="18"/>
     </row>
     <row r="866" spans="1:4">
-      <c r="A866" s="18"/>
-      <c r="B866" s="18"/>
-      <c r="C866" s="18"/>
-      <c r="D866" s="19"/>
+      <c r="A866" s="17"/>
+      <c r="B866" s="17"/>
+      <c r="C866" s="17"/>
+      <c r="D866" s="18"/>
     </row>
     <row r="867" spans="1:3">
-      <c r="A867" s="18"/>
-      <c r="C867" s="18"/>
+      <c r="A867" s="17"/>
+      <c r="C867" s="17"/>
     </row>
     <row r="868" spans="1:3">
-      <c r="A868" s="18"/>
-      <c r="C868" s="18"/>
+      <c r="A868" s="17"/>
+      <c r="C868" s="17"/>
     </row>
     <row r="869" spans="1:3">
-      <c r="A869" s="18"/>
-      <c r="C869" s="18"/>
+      <c r="A869" s="17"/>
+      <c r="C869" s="17"/>
     </row>
     <row r="870" spans="1:3">
-      <c r="A870" s="18"/>
-      <c r="C870" s="18"/>
+      <c r="A870" s="17"/>
+      <c r="C870" s="17"/>
     </row>
     <row r="871" spans="1:3">
-      <c r="A871" s="18"/>
-      <c r="B871" s="18"/>
-      <c r="C871" s="18"/>
+      <c r="A871" s="17"/>
+      <c r="B871" s="17"/>
+      <c r="C871" s="17"/>
     </row>
     <row r="872" spans="1:4">
-      <c r="A872" s="18"/>
-      <c r="C872" s="18"/>
-      <c r="D872" s="19"/>
+      <c r="A872" s="17"/>
+      <c r="C872" s="17"/>
+      <c r="D872" s="18"/>
     </row>
     <row r="873" spans="1:3">
-      <c r="A873" s="18"/>
-      <c r="C873" s="18"/>
+      <c r="A873" s="17"/>
+      <c r="C873" s="17"/>
     </row>
     <row r="874" spans="1:3">
-      <c r="A874" s="18"/>
-      <c r="B874" s="24"/>
-      <c r="C874" s="18"/>
+      <c r="A874" s="17"/>
+      <c r="B874" s="23"/>
+      <c r="C874" s="17"/>
     </row>
     <row r="875" spans="1:3">
-      <c r="A875" s="18"/>
-      <c r="C875" s="18"/>
+      <c r="A875" s="17"/>
+      <c r="C875" s="17"/>
     </row>
     <row r="876" spans="1:3">
-      <c r="A876" s="18"/>
-      <c r="C876" s="18"/>
+      <c r="A876" s="17"/>
+      <c r="C876" s="17"/>
     </row>
     <row r="877" spans="1:3">
-      <c r="A877" s="18"/>
-      <c r="B877" s="18"/>
-      <c r="C877" s="18"/>
+      <c r="A877" s="17"/>
+      <c r="B877" s="17"/>
+      <c r="C877" s="17"/>
     </row>
     <row r="878" spans="1:4">
-      <c r="A878" s="18"/>
-      <c r="B878" s="18"/>
-      <c r="C878" s="18"/>
-      <c r="D878" s="19"/>
+      <c r="A878" s="17"/>
+      <c r="B878" s="17"/>
+      <c r="C878" s="17"/>
+      <c r="D878" s="18"/>
     </row>
     <row r="879" spans="1:4">
-      <c r="A879" s="18"/>
-      <c r="B879" s="18"/>
-      <c r="C879" s="18"/>
-      <c r="D879" s="19"/>
+      <c r="A879" s="17"/>
+      <c r="B879" s="17"/>
+      <c r="C879" s="17"/>
+      <c r="D879" s="18"/>
     </row>
     <row r="880" spans="1:3">
-      <c r="A880" s="18"/>
-      <c r="C880" s="18"/>
+      <c r="A880" s="17"/>
+      <c r="C880" s="17"/>
     </row>
     <row r="881" spans="1:4">
-      <c r="A881" s="18"/>
-      <c r="B881" s="18"/>
-      <c r="C881" s="18"/>
-      <c r="D881" s="19"/>
+      <c r="A881" s="17"/>
+      <c r="B881" s="17"/>
+      <c r="C881" s="17"/>
+      <c r="D881" s="18"/>
     </row>
     <row r="882" spans="1:3">
-      <c r="A882" s="18"/>
-      <c r="C882" s="18"/>
+      <c r="A882" s="17"/>
+      <c r="C882" s="17"/>
     </row>
     <row r="883" spans="1:3">
-      <c r="A883" s="18"/>
-      <c r="C883" s="18"/>
+      <c r="A883" s="17"/>
+      <c r="C883" s="17"/>
     </row>
     <row r="884" spans="1:3">
-      <c r="A884" s="18"/>
-      <c r="C884" s="18"/>
+      <c r="A884" s="17"/>
+      <c r="C884" s="17"/>
     </row>
     <row r="885" spans="1:4">
-      <c r="A885" s="18"/>
-      <c r="C885" s="18"/>
-      <c r="D885" s="19"/>
+      <c r="A885" s="17"/>
+      <c r="C885" s="17"/>
+      <c r="D885" s="18"/>
     </row>
     <row r="886" spans="1:3">
-      <c r="A886" s="18"/>
-      <c r="B886" s="18"/>
-      <c r="C886" s="18"/>
+      <c r="A886" s="17"/>
+      <c r="B886" s="17"/>
+      <c r="C886" s="17"/>
     </row>
     <row r="887" spans="1:3">
-      <c r="A887" s="18"/>
-      <c r="B887" s="18"/>
-      <c r="C887" s="18"/>
+      <c r="A887" s="17"/>
+      <c r="B887" s="17"/>
+      <c r="C887" s="17"/>
     </row>
     <row r="888" spans="1:3">
-      <c r="A888" s="18"/>
-      <c r="B888" s="18"/>
-      <c r="C888" s="18"/>
+      <c r="A888" s="17"/>
+      <c r="B888" s="17"/>
+      <c r="C888" s="17"/>
     </row>
     <row r="889" spans="1:3">
-      <c r="A889" s="18"/>
-      <c r="B889" s="18"/>
-      <c r="C889" s="18"/>
+      <c r="A889" s="17"/>
+      <c r="B889" s="17"/>
+      <c r="C889" s="17"/>
     </row>
     <row r="890" spans="1:3">
-      <c r="A890" s="18"/>
-      <c r="B890" s="18"/>
-      <c r="C890" s="18"/>
+      <c r="A890" s="17"/>
+      <c r="B890" s="17"/>
+      <c r="C890" s="17"/>
     </row>
     <row r="891" spans="1:3">
-      <c r="A891" s="18"/>
-      <c r="C891" s="18"/>
+      <c r="A891" s="17"/>
+      <c r="C891" s="17"/>
     </row>
     <row r="892" spans="1:3">
-      <c r="A892" s="18"/>
-      <c r="C892" s="18"/>
+      <c r="A892" s="17"/>
+      <c r="C892" s="17"/>
     </row>
     <row r="893" spans="1:3">
-      <c r="A893" s="18"/>
-      <c r="B893" s="23"/>
-      <c r="C893" s="18"/>
+      <c r="A893" s="17"/>
+      <c r="B893" s="22"/>
+      <c r="C893" s="17"/>
     </row>
     <row r="894" spans="1:4">
-      <c r="A894" s="18"/>
-      <c r="C894" s="18"/>
-      <c r="D894" s="19"/>
+      <c r="A894" s="17"/>
+      <c r="C894" s="17"/>
+      <c r="D894" s="18"/>
     </row>
     <row r="895" spans="1:3">
-      <c r="A895" s="18"/>
-      <c r="B895" s="18"/>
-      <c r="C895" s="18"/>
+      <c r="A895" s="17"/>
+      <c r="B895" s="17"/>
+      <c r="C895" s="17"/>
     </row>
     <row r="896" spans="1:3">
-      <c r="A896" s="18"/>
-      <c r="B896" s="18"/>
-      <c r="C896" s="18"/>
+      <c r="A896" s="17"/>
+      <c r="B896" s="17"/>
+      <c r="C896" s="17"/>
     </row>
     <row r="897" spans="1:3">
-      <c r="A897" s="18"/>
-      <c r="B897" s="18"/>
-      <c r="C897" s="18"/>
+      <c r="A897" s="17"/>
+      <c r="B897" s="17"/>
+      <c r="C897" s="17"/>
     </row>
     <row r="898" spans="1:4">
-      <c r="A898" s="18"/>
-      <c r="C898" s="18"/>
-      <c r="D898" s="19"/>
+      <c r="A898" s="17"/>
+      <c r="C898" s="17"/>
+      <c r="D898" s="18"/>
     </row>
     <row r="899" spans="1:4">
-      <c r="A899" s="18"/>
-      <c r="B899" s="18"/>
-      <c r="C899" s="18"/>
-      <c r="D899" s="19"/>
+      <c r="A899" s="17"/>
+      <c r="B899" s="17"/>
+      <c r="C899" s="17"/>
+      <c r="D899" s="18"/>
     </row>
     <row r="900" spans="1:4">
-      <c r="A900" s="18"/>
-      <c r="B900" s="18"/>
-      <c r="C900" s="18"/>
-      <c r="D900" s="25"/>
+      <c r="A900" s="17"/>
+      <c r="B900" s="17"/>
+      <c r="C900" s="17"/>
+      <c r="D900" s="24"/>
     </row>
     <row r="901" spans="1:4">
-      <c r="A901" s="18"/>
-      <c r="B901" s="18"/>
-      <c r="C901" s="18"/>
-      <c r="D901" s="19"/>
+      <c r="A901" s="17"/>
+      <c r="B901" s="17"/>
+      <c r="C901" s="17"/>
+      <c r="D901" s="18"/>
     </row>
     <row r="902" spans="1:3">
-      <c r="A902" s="18"/>
-      <c r="B902" s="18"/>
-      <c r="C902" s="18"/>
+      <c r="A902" s="17"/>
+      <c r="B902" s="17"/>
+      <c r="C902" s="17"/>
     </row>
     <row r="903" spans="1:3">
-      <c r="A903" s="18"/>
-      <c r="B903" s="18"/>
-      <c r="C903" s="18"/>
+      <c r="A903" s="17"/>
+      <c r="B903" s="17"/>
+      <c r="C903" s="17"/>
     </row>
     <row r="904" spans="1:3">
-      <c r="A904" s="18"/>
-      <c r="B904" s="18"/>
-      <c r="C904" s="18"/>
+      <c r="A904" s="17"/>
+      <c r="B904" s="17"/>
+      <c r="C904" s="17"/>
     </row>
     <row r="905" spans="1:4">
-      <c r="A905" s="18"/>
-      <c r="B905" s="18"/>
-      <c r="C905" s="18"/>
-      <c r="D905" s="19"/>
+      <c r="A905" s="17"/>
+      <c r="B905" s="17"/>
+      <c r="C905" s="17"/>
+      <c r="D905" s="18"/>
     </row>
     <row r="906" spans="1:3">
-      <c r="A906" s="18"/>
-      <c r="B906" s="18"/>
-      <c r="C906" s="18"/>
+      <c r="A906" s="17"/>
+      <c r="B906" s="17"/>
+      <c r="C906" s="17"/>
     </row>
     <row r="907" spans="2:4">
-      <c r="B907" s="18"/>
-      <c r="C907" s="18"/>
-      <c r="D907" s="19"/>
+      <c r="B907" s="17"/>
+      <c r="C907" s="17"/>
+      <c r="D907" s="18"/>
     </row>
     <row r="908" spans="1:4">
-      <c r="A908" s="18"/>
-      <c r="B908" s="18"/>
-      <c r="C908" s="18"/>
-      <c r="D908" s="19"/>
+      <c r="A908" s="17"/>
+      <c r="B908" s="17"/>
+      <c r="C908" s="17"/>
+      <c r="D908" s="18"/>
     </row>
     <row r="909" spans="2:4">
-      <c r="B909" s="18"/>
-      <c r="C909" s="18"/>
-      <c r="D909" s="19"/>
+      <c r="B909" s="17"/>
+      <c r="C909" s="17"/>
+      <c r="D909" s="18"/>
     </row>
     <row r="910" spans="1:3">
-      <c r="A910" s="18"/>
-      <c r="C910" s="18"/>
+      <c r="A910" s="17"/>
+      <c r="C910" s="17"/>
     </row>
     <row r="911" spans="1:4">
-      <c r="A911" s="18"/>
-      <c r="B911" s="26"/>
-      <c r="C911" s="18"/>
-      <c r="D911" s="27"/>
+      <c r="A911" s="17"/>
+      <c r="B911" s="25"/>
+      <c r="C911" s="17"/>
+      <c r="D911" s="26"/>
     </row>
     <row r="912" spans="1:3">
-      <c r="A912" s="18"/>
-      <c r="B912" s="18"/>
-      <c r="C912" s="18"/>
+      <c r="A912" s="17"/>
+      <c r="B912" s="17"/>
+      <c r="C912" s="17"/>
     </row>
     <row r="913" spans="1:4">
-      <c r="A913" s="18"/>
-      <c r="B913" s="18"/>
-      <c r="C913" s="18"/>
-      <c r="D913" s="19"/>
+      <c r="A913" s="17"/>
+      <c r="B913" s="17"/>
+      <c r="C913" s="17"/>
+      <c r="D913" s="18"/>
     </row>
     <row r="914" spans="1:4">
-      <c r="A914" s="18"/>
-      <c r="B914" s="18"/>
-      <c r="C914" s="18"/>
-      <c r="D914" s="19"/>
+      <c r="A914" s="17"/>
+      <c r="B914" s="17"/>
+      <c r="C914" s="17"/>
+      <c r="D914" s="18"/>
     </row>
     <row r="915" spans="2:3">
-      <c r="B915" s="18"/>
-      <c r="C915" s="18"/>
+      <c r="B915" s="17"/>
+      <c r="C915" s="17"/>
     </row>
     <row r="916" spans="1:4">
-      <c r="A916" s="18"/>
-      <c r="B916" s="28"/>
-      <c r="C916" s="18"/>
-      <c r="D916" s="27"/>
+      <c r="A916" s="17"/>
+      <c r="B916" s="27"/>
+      <c r="C916" s="17"/>
+      <c r="D916" s="26"/>
     </row>
     <row r="917" spans="1:4">
-      <c r="A917" s="18"/>
-      <c r="B917" s="18"/>
-      <c r="C917" s="18"/>
-      <c r="D917" s="19"/>
+      <c r="A917" s="17"/>
+      <c r="B917" s="17"/>
+      <c r="C917" s="17"/>
+      <c r="D917" s="18"/>
     </row>
     <row r="918" spans="1:4">
-      <c r="A918" s="18"/>
-      <c r="B918" s="18"/>
-      <c r="C918" s="18"/>
-      <c r="D918" s="19"/>
+      <c r="A918" s="17"/>
+      <c r="B918" s="17"/>
+      <c r="C918" s="17"/>
+      <c r="D918" s="18"/>
     </row>
     <row r="919" ht="14.25" spans="1:4">
-      <c r="A919" s="29"/>
-      <c r="B919" s="29"/>
-      <c r="C919" s="18"/>
-      <c r="D919" s="30"/>
+      <c r="A919" s="28"/>
+      <c r="B919" s="28"/>
+      <c r="C919" s="17"/>
+      <c r="D919" s="29"/>
     </row>
     <row r="920" spans="1:3">
-      <c r="A920" s="18"/>
-      <c r="B920" s="18"/>
-      <c r="C920" s="18"/>
+      <c r="A920" s="17"/>
+      <c r="B920" s="17"/>
+      <c r="C920" s="17"/>
     </row>
     <row r="921" spans="1:4">
-      <c r="A921" s="18"/>
-      <c r="B921" s="18"/>
-      <c r="C921" s="18"/>
-      <c r="D921" s="19"/>
+      <c r="A921" s="17"/>
+      <c r="B921" s="17"/>
+      <c r="C921" s="17"/>
+      <c r="D921" s="18"/>
     </row>
     <row r="922" spans="3:3">
-      <c r="C922" s="18"/>
+      <c r="C922" s="17"/>
     </row>
     <row r="923" spans="2:4">
-      <c r="B923" s="18"/>
-      <c r="C923" s="18"/>
-      <c r="D923" s="27"/>
+      <c r="B923" s="17"/>
+      <c r="C923" s="17"/>
+      <c r="D923" s="26"/>
     </row>
     <row r="925" spans="1:4">
-      <c r="A925" s="18"/>
-      <c r="B925" s="18"/>
-      <c r="C925" s="18"/>
-      <c r="D925" s="19"/>
+      <c r="A925" s="17"/>
+      <c r="B925" s="17"/>
+      <c r="C925" s="17"/>
+      <c r="D925" s="18"/>
     </row>
     <row r="926" spans="1:3">
-      <c r="A926" s="18"/>
-      <c r="B926" s="18"/>
-      <c r="C926" s="18"/>
+      <c r="A926" s="17"/>
+      <c r="B926" s="17"/>
+      <c r="C926" s="17"/>
     </row>
     <row r="927" spans="1:3">
-      <c r="A927" s="18"/>
-      <c r="B927" s="18"/>
-      <c r="C927" s="18"/>
+      <c r="A927" s="17"/>
+      <c r="B927" s="17"/>
+      <c r="C927" s="17"/>
     </row>
     <row r="928" spans="1:3">
-      <c r="A928" s="18"/>
-      <c r="B928" s="18"/>
-      <c r="C928" s="18"/>
+      <c r="A928" s="17"/>
+      <c r="B928" s="17"/>
+      <c r="C928" s="17"/>
     </row>
     <row r="929" spans="1:3">
-      <c r="A929" s="18"/>
-      <c r="B929" s="18"/>
-      <c r="C929" s="18"/>
+      <c r="A929" s="17"/>
+      <c r="B929" s="17"/>
+      <c r="C929" s="17"/>
     </row>
     <row r="930" spans="2:3">
-      <c r="B930" s="31"/>
-      <c r="C930" s="18"/>
+      <c r="B930" s="30"/>
+      <c r="C930" s="17"/>
     </row>
     <row r="931" spans="1:4">
-      <c r="A931" s="18"/>
-      <c r="B931" s="23"/>
-      <c r="C931" s="18"/>
-      <c r="D931" s="19"/>
+      <c r="A931" s="17"/>
+      <c r="B931" s="22"/>
+      <c r="C931" s="17"/>
+      <c r="D931" s="18"/>
     </row>
     <row r="933" spans="1:3">
-      <c r="A933" s="18"/>
-      <c r="B933" s="18"/>
-      <c r="C933" s="18"/>
+      <c r="A933" s="17"/>
+      <c r="B933" s="17"/>
+      <c r="C933" s="17"/>
     </row>
     <row r="934" spans="1:4">
-      <c r="A934" s="18"/>
-      <c r="B934" s="18"/>
-      <c r="C934" s="18"/>
-      <c r="D934" s="19"/>
+      <c r="A934" s="17"/>
+      <c r="B934" s="17"/>
+      <c r="C934" s="17"/>
+      <c r="D934" s="18"/>
     </row>
     <row r="935" spans="1:4">
-      <c r="A935" s="18"/>
-      <c r="B935" s="23"/>
-      <c r="C935" s="18"/>
-      <c r="D935" s="19"/>
+      <c r="A935" s="17"/>
+      <c r="B935" s="22"/>
+      <c r="C935" s="17"/>
+      <c r="D935" s="18"/>
     </row>
     <row r="936" spans="1:3">
-      <c r="A936" s="18"/>
-      <c r="B936" s="18"/>
-      <c r="C936" s="18"/>
+      <c r="A936" s="17"/>
+      <c r="B936" s="17"/>
+      <c r="C936" s="17"/>
     </row>
     <row r="937" spans="1:4">
-      <c r="A937" s="18"/>
-      <c r="C937" s="18"/>
-      <c r="D937" s="19"/>
+      <c r="A937" s="17"/>
+      <c r="C937" s="17"/>
+      <c r="D937" s="18"/>
     </row>
     <row r="938" spans="1:4">
-      <c r="A938" s="18"/>
-      <c r="C938" s="18"/>
-      <c r="D938" s="19"/>
+      <c r="A938" s="17"/>
+      <c r="C938" s="17"/>
+      <c r="D938" s="18"/>
     </row>
     <row r="939" spans="2:4">
-      <c r="B939" s="18"/>
-      <c r="C939" s="18"/>
-      <c r="D939" s="27"/>
+      <c r="B939" s="17"/>
+      <c r="C939" s="17"/>
+      <c r="D939" s="26"/>
     </row>
     <row r="940" spans="2:3">
-      <c r="B940" s="18"/>
-      <c r="C940" s="18"/>
+      <c r="B940" s="17"/>
+      <c r="C940" s="17"/>
     </row>
     <row r="941" spans="1:3">
-      <c r="A941" s="18"/>
-      <c r="B941" s="18"/>
-      <c r="C941" s="18"/>
+      <c r="A941" s="17"/>
+      <c r="B941" s="17"/>
+      <c r="C941" s="17"/>
     </row>
     <row r="942" spans="1:3">
-      <c r="A942" s="18"/>
-      <c r="B942" s="18"/>
-      <c r="C942" s="18"/>
+      <c r="A942" s="17"/>
+      <c r="B942" s="17"/>
+      <c r="C942" s="17"/>
     </row>
     <row r="943" spans="1:3">
-      <c r="A943" s="18"/>
-      <c r="C943" s="18"/>
+      <c r="A943" s="17"/>
+      <c r="C943" s="17"/>
     </row>
     <row r="944" spans="1:3">
-      <c r="A944" s="18"/>
-      <c r="B944" s="18"/>
-      <c r="C944" s="18"/>
+      <c r="A944" s="17"/>
+      <c r="B944" s="17"/>
+      <c r="C944" s="17"/>
     </row>
     <row r="945" spans="1:3">
-      <c r="A945" s="18"/>
-      <c r="B945" s="18"/>
-      <c r="C945" s="18"/>
+      <c r="A945" s="17"/>
+      <c r="B945" s="17"/>
+      <c r="C945" s="17"/>
     </row>
     <row r="946" spans="1:4">
-      <c r="A946" s="18"/>
-      <c r="B946" s="18"/>
-      <c r="C946" s="18"/>
-      <c r="D946" s="19"/>
+      <c r="A946" s="17"/>
+      <c r="B946" s="17"/>
+      <c r="C946" s="17"/>
+      <c r="D946" s="18"/>
     </row>
     <row r="947" spans="1:3">
-      <c r="A947" s="18"/>
-      <c r="B947" s="18"/>
-      <c r="C947" s="18"/>
+      <c r="A947" s="17"/>
+      <c r="B947" s="17"/>
+      <c r="C947" s="17"/>
     </row>
     <row r="948" spans="1:4">
-      <c r="A948" s="18"/>
-      <c r="D948" s="19"/>
+      <c r="A948" s="17"/>
+      <c r="D948" s="18"/>
     </row>
     <row r="949" spans="1:4">
-      <c r="A949" s="18"/>
-      <c r="C949" s="18"/>
-      <c r="D949" s="19"/>
+      <c r="A949" s="17"/>
+      <c r="C949" s="17"/>
+      <c r="D949" s="18"/>
     </row>
     <row r="950" spans="1:4">
-      <c r="A950" s="18"/>
-      <c r="C950" s="18"/>
-      <c r="D950" s="19"/>
+      <c r="A950" s="17"/>
+      <c r="C950" s="17"/>
+      <c r="D950" s="18"/>
     </row>
     <row r="951" spans="1:3">
-      <c r="A951" s="18"/>
-      <c r="B951" s="18"/>
-      <c r="C951" s="18"/>
+      <c r="A951" s="17"/>
+      <c r="B951" s="17"/>
+      <c r="C951" s="17"/>
     </row>
     <row r="952" spans="2:3">
-      <c r="B952" s="32"/>
-      <c r="C952" s="18"/>
+      <c r="B952" s="31"/>
+      <c r="C952" s="17"/>
     </row>
     <row r="953" spans="1:4">
-      <c r="A953" s="18"/>
-      <c r="B953" s="18"/>
-      <c r="C953" s="18"/>
-      <c r="D953" s="19"/>
+      <c r="A953" s="17"/>
+      <c r="B953" s="17"/>
+      <c r="C953" s="17"/>
+      <c r="D953" s="18"/>
     </row>
     <row r="954" spans="1:3">
-      <c r="A954" s="18"/>
-      <c r="B954" s="18"/>
-      <c r="C954" s="18"/>
+      <c r="A954" s="17"/>
+      <c r="B954" s="17"/>
+      <c r="C954" s="17"/>
     </row>
     <row r="955" spans="2:4">
-      <c r="B955" s="18"/>
-      <c r="C955" s="18"/>
-      <c r="D955" s="19"/>
+      <c r="B955" s="17"/>
+      <c r="C955" s="17"/>
+      <c r="D955" s="18"/>
     </row>
     <row r="956" spans="2:3">
-      <c r="B956" s="18"/>
-      <c r="C956" s="18"/>
+      <c r="B956" s="17"/>
+      <c r="C956" s="17"/>
     </row>
     <row r="957" spans="3:4">
-      <c r="C957" s="18"/>
-      <c r="D957" s="19"/>
+      <c r="C957" s="17"/>
+      <c r="D957" s="18"/>
     </row>
     <row r="958" spans="1:3">
-      <c r="A958" s="18"/>
-      <c r="B958" s="18"/>
-      <c r="C958" s="18"/>
+      <c r="A958" s="17"/>
+      <c r="B958" s="17"/>
+      <c r="C958" s="17"/>
     </row>
     <row r="959" spans="1:3">
-      <c r="A959" s="29"/>
-      <c r="B959" s="18"/>
-      <c r="C959" s="18"/>
+      <c r="A959" s="28"/>
+      <c r="B959" s="17"/>
+      <c r="C959" s="17"/>
     </row>
     <row r="960" spans="2:3">
-      <c r="B960" s="18"/>
-      <c r="C960" s="18"/>
+      <c r="B960" s="17"/>
+      <c r="C960" s="17"/>
     </row>
     <row r="961" spans="1:4">
-      <c r="A961" s="18"/>
-      <c r="B961" s="18"/>
-      <c r="C961" s="18"/>
-      <c r="D961" s="19"/>
+      <c r="A961" s="17"/>
+      <c r="B961" s="17"/>
+      <c r="C961" s="17"/>
+      <c r="D961" s="18"/>
     </row>
     <row r="962" spans="1:3">
-      <c r="A962" s="18"/>
-      <c r="B962" s="18"/>
-      <c r="C962" s="18"/>
+      <c r="A962" s="17"/>
+      <c r="B962" s="17"/>
+      <c r="C962" s="17"/>
     </row>
     <row r="963" spans="1:4">
-      <c r="A963" s="18"/>
-      <c r="B963" s="18"/>
-      <c r="C963" s="18"/>
-      <c r="D963" s="19"/>
+      <c r="A963" s="17"/>
+      <c r="B963" s="17"/>
+      <c r="C963" s="17"/>
+      <c r="D963" s="18"/>
     </row>
     <row r="964" spans="1:4">
-      <c r="A964" s="18"/>
-      <c r="B964" s="18"/>
-      <c r="C964" s="18"/>
-      <c r="D964" s="19"/>
+      <c r="A964" s="17"/>
+      <c r="B964" s="17"/>
+      <c r="C964" s="17"/>
+      <c r="D964" s="18"/>
     </row>
     <row r="965" spans="1:4">
-      <c r="A965" s="18"/>
-      <c r="B965" s="18"/>
-      <c r="C965" s="18"/>
-      <c r="D965" s="19"/>
+      <c r="A965" s="17"/>
+      <c r="B965" s="17"/>
+      <c r="C965" s="17"/>
+      <c r="D965" s="18"/>
     </row>
     <row r="966" spans="1:3">
-      <c r="A966" s="18"/>
-      <c r="C966" s="18"/>
+      <c r="A966" s="17"/>
+      <c r="C966" s="17"/>
     </row>
     <row r="967" spans="1:4">
-      <c r="A967" s="18"/>
-      <c r="B967" s="18"/>
-      <c r="C967" s="18"/>
-      <c r="D967" s="19"/>
+      <c r="A967" s="17"/>
+      <c r="B967" s="17"/>
+      <c r="C967" s="17"/>
+      <c r="D967" s="18"/>
     </row>
     <row r="968" spans="1:4">
-      <c r="A968" s="18"/>
-      <c r="B968" s="18"/>
-      <c r="C968" s="18"/>
-      <c r="D968" s="19"/>
+      <c r="A968" s="17"/>
+      <c r="B968" s="17"/>
+      <c r="C968" s="17"/>
+      <c r="D968" s="18"/>
     </row>
     <row r="969" spans="1:1">
-      <c r="A969" s="18"/>
+      <c r="A969" s="17"/>
     </row>
     <row r="970" spans="1:3">
-      <c r="A970" s="18"/>
-      <c r="B970" s="33"/>
-      <c r="C970" s="18"/>
+      <c r="A970" s="17"/>
+      <c r="B970" s="32"/>
+      <c r="C970" s="17"/>
     </row>
     <row r="971" spans="1:4">
-      <c r="A971" s="18"/>
-      <c r="B971" s="18"/>
-      <c r="C971" s="18"/>
-      <c r="D971" s="34"/>
+      <c r="A971" s="17"/>
+      <c r="B971" s="17"/>
+      <c r="C971" s="17"/>
+      <c r="D971" s="33"/>
     </row>
     <row r="972" spans="1:4">
-      <c r="A972" s="18"/>
-      <c r="B972" s="18"/>
-      <c r="C972" s="18"/>
-      <c r="D972" s="19"/>
+      <c r="A972" s="17"/>
+      <c r="B972" s="17"/>
+      <c r="C972" s="17"/>
+      <c r="D972" s="18"/>
     </row>
     <row r="973" spans="1:4">
-      <c r="A973" s="18"/>
-      <c r="B973" s="35"/>
-      <c r="C973" s="18"/>
-      <c r="D973" s="19"/>
+      <c r="A973" s="17"/>
+      <c r="B973" s="34"/>
+      <c r="C973" s="17"/>
+      <c r="D973" s="18"/>
     </row>
     <row r="974" spans="3:3">
-      <c r="C974" s="18"/>
+      <c r="C974" s="17"/>
     </row>
     <row r="975" spans="2:4">
-      <c r="B975" s="18"/>
-      <c r="C975" s="18"/>
-      <c r="D975" s="19"/>
+      <c r="B975" s="17"/>
+      <c r="C975" s="17"/>
+      <c r="D975" s="18"/>
     </row>
     <row r="976" spans="2:3">
-      <c r="B976" s="18"/>
-      <c r="C976" s="18"/>
+      <c r="B976" s="17"/>
+      <c r="C976" s="17"/>
     </row>
     <row r="977" spans="1:4">
-      <c r="A977" s="18"/>
-      <c r="B977" s="18"/>
-      <c r="C977" s="18"/>
-      <c r="D977" s="19"/>
+      <c r="A977" s="17"/>
+      <c r="B977" s="17"/>
+      <c r="C977" s="17"/>
+      <c r="D977" s="18"/>
     </row>
     <row r="978" spans="3:3">
-      <c r="C978" s="18"/>
+      <c r="C978" s="17"/>
     </row>
     <row r="979" spans="1:3">
-      <c r="A979" s="18"/>
-      <c r="B979" s="18"/>
-      <c r="C979" s="18"/>
+      <c r="A979" s="17"/>
+      <c r="B979" s="17"/>
+      <c r="C979" s="17"/>
     </row>
     <row r="980" spans="1:3">
-      <c r="A980" s="18"/>
-      <c r="C980" s="18"/>
+      <c r="A980" s="17"/>
+      <c r="C980" s="17"/>
     </row>
     <row r="981" spans="1:3">
-      <c r="A981" s="18"/>
-      <c r="B981" s="18"/>
-      <c r="C981" s="18"/>
+      <c r="A981" s="17"/>
+      <c r="B981" s="17"/>
+      <c r="C981" s="17"/>
     </row>
     <row r="982" spans="1:3">
-      <c r="A982" s="18"/>
-      <c r="B982" s="18"/>
-      <c r="C982" s="18"/>
+      <c r="A982" s="17"/>
+      <c r="B982" s="17"/>
+      <c r="C982" s="17"/>
     </row>
     <row r="983" spans="2:4">
-      <c r="B983" s="18"/>
-      <c r="C983" s="18"/>
-      <c r="D983" s="19"/>
+      <c r="B983" s="17"/>
+      <c r="C983" s="17"/>
+      <c r="D983" s="18"/>
     </row>
     <row r="984" spans="1:1">
-      <c r="A984" s="18"/>
+      <c r="A984" s="17"/>
     </row>
     <row r="985" spans="1:3">
-      <c r="A985" s="18"/>
-      <c r="C985" s="18"/>
+      <c r="A985" s="17"/>
+      <c r="C985" s="17"/>
     </row>
     <row r="986" spans="2:4">
-      <c r="B986" s="18"/>
-      <c r="C986" s="18"/>
-      <c r="D986" s="19"/>
+      <c r="B986" s="17"/>
+      <c r="C986" s="17"/>
+      <c r="D986" s="18"/>
     </row>
     <row r="987" spans="1:4">
-      <c r="A987" s="18"/>
-      <c r="C987" s="18"/>
-      <c r="D987" s="19"/>
+      <c r="A987" s="17"/>
+      <c r="C987" s="17"/>
+      <c r="D987" s="18"/>
     </row>
     <row r="988" spans="1:4">
-      <c r="A988" s="18"/>
-      <c r="B988" s="18"/>
-      <c r="C988" s="18"/>
-      <c r="D988" s="19"/>
+      <c r="A988" s="17"/>
+      <c r="B988" s="17"/>
+      <c r="C988" s="17"/>
+      <c r="D988" s="18"/>
     </row>
     <row r="989" spans="1:4">
-      <c r="A989" s="18"/>
-      <c r="C989" s="18"/>
-      <c r="D989" s="19"/>
+      <c r="A989" s="17"/>
+      <c r="C989" s="17"/>
+      <c r="D989" s="18"/>
     </row>
     <row r="990" spans="1:4">
-      <c r="A990" s="18"/>
-      <c r="C990" s="18"/>
-      <c r="D990" s="19"/>
+      <c r="A990" s="17"/>
+      <c r="C990" s="17"/>
+      <c r="D990" s="18"/>
     </row>
     <row r="991" spans="1:3">
-      <c r="A991" s="18"/>
-      <c r="C991" s="18"/>
+      <c r="A991" s="17"/>
+      <c r="C991" s="17"/>
     </row>
     <row r="992" spans="1:3">
-      <c r="A992" s="18"/>
-      <c r="B992" s="18"/>
-      <c r="C992" s="18"/>
+      <c r="A992" s="17"/>
+      <c r="B992" s="17"/>
+      <c r="C992" s="17"/>
     </row>
     <row r="993" spans="1:4">
-      <c r="A993" s="18"/>
-      <c r="B993" s="18"/>
-      <c r="C993" s="18"/>
-      <c r="D993" s="19"/>
+      <c r="A993" s="17"/>
+      <c r="B993" s="17"/>
+      <c r="C993" s="17"/>
+      <c r="D993" s="18"/>
     </row>
     <row r="994" spans="3:3">
-      <c r="C994" s="18"/>
+      <c r="C994" s="17"/>
     </row>
     <row r="995" spans="1:4">
-      <c r="A995" s="18"/>
-      <c r="B995" s="18"/>
-      <c r="C995" s="18"/>
-      <c r="D995" s="19"/>
+      <c r="A995" s="17"/>
+      <c r="B995" s="17"/>
+      <c r="C995" s="17"/>
+      <c r="D995" s="18"/>
     </row>
     <row r="996" spans="2:4">
-      <c r="B996" s="36"/>
-      <c r="C996" s="18"/>
-      <c r="D996" s="27"/>
+      <c r="B996" s="35"/>
+      <c r="C996" s="17"/>
+      <c r="D996" s="26"/>
     </row>
     <row r="997" spans="1:3">
-      <c r="A997" s="18"/>
-      <c r="B997" s="18"/>
-      <c r="C997" s="18"/>
+      <c r="A997" s="17"/>
+      <c r="B997" s="17"/>
+      <c r="C997" s="17"/>
     </row>
     <row r="998" spans="1:4">
-      <c r="A998" s="18"/>
-      <c r="B998" s="18"/>
-      <c r="C998" s="18"/>
-      <c r="D998" s="19"/>
+      <c r="A998" s="17"/>
+      <c r="B998" s="17"/>
+      <c r="C998" s="17"/>
+      <c r="D998" s="18"/>
     </row>
     <row r="999" spans="1:4">
-      <c r="A999" s="18"/>
-      <c r="B999" s="18"/>
-      <c r="C999" s="18"/>
-      <c r="D999" s="19"/>
+      <c r="A999" s="17"/>
+      <c r="B999" s="17"/>
+      <c r="C999" s="17"/>
+      <c r="D999" s="18"/>
     </row>
     <row r="1000" spans="1:4">
-      <c r="A1000" s="18"/>
-      <c r="B1000" s="18"/>
-      <c r="C1000" s="18"/>
-      <c r="D1000" s="19"/>
+      <c r="A1000" s="17"/>
+      <c r="B1000" s="17"/>
+      <c r="C1000" s="17"/>
+      <c r="D1000" s="18"/>
     </row>
     <row r="1001" spans="1:3">
-      <c r="A1001" s="18"/>
-      <c r="C1001" s="18"/>
+      <c r="A1001" s="17"/>
+      <c r="C1001" s="17"/>
     </row>
     <row r="1002" spans="1:4">
-      <c r="A1002" s="18"/>
-      <c r="B1002" s="18"/>
-      <c r="C1002" s="18"/>
-      <c r="D1002" s="19"/>
+      <c r="A1002" s="17"/>
+      <c r="B1002" s="17"/>
+      <c r="C1002" s="17"/>
+      <c r="D1002" s="18"/>
     </row>
     <row r="1004" spans="2:3">
-      <c r="B1004" s="18"/>
-      <c r="C1004" s="18"/>
+      <c r="B1004" s="17"/>
+      <c r="C1004" s="17"/>
     </row>
     <row r="1005" spans="1:4">
-      <c r="A1005" s="18"/>
-      <c r="B1005" s="18"/>
-      <c r="C1005" s="18"/>
-      <c r="D1005" s="19"/>
+      <c r="A1005" s="17"/>
+      <c r="B1005" s="17"/>
+      <c r="C1005" s="17"/>
+      <c r="D1005" s="18"/>
     </row>
     <row r="1006" spans="1:3">
-      <c r="A1006" s="18"/>
-      <c r="C1006" s="18"/>
+      <c r="A1006" s="17"/>
+      <c r="C1006" s="17"/>
     </row>
     <row r="1007" spans="1:4">
-      <c r="A1007" s="18"/>
-      <c r="B1007" s="18"/>
-      <c r="C1007" s="18"/>
-      <c r="D1007" s="27"/>
+      <c r="A1007" s="17"/>
+      <c r="B1007" s="17"/>
+      <c r="C1007" s="17"/>
+      <c r="D1007" s="26"/>
     </row>
     <row r="1008" spans="1:1">
-      <c r="A1008" s="18"/>
+      <c r="A1008" s="17"/>
     </row>
     <row r="1009" spans="1:3">
-      <c r="A1009" s="18"/>
-      <c r="C1009" s="18"/>
+      <c r="A1009" s="17"/>
+      <c r="C1009" s="17"/>
     </row>
     <row r="1010" spans="1:4">
-      <c r="A1010" s="18"/>
-      <c r="C1010" s="18"/>
-      <c r="D1010" s="19"/>
+      <c r="A1010" s="17"/>
+      <c r="C1010" s="17"/>
+      <c r="D1010" s="18"/>
     </row>
     <row r="1011" spans="1:4">
-      <c r="A1011" s="18"/>
-      <c r="C1011" s="18"/>
-      <c r="D1011" s="19"/>
+      <c r="A1011" s="17"/>
+      <c r="C1011" s="17"/>
+      <c r="D1011" s="18"/>
     </row>
     <row r="1012" spans="1:4">
-      <c r="A1012" s="18"/>
-      <c r="B1012" s="18"/>
-      <c r="C1012" s="18"/>
-      <c r="D1012" s="19"/>
+      <c r="A1012" s="17"/>
+      <c r="B1012" s="17"/>
+      <c r="C1012" s="17"/>
+      <c r="D1012" s="18"/>
     </row>
     <row r="1013" spans="1:3">
-      <c r="A1013" s="18"/>
-      <c r="B1013" s="18"/>
-      <c r="C1013" s="18"/>
+      <c r="A1013" s="17"/>
+      <c r="B1013" s="17"/>
+      <c r="C1013" s="17"/>
     </row>
     <row r="1014" spans="1:3">
-      <c r="A1014" s="18"/>
-      <c r="B1014" s="18"/>
-      <c r="C1014" s="18"/>
+      <c r="A1014" s="17"/>
+      <c r="B1014" s="17"/>
+      <c r="C1014" s="17"/>
     </row>
     <row r="1015" spans="1:3">
-      <c r="A1015" s="18"/>
-      <c r="B1015" s="18"/>
-      <c r="C1015" s="18"/>
+      <c r="A1015" s="17"/>
+      <c r="B1015" s="17"/>
+      <c r="C1015" s="17"/>
     </row>
     <row r="1016" spans="1:3">
-      <c r="A1016" s="18"/>
-      <c r="C1016" s="18"/>
+      <c r="A1016" s="17"/>
+      <c r="C1016" s="17"/>
     </row>
     <row r="1017" spans="1:3">
-      <c r="A1017" s="18"/>
-      <c r="B1017" s="18"/>
-      <c r="C1017" s="18"/>
+      <c r="A1017" s="17"/>
+      <c r="B1017" s="17"/>
+      <c r="C1017" s="17"/>
     </row>
     <row r="1018" spans="1:3">
-      <c r="A1018" s="18"/>
-      <c r="C1018" s="18"/>
+      <c r="A1018" s="17"/>
+      <c r="C1018" s="17"/>
     </row>
     <row r="1019" spans="1:3">
-      <c r="A1019" s="18"/>
-      <c r="C1019" s="18"/>
+      <c r="A1019" s="17"/>
+      <c r="C1019" s="17"/>
     </row>
     <row r="1020" spans="1:4">
-      <c r="A1020" s="18"/>
-      <c r="C1020" s="18"/>
-      <c r="D1020" s="19"/>
+      <c r="A1020" s="17"/>
+      <c r="C1020" s="17"/>
+      <c r="D1020" s="18"/>
     </row>
     <row r="1021" spans="1:3">
-      <c r="A1021" s="18"/>
-      <c r="C1021" s="18"/>
+      <c r="A1021" s="17"/>
+      <c r="C1021" s="17"/>
     </row>
     <row r="1022" spans="1:3">
-      <c r="A1022" s="18"/>
-      <c r="C1022" s="18"/>
+      <c r="A1022" s="17"/>
+      <c r="C1022" s="17"/>
     </row>
     <row r="1023" spans="1:4">
-      <c r="A1023" s="18"/>
-      <c r="B1023" s="18"/>
-      <c r="C1023" s="18"/>
-      <c r="D1023" s="19"/>
+      <c r="A1023" s="17"/>
+      <c r="B1023" s="17"/>
+      <c r="C1023" s="17"/>
+      <c r="D1023" s="18"/>
     </row>
     <row r="1025" spans="1:3">
-      <c r="A1025" s="18"/>
-      <c r="C1025" s="18"/>
+      <c r="A1025" s="17"/>
+      <c r="C1025" s="17"/>
     </row>
     <row r="1026" spans="1:3">
-      <c r="A1026" s="18"/>
-      <c r="C1026" s="18"/>
+      <c r="A1026" s="17"/>
+      <c r="C1026" s="17"/>
     </row>
     <row r="1027" spans="1:3">
-      <c r="A1027" s="18"/>
-      <c r="B1027" s="18"/>
-      <c r="C1027" s="18"/>
+      <c r="A1027" s="17"/>
+      <c r="B1027" s="17"/>
+      <c r="C1027" s="17"/>
     </row>
     <row r="1028" spans="1:3">
-      <c r="A1028" s="18"/>
-      <c r="B1028" s="18"/>
-      <c r="C1028" s="18"/>
+      <c r="A1028" s="17"/>
+      <c r="B1028" s="17"/>
+      <c r="C1028" s="17"/>
     </row>
     <row r="1029" spans="1:3">
-      <c r="A1029" s="18"/>
-      <c r="B1029" s="18"/>
-      <c r="C1029" s="18"/>
+      <c r="A1029" s="17"/>
+      <c r="B1029" s="17"/>
+      <c r="C1029" s="17"/>
     </row>
     <row r="1030" spans="1:4">
-      <c r="A1030" s="18"/>
-      <c r="C1030" s="18"/>
-      <c r="D1030" s="19"/>
+      <c r="A1030" s="17"/>
+      <c r="C1030" s="17"/>
+      <c r="D1030" s="18"/>
     </row>
     <row r="1031" spans="1:3">
-      <c r="A1031" s="18"/>
-      <c r="C1031" s="18"/>
+      <c r="A1031" s="17"/>
+      <c r="C1031" s="17"/>
     </row>
     <row r="1032" spans="1:3">
-      <c r="A1032" s="18"/>
-      <c r="C1032" s="18"/>
+      <c r="A1032" s="17"/>
+      <c r="C1032" s="17"/>
     </row>
     <row r="1033" spans="1:3">
-      <c r="A1033" s="18"/>
-      <c r="C1033" s="18"/>
+      <c r="A1033" s="17"/>
+      <c r="C1033" s="17"/>
     </row>
     <row r="1034" spans="1:4">
-      <c r="A1034" s="18"/>
-      <c r="C1034" s="18"/>
-      <c r="D1034" s="19"/>
+      <c r="A1034" s="17"/>
+      <c r="C1034" s="17"/>
+      <c r="D1034" s="18"/>
     </row>
     <row r="1035" spans="1:3">
-      <c r="A1035" s="18"/>
-      <c r="C1035" s="18"/>
+      <c r="A1035" s="17"/>
+      <c r="C1035" s="17"/>
     </row>
     <row r="1036" spans="1:3">
-      <c r="A1036" s="18"/>
-      <c r="C1036" s="18"/>
+      <c r="A1036" s="17"/>
+      <c r="C1036" s="17"/>
     </row>
     <row r="1037" spans="1:3">
-      <c r="A1037" s="18"/>
-      <c r="C1037" s="18"/>
+      <c r="A1037" s="17"/>
+      <c r="C1037" s="17"/>
     </row>
     <row r="1038" spans="1:3">
-      <c r="A1038" s="18"/>
-      <c r="C1038" s="18"/>
+      <c r="A1038" s="17"/>
+      <c r="C1038" s="17"/>
     </row>
     <row r="1039" spans="1:3">
-      <c r="A1039" s="18"/>
-      <c r="C1039" s="18"/>
+      <c r="A1039" s="17"/>
+      <c r="C1039" s="17"/>
     </row>
     <row r="1040" spans="1:3">
-      <c r="A1040" s="18"/>
-      <c r="B1040" s="18"/>
-      <c r="C1040" s="18"/>
+      <c r="A1040" s="17"/>
+      <c r="B1040" s="17"/>
+      <c r="C1040" s="17"/>
     </row>
     <row r="1041" spans="1:4">
-      <c r="A1041" s="18"/>
-      <c r="C1041" s="18"/>
-      <c r="D1041" s="19"/>
+      <c r="A1041" s="17"/>
+      <c r="C1041" s="17"/>
+      <c r="D1041" s="18"/>
     </row>
     <row r="1042" spans="2:3">
-      <c r="B1042" s="18"/>
-      <c r="C1042" s="18"/>
+      <c r="B1042" s="17"/>
+      <c r="C1042" s="17"/>
     </row>
     <row r="1043" spans="1:3">
-      <c r="A1043" s="18"/>
-      <c r="B1043" s="18"/>
-      <c r="C1043" s="18"/>
+      <c r="A1043" s="17"/>
+      <c r="B1043" s="17"/>
+      <c r="C1043" s="17"/>
     </row>
     <row r="1044" spans="1:3">
-      <c r="A1044" s="18"/>
-      <c r="C1044" s="18"/>
+      <c r="A1044" s="17"/>
+      <c r="C1044" s="17"/>
     </row>
     <row r="1045" spans="1:3">
-      <c r="A1045" s="18"/>
-      <c r="C1045" s="18"/>
+      <c r="A1045" s="17"/>
+      <c r="C1045" s="17"/>
     </row>
     <row r="1046" spans="1:3">
-      <c r="A1046" s="18"/>
-      <c r="B1046" s="18"/>
-      <c r="C1046" s="18"/>
+      <c r="A1046" s="17"/>
+      <c r="B1046" s="17"/>
+      <c r="C1046" s="17"/>
     </row>
     <row r="1047" spans="1:3">
-      <c r="A1047" s="18"/>
-      <c r="C1047" s="18"/>
+      <c r="A1047" s="17"/>
+      <c r="C1047" s="17"/>
     </row>
     <row r="1048" spans="1:3">
-      <c r="A1048" s="18"/>
-      <c r="C1048" s="18"/>
+      <c r="A1048" s="17"/>
+      <c r="C1048" s="17"/>
     </row>
     <row r="1049" spans="1:4">
-      <c r="A1049" s="18"/>
-      <c r="B1049" s="18"/>
-      <c r="C1049" s="18"/>
-      <c r="D1049" s="19"/>
+      <c r="A1049" s="17"/>
+      <c r="B1049" s="17"/>
+      <c r="C1049" s="17"/>
+      <c r="D1049" s="18"/>
     </row>
     <row r="1050" spans="1:3">
-      <c r="A1050" s="18"/>
-      <c r="B1050" s="18"/>
-      <c r="C1050" s="18"/>
+      <c r="A1050" s="17"/>
+      <c r="B1050" s="17"/>
+      <c r="C1050" s="17"/>
     </row>
     <row r="1051" spans="1:3">
-      <c r="A1051" s="18"/>
-      <c r="B1051" s="18"/>
-      <c r="C1051" s="18"/>
+      <c r="A1051" s="17"/>
+      <c r="B1051" s="17"/>
+      <c r="C1051" s="17"/>
     </row>
     <row r="1052" spans="1:3">
-      <c r="A1052" s="18"/>
-      <c r="C1052" s="18"/>
+      <c r="A1052" s="17"/>
+      <c r="C1052" s="17"/>
     </row>
     <row r="1053" spans="1:3">
-      <c r="A1053" s="37"/>
-      <c r="B1053" s="38"/>
-      <c r="C1053" s="18"/>
+      <c r="A1053" s="36"/>
+      <c r="B1053" s="37"/>
+      <c r="C1053" s="17"/>
     </row>
     <row r="1054" spans="1:4">
-      <c r="A1054" s="39"/>
-      <c r="B1054" s="18"/>
-      <c r="C1054" s="18"/>
-      <c r="D1054" s="19"/>
+      <c r="A1054" s="38"/>
+      <c r="B1054" s="17"/>
+      <c r="C1054" s="17"/>
+      <c r="D1054" s="18"/>
     </row>
     <row r="1055" spans="1:3">
-      <c r="A1055" s="18"/>
-      <c r="C1055" s="18"/>
+      <c r="A1055" s="17"/>
+      <c r="C1055" s="17"/>
     </row>
     <row r="1056" spans="1:3">
-      <c r="A1056" s="18"/>
-      <c r="C1056" s="18"/>
+      <c r="A1056" s="17"/>
+      <c r="C1056" s="17"/>
     </row>
     <row r="1057" spans="1:3">
-      <c r="A1057" s="18"/>
-      <c r="C1057" s="18"/>
+      <c r="A1057" s="17"/>
+      <c r="C1057" s="17"/>
     </row>
     <row r="1058" spans="1:3">
-      <c r="A1058" s="18"/>
-      <c r="B1058" s="18"/>
-      <c r="C1058" s="18"/>
+      <c r="A1058" s="17"/>
+      <c r="B1058" s="17"/>
+      <c r="C1058" s="17"/>
     </row>
     <row r="1059" spans="1:3">
-      <c r="A1059" s="18"/>
-      <c r="C1059" s="18"/>
+      <c r="A1059" s="17"/>
+      <c r="C1059" s="17"/>
     </row>
     <row r="1060" spans="1:4">
-      <c r="A1060" s="18"/>
-      <c r="B1060" s="18"/>
-      <c r="C1060" s="18"/>
-      <c r="D1060" s="19"/>
+      <c r="A1060" s="17"/>
+      <c r="B1060" s="17"/>
+      <c r="C1060" s="17"/>
+      <c r="D1060" s="18"/>
     </row>
     <row r="1061" spans="1:3">
-      <c r="A1061" s="18"/>
-      <c r="C1061" s="18"/>
+      <c r="A1061" s="17"/>
+      <c r="C1061" s="17"/>
     </row>
     <row r="1062" spans="1:3">
-      <c r="A1062" s="18"/>
-      <c r="B1062" s="18"/>
-      <c r="C1062" s="18"/>
+      <c r="A1062" s="17"/>
+      <c r="B1062" s="17"/>
+      <c r="C1062" s="17"/>
     </row>
     <row r="1063" spans="1:4">
-      <c r="A1063" s="18"/>
-      <c r="B1063" s="18"/>
-      <c r="C1063" s="18"/>
-      <c r="D1063" s="19"/>
+      <c r="A1063" s="17"/>
+      <c r="B1063" s="17"/>
+      <c r="C1063" s="17"/>
+      <c r="D1063" s="18"/>
     </row>
     <row r="1064" spans="1:4">
-      <c r="A1064" s="18"/>
-      <c r="B1064" s="18"/>
-      <c r="C1064" s="18"/>
-      <c r="D1064" s="19"/>
+      <c r="A1064" s="17"/>
+      <c r="B1064" s="17"/>
+      <c r="C1064" s="17"/>
+      <c r="D1064" s="18"/>
     </row>
     <row r="1065" spans="1:4">
-      <c r="A1065" s="18"/>
-      <c r="B1065" s="18"/>
-      <c r="C1065" s="18"/>
-      <c r="D1065" s="19"/>
+      <c r="A1065" s="17"/>
+      <c r="B1065" s="17"/>
+      <c r="C1065" s="17"/>
+      <c r="D1065" s="18"/>
     </row>
     <row r="1066" spans="1:4">
-      <c r="A1066" s="18"/>
-      <c r="B1066" s="18"/>
-      <c r="C1066" s="18"/>
-      <c r="D1066" s="19"/>
+      <c r="A1066" s="17"/>
+      <c r="B1066" s="17"/>
+      <c r="C1066" s="17"/>
+      <c r="D1066" s="18"/>
     </row>
     <row r="1067" spans="2:3">
-      <c r="B1067" s="18"/>
-      <c r="C1067" s="18"/>
+      <c r="B1067" s="17"/>
+      <c r="C1067" s="17"/>
     </row>
     <row r="1068" spans="1:3">
-      <c r="A1068" s="18"/>
-      <c r="B1068" s="18"/>
-      <c r="C1068" s="18"/>
+      <c r="A1068" s="17"/>
+      <c r="B1068" s="17"/>
+      <c r="C1068" s="17"/>
     </row>
     <row r="1069" spans="1:3">
-      <c r="A1069" s="18"/>
-      <c r="B1069" s="18"/>
-      <c r="C1069" s="18"/>
+      <c r="A1069" s="17"/>
+      <c r="B1069" s="17"/>
+      <c r="C1069" s="17"/>
     </row>
     <row r="1070" spans="1:3">
-      <c r="A1070" s="18"/>
-      <c r="B1070" s="18"/>
-      <c r="C1070" s="18"/>
+      <c r="A1070" s="17"/>
+      <c r="B1070" s="17"/>
+      <c r="C1070" s="17"/>
     </row>
     <row r="1071" spans="1:3">
-      <c r="A1071" s="18"/>
-      <c r="B1071" s="18"/>
-      <c r="C1071" s="18"/>
+      <c r="A1071" s="17"/>
+      <c r="B1071" s="17"/>
+      <c r="C1071" s="17"/>
     </row>
     <row r="1072" spans="1:3">
-      <c r="A1072" s="18"/>
-      <c r="B1072" s="18"/>
-      <c r="C1072" s="18"/>
+      <c r="A1072" s="17"/>
+      <c r="B1072" s="17"/>
+      <c r="C1072" s="17"/>
     </row>
     <row r="1073" spans="1:4">
-      <c r="A1073" s="18"/>
-      <c r="B1073" s="18"/>
-      <c r="C1073" s="18"/>
-      <c r="D1073" s="19"/>
+      <c r="A1073" s="17"/>
+      <c r="B1073" s="17"/>
+      <c r="C1073" s="17"/>
+      <c r="D1073" s="18"/>
     </row>
     <row r="1074" spans="1:4">
-      <c r="A1074" s="18"/>
-      <c r="B1074" s="18"/>
-      <c r="C1074" s="18"/>
-      <c r="D1074" s="19"/>
+      <c r="A1074" s="17"/>
+      <c r="B1074" s="17"/>
+      <c r="C1074" s="17"/>
+      <c r="D1074" s="18"/>
     </row>
     <row r="1075" spans="1:3">
-      <c r="A1075" s="18"/>
-      <c r="B1075" s="18"/>
-      <c r="C1075" s="18"/>
+      <c r="A1075" s="17"/>
+      <c r="B1075" s="17"/>
+      <c r="C1075" s="17"/>
     </row>
     <row r="1076" spans="1:4">
-      <c r="A1076" s="18"/>
-      <c r="B1076" s="18"/>
-      <c r="C1076" s="18"/>
-      <c r="D1076" s="19"/>
+      <c r="A1076" s="17"/>
+      <c r="B1076" s="17"/>
+      <c r="C1076" s="17"/>
+      <c r="D1076" s="18"/>
     </row>
     <row r="1077" spans="1:4">
-      <c r="A1077" s="18"/>
-      <c r="B1077" s="18"/>
-      <c r="C1077" s="18"/>
-      <c r="D1077" s="19"/>
+      <c r="A1077" s="17"/>
+      <c r="B1077" s="17"/>
+      <c r="C1077" s="17"/>
+      <c r="D1077" s="18"/>
     </row>
     <row r="1078" spans="1:4">
-      <c r="A1078" s="18"/>
-      <c r="B1078" s="18"/>
-      <c r="C1078" s="18"/>
-      <c r="D1078" s="19"/>
+      <c r="A1078" s="17"/>
+      <c r="B1078" s="17"/>
+      <c r="C1078" s="17"/>
+      <c r="D1078" s="18"/>
     </row>
     <row r="1079" spans="1:3">
-      <c r="A1079" s="18"/>
-      <c r="B1079" s="18"/>
-      <c r="C1079" s="18"/>
+      <c r="A1079" s="17"/>
+      <c r="B1079" s="17"/>
+      <c r="C1079" s="17"/>
     </row>
     <row r="1080" spans="1:4">
-      <c r="A1080" s="18"/>
-      <c r="C1080" s="18"/>
-      <c r="D1080" s="19"/>
+      <c r="A1080" s="17"/>
+      <c r="C1080" s="17"/>
+      <c r="D1080" s="18"/>
     </row>
     <row r="1081" spans="1:3">
-      <c r="A1081" s="18"/>
-      <c r="B1081" s="18"/>
-      <c r="C1081" s="18"/>
+      <c r="A1081" s="17"/>
+      <c r="B1081" s="17"/>
+      <c r="C1081" s="17"/>
     </row>
     <row r="1083" spans="1:3">
-      <c r="A1083" s="18"/>
-      <c r="B1083" s="18"/>
-      <c r="C1083" s="18"/>
+      <c r="A1083" s="17"/>
+      <c r="B1083" s="17"/>
+      <c r="C1083" s="17"/>
     </row>
     <row r="1084" spans="1:3">
-      <c r="A1084" s="18"/>
-      <c r="B1084" s="18"/>
-      <c r="C1084" s="18"/>
+      <c r="A1084" s="17"/>
+      <c r="B1084" s="17"/>
+      <c r="C1084" s="17"/>
     </row>
     <row r="1085" spans="1:3">
-      <c r="A1085" s="18"/>
-      <c r="B1085" s="18"/>
-      <c r="C1085" s="18"/>
+      <c r="A1085" s="17"/>
+      <c r="B1085" s="17"/>
+      <c r="C1085" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <autoFilter ref="A1:E576">
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:F1085">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:F576">
+    <sortCondition ref="B147"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C468 C472 C473 C476 C477 C478 C479 C499 C500 C501 C502 C503 C514 C515 C516 C517 C518 C519 C520 C521 C522 C523 C524 C525 C526 C527 C528 C529 C530 C531 C532 C533 C534 C535 C536 C537 C538 C539 C540 C541 C542 C543 C544 C545 C546 C547 C548 C549 C550 C551 C552 C553 C558 C562 C568 C569 C570 C571 C572 C573 C574 C575 C576 C1:C68 C69:C462 C463:C467 C469:C471 C474:C475 C480:C498 C504:C513 C554:C557 C559:C561 C563:C567 C577:C1048576">
